--- a/test_env/Databank.xlsx
+++ b/test_env/Databank.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,28 +545,28 @@
         <v>2007</v>
       </c>
       <c r="E2" t="n">
-        <v>15.43320250937053</v>
+        <v>15.44949722869756</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3608162064583997</v>
+        <v>0.3604359806894223</v>
       </c>
       <c r="G2" t="n">
-        <v>1.313897456951582</v>
+        <v>1.388050913903164</v>
       </c>
       <c r="H2" t="n">
         <v>316.7033997655334</v>
       </c>
       <c r="I2" t="n">
-        <v>19.06595560963554</v>
+        <v>19.08608587068615</v>
       </c>
       <c r="J2" t="n">
         <v>7.526701183431951</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06926141814923113</v>
+        <v>0.04975383104939486</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6105961662648269</v>
+        <v>0.85</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -574,13 +574,13 @@
         <v>0.5606702594179432</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02940742930239366</v>
+        <v>0.02937643994487588</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02177240573908319</v>
+        <v>0.01564017349958413</v>
       </c>
       <c r="R2" t="n">
-        <v>0.007635023563310474</v>
+        <v>0.01373626644529175</v>
       </c>
     </row>
     <row r="3">
@@ -603,46 +603,46 @@
         <v>1988</v>
       </c>
       <c r="E3" t="n">
-        <v>16.93021761708826</v>
+        <v>16.98448384262995</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3289631649969288</v>
+        <v>0.3279146716513309</v>
       </c>
       <c r="G3" t="n">
-        <v>1.18042831747415</v>
+        <v>1.208856634948301</v>
       </c>
       <c r="H3" t="n">
         <v>216.9230769230769</v>
       </c>
       <c r="I3" t="n">
-        <v>16.0889326877759</v>
+        <v>16.14050235272094</v>
       </c>
       <c r="J3" t="n">
         <v>10.47091503267974</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07432842137146294</v>
+        <v>0.0357640395200414</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4089880160391313</v>
+        <v>0.85</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7875398225671778</v>
+        <v>0.7884268208877393</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4177666829247555</v>
+        <v>0.4159804541870911</v>
       </c>
       <c r="O3" t="n">
         <v>0.4947695273984242</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03075753659652314</v>
+        <v>0.03065950412395516</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0181953660366935</v>
+        <v>0.008754925478180076</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01256217055982965</v>
+        <v>0.02190457864577508</v>
       </c>
     </row>
     <row r="4">
@@ -665,10 +665,10 @@
         <v>2003</v>
       </c>
       <c r="E4" t="n">
-        <v>17.06852430912938</v>
+        <v>17.12629865786187</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3267149069360633</v>
+        <v>0.3256334273699503</v>
       </c>
       <c r="G4" t="n">
         <v>1.398059339158471</v>
@@ -681,16 +681,16 @@
         <v>9.500081699346406</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0708105207348422</v>
+        <v>0.03941884195222423</v>
       </c>
       <c r="L4" t="n">
-        <v>0.473178495394174</v>
+        <v>0.85</v>
       </c>
       <c r="M4" t="n">
-        <v>0.787206563979488</v>
+        <v>0.7875363049960581</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4149194680259145</v>
+        <v>0.4133826953762283</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
@@ -717,46 +717,46 @@
         <v>1984</v>
       </c>
       <c r="E5" t="n">
-        <v>17.0052969141412</v>
+        <v>17.06146751190997</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3274841734821617</v>
+        <v>0.3264073623698464</v>
       </c>
       <c r="G5" t="n">
-        <v>1.381799275308872</v>
+        <v>1.445998550617744</v>
       </c>
       <c r="H5" t="n">
         <v>262.8937198067633</v>
       </c>
       <c r="I5" t="n">
-        <v>12.47677361424386</v>
+        <v>12.51798593977255</v>
       </c>
       <c r="J5" t="n">
         <v>7.729726538461537</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06909778055841728</v>
+        <v>0.04844702036694401</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5959665705483501</v>
+        <v>0.85</v>
       </c>
       <c r="M5" t="n">
-        <v>0.77581380120711</v>
+        <v>0.7738497139667743</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4221345245372273</v>
+        <v>0.4218123005810776</v>
       </c>
       <c r="O5" t="n">
         <v>0.5228820344991163</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04191234779581347</v>
+        <v>0.04177453447381422</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01889172167252729</v>
+        <v>0.01324568773756474</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02302062612328618</v>
+        <v>0.02852884673624948</v>
       </c>
     </row>
     <row r="6">
@@ -779,10 +779,10 @@
         <v>1974</v>
       </c>
       <c r="E6" t="n">
-        <v>17.53044094005231</v>
+        <v>17.59993171711697</v>
       </c>
       <c r="F6" t="n">
-        <v>0.317651984771069</v>
+        <v>0.3163981105045663</v>
       </c>
       <c r="G6" t="n">
         <v>1.622307954742745</v>
@@ -793,16 +793,16 @@
         <v>7.729726538461538</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06909778055841728</v>
+        <v>0.04844702036694401</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5959665705483501</v>
+        <v>0.85</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6947619834236793</v>
+        <v>0.6919642352576293</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4573871323063512</v>
+        <v>0.4574302262652493</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -829,10 +829,10 @@
         <v>1983</v>
       </c>
       <c r="E7" t="n">
-        <v>17.23419974371713</v>
+        <v>17.29617641863968</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3233614307742467</v>
+        <v>0.3222141009797295</v>
       </c>
       <c r="G7" t="n">
         <v>1.758276131082078</v>
@@ -845,10 +845,10 @@
         <v>8.800045662100455</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06945704834087475</v>
+        <v>0.04255457680777189</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5207735017630979</v>
+        <v>0.85</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -877,10 +877,10 @@
         <v>1985</v>
       </c>
       <c r="E8" t="n">
-        <v>16.74305004749786</v>
+        <v>16.79256880289362</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3326167114705707</v>
+        <v>0.3316374138621753</v>
       </c>
       <c r="G8" t="n">
         <v>1.4459</v>
@@ -893,10 +893,10 @@
         <v>8.800045662100455</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06945704834087475</v>
+        <v>0.04255457680777189</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5207735017630979</v>
+        <v>0.85</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -925,10 +925,10 @@
         <v>1996</v>
       </c>
       <c r="E9" t="n">
-        <v>16.73439000062208</v>
+        <v>16.78368909556014</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3327736783204752</v>
+        <v>0.3317970744134361</v>
       </c>
       <c r="G9" t="n">
         <v>1.368187134684253</v>
@@ -937,34 +937,34 @@
         <v>254.259375</v>
       </c>
       <c r="I9" t="n">
-        <v>14.92561917824126</v>
+        <v>14.96958967951738</v>
       </c>
       <c r="J9" t="n">
         <v>10.47091503267974</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07432842137146294</v>
+        <v>0.0357640395200414</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4089880160391313</v>
+        <v>0.85</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7857422177043949</v>
+        <v>0.786566975728842</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4235456112528866</v>
+        <v>0.4218695179262226</v>
       </c>
       <c r="O9" t="n">
         <v>0.5082318752526555</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03405292523501994</v>
+        <v>0.03395298878572361</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01919900440938573</v>
+        <v>0.009237838498024946</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01485392082563421</v>
+        <v>0.02471515028769867</v>
       </c>
     </row>
     <row r="10">
@@ -987,10 +987,10 @@
         <v>2016</v>
       </c>
       <c r="E10" t="n">
-        <v>14.70524324472027</v>
+        <v>14.70307341442506</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3787405934088464</v>
+        <v>0.3788000933877697</v>
       </c>
       <c r="G10" t="n">
         <v>0.8913640923736511</v>
@@ -1003,16 +1003,16 @@
         <v>10.47091503267974</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07432842137146294</v>
+        <v>0.0357640395200414</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4089880160391313</v>
+        <v>0.85</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7823007824716655</v>
+        <v>0.8207520759160561</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4779608511761468</v>
+        <v>0.4615118034052478</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
@@ -1039,10 +1039,10 @@
         <v>2007</v>
       </c>
       <c r="E11" t="n">
-        <v>14.96037178453541</v>
+        <v>14.96467324159407</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3722781387958071</v>
+        <v>0.3721744422143206</v>
       </c>
       <c r="G11" t="n">
         <v>0.8446380134094421</v>
@@ -1055,16 +1055,16 @@
         <v>10.47091503267974</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07432842137146294</v>
+        <v>0.0357640395200414</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4089880160391313</v>
+        <v>0.8499999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7980108933251184</v>
+        <v>0.8286990377160699</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4611617741938108</v>
+        <v>0.4490888696907527</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1091,10 +1091,10 @@
         <v>1994</v>
       </c>
       <c r="E12" t="n">
-        <v>17.40187074957709</v>
+        <v>17.4681003679791</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3200086624974675</v>
+        <v>0.3187961184808232</v>
       </c>
       <c r="G12" t="n">
         <v>1.10484603787207</v>
@@ -1103,34 +1103,34 @@
         <v>223.6363636363636</v>
       </c>
       <c r="I12" t="n">
-        <v>18.18686421283599</v>
+        <v>18.25608143057533</v>
       </c>
       <c r="J12" t="n">
         <v>10.47091503267974</v>
       </c>
       <c r="K12" t="n">
-        <v>0.07432842137146292</v>
+        <v>0.03576403952004141</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4089880160391313</v>
+        <v>0.85</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7744295482916684</v>
+        <v>0.7744272390050924</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4132785123086902</v>
+        <v>0.4117274656951814</v>
       </c>
       <c r="O12" t="n">
         <v>0.6293991126986668</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03460923532043479</v>
+        <v>0.03447809755409774</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02944470189405778</v>
+        <v>0.01416768260060511</v>
       </c>
       <c r="R12" t="n">
-        <v>0.00516453342637701</v>
+        <v>0.02031041495349263</v>
       </c>
     </row>
     <row r="13">
@@ -1153,10 +1153,10 @@
         <v>1998</v>
       </c>
       <c r="E13" t="n">
-        <v>17.00725174571351</v>
+        <v>17.06347192741687</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3274301543797877</v>
+        <v>0.3263519800477687</v>
       </c>
       <c r="G13" t="n">
         <v>1.40477492852807</v>
@@ -1165,34 +1165,34 @@
         <v>297.3727422003284</v>
       </c>
       <c r="I13" t="n">
-        <v>19.58680413415729</v>
+        <v>19.65155143747677</v>
       </c>
       <c r="J13" t="n">
         <v>10.05555862831858</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07256900018761711</v>
+        <v>0.03724131427021195</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4362071552293711</v>
+        <v>0.8499999999999999</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7695826625862183</v>
+        <v>0.7712140421803801</v>
       </c>
       <c r="N13" t="n">
-        <v>0.42541337328877</v>
+        <v>0.4231819493648868</v>
       </c>
       <c r="O13" t="n">
         <v>0.5514210365893721</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02815390180118227</v>
+        <v>0.02806119557403067</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02206570462357384</v>
+        <v>0.01132378616703615</v>
       </c>
       <c r="R13" t="n">
-        <v>0.006088197177608425</v>
+        <v>0.01673740940699451</v>
       </c>
     </row>
     <row r="14">
@@ -1215,10 +1215,10 @@
         <v>1994</v>
       </c>
       <c r="E14" t="n">
-        <v>16.93478392115404</v>
+        <v>16.98916597013821</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3288430457238277</v>
+        <v>0.3277915852504419</v>
       </c>
       <c r="G14" t="n">
         <v>1.229479581294727</v>
@@ -1227,34 +1227,34 @@
         <v>283.4848484848485</v>
       </c>
       <c r="I14" t="n">
-        <v>19.20161078283915</v>
+        <v>19.26327220958241</v>
       </c>
       <c r="J14" t="n">
         <v>10.05555862831858</v>
       </c>
       <c r="K14" t="n">
-        <v>0.07256900018761711</v>
+        <v>0.03724131427021195</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4362071552293711</v>
+        <v>0.85</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7845096700540266</v>
+        <v>0.7859719165495915</v>
       </c>
       <c r="N14" t="n">
-        <v>0.4195035194860826</v>
+        <v>0.4170595243137388</v>
       </c>
       <c r="O14" t="n">
         <v>0.5423064496116281</v>
       </c>
       <c r="P14" t="n">
-        <v>0.02824499207860398</v>
+        <v>0.02815468001901222</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02134227338241431</v>
+        <v>0.01095253218620056</v>
       </c>
       <c r="R14" t="n">
-        <v>0.006902718696189666</v>
+        <v>0.01720214783281166</v>
       </c>
     </row>
     <row r="15">
@@ -1277,10 +1277,10 @@
         <v>2015</v>
       </c>
       <c r="E15" t="n">
-        <v>15.06144301625367</v>
+        <v>15.06830812606609</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3697288486574786</v>
+        <v>0.3695610847439589</v>
       </c>
       <c r="G15" t="n">
         <v>1.139953161890594</v>
@@ -1293,16 +1293,16 @@
         <v>9.464023702031604</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07071810757886755</v>
+        <v>0.03956902801916749</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4756020058763988</v>
+        <v>0.85</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8032223930137321</v>
+        <v>0.8222369055324672</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4603193042033263</v>
+        <v>0.4494617877794935</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
@@ -1329,10 +1329,10 @@
         <v>1999</v>
       </c>
       <c r="E16" t="n">
-        <v>17.37291223689354</v>
+        <v>17.43840732807625</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3205466619974713</v>
+        <v>0.3193437109197591</v>
       </c>
       <c r="G16" t="n">
         <v>1.789791513631841</v>
@@ -1341,16 +1341,18 @@
         <v>230.1791044776119</v>
       </c>
       <c r="I16" t="n">
-        <v>14.32633353232614</v>
+        <v>14.38034315997054</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M16" t="n">
-        <v>0.7428085385234342</v>
+        <v>0.7402201220274384</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4315439284003647</v>
+        <v>0.4314273723798594</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -1377,10 +1379,10 @@
         <v>1964</v>
       </c>
       <c r="E17" t="n">
-        <v>22.29658752468755</v>
+        <v>22.4869707120729</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2502049072172365</v>
+        <v>0.2481022740103791</v>
       </c>
       <c r="G17" t="n">
         <v>2.638523689003425</v>
@@ -1393,10 +1395,10 @@
         <v>7.083179084967321</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06988900090861865</v>
+        <v>0.05286922927510331</v>
       </c>
       <c r="L17" t="n">
-        <v>0.643003109210222</v>
+        <v>0.85</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1425,10 +1427,10 @@
         <v>1997</v>
       </c>
       <c r="E18" t="n">
-        <v>17.4298695281101</v>
+        <v>17.49680933025547</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3195219571267848</v>
+        <v>0.3183014533168171</v>
       </c>
       <c r="G18" t="n">
         <v>1.275189262798983</v>
@@ -1437,34 +1439,34 @@
         <v>256.0201342281879</v>
       </c>
       <c r="I18" t="n">
-        <v>17.18123185907558</v>
+        <v>17.24721676271502</v>
       </c>
       <c r="J18" t="n">
         <v>10.28028972712681</v>
       </c>
       <c r="K18" t="n">
-        <v>0.07347046577835042</v>
+        <v>0.03642720477532846</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4214363381394691</v>
+        <v>0.85</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7743146221001312</v>
+        <v>0.7731880481376434</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4126721871514596</v>
+        <v>0.4116907770647985</v>
       </c>
       <c r="O18" t="n">
         <v>0.463417647839471</v>
       </c>
       <c r="P18" t="n">
-        <v>0.02697609871696547</v>
+        <v>0.02687305593531069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01577821720135307</v>
+        <v>0.007822957740832262</v>
       </c>
       <c r="R18" t="n">
-        <v>0.01119788151561239</v>
+        <v>0.01905009819447843</v>
       </c>
     </row>
     <row r="19">
@@ -1484,31 +1486,29 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="E19" t="n">
-        <v>21.1641432847127</v>
+        <v>21.3258022372695</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2631075305401213</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.5574</v>
-      </c>
+        <v>0.2611130598363375</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
         <v>303.2191780821918</v>
       </c>
       <c r="I19" t="n">
-        <v>11.658509376968</v>
+        <v>15.8095</v>
       </c>
       <c r="J19" t="n">
         <v>6.972213427561837</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07010634719684593</v>
+        <v>0.05371066490296884</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6512115805910579</v>
+        <v>0.85</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1516,13 +1516,13 @@
         <v>0.4120313731354763</v>
       </c>
       <c r="P19" t="n">
-        <v>0.03534168561458346</v>
+        <v>0.03507378010676342</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01190194421927021</v>
+        <v>0.009118451655455951</v>
       </c>
       <c r="R19" t="n">
-        <v>0.02343974139531325</v>
+        <v>0.02595532845130747</v>
       </c>
     </row>
     <row r="20">
@@ -1545,13 +1545,13 @@
         <v>1984</v>
       </c>
       <c r="E20" t="n">
-        <v>17.92184518420956</v>
+        <v>18.00126385619849</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3107079215958889</v>
+        <v>0.3093371606238886</v>
       </c>
       <c r="G20" t="n">
-        <v>1.437114976074366</v>
+        <v>1.485729952148732</v>
       </c>
       <c r="H20" t="n">
         <v>220.2684563758389</v>
@@ -1561,16 +1561,16 @@
         <v>9.16140597539543</v>
       </c>
       <c r="K20" t="n">
-        <v>0.07004132113097525</v>
+        <v>0.04087606422480258</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4960593836616916</v>
+        <v>0.85</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7650474555438759</v>
+        <v>0.7622966041004579</v>
       </c>
       <c r="N20" t="n">
-        <v>0.4061292872129754</v>
+        <v>0.4057966329868958</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
@@ -1597,46 +1597,46 @@
         <v>1990</v>
       </c>
       <c r="E21" t="n">
-        <v>17.27063034789124</v>
+        <v>17.33353107822624</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3224892918164151</v>
+        <v>0.3213218797283361</v>
       </c>
       <c r="G21" t="n">
-        <v>1.653334737118634</v>
+        <v>1.698569474237269</v>
       </c>
       <c r="H21" t="n">
         <v>238.2310344827586</v>
       </c>
       <c r="I21" t="n">
-        <v>13.04461555857301</v>
+        <v>13.09212487520162</v>
       </c>
       <c r="J21" t="n">
         <v>10.15596931026777</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07308944970641985</v>
+        <v>0.0369215224919367</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4297277876419383</v>
+        <v>0.85</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7686496120058015</v>
+        <v>0.7678757320555913</v>
       </c>
       <c r="N21" t="n">
-        <v>0.419564396149539</v>
+        <v>0.41845984475682</v>
       </c>
       <c r="O21" t="n">
         <v>0.4168299250063096</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03191212435553236</v>
+        <v>0.03179558937287371</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01280895576745898</v>
+        <v>0.006555980881650801</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01910316858807337</v>
+        <v>0.02523960849122291</v>
       </c>
     </row>
     <row r="22">
@@ -1659,28 +1659,30 @@
         <v>1983</v>
       </c>
       <c r="E22" t="n">
-        <v>17.03702084174821</v>
+        <v>17.09399611096489</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3269622625045699</v>
+        <v>0.3258776789624909</v>
       </c>
       <c r="G22" t="n">
-        <v>1.515348347251124</v>
+        <v>1.608396694502249</v>
       </c>
       <c r="H22" t="n">
         <v>291.8706896551724</v>
       </c>
       <c r="I22" t="n">
-        <v>15.32117074504306</v>
+        <v>15.37240786190885</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M22" t="n">
-        <v>0.7976655566201079</v>
+        <v>0.7966908097823399</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4096332953583463</v>
+        <v>0.4090125238774881</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -1707,10 +1709,10 @@
         <v>2011</v>
       </c>
       <c r="E23" t="n">
-        <v>15.23439758493073</v>
+        <v>15.24564965479821</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3655580184167814</v>
+        <v>0.3652902167156366</v>
       </c>
       <c r="G23" t="n">
         <v>1.256752661572447</v>
@@ -1719,16 +1721,18 @@
         <v>308.9370078740158</v>
       </c>
       <c r="I23" t="n">
-        <v>20.36362652364521</v>
+        <v>20.37866702308878</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M23" t="n">
-        <v>0.8213474439946757</v>
+        <v>0.8376106428239523</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4404966625703937</v>
+        <v>0.4361115019272833</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
@@ -1755,10 +1759,10 @@
         <v>2014</v>
       </c>
       <c r="E24" t="n">
-        <v>15.34788609766499</v>
+        <v>15.36201678228015</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3628500358588245</v>
+        <v>0.3625179937329166</v>
       </c>
       <c r="G24" t="n">
         <v>1.152019941095649</v>
@@ -1767,16 +1771,18 @@
         <v>306.7857142857143</v>
       </c>
       <c r="I24" t="n">
-        <v>20.49477251382367</v>
+        <v>20.51364189849394</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M24" t="n">
-        <v>0.8131065869448253</v>
+        <v>0.829636994027248</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4429206750067561</v>
+        <v>0.4369614149693229</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
@@ -1803,10 +1809,10 @@
         <v>1968</v>
       </c>
       <c r="E25" t="n">
-        <v>22.56590368873213</v>
+        <v>22.76311802988742</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2468603070090259</v>
+        <v>0.2447247173326018</v>
       </c>
       <c r="G25" t="n">
         <v>2.404629454850812</v>
@@ -1819,10 +1825,10 @@
         <v>5.988823594024605</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07322060085418317</v>
+        <v>0.06253018028672548</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7258975291607443</v>
+        <v>0.85</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1851,10 +1857,10 @@
         <v>1998</v>
       </c>
       <c r="E26" t="n">
-        <v>17.65240778664517</v>
+        <v>17.72499222979877</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3154823006935708</v>
+        <v>0.3141917861307944</v>
       </c>
       <c r="G26" t="n">
         <v>1.119767569977147</v>
@@ -1863,34 +1869,34 @@
         <v>217.6984126984127</v>
       </c>
       <c r="I26" t="n">
-        <v>17.0414995351888</v>
+        <v>17.11157200174488</v>
       </c>
       <c r="J26" t="n">
         <v>10.28028972712681</v>
       </c>
       <c r="K26" t="n">
-        <v>0.07347046577835042</v>
+        <v>0.03642720477532846</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4214363381394692</v>
+        <v>0.85</v>
       </c>
       <c r="M26" t="n">
-        <v>0.768571330905398</v>
+        <v>0.7670886989745277</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4104931836603591</v>
+        <v>0.4096026761482811</v>
       </c>
       <c r="O26" t="n">
         <v>0.5225071472727238</v>
       </c>
       <c r="P26" t="n">
-        <v>0.03066404246306213</v>
+        <v>0.03053860787207184</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0200584450952155</v>
+        <v>0.009945126646704961</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01060559736784663</v>
+        <v>0.02059348122536688</v>
       </c>
     </row>
     <row r="27">
@@ -1913,10 +1919,10 @@
         <v>2001</v>
       </c>
       <c r="E27" t="n">
-        <v>17.64405223065753</v>
+        <v>17.71642473670745</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3156346134069153</v>
+        <v>0.3143467514972009</v>
       </c>
       <c r="G27" t="n">
         <v>1.044394367241605</v>
@@ -1925,34 +1931,34 @@
         <v>224.8306878306878</v>
       </c>
       <c r="I27" t="n">
-        <v>17.51844243068269</v>
+        <v>17.590299709511</v>
       </c>
       <c r="J27" t="n">
         <v>10.28028972712681</v>
       </c>
       <c r="K27" t="n">
-        <v>0.07347046577835042</v>
+        <v>0.03642720477532846</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4214363381394691</v>
+        <v>0.85</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7367723543855197</v>
+        <v>0.7352593744138801</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4284209182804219</v>
+        <v>0.427548706511886</v>
       </c>
       <c r="O27" t="n">
         <v>0.5225071472727238</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02982948335396561</v>
+        <v>0.02970777219249516</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0200584450952155</v>
+        <v>0.009945126646704961</v>
       </c>
       <c r="R27" t="n">
-        <v>0.009771038258750109</v>
+        <v>0.01976264554579019</v>
       </c>
     </row>
     <row r="28">
@@ -1975,10 +1981,10 @@
         <v>2007</v>
       </c>
       <c r="E28" t="n">
-        <v>17.66207300100885</v>
+        <v>17.73490260050415</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3153099522998441</v>
+        <v>0.3140165182168066</v>
       </c>
       <c r="G28" t="n">
         <v>1.005997360734154</v>
@@ -1987,34 +1993,34 @@
         <v>203.0772727272727</v>
       </c>
       <c r="I28" t="n">
-        <v>15.51416072333538</v>
+        <v>15.57813340150977</v>
       </c>
       <c r="J28" t="n">
         <v>10.28028972712681</v>
       </c>
       <c r="K28" t="n">
-        <v>0.07347046577835042</v>
+        <v>0.03642720477532846</v>
       </c>
       <c r="L28" t="n">
-        <v>0.4214363381394692</v>
+        <v>0.85</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7666660401336354</v>
+        <v>0.76519504718423</v>
       </c>
       <c r="N28" t="n">
-        <v>0.411288857770128</v>
+        <v>0.4103875305272914</v>
       </c>
       <c r="O28" t="n">
         <v>0.5629999514528718</v>
       </c>
       <c r="P28" t="n">
-        <v>0.03629321603245986</v>
+        <v>0.03614433750117015</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02328785605110372</v>
+        <v>0.01154629267917204</v>
       </c>
       <c r="R28" t="n">
-        <v>0.01300535998135614</v>
+        <v>0.02459804482199811</v>
       </c>
     </row>
     <row r="29">
@@ -2037,46 +2043,46 @@
         <v>1970</v>
       </c>
       <c r="E29" t="n">
-        <v>17.34919147618971</v>
+        <v>17.41408489474545</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3209667090631492</v>
+        <v>0.3197707983426839</v>
       </c>
       <c r="G29" t="n">
-        <v>1.624457905360284</v>
+        <v>1.640815810720567</v>
       </c>
       <c r="H29" t="n">
         <v>381.5984848484848</v>
       </c>
       <c r="I29" t="n">
-        <v>14.12140642987942</v>
+        <v>14.1742265477107</v>
       </c>
       <c r="J29" t="n">
         <v>6.951389432485324</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07014992479633282</v>
+        <v>0.05387156376101137</v>
       </c>
       <c r="L29" t="n">
-        <v>0.6527566398653279</v>
+        <v>0.85</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7917916236364313</v>
+        <v>0.7898912020476966</v>
       </c>
       <c r="N29" t="n">
-        <v>0.4053680969664334</v>
+        <v>0.4048302154963075</v>
       </c>
       <c r="O29" t="n">
         <v>0.5375620061784633</v>
       </c>
       <c r="P29" t="n">
-        <v>0.03806763279078654</v>
+        <v>0.0379257941238104</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0202714279388134</v>
+        <v>0.01556742257248467</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01779620485197314</v>
+        <v>0.02235837155132573</v>
       </c>
     </row>
     <row r="30">
@@ -2099,10 +2105,10 @@
         <v>1976</v>
       </c>
       <c r="E30" t="n">
-        <v>17.4338789745354</v>
+        <v>17.50092047553409</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3194250730403241</v>
+        <v>0.3182023562552688</v>
       </c>
       <c r="G30" t="n">
         <v>2.226865704690404</v>
@@ -2115,16 +2121,16 @@
         <v>6.951389432485324</v>
       </c>
       <c r="K30" t="n">
-        <v>0.07014992479633282</v>
+        <v>0.05387156376101136</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6527566398653279</v>
+        <v>0.85</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7981293471825903</v>
+        <v>0.7958288477847815</v>
       </c>
       <c r="N30" t="n">
-        <v>0.4003387903668667</v>
+        <v>0.3999659603619502</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
@@ -2151,10 +2157,10 @@
         <v>1999</v>
       </c>
       <c r="E31" t="n">
-        <v>17.38919901014997</v>
+        <v>17.4551072122684</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3204430675852145</v>
+        <v>0.319242654544345</v>
       </c>
       <c r="G31" t="n">
         <v>1.110620770707444</v>
@@ -2163,16 +2169,18 @@
         <v>218.1949152542372</v>
       </c>
       <c r="I31" t="n">
-        <v>17.26217534893077</v>
+        <v>17.32760210845184</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M31" t="n">
-        <v>0.7961027276041752</v>
+        <v>0.7951649093675337</v>
       </c>
       <c r="N31" t="n">
-        <v>0.4030828278534796</v>
+        <v>0.4020008282147746</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
@@ -2199,10 +2207,10 @@
         <v>2000</v>
       </c>
       <c r="E32" t="n">
-        <v>17.01301520493932</v>
+        <v>17.06938157570028</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3273050313868753</v>
+        <v>0.3262242074174033</v>
       </c>
       <c r="G32" t="n">
         <v>1.335323623930043</v>
@@ -2211,30 +2219,34 @@
         <v>275.6977777777777</v>
       </c>
       <c r="I32" t="n">
-        <v>17.71827696596055</v>
+        <v>17.77697996226533</v>
       </c>
       <c r="J32" t="n">
         <v>17.21442922374429</v>
       </c>
       <c r="K32" t="n">
-        <v>3.236307400065973</v>
+        <v>0.02175397244790556</v>
       </c>
       <c r="L32" t="n">
-        <v>0.005713572382012533</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+        <v>0.85</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.7828970974996786</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.4166884874899376</v>
+      </c>
       <c r="O32" t="n">
         <v>0.7679457231120903</v>
       </c>
       <c r="P32" t="n">
-        <v>0.04334200919126777</v>
+        <v>0.04319888556673778</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.908581976788635</v>
+        <v>0.01282920149574874</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.865239967597368</v>
+        <v>0.03036968407098904</v>
       </c>
     </row>
     <row r="33">
@@ -2257,10 +2269,10 @@
         <v>1997</v>
       </c>
       <c r="E33" t="n">
-        <v>16.76474545508473</v>
+        <v>16.81481451040719</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3322618173858336</v>
+        <v>0.3312773869732624</v>
       </c>
       <c r="G33" t="n">
         <v>1.45127382838302</v>
@@ -2269,34 +2281,34 @@
         <v>289.2454545454545</v>
       </c>
       <c r="I33" t="n">
-        <v>20.419731102075</v>
+        <v>20.48071602122923</v>
       </c>
       <c r="J33" t="n">
         <v>9.242461430575036</v>
       </c>
       <c r="K33" t="n">
-        <v>0.07051696543009382</v>
+        <v>0.04067389957076707</v>
       </c>
       <c r="L33" t="n">
-        <v>0.4909444871704114</v>
+        <v>0.85</v>
       </c>
       <c r="M33" t="n">
-        <v>0.8031196261624685</v>
+        <v>0.8055273068170973</v>
       </c>
       <c r="N33" t="n">
-        <v>0.4137739448129651</v>
+        <v>0.4113191490067188</v>
       </c>
       <c r="O33" t="n">
         <v>0.6770535964635579</v>
       </c>
       <c r="P33" t="n">
-        <v>0.03316778419580303</v>
+        <v>0.03306951417568201</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.03232508783997167</v>
+        <v>0.01864497952230561</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0008426963558313509</v>
+        <v>0.0144245346533764</v>
       </c>
     </row>
     <row r="34">
@@ -2319,10 +2331,10 @@
         <v>2018</v>
       </c>
       <c r="E34" t="n">
-        <v>15.50846164280973</v>
+        <v>15.52666529587989</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3590905599399368</v>
+        <v>0.3586711279463648</v>
       </c>
       <c r="G34" t="n">
         <v>1.005809122765289</v>
@@ -2331,16 +2343,18 @@
         <v>307.9545454545454</v>
       </c>
       <c r="I34" t="n">
-        <v>20.57212693086879</v>
+        <v>20.5962742557415</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M34" t="n">
-        <v>0.8134388937708287</v>
+        <v>0.8282003104653158</v>
       </c>
       <c r="N34" t="n">
-        <v>0.4384896525942398</v>
+        <v>0.4330727033762745</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
@@ -2367,10 +2381,10 @@
         <v>1959</v>
       </c>
       <c r="E35" t="n">
-        <v>21.1641432847127</v>
+        <v>28.1765</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2631075305401213</v>
+        <v>0.2611130598363375</v>
       </c>
       <c r="G35" t="n">
         <v>3.0372</v>
@@ -2379,16 +2393,16 @@
         <v>305.8201058201058</v>
       </c>
       <c r="I35" t="n">
-        <v>13.48227843597193</v>
+        <v>15.8095</v>
       </c>
       <c r="J35" t="n">
         <v>7.03723185840708</v>
       </c>
       <c r="K35" t="n">
-        <v>0.06997597787058783</v>
+        <v>0.05321442103579064</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6463969387333703</v>
+        <v>0.85</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -2396,13 +2410,13 @@
         <v>0.4255601806534976</v>
       </c>
       <c r="P35" t="n">
-        <v>0.03156441121391357</v>
+        <v>0.02370889647858531</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01267275227216302</v>
+        <v>0.009637209734179461</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01889165894175054</v>
+        <v>0.01407168674440585</v>
       </c>
     </row>
     <row r="36">
@@ -2425,13 +2439,13 @@
         <v>1967</v>
       </c>
       <c r="E36" t="n">
-        <v>22.85248218687713</v>
+        <v>23.0569655376551</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2438499596770402</v>
+        <v>0.2416931831157501</v>
       </c>
       <c r="G36" t="n">
-        <v>2.109971928009418</v>
+        <v>2.128743856018835</v>
       </c>
       <c r="H36" t="n">
         <v>240.7019400352734</v>
@@ -2441,10 +2455,10 @@
         <v>7.083179084967321</v>
       </c>
       <c r="K36" t="n">
-        <v>0.06988900090861865</v>
+        <v>0.05286922927510332</v>
       </c>
       <c r="L36" t="n">
-        <v>0.643003109210222</v>
+        <v>0.85</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -2473,10 +2487,10 @@
         <v>2017</v>
       </c>
       <c r="E37" t="n">
-        <v>15.70580669441738</v>
+        <v>15.7290159675477</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3545499919893331</v>
+        <v>0.354026976416006</v>
       </c>
       <c r="G37" t="n">
         <v>0.8953661112939827</v>
@@ -2485,34 +2499,34 @@
         <v>214.5952380952381</v>
       </c>
       <c r="I37" t="n">
-        <v>21.16052110070724</v>
+        <v>21.19179108405555</v>
       </c>
       <c r="J37" t="n">
         <v>10.15942047244095</v>
       </c>
       <c r="K37" t="n">
-        <v>0.07297125980008445</v>
+        <v>0.03686058865814214</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4293676777029489</v>
+        <v>0.85</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7918880165276057</v>
+        <v>0.8067927298853939</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4477285115175658</v>
+        <v>0.4388087606142206</v>
       </c>
       <c r="O37" t="n">
         <v>0.5361752695446019</v>
       </c>
       <c r="P37" t="n">
-        <v>0.02533869106660843</v>
+        <v>0.0253013126141053</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02097806379067568</v>
+        <v>0.01059682650883146</v>
       </c>
       <c r="R37" t="n">
-        <v>0.004360627275932753</v>
+        <v>0.01470448610527384</v>
       </c>
     </row>
     <row r="38">
@@ -2535,44 +2549,44 @@
         <v>2018</v>
       </c>
       <c r="E38" t="n">
-        <v>15.73029047448933</v>
+        <v>15.75412077408917</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3539957140309467</v>
+        <v>0.3534602766522315</v>
       </c>
       <c r="G38" t="n">
         <v>0.8889188737585035</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>21.38230360057313</v>
+        <v>21.41469630824517</v>
       </c>
       <c r="J38" t="n">
         <v>10.15942047244095</v>
       </c>
       <c r="K38" t="n">
-        <v>0.07297125980008445</v>
+        <v>0.03686058865814214</v>
       </c>
       <c r="L38" t="n">
-        <v>0.4293676777029489</v>
+        <v>0.85</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8102407659723491</v>
+        <v>0.8242132772494805</v>
       </c>
       <c r="N38" t="n">
-        <v>0.4369025897600885</v>
+        <v>0.4288458133952533</v>
       </c>
       <c r="O38" t="n">
         <v>0.5729600712422284</v>
       </c>
       <c r="P38" t="n">
-        <v>0.02679604143551975</v>
+        <v>0.02675551099512881</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.02395524183032708</v>
+        <v>0.01210071359235303</v>
       </c>
       <c r="R38" t="n">
-        <v>0.00284079960519267</v>
+        <v>0.01465479740277577</v>
       </c>
     </row>
     <row r="39">
@@ -2595,28 +2609,28 @@
         <v>1967</v>
       </c>
       <c r="E39" t="n">
-        <v>22.56590368873213</v>
+        <v>22.76311802988742</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2468603070090259</v>
+        <v>0.2447247173326018</v>
       </c>
       <c r="G39" t="n">
-        <v>1.990574479638952</v>
+        <v>2.055448959277904</v>
       </c>
       <c r="H39" t="n">
         <v>211.1230769230769</v>
       </c>
       <c r="I39" t="n">
-        <v>14.41125502591951</v>
+        <v>14.53720195028649</v>
       </c>
       <c r="J39" t="n">
         <v>5.988823594024605</v>
       </c>
       <c r="K39" t="n">
-        <v>0.07322060085418317</v>
+        <v>0.06253018028672548</v>
       </c>
       <c r="L39" t="n">
-        <v>0.7258975291607443</v>
+        <v>0.85</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -2624,13 +2638,13 @@
         <v>0.4515673811211251</v>
       </c>
       <c r="P39" t="n">
-        <v>0.03134662460730294</v>
+        <v>0.03107544481046485</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0149306396815305</v>
+        <v>0.01275072288660277</v>
       </c>
       <c r="R39" t="n">
-        <v>0.01641598492577244</v>
+        <v>0.01832472192386207</v>
       </c>
     </row>
     <row r="40">
@@ -2653,46 +2667,46 @@
         <v>1988</v>
       </c>
       <c r="E40" t="n">
-        <v>17.93182302747991</v>
+        <v>18.01149478558387</v>
       </c>
       <c r="F40" t="n">
-        <v>0.310535129858489</v>
+        <v>0.3091615499916621</v>
       </c>
       <c r="G40" t="n">
-        <v>1.351700616656842</v>
+        <v>1.385801233313683</v>
       </c>
       <c r="H40" t="n">
         <v>184.5505319148936</v>
       </c>
       <c r="I40" t="n">
-        <v>14.52520798220218</v>
+        <v>14.58974402268139</v>
       </c>
       <c r="J40" t="n">
         <v>9.16140597539543</v>
       </c>
       <c r="K40" t="n">
-        <v>0.07004132113097525</v>
+        <v>0.04087606422480258</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4960593836616916</v>
+        <v>0.85</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7597713162975063</v>
+        <v>0.7570096152512362</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4087222698227823</v>
+        <v>0.4083988035514686</v>
       </c>
       <c r="O40" t="n">
         <v>0.6157737015288071</v>
       </c>
       <c r="P40" t="n">
-        <v>0.04239356972876743</v>
+        <v>0.04220605164059205</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.02655807563748603</v>
+        <v>0.01549927368467283</v>
       </c>
       <c r="R40" t="n">
-        <v>0.0158354940912814</v>
+        <v>0.02670677795591923</v>
       </c>
     </row>
     <row r="41">
@@ -2715,46 +2729,46 @@
         <v>1970</v>
       </c>
       <c r="E41" t="n">
-        <v>17.42989048953775</v>
+        <v>17.49683082336579</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3195464744952026</v>
+        <v>0.3183269811393317</v>
       </c>
       <c r="G41" t="n">
-        <v>1.708014148974729</v>
+        <v>1.794428297949458</v>
       </c>
       <c r="H41" t="n">
         <v>312.4242424242424</v>
       </c>
       <c r="I41" t="n">
-        <v>12.97611216551332</v>
+        <v>13.02594754919924</v>
       </c>
       <c r="J41" t="n">
         <v>6.951389432485324</v>
       </c>
       <c r="K41" t="n">
-        <v>0.07014992479633282</v>
+        <v>0.05387156376101137</v>
       </c>
       <c r="L41" t="n">
-        <v>0.6527566398653279</v>
+        <v>0.8499999999999999</v>
       </c>
       <c r="M41" t="n">
-        <v>0.7606413799233394</v>
+        <v>0.7582416071737869</v>
       </c>
       <c r="N41" t="n">
-        <v>0.4202455639526252</v>
+        <v>0.4199726818385396</v>
       </c>
       <c r="O41" t="n">
         <v>0.5814446189277256</v>
       </c>
       <c r="P41" t="n">
-        <v>0.04481862019641358</v>
+        <v>0.04464757775372925</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.02371613539363884</v>
+        <v>0.01821278217663866</v>
       </c>
       <c r="R41" t="n">
-        <v>0.02110248480277474</v>
+        <v>0.02643479557709058</v>
       </c>
     </row>
     <row r="42">
@@ -2777,46 +2791,46 @@
         <v>1989</v>
       </c>
       <c r="E42" t="n">
-        <v>17.30346150001519</v>
+        <v>17.36719498633941</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3219399260932763</v>
+        <v>0.3207641290482429</v>
       </c>
       <c r="G42" t="n">
-        <v>1.493065291990434</v>
+        <v>1.577330583980868</v>
       </c>
       <c r="H42" t="n">
         <v>329.3181818181818</v>
       </c>
       <c r="I42" t="n">
-        <v>17.06764135680833</v>
+        <v>17.13050625161565</v>
       </c>
       <c r="J42" t="n">
         <v>7.813733686105675</v>
       </c>
       <c r="K42" t="n">
-        <v>0.06912898343935996</v>
+        <v>0.04799817840774089</v>
       </c>
       <c r="L42" t="n">
-        <v>0.59007581529769</v>
+        <v>0.85</v>
       </c>
       <c r="M42" t="n">
-        <v>0.7466838545565073</v>
+        <v>0.7459442726768427</v>
       </c>
       <c r="N42" t="n">
-        <v>0.4307433759766953</v>
+        <v>0.4299850962630789</v>
       </c>
       <c r="O42" t="n">
         <v>0.6245958547978334</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0366131403907806</v>
+        <v>0.03647949037332818</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.02697260991434839</v>
+        <v>0.01873896429596236</v>
       </c>
       <c r="R42" t="n">
-        <v>0.009640530476432209</v>
+        <v>0.01774052607736582</v>
       </c>
     </row>
     <row r="43">
@@ -2839,28 +2853,30 @@
         <v>1984</v>
       </c>
       <c r="E43" t="n">
-        <v>17.51347472289834</v>
+        <v>17.58253515506082</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3182121650435365</v>
+        <v>0.3169735700128617</v>
       </c>
       <c r="G43" t="n">
-        <v>1.211559305479796</v>
+        <v>1.257618610959593</v>
       </c>
       <c r="H43" t="n">
         <v>247.8242677824268</v>
       </c>
       <c r="I43" t="n">
-        <v>16.0931570653315</v>
+        <v>16.15661679558922</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M43" t="n">
-        <v>0.8218048601353916</v>
+        <v>0.8206382848850665</v>
       </c>
       <c r="N43" t="n">
-        <v>0.387679936270827</v>
+        <v>0.3866826721617297</v>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
@@ -2887,28 +2903,30 @@
         <v>1987</v>
       </c>
       <c r="E44" t="n">
-        <v>17.05465756027228</v>
+        <v>17.11208018153209</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3266278885509242</v>
+        <v>0.3255372035632955</v>
       </c>
       <c r="G44" t="n">
-        <v>1.373760790430297</v>
+        <v>1.406321580860593</v>
       </c>
       <c r="H44" t="n">
         <v>258.5660018993353</v>
       </c>
       <c r="I44" t="n">
-        <v>16.01067067867154</v>
+        <v>16.06457822124447</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M44" t="n">
-        <v>0.7944473288191435</v>
+        <v>0.792807834995948</v>
       </c>
       <c r="N44" t="n">
-        <v>0.4109577267495874</v>
+        <v>0.4106035124482257</v>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
@@ -2935,46 +2953,46 @@
         <v>1995</v>
       </c>
       <c r="E45" t="n">
-        <v>16.18936688773191</v>
+        <v>16.22484157407747</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3442207757139076</v>
+        <v>0.3434804570738821</v>
       </c>
       <c r="G45" t="n">
-        <v>1.392164305643596</v>
+        <v>1.503928611287193</v>
       </c>
       <c r="H45" t="n">
         <v>322.9280303030303</v>
       </c>
       <c r="I45" t="n">
-        <v>19.88202199801044</v>
+        <v>19.92558815468512</v>
       </c>
       <c r="J45" t="n">
         <v>8.860483870967741</v>
       </c>
       <c r="K45" t="n">
-        <v>0.06970844628383076</v>
+        <v>0.04235489299599872</v>
       </c>
       <c r="L45" t="n">
-        <v>0.5168358796593076</v>
+        <v>0.85</v>
       </c>
       <c r="M45" t="n">
-        <v>0.7955111398767963</v>
+        <v>0.8012726584302597</v>
       </c>
       <c r="N45" t="n">
-        <v>0.4357347290483926</v>
+        <v>0.4287688024298711</v>
       </c>
       <c r="O45" t="n">
         <v>0.6691910385691424</v>
       </c>
       <c r="P45" t="n">
-        <v>0.03368391317372898</v>
+        <v>0.03361146888636777</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.03121660261975406</v>
+        <v>0.01896722612744536</v>
       </c>
       <c r="R45" t="n">
-        <v>0.002467310553974921</v>
+        <v>0.01464424275892241</v>
       </c>
     </row>
     <row r="46">
@@ -2997,10 +3015,10 @@
         <v>1992</v>
       </c>
       <c r="E46" t="n">
-        <v>17.22120315133009</v>
+        <v>17.28285017013491</v>
       </c>
       <c r="F46" t="n">
-        <v>0.323348225249173</v>
+        <v>0.32219485911302</v>
       </c>
       <c r="G46" t="n">
         <v>2.214675784779499</v>
@@ -3008,17 +3026,17 @@
       <c r="H46" t="n">
         <v>276.7</v>
       </c>
-      <c r="I46" t="n">
-        <v>16.87015526923686</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M46" t="n">
-        <v>0.6050942512203777</v>
+        <v>0.6093099316986447</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5343766274378441</v>
+        <v>0.5287864883718532</v>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
@@ -3045,10 +3063,10 @@
         <v>2001</v>
       </c>
       <c r="E47" t="n">
-        <v>18.0644073507259</v>
+        <v>18.1474420852141</v>
       </c>
       <c r="F47" t="n">
-        <v>0.308255757283758</v>
+        <v>0.3068453419919016</v>
       </c>
       <c r="G47" t="n">
         <v>1.632643866704311</v>
@@ -3061,16 +3079,16 @@
         <v>8.720253164556961</v>
       </c>
       <c r="K47" t="n">
-        <v>0.06935999063970842</v>
+        <v>0.04294396182920678</v>
       </c>
       <c r="L47" t="n">
-        <v>0.5262741130464952</v>
+        <v>0.85</v>
       </c>
       <c r="M47" t="n">
-        <v>0.656748602385765</v>
+        <v>0.6553496613953217</v>
       </c>
       <c r="N47" t="n">
-        <v>0.469366925548259</v>
+        <v>0.4682167120337273</v>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
@@ -3097,10 +3115,10 @@
         <v>1999</v>
       </c>
       <c r="E48" t="n">
-        <v>17.89745312156004</v>
+        <v>17.97625309347459</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3111308007541148</v>
+        <v>0.3097669485143899</v>
       </c>
       <c r="G48" t="n">
         <v>1.811345791353538</v>
@@ -3108,36 +3126,26 @@
       <c r="H48" t="n">
         <v>274.7692307692308</v>
       </c>
-      <c r="I48" t="n">
-        <v>15.88686054304107</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>7.623796033994335</v>
       </c>
       <c r="K48" t="n">
-        <v>0.06917370313713633</v>
+        <v>0.04912017810680478</v>
       </c>
       <c r="L48" t="n">
-        <v>0.6035841583905195</v>
+        <v>0.85</v>
       </c>
       <c r="M48" t="n">
-        <v>0.7447789053041545</v>
+        <v>0.7436383328885995</v>
       </c>
       <c r="N48" t="n">
-        <v>0.4177492967618672</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.3851149904643563</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0.02424111596591421</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.01025939788568119</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0.01398171808023303</v>
-      </c>
+        <v>0.4165560046493103</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3159,10 +3167,10 @@
         <v>2004</v>
       </c>
       <c r="E49" t="n">
-        <v>16.72120452746831</v>
+        <v>16.77016917536357</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3349651452229473</v>
+        <v>0.3340784549997739</v>
       </c>
       <c r="G49" t="n">
         <v>1.712372106412916</v>
@@ -3171,34 +3179,34 @@
         <v>226.7204301075269</v>
       </c>
       <c r="I49" t="n">
-        <v>15.32784954416894</v>
+        <v>15.37273403527655</v>
       </c>
       <c r="J49" t="n">
         <v>9.754665681149657</v>
       </c>
       <c r="K49" t="n">
-        <v>0.07345773616989225</v>
+        <v>0.03898101704058082</v>
       </c>
       <c r="L49" t="n">
-        <v>0.4578336927598823</v>
+        <v>0.85</v>
       </c>
       <c r="M49" t="n">
-        <v>0.6888132853597734</v>
+        <v>0.7185417761981302</v>
       </c>
       <c r="N49" t="n">
-        <v>0.4605418609963381</v>
+        <v>0.4645285119963847</v>
       </c>
       <c r="O49" t="n">
         <v>0.4120757825983491</v>
       </c>
       <c r="P49" t="n">
-        <v>0.02693788973574921</v>
+        <v>0.02686412241986147</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01241082326641206</v>
+        <v>0.006707659487483158</v>
       </c>
       <c r="R49" t="n">
-        <v>0.01452706646933715</v>
+        <v>0.02015646293237832</v>
       </c>
     </row>
     <row r="50">
@@ -3221,14 +3229,12 @@
         <v>1999</v>
       </c>
       <c r="E50" t="n">
-        <v>18.08271618206721</v>
+        <v>18.16621531661354</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3079486868011756</v>
-      </c>
-      <c r="G50" t="n">
-        <v>3.393291859465787</v>
-      </c>
+        <v>0.3065334694794639</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
         <v>339.1891891891892</v>
       </c>
@@ -3237,16 +3243,16 @@
         <v>7.846846424384525</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0690375967527901</v>
+        <v>0.0477239133769751</v>
       </c>
       <c r="L50" t="n">
-        <v>0.5875831181621978</v>
+        <v>0.85</v>
       </c>
       <c r="M50" t="n">
-        <v>0.5566808420001366</v>
+        <v>0.5528523772393286</v>
       </c>
       <c r="N50" t="n">
-        <v>0.5531940014305962</v>
+        <v>0.5544650077217133</v>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
@@ -3273,10 +3279,10 @@
         <v>2005</v>
       </c>
       <c r="E51" t="n">
-        <v>18.1092317326863</v>
+        <v>18.19340342917936</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3074950923765645</v>
+        <v>0.30607259236972</v>
       </c>
       <c r="G51" t="n">
         <v>1.431502217381948</v>
@@ -3284,36 +3290,26 @@
       <c r="H51" t="n">
         <v>247.8409090909091</v>
       </c>
-      <c r="I51" t="n">
-        <v>14.5709562578702</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>11.28743811881188</v>
       </c>
       <c r="K51" t="n">
-        <v>0.07911126124582936</v>
+        <v>0.03317690117969585</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3564646241084692</v>
+        <v>0.85</v>
       </c>
       <c r="M51" t="n">
-        <v>0.7358316824895639</v>
+        <v>0.7345017419284566</v>
       </c>
       <c r="N51" t="n">
-        <v>0.4178892088589765</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0.4248855430857853</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0.02916004187314849</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.01428177599270037</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0.01487826588044812</v>
-      </c>
+        <v>0.4167092078440441</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3335,10 +3331,10 @@
         <v>1996</v>
       </c>
       <c r="E52" t="n">
-        <v>18.13707281577682</v>
+        <v>18.22195069609804</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3070245924088211</v>
+        <v>0.3055946580068649</v>
       </c>
       <c r="G52" t="n">
         <v>2.16826498481953</v>
@@ -3347,34 +3343,34 @@
         <v>244.1333333333333</v>
       </c>
       <c r="I52" t="n">
-        <v>11.91182458560585</v>
+        <v>19.39463597265902</v>
       </c>
       <c r="J52" t="n">
         <v>7.975146541617818</v>
       </c>
       <c r="K52" t="n">
-        <v>0.06907315947025044</v>
+        <v>0.04701331404636609</v>
       </c>
       <c r="L52" t="n">
-        <v>0.578559339060726</v>
+        <v>0.85</v>
       </c>
       <c r="M52" t="n">
-        <v>0.5975510695878509</v>
+        <v>0.5943685321574762</v>
       </c>
       <c r="N52" t="n">
-        <v>0.5138061804979227</v>
+        <v>0.514154609092471</v>
       </c>
       <c r="O52" t="n">
         <v>0.3316372652954849</v>
       </c>
       <c r="P52" t="n">
-        <v>0.02784142272853495</v>
+        <v>0.01709969431037421</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.00759689234374309</v>
+        <v>0.005170678281867987</v>
       </c>
       <c r="R52" t="n">
-        <v>0.02024453038479186</v>
+        <v>0.01192901602850622</v>
       </c>
     </row>
     <row r="53">
@@ -3397,26 +3393,30 @@
         <v>1973</v>
       </c>
       <c r="E53" t="n">
-        <v>17.66610163797928</v>
+        <v>17.5682</v>
       </c>
       <c r="F53" t="n">
-        <v>0.315212462304613</v>
+        <v>0.3139168205131977</v>
       </c>
       <c r="G53" t="n">
-        <v>1.667728396230985</v>
+        <v>1.69015679246197</v>
       </c>
       <c r="H53" t="n">
         <v>277.7625</v>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>14.3153</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M53" t="n">
-        <v>0.7717230751173939</v>
+        <v>0.768913891649879</v>
       </c>
       <c r="N53" t="n">
-        <v>0.4084557785126121</v>
+        <v>0.4082628917981687</v>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
@@ -3443,28 +3443,30 @@
         <v>1972</v>
       </c>
       <c r="E54" t="n">
-        <v>17.39979878883848</v>
+        <v>17.4331</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3200510907836237</v>
+        <v>0.3188393869855028</v>
       </c>
       <c r="G54" t="n">
-        <v>1.811599634886023</v>
+        <v>1.815799269772046</v>
       </c>
       <c r="H54" t="n">
         <v>323.5526315789473</v>
       </c>
       <c r="I54" t="n">
-        <v>13.18906035025768</v>
+        <v>13.9129</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>0.8499999999999999</v>
+      </c>
       <c r="M54" t="n">
-        <v>0.7584187834029035</v>
+        <v>0.7564301254758762</v>
       </c>
       <c r="N54" t="n">
-        <v>0.4214169560396968</v>
+        <v>0.4216043140525501</v>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
@@ -3491,23 +3493,25 @@
         <v>1966</v>
       </c>
       <c r="E55" t="n">
-        <v>22.65986029684102</v>
+        <v>22.4331</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2458399214195203</v>
+        <v>0.2436966131740899</v>
       </c>
       <c r="G55" t="n">
-        <v>2.365546939999791</v>
+        <v>2.396593879999583</v>
       </c>
       <c r="H55" t="n">
         <v>203.0629921259843</v>
       </c>
       <c r="I55" t="n">
-        <v>11.79754265905983</v>
+        <v>13.798</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -3535,10 +3539,10 @@
         <v>1968</v>
       </c>
       <c r="E56" t="n">
-        <v>22.78488097166562</v>
+        <v>22.98764963035378</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2444716053395295</v>
+        <v>0.2423177591514929</v>
       </c>
       <c r="G56" t="n">
         <v>2.0777</v>
@@ -3549,7 +3553,9 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -3577,10 +3583,10 @@
         <v>1976</v>
       </c>
       <c r="E57" t="n">
-        <v>22.94855747599843</v>
+        <v>23.15547775838727</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2427331848948928</v>
+        <v>0.240566813495083</v>
       </c>
       <c r="G57" t="n">
         <v>2.1014</v>
@@ -3591,7 +3597,9 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -3619,10 +3627,10 @@
         <v>1995</v>
       </c>
       <c r="E58" t="n">
-        <v>16.94311486535237</v>
+        <v>16.99770822716683</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3286669030757174</v>
+        <v>0.3276118019864066</v>
       </c>
       <c r="G58" t="n">
         <v>1.340189934684793</v>
@@ -3631,16 +3639,18 @@
         <v>242.5489021956088</v>
       </c>
       <c r="I58" t="n">
-        <v>14.3234643787327</v>
+        <v>14.36961681761299</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M58" t="n">
-        <v>0.7546960304386269</v>
+        <v>0.7522047333148674</v>
       </c>
       <c r="N58" t="n">
-        <v>0.4355013089294332</v>
+        <v>0.4355403584797195</v>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
@@ -3667,28 +3677,28 @@
         <v>1980</v>
       </c>
       <c r="E59" t="n">
-        <v>20.6460662197704</v>
+        <v>20.744</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2697218902375514</v>
+        <v>0.2677959349194378</v>
       </c>
       <c r="G59" t="n">
-        <v>1.586784427214029</v>
+        <v>1.656668854428058</v>
       </c>
       <c r="H59" t="n">
         <v>201.4290697674419</v>
       </c>
       <c r="I59" t="n">
-        <v>13.99242601199135</v>
+        <v>13.9129</v>
       </c>
       <c r="J59" t="n">
         <v>9.609283170080145</v>
       </c>
       <c r="K59" t="n">
-        <v>0.07110607484278905</v>
+        <v>0.03897087976403451</v>
       </c>
       <c r="L59" t="n">
-        <v>0.465856790332853</v>
+        <v>0.85</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -3696,13 +3706,13 @@
         <v>0.465918984280532</v>
       </c>
       <c r="P59" t="n">
-        <v>0.03329943972135071</v>
+        <v>0.03314073984717539</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.01543574227372403</v>
+        <v>0.008459818061226131</v>
       </c>
       <c r="R59" t="n">
-        <v>0.01786369744762668</v>
+        <v>0.02468092178594926</v>
       </c>
     </row>
     <row r="60">
@@ -3725,10 +3735,10 @@
         <v>1965</v>
       </c>
       <c r="E60" t="n">
-        <v>22.68469721064108</v>
+        <v>22.88492472710245</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2455895552774824</v>
+        <v>0.2434446697285764</v>
       </c>
       <c r="G60" t="n">
         <v>2.9899</v>
@@ -3739,7 +3749,9 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -3767,28 +3779,30 @@
         <v>1990</v>
       </c>
       <c r="E61" t="n">
-        <v>17.1155974836709</v>
+        <v>17.17456583460847</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3253544179547246</v>
+        <v>0.3242378114826743</v>
       </c>
       <c r="G61" t="n">
-        <v>1.671304319157368</v>
+        <v>1.744608638314735</v>
       </c>
       <c r="H61" t="n">
         <v>317.4756097560976</v>
       </c>
       <c r="I61" t="n">
-        <v>17.34095576869056</v>
+        <v>17.40070054630272</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M61" t="n">
-        <v>0.7993489854424917</v>
+        <v>0.7973216220994317</v>
       </c>
       <c r="N61" t="n">
-        <v>0.4070433805939578</v>
+        <v>0.4066736667846495</v>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>

--- a/test_env/Databank.xlsx
+++ b/test_env/Databank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,72 +456,107 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>MTOW,integer,kilogram</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MZFW,integer,kilogram</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Exit Limit</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fuel capacity,integer,litre</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>TSFC Cruise</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Engine Efficiency</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>EU (MJ/ASK)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>OEW/Exit Limit</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>L/D estimate</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Aspect Ratio</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>k</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Oswald Efficiency</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>prop_eff</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>thermal_eff</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>c_L</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>c_D</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>c_Di</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>c_D0</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>EU_estimate</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Pax</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>EU_estimate_Limit</t>
         </is>
       </c>
     </row>
@@ -545,43 +580,58 @@
         <v>2007</v>
       </c>
       <c r="E2" t="n">
+        <v>560000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>361000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>853</v>
+      </c>
+      <c r="H2" t="n">
+        <v>324339</v>
+      </c>
+      <c r="I2" t="n">
         <v>15.44949722869756</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>0.3604359806894223</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>1.388050913903164</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>316.7033997655334</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>19.08608587068615</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>7.526701183431951</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>0.04975383104939486</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
         <v>0.5606702594179432</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>0.02937643994487588</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="U2" t="n">
         <v>0.01564017349958413</v>
       </c>
-      <c r="R2" t="n">
+      <c r="V2" t="n">
         <v>0.01373626644529175</v>
       </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -603,46 +653,67 @@
         <v>1988</v>
       </c>
       <c r="E3" t="n">
+        <v>73500</v>
+      </c>
+      <c r="F3" t="n">
+        <v>60500</v>
+      </c>
+      <c r="G3" t="n">
+        <v>195</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23859</v>
+      </c>
+      <c r="I3" t="n">
         <v>16.98448384262995</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>0.3279146716513309</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>1.208856634948301</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>216.9230769230769</v>
       </c>
-      <c r="I3" t="n">
-        <v>16.14050235272094</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
+        <v>14.3332967229518</v>
+      </c>
+      <c r="N3" t="n">
         <v>10.47091503267974</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>0.0357640395200414</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.7884268208877393</v>
       </c>
-      <c r="N3" t="n">
+      <c r="R3" t="n">
         <v>0.4159804541870911</v>
       </c>
-      <c r="O3" t="n">
+      <c r="S3" t="n">
         <v>0.4947695273984242</v>
       </c>
-      <c r="P3" t="n">
-        <v>0.03065950412395516</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
+        <v>0.03452519040183829</v>
+      </c>
+      <c r="U3" t="n">
         <v>0.008754925478180076</v>
       </c>
-      <c r="R3" t="n">
-        <v>0.02190457864577508</v>
+      <c r="V3" t="n">
+        <v>0.02577026492365821</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.14307207999559</v>
+      </c>
+      <c r="X3" t="n">
+        <v>156</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.914457663996472</v>
       </c>
     </row>
     <row r="4">
@@ -665,37 +736,54 @@
         <v>2003</v>
       </c>
       <c r="E4" t="n">
+        <v>59000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>53000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>136</v>
+      </c>
+      <c r="H4" t="n">
+        <v>23859</v>
+      </c>
+      <c r="I4" t="n">
         <v>17.12629865786187</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>0.3256334273699503</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>1.398059339158471</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>287.0220588235294</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>9.500081699346406</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>0.03941884195222423</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.7875363049960581</v>
       </c>
-      <c r="N4" t="n">
+      <c r="R4" t="n">
         <v>0.4133826953762283</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>118</v>
+      </c>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -717,46 +805,67 @@
         <v>1984</v>
       </c>
       <c r="E5" t="n">
+        <v>168384.6153846154</v>
+      </c>
+      <c r="F5" t="n">
+        <v>130000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>345</v>
+      </c>
+      <c r="H5" t="n">
+        <v>65784.61538461539</v>
+      </c>
+      <c r="I5" t="n">
         <v>17.06146751190997</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
         <v>0.3264073623698464</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>1.445998550617744</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
         <v>262.8937198067633</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>12.51798593977255</v>
       </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
         <v>7.729726538461537</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>0.04844702036694401</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.7738497139667743</v>
       </c>
-      <c r="N5" t="n">
+      <c r="R5" t="n">
         <v>0.4218123005810776</v>
       </c>
-      <c r="O5" t="n">
+      <c r="S5" t="n">
         <v>0.5228820344991163</v>
       </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
         <v>0.04177453447381422</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="U5" t="n">
         <v>0.01324568773756474</v>
       </c>
-      <c r="R5" t="n">
+      <c r="V5" t="n">
         <v>0.02852884673624948</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.531120491263444</v>
+      </c>
+      <c r="X5" t="n">
+        <v>261</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.158325936868866</v>
       </c>
     </row>
     <row r="6">
@@ -779,35 +888,50 @@
         <v>1974</v>
       </c>
       <c r="E6" t="n">
+        <v>147944.4444444444</v>
+      </c>
+      <c r="F6" t="n">
+        <v>120694.4444444444</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>51050</v>
+      </c>
+      <c r="I6" t="n">
         <v>17.59993171711697</v>
       </c>
-      <c r="F6" t="n">
+      <c r="J6" t="n">
         <v>0.3163981105045663</v>
       </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
         <v>1.622307954742745</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>7.729726538461538</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>0.04844702036694401</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.6919642352576293</v>
       </c>
-      <c r="N6" t="n">
+      <c r="R6" t="n">
         <v>0.4574302262652493</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>255</v>
+      </c>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -829,33 +953,50 @@
         <v>1983</v>
       </c>
       <c r="E7" t="n">
+        <v>134200</v>
+      </c>
+      <c r="F7" t="n">
+        <v>109500</v>
+      </c>
+      <c r="G7" t="n">
+        <v>275</v>
+      </c>
+      <c r="H7" t="n">
+        <v>55100</v>
+      </c>
+      <c r="I7" t="n">
         <v>17.29617641863968</v>
       </c>
-      <c r="F7" t="n">
+      <c r="J7" t="n">
         <v>0.3222141009797295</v>
       </c>
-      <c r="G7" t="n">
+      <c r="K7" t="n">
         <v>1.758276131082078</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
         <v>291.3909090909091</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>8.800045662100455</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>0.04255457680777189</v>
       </c>
-      <c r="L7" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>0.85</v>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>179</v>
+      </c>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -877,33 +1018,48 @@
         <v>1985</v>
       </c>
       <c r="E8" t="n">
+        <v>150000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>113000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>275</v>
+      </c>
+      <c r="H8" t="n">
+        <v>61090</v>
+      </c>
+      <c r="I8" t="n">
         <v>16.79256880289362</v>
       </c>
-      <c r="F8" t="n">
+      <c r="J8" t="n">
         <v>0.3316374138621753</v>
       </c>
-      <c r="G8" t="n">
+      <c r="K8" t="n">
         <v>1.4459</v>
       </c>
-      <c r="H8" t="n">
+      <c r="L8" t="n">
         <v>295.9318181818182</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>8.800045662100455</v>
       </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
         <v>0.04255457680777189</v>
       </c>
-      <c r="L8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>0.85</v>
+      </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -925,46 +1081,67 @@
         <v>1996</v>
       </c>
       <c r="E9" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>160</v>
+      </c>
+      <c r="H9" t="n">
+        <v>23859</v>
+      </c>
+      <c r="I9" t="n">
         <v>16.78368909556014</v>
       </c>
-      <c r="F9" t="n">
+      <c r="J9" t="n">
         <v>0.3317970744134361</v>
       </c>
-      <c r="G9" t="n">
+      <c r="K9" t="n">
         <v>1.368187134684253</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
         <v>254.259375</v>
       </c>
-      <c r="I9" t="n">
-        <v>14.96958967951738</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
+        <v>13.87881256511006</v>
+      </c>
+      <c r="N9" t="n">
         <v>10.47091503267974</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
         <v>0.0357640395200414</v>
       </c>
-      <c r="L9" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.786566975728842</v>
       </c>
-      <c r="N9" t="n">
+      <c r="R9" t="n">
         <v>0.4218695179262226</v>
       </c>
-      <c r="O9" t="n">
+      <c r="S9" t="n">
         <v>0.5082318752526555</v>
       </c>
-      <c r="P9" t="n">
-        <v>0.03395298878572361</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="T9" t="n">
+        <v>0.03662145505107964</v>
+      </c>
+      <c r="U9" t="n">
         <v>0.009237838498024946</v>
       </c>
-      <c r="R9" t="n">
-        <v>0.02471515028769867</v>
+      <c r="V9" t="n">
+        <v>0.0273836165530547</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.257413181978043</v>
+      </c>
+      <c r="X9" t="n">
+        <v>130</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.02164821035716</v>
       </c>
     </row>
     <row r="10">
@@ -987,37 +1164,54 @@
         <v>2016</v>
       </c>
       <c r="E10" t="n">
+        <v>73500</v>
+      </c>
+      <c r="F10" t="n">
+        <v>62800</v>
+      </c>
+      <c r="G10" t="n">
+        <v>195</v>
+      </c>
+      <c r="H10" t="n">
+        <v>23725</v>
+      </c>
+      <c r="I10" t="n">
         <v>14.70307341442506</v>
       </c>
-      <c r="F10" t="n">
+      <c r="J10" t="n">
         <v>0.3788000933877697</v>
       </c>
-      <c r="G10" t="n">
+      <c r="K10" t="n">
         <v>0.8913640923736511</v>
       </c>
-      <c r="H10" t="n">
+      <c r="L10" t="n">
         <v>227.1794871794872</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>10.47091503267974</v>
       </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
         <v>0.0357640395200414</v>
       </c>
-      <c r="L10" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q10" t="n">
         <v>0.8207520759160561</v>
       </c>
-      <c r="N10" t="n">
+      <c r="R10" t="n">
         <v>0.4615118034052478</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>184</v>
+      </c>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1039,37 +1233,54 @@
         <v>2007</v>
       </c>
       <c r="E11" t="n">
+        <v>89000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>73300</v>
+      </c>
+      <c r="G11" t="n">
+        <v>240</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23580</v>
+      </c>
+      <c r="I11" t="n">
         <v>14.96467324159407</v>
       </c>
-      <c r="F11" t="n">
+      <c r="J11" t="n">
         <v>0.3721744422143206</v>
       </c>
-      <c r="G11" t="n">
+      <c r="K11" t="n">
         <v>0.8446380134094421</v>
       </c>
-      <c r="H11" t="n">
+      <c r="L11" t="n">
         <v>208.75</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>10.47091503267974</v>
       </c>
-      <c r="K11" t="n">
+      <c r="O11" t="n">
         <v>0.0357640395200414</v>
       </c>
-      <c r="L11" t="n">
+      <c r="P11" t="n">
         <v>0.8499999999999999</v>
       </c>
-      <c r="M11" t="n">
+      <c r="Q11" t="n">
         <v>0.8286990377160699</v>
       </c>
-      <c r="N11" t="n">
+      <c r="R11" t="n">
         <v>0.4490888696907527</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>193</v>
+      </c>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1091,46 +1302,67 @@
         <v>1994</v>
       </c>
       <c r="E12" t="n">
+        <v>86310.3448275862</v>
+      </c>
+      <c r="F12" t="n">
+        <v>70603.44827586207</v>
+      </c>
+      <c r="G12" t="n">
+        <v>220</v>
+      </c>
+      <c r="H12" t="n">
+        <v>23700</v>
+      </c>
+      <c r="I12" t="n">
         <v>17.4681003679791</v>
       </c>
-      <c r="F12" t="n">
+      <c r="J12" t="n">
         <v>0.3187961184808232</v>
       </c>
-      <c r="G12" t="n">
+      <c r="K12" t="n">
         <v>1.10484603787207</v>
       </c>
-      <c r="H12" t="n">
+      <c r="L12" t="n">
         <v>223.6363636363636</v>
       </c>
-      <c r="I12" t="n">
-        <v>18.25608143057533</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
+        <v>16.42181172565305</v>
+      </c>
+      <c r="N12" t="n">
         <v>10.47091503267974</v>
       </c>
-      <c r="K12" t="n">
+      <c r="O12" t="n">
         <v>0.03576403952004141</v>
       </c>
-      <c r="L12" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q12" t="n">
         <v>0.7744272390050924</v>
       </c>
-      <c r="N12" t="n">
+      <c r="R12" t="n">
         <v>0.4117274656951814</v>
       </c>
-      <c r="O12" t="n">
+      <c r="S12" t="n">
         <v>0.6293991126986668</v>
       </c>
-      <c r="P12" t="n">
-        <v>0.03447809755409774</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="T12" t="n">
+        <v>0.03832920307664148</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.01416768260060511</v>
       </c>
-      <c r="R12" t="n">
-        <v>0.02031041495349263</v>
+      <c r="V12" t="n">
+        <v>0.02416152047603637</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.9966162976897276</v>
+      </c>
+      <c r="X12" t="n">
+        <v>198</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.8969546679207548</v>
       </c>
     </row>
     <row r="13">
@@ -1153,46 +1385,67 @@
         <v>1998</v>
       </c>
       <c r="E13" t="n">
+        <v>230000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>168000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>406</v>
+      </c>
+      <c r="H13" t="n">
+        <v>97530</v>
+      </c>
+      <c r="I13" t="n">
         <v>17.06347192741687</v>
       </c>
-      <c r="F13" t="n">
+      <c r="J13" t="n">
         <v>0.3263519800477687</v>
       </c>
-      <c r="G13" t="n">
+      <c r="K13" t="n">
         <v>1.40477492852807</v>
       </c>
-      <c r="H13" t="n">
+      <c r="L13" t="n">
         <v>297.3727422003284</v>
       </c>
-      <c r="I13" t="n">
+      <c r="M13" t="n">
         <v>19.65155143747677</v>
       </c>
-      <c r="J13" t="n">
+      <c r="N13" t="n">
         <v>10.05555862831858</v>
       </c>
-      <c r="K13" t="n">
+      <c r="O13" t="n">
         <v>0.03724131427021195</v>
       </c>
-      <c r="L13" t="n">
+      <c r="P13" t="n">
         <v>0.8499999999999999</v>
       </c>
-      <c r="M13" t="n">
+      <c r="Q13" t="n">
         <v>0.7712140421803801</v>
       </c>
-      <c r="N13" t="n">
+      <c r="R13" t="n">
         <v>0.4231819493648868</v>
       </c>
-      <c r="O13" t="n">
+      <c r="S13" t="n">
         <v>0.5514210365893721</v>
       </c>
-      <c r="P13" t="n">
+      <c r="T13" t="n">
         <v>0.02806119557403067</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="U13" t="n">
         <v>0.01132378616703615</v>
       </c>
-      <c r="R13" t="n">
+      <c r="V13" t="n">
         <v>0.01673740940699451</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.223822284874495</v>
+      </c>
+      <c r="X13" t="n">
+        <v>265</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.7988002598318749</v>
       </c>
     </row>
     <row r="14">
@@ -1215,46 +1468,67 @@
         <v>1994</v>
       </c>
       <c r="E14" t="n">
+        <v>212000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>164000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>440</v>
+      </c>
+      <c r="H14" t="n">
+        <v>97885</v>
+      </c>
+      <c r="I14" t="n">
         <v>16.98916597013821</v>
       </c>
-      <c r="F14" t="n">
+      <c r="J14" t="n">
         <v>0.3277915852504419</v>
       </c>
-      <c r="G14" t="n">
+      <c r="K14" t="n">
         <v>1.229479581294727</v>
       </c>
-      <c r="H14" t="n">
+      <c r="L14" t="n">
         <v>283.4848484848485</v>
       </c>
-      <c r="I14" t="n">
+      <c r="M14" t="n">
         <v>19.26327220958241</v>
       </c>
-      <c r="J14" t="n">
+      <c r="N14" t="n">
         <v>10.05555862831858</v>
       </c>
-      <c r="K14" t="n">
+      <c r="O14" t="n">
         <v>0.03724131427021195</v>
       </c>
-      <c r="L14" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q14" t="n">
         <v>0.7859719165495915</v>
       </c>
-      <c r="N14" t="n">
+      <c r="R14" t="n">
         <v>0.4170595243137388</v>
       </c>
-      <c r="O14" t="n">
+      <c r="S14" t="n">
         <v>0.5423064496116281</v>
       </c>
-      <c r="P14" t="n">
+      <c r="T14" t="n">
         <v>0.02815468001901222</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="U14" t="n">
         <v>0.01095253218620056</v>
       </c>
-      <c r="R14" t="n">
+      <c r="V14" t="n">
         <v>0.01720214783281166</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.202775856096727</v>
+      </c>
+      <c r="X14" t="n">
+        <v>292</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.7982057954096462</v>
       </c>
     </row>
     <row r="15">
@@ -1277,37 +1551,54 @@
         <v>2015</v>
       </c>
       <c r="E15" t="n">
+        <v>268000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>192000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>440</v>
+      </c>
+      <c r="H15" t="n">
+        <v>140795</v>
+      </c>
+      <c r="I15" t="n">
         <v>15.06830812606609</v>
       </c>
-      <c r="F15" t="n">
+      <c r="J15" t="n">
         <v>0.3695610847439589</v>
       </c>
-      <c r="G15" t="n">
+      <c r="K15" t="n">
         <v>1.139953161890594</v>
       </c>
-      <c r="H15" t="n">
+      <c r="L15" t="n">
         <v>323.6363636363636</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>9.464023702031604</v>
       </c>
-      <c r="K15" t="n">
+      <c r="O15" t="n">
         <v>0.03956902801916749</v>
       </c>
-      <c r="L15" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="P15" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q15" t="n">
         <v>0.8222369055324672</v>
       </c>
-      <c r="N15" t="n">
+      <c r="R15" t="n">
         <v>0.4494617877794935</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>304</v>
+      </c>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1329,35 +1620,56 @@
         <v>1999</v>
       </c>
       <c r="E16" t="n">
+        <v>54885</v>
+      </c>
+      <c r="F16" t="n">
+        <v>45586</v>
+      </c>
+      <c r="G16" t="n">
+        <v>134</v>
+      </c>
+      <c r="H16" t="n">
+        <v>13926</v>
+      </c>
+      <c r="I16" t="n">
         <v>17.43840732807625</v>
       </c>
-      <c r="F16" t="n">
+      <c r="J16" t="n">
         <v>0.3193437109197591</v>
       </c>
-      <c r="G16" t="n">
+      <c r="K16" t="n">
         <v>1.789791513631841</v>
       </c>
-      <c r="H16" t="n">
+      <c r="L16" t="n">
         <v>230.1791044776119</v>
       </c>
-      <c r="I16" t="n">
-        <v>14.38034315997054</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>0.85</v>
-      </c>
       <c r="M16" t="n">
+        <v>12.38360045600374</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0.7402201220274384</v>
       </c>
-      <c r="N16" t="n">
+      <c r="R16" t="n">
         <v>0.4314273723798594</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>1.517621832235924</v>
+      </c>
+      <c r="X16" t="n">
+        <v>112</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.268460038883757</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1378,34 +1690,45 @@
       <c r="D17" t="n">
         <v>1964</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>131</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
         <v>22.4869707120729</v>
       </c>
-      <c r="F17" t="n">
+      <c r="J17" t="n">
         <v>0.2481022740103791</v>
       </c>
-      <c r="G17" t="n">
+      <c r="K17" t="n">
         <v>2.638523689003425</v>
       </c>
-      <c r="H17" t="n">
+      <c r="L17" t="n">
         <v>303.8167938931298</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>7.083179084967321</v>
       </c>
-      <c r="K17" t="n">
+      <c r="O17" t="n">
         <v>0.05286922927510331</v>
       </c>
-      <c r="L17" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="n">
+        <v>0.85</v>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>113</v>
+      </c>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1427,46 +1750,67 @@
         <v>1997</v>
       </c>
       <c r="E18" t="n">
+        <v>73892.60377358491</v>
+      </c>
+      <c r="F18" t="n">
+        <v>56195.90566037736</v>
+      </c>
+      <c r="G18" t="n">
+        <v>149</v>
+      </c>
+      <c r="H18" t="n">
+        <v>26024</v>
+      </c>
+      <c r="I18" t="n">
         <v>17.49680933025547</v>
       </c>
-      <c r="F18" t="n">
+      <c r="J18" t="n">
         <v>0.3183014533168171</v>
       </c>
-      <c r="G18" t="n">
+      <c r="K18" t="n">
         <v>1.275189262798983</v>
       </c>
-      <c r="H18" t="n">
+      <c r="L18" t="n">
         <v>256.0201342281879</v>
       </c>
-      <c r="I18" t="n">
-        <v>17.24721676271502</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
+        <v>15.54162390883993</v>
+      </c>
+      <c r="N18" t="n">
         <v>10.28028972712681</v>
       </c>
-      <c r="K18" t="n">
+      <c r="O18" t="n">
         <v>0.03642720477532846</v>
       </c>
-      <c r="L18" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q18" t="n">
         <v>0.7731880481376434</v>
       </c>
-      <c r="N18" t="n">
+      <c r="R18" t="n">
         <v>0.4116907770647985</v>
       </c>
-      <c r="O18" t="n">
+      <c r="S18" t="n">
         <v>0.463417647839471</v>
       </c>
-      <c r="P18" t="n">
-        <v>0.02687305593531069</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="T18" t="n">
+        <v>0.0298222002740166</v>
+      </c>
+      <c r="U18" t="n">
         <v>0.007822957740832262</v>
       </c>
-      <c r="R18" t="n">
-        <v>0.01905009819447843</v>
+      <c r="V18" t="n">
+        <v>0.02199924253318434</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.206455180923881</v>
+      </c>
+      <c r="X18" t="n">
+        <v>128</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.036417873545348</v>
       </c>
     </row>
     <row r="19">
@@ -1489,41 +1833,56 @@
         <v>1962</v>
       </c>
       <c r="E19" t="n">
+        <v>148325</v>
+      </c>
+      <c r="F19" t="n">
+        <v>86183</v>
+      </c>
+      <c r="G19" t="n">
+        <v>219</v>
+      </c>
+      <c r="H19" t="n">
+        <v>90301</v>
+      </c>
+      <c r="I19" t="n">
         <v>21.3258022372695</v>
       </c>
-      <c r="F19" t="n">
+      <c r="J19" t="n">
         <v>0.2611130598363375</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
         <v>303.2191780821918</v>
       </c>
-      <c r="I19" t="n">
+      <c r="M19" t="n">
         <v>15.8095</v>
       </c>
-      <c r="J19" t="n">
+      <c r="N19" t="n">
         <v>6.972213427561837</v>
       </c>
-      <c r="K19" t="n">
+      <c r="O19" t="n">
         <v>0.05371066490296884</v>
       </c>
-      <c r="L19" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="n">
         <v>0.4120313731354763</v>
       </c>
-      <c r="P19" t="n">
-        <v>0.03507378010676342</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="T19" t="n">
+        <v>0.03651292336731043</v>
+      </c>
+      <c r="U19" t="n">
         <v>0.009118451655455951</v>
       </c>
-      <c r="R19" t="n">
-        <v>0.02595532845130747</v>
-      </c>
+      <c r="V19" t="n">
+        <v>0.02739447171185447</v>
+      </c>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1545,37 +1904,54 @@
         <v>1984</v>
       </c>
       <c r="E20" t="n">
+        <v>63276</v>
+      </c>
+      <c r="F20" t="n">
+        <v>49713</v>
+      </c>
+      <c r="G20" t="n">
+        <v>149</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20100</v>
+      </c>
+      <c r="I20" t="n">
         <v>18.00126385619849</v>
       </c>
-      <c r="F20" t="n">
+      <c r="J20" t="n">
         <v>0.3093371606238886</v>
       </c>
-      <c r="G20" t="n">
+      <c r="K20" t="n">
         <v>1.485729952148732</v>
       </c>
-      <c r="H20" t="n">
+      <c r="L20" t="n">
         <v>220.2684563758389</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>9.16140597539543</v>
       </c>
-      <c r="K20" t="n">
+      <c r="O20" t="n">
         <v>0.04087606422480258</v>
       </c>
-      <c r="L20" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="P20" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q20" t="n">
         <v>0.7622966041004579</v>
       </c>
-      <c r="N20" t="n">
+      <c r="R20" t="n">
         <v>0.4057966329868958</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>131</v>
+      </c>
+      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1597,46 +1973,67 @@
         <v>1990</v>
       </c>
       <c r="E21" t="n">
+        <v>65518.22222222222</v>
+      </c>
+      <c r="F21" t="n">
+        <v>51154.66666666666</v>
+      </c>
+      <c r="G21" t="n">
+        <v>145</v>
+      </c>
+      <c r="H21" t="n">
+        <v>25365.77777777778</v>
+      </c>
+      <c r="I21" t="n">
         <v>17.33353107822624</v>
       </c>
-      <c r="F21" t="n">
+      <c r="J21" t="n">
         <v>0.3213218797283361</v>
       </c>
-      <c r="G21" t="n">
+      <c r="K21" t="n">
         <v>1.698569474237269</v>
       </c>
-      <c r="H21" t="n">
+      <c r="L21" t="n">
         <v>238.2310344827586</v>
       </c>
-      <c r="I21" t="n">
-        <v>13.09212487520162</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
+        <v>11.93220241439876</v>
+      </c>
+      <c r="N21" t="n">
         <v>10.15596931026777</v>
       </c>
-      <c r="K21" t="n">
+      <c r="O21" t="n">
         <v>0.0369215224919367</v>
       </c>
-      <c r="L21" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="P21" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q21" t="n">
         <v>0.7678757320555913</v>
       </c>
-      <c r="N21" t="n">
+      <c r="R21" t="n">
         <v>0.41845984475682</v>
       </c>
-      <c r="O21" t="n">
+      <c r="S21" t="n">
         <v>0.4168299250063096</v>
       </c>
-      <c r="P21" t="n">
-        <v>0.03179558937287371</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="T21" t="n">
+        <v>0.03488642013380318</v>
+      </c>
+      <c r="U21" t="n">
         <v>0.006555980881650801</v>
       </c>
-      <c r="R21" t="n">
-        <v>0.02523960849122291</v>
+      <c r="V21" t="n">
+        <v>0.02833043925215238</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.475470707385693</v>
+      </c>
+      <c r="X21" t="n">
+        <v>113</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.149849585755747</v>
       </c>
     </row>
     <row r="22">
@@ -1659,35 +2056,54 @@
         <v>1983</v>
       </c>
       <c r="E22" t="n">
+        <v>179169</v>
+      </c>
+      <c r="F22" t="n">
+        <v>117934</v>
+      </c>
+      <c r="G22" t="n">
+        <v>290</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
         <v>17.09399611096489</v>
       </c>
-      <c r="F22" t="n">
+      <c r="J22" t="n">
         <v>0.3258776789624909</v>
       </c>
-      <c r="G22" t="n">
+      <c r="K22" t="n">
         <v>1.608396694502249</v>
       </c>
-      <c r="H22" t="n">
+      <c r="L22" t="n">
         <v>291.8706896551724</v>
       </c>
-      <c r="I22" t="n">
+      <c r="M22" t="n">
         <v>15.37240786190885</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M22" t="n">
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q22" t="n">
         <v>0.7966908097823399</v>
       </c>
-      <c r="N22" t="n">
+      <c r="R22" t="n">
         <v>0.4090125238774881</v>
       </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="n">
+        <v>1.48783112190594</v>
+      </c>
+      <c r="X22" t="n">
+        <v>186</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.9542640988776029</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1709,35 +2125,56 @@
         <v>2011</v>
       </c>
       <c r="E23" t="n">
+        <v>227930</v>
+      </c>
+      <c r="F23" t="n">
+        <v>161100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>381</v>
+      </c>
+      <c r="H23" t="n">
+        <v>126206</v>
+      </c>
+      <c r="I23" t="n">
         <v>15.24564965479821</v>
       </c>
-      <c r="F23" t="n">
+      <c r="J23" t="n">
         <v>0.3652902167156366</v>
       </c>
-      <c r="G23" t="n">
+      <c r="K23" t="n">
         <v>1.256752661572447</v>
       </c>
-      <c r="H23" t="n">
+      <c r="L23" t="n">
         <v>308.9370078740158</v>
       </c>
-      <c r="I23" t="n">
+      <c r="M23" t="n">
         <v>20.37866702308878</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M23" t="n">
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q23" t="n">
         <v>0.8376106428239523</v>
       </c>
-      <c r="N23" t="n">
+      <c r="R23" t="n">
         <v>0.4361115019272833</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="n">
+        <v>1.175359044474089</v>
+      </c>
+      <c r="X23" t="n">
+        <v>226</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.6971946038087771</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1759,35 +2196,56 @@
         <v>2014</v>
       </c>
       <c r="E24" t="n">
+        <v>254011</v>
+      </c>
+      <c r="F24" t="n">
+        <v>181436</v>
+      </c>
+      <c r="G24" t="n">
+        <v>420</v>
+      </c>
+      <c r="H24" t="n">
+        <v>126356</v>
+      </c>
+      <c r="I24" t="n">
         <v>15.36201678228015</v>
       </c>
-      <c r="F24" t="n">
+      <c r="J24" t="n">
         <v>0.3625179937329166</v>
       </c>
-      <c r="G24" t="n">
+      <c r="K24" t="n">
         <v>1.152019941095649</v>
       </c>
-      <c r="H24" t="n">
+      <c r="L24" t="n">
         <v>306.7857142857143</v>
       </c>
-      <c r="I24" t="n">
+      <c r="M24" t="n">
         <v>20.51364189849394</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M24" t="n">
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q24" t="n">
         <v>0.829636994027248</v>
       </c>
-      <c r="N24" t="n">
+      <c r="R24" t="n">
         <v>0.4369614149693229</v>
       </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="n">
+        <v>1.14505117943573</v>
+      </c>
+      <c r="X24" t="n">
+        <v>266</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.7251990803092957</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1809,33 +2267,50 @@
         <v>1968</v>
       </c>
       <c r="E25" t="n">
+        <v>58105</v>
+      </c>
+      <c r="F25" t="n">
+        <v>44905</v>
+      </c>
+      <c r="G25" t="n">
+        <v>136</v>
+      </c>
+      <c r="H25" t="n">
+        <v>22600</v>
+      </c>
+      <c r="I25" t="n">
         <v>22.76311802988742</v>
       </c>
-      <c r="F25" t="n">
+      <c r="J25" t="n">
         <v>0.2447247173326018</v>
       </c>
-      <c r="G25" t="n">
+      <c r="K25" t="n">
         <v>2.404629454850812</v>
       </c>
-      <c r="H25" t="n">
+      <c r="L25" t="n">
         <v>211.9705882352941</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>5.988823594024605</v>
       </c>
-      <c r="K25" t="n">
+      <c r="O25" t="n">
         <v>0.06253018028672548</v>
       </c>
-      <c r="L25" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="n">
+        <v>0.85</v>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="n">
+        <v>108</v>
+      </c>
+      <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1857,46 +2332,67 @@
         <v>1998</v>
       </c>
       <c r="E26" t="n">
+        <v>79015</v>
+      </c>
+      <c r="F26" t="n">
+        <v>62731</v>
+      </c>
+      <c r="G26" t="n">
+        <v>189</v>
+      </c>
+      <c r="H26" t="n">
+        <v>26024</v>
+      </c>
+      <c r="I26" t="n">
         <v>17.72499222979877</v>
       </c>
-      <c r="F26" t="n">
+      <c r="J26" t="n">
         <v>0.3141917861307944</v>
       </c>
-      <c r="G26" t="n">
+      <c r="K26" t="n">
         <v>1.119767569977147</v>
       </c>
-      <c r="H26" t="n">
+      <c r="L26" t="n">
         <v>217.6984126984127</v>
       </c>
-      <c r="I26" t="n">
-        <v>17.11157200174488</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="M26" t="n">
+        <v>15.56489039088282</v>
+      </c>
+      <c r="N26" t="n">
         <v>10.28028972712681</v>
       </c>
-      <c r="K26" t="n">
+      <c r="O26" t="n">
         <v>0.03642720477532846</v>
       </c>
-      <c r="L26" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="P26" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q26" t="n">
         <v>0.7670886989745277</v>
       </c>
-      <c r="N26" t="n">
+      <c r="R26" t="n">
         <v>0.4096026761482811</v>
       </c>
-      <c r="O26" t="n">
+      <c r="S26" t="n">
         <v>0.5225071472727238</v>
       </c>
-      <c r="P26" t="n">
-        <v>0.03053860787207184</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="T26" t="n">
+        <v>0.03357322630052721</v>
+      </c>
+      <c r="U26" t="n">
         <v>0.009945126646704961</v>
       </c>
-      <c r="R26" t="n">
-        <v>0.02059348122536688</v>
+      <c r="V26" t="n">
+        <v>0.02362809965382226</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.025375544030074</v>
+      </c>
+      <c r="X26" t="n">
+        <v>163</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.8843185908830796</v>
       </c>
     </row>
     <row r="27">
@@ -1919,46 +2415,67 @@
         <v>2001</v>
       </c>
       <c r="E27" t="n">
+        <v>79015</v>
+      </c>
+      <c r="F27" t="n">
+        <v>63639</v>
+      </c>
+      <c r="G27" t="n">
+        <v>189</v>
+      </c>
+      <c r="H27" t="n">
+        <v>26024</v>
+      </c>
+      <c r="I27" t="n">
         <v>17.71642473670745</v>
       </c>
-      <c r="F27" t="n">
+      <c r="J27" t="n">
         <v>0.3143467514972009</v>
       </c>
-      <c r="G27" t="n">
+      <c r="K27" t="n">
         <v>1.044394367241605</v>
       </c>
-      <c r="H27" t="n">
+      <c r="L27" t="n">
         <v>224.8306878306878</v>
       </c>
-      <c r="I27" t="n">
-        <v>17.590299709511</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="M27" t="n">
+        <v>15.68050826447953</v>
+      </c>
+      <c r="N27" t="n">
         <v>10.28028972712681</v>
       </c>
-      <c r="K27" t="n">
+      <c r="O27" t="n">
         <v>0.03642720477532846</v>
       </c>
-      <c r="L27" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M27" t="n">
+      <c r="P27" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q27" t="n">
         <v>0.7352593744138801</v>
       </c>
-      <c r="N27" t="n">
+      <c r="R27" t="n">
         <v>0.427548706511886</v>
       </c>
-      <c r="O27" t="n">
+      <c r="S27" t="n">
         <v>0.5225071472727238</v>
       </c>
-      <c r="P27" t="n">
-        <v>0.02970777219249516</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="T27" t="n">
+        <v>0.03332599988175266</v>
+      </c>
+      <c r="U27" t="n">
         <v>0.009945126646704961</v>
       </c>
-      <c r="R27" t="n">
-        <v>0.01976264554579019</v>
+      <c r="V27" t="n">
+        <v>0.0233808732350477</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.033776048227667</v>
+      </c>
+      <c r="X27" t="n">
+        <v>175</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.9572000446552472</v>
       </c>
     </row>
     <row r="28">
@@ -1981,46 +2498,67 @@
         <v>2007</v>
       </c>
       <c r="E28" t="n">
+        <v>85139</v>
+      </c>
+      <c r="F28" t="n">
+        <v>67721</v>
+      </c>
+      <c r="G28" t="n">
+        <v>220</v>
+      </c>
+      <c r="H28" t="n">
+        <v>26024</v>
+      </c>
+      <c r="I28" t="n">
         <v>17.73490260050415</v>
       </c>
-      <c r="F28" t="n">
+      <c r="J28" t="n">
         <v>0.3140165182168066</v>
       </c>
-      <c r="G28" t="n">
+      <c r="K28" t="n">
         <v>1.005997360734154</v>
       </c>
-      <c r="H28" t="n">
+      <c r="L28" t="n">
         <v>203.0772727272727</v>
       </c>
-      <c r="I28" t="n">
-        <v>15.57813340150977</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="M28" t="n">
+        <v>14.1963864564067</v>
+      </c>
+      <c r="N28" t="n">
         <v>10.28028972712681</v>
       </c>
-      <c r="K28" t="n">
+      <c r="O28" t="n">
         <v>0.03642720477532846</v>
       </c>
-      <c r="L28" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="P28" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q28" t="n">
         <v>0.76519504718423</v>
       </c>
-      <c r="N28" t="n">
+      <c r="R28" t="n">
         <v>0.4103875305272914</v>
       </c>
-      <c r="O28" t="n">
+      <c r="S28" t="n">
         <v>0.5629999514528718</v>
       </c>
-      <c r="P28" t="n">
-        <v>0.03614433750117015</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="T28" t="n">
+        <v>0.03966229808067227</v>
+      </c>
+      <c r="U28" t="n">
         <v>0.01154629267917204</v>
       </c>
-      <c r="R28" t="n">
-        <v>0.02459804482199811</v>
+      <c r="V28" t="n">
+        <v>0.02811600540150022</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.127427684674653</v>
+      </c>
+      <c r="X28" t="n">
+        <v>179</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.9173161616216495</v>
       </c>
     </row>
     <row r="29">
@@ -2043,46 +2581,67 @@
         <v>1970</v>
       </c>
       <c r="E29" t="n">
+        <v>333400</v>
+      </c>
+      <c r="F29" t="n">
+        <v>238816</v>
+      </c>
+      <c r="G29" t="n">
+        <v>440</v>
+      </c>
+      <c r="H29" t="n">
+        <v>178700</v>
+      </c>
+      <c r="I29" t="n">
         <v>17.41408489474545</v>
       </c>
-      <c r="F29" t="n">
+      <c r="J29" t="n">
         <v>0.3197707983426839</v>
       </c>
-      <c r="G29" t="n">
+      <c r="K29" t="n">
         <v>1.640815810720567</v>
       </c>
-      <c r="H29" t="n">
+      <c r="L29" t="n">
         <v>381.5984848484848</v>
       </c>
-      <c r="I29" t="n">
+      <c r="M29" t="n">
         <v>14.1742265477107</v>
       </c>
-      <c r="J29" t="n">
+      <c r="N29" t="n">
         <v>6.951389432485324</v>
       </c>
-      <c r="K29" t="n">
+      <c r="O29" t="n">
         <v>0.05387156376101137</v>
       </c>
-      <c r="L29" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="P29" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q29" t="n">
         <v>0.7898912020476966</v>
       </c>
-      <c r="N29" t="n">
+      <c r="R29" t="n">
         <v>0.4048302154963075</v>
       </c>
-      <c r="O29" t="n">
+      <c r="S29" t="n">
         <v>0.5375620061784633</v>
       </c>
-      <c r="P29" t="n">
+      <c r="T29" t="n">
         <v>0.0379257941238104</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="U29" t="n">
         <v>0.01556742257248467</v>
       </c>
-      <c r="R29" t="n">
+      <c r="V29" t="n">
         <v>0.02235837155132573</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.607596036522946</v>
+      </c>
+      <c r="X29" t="n">
+        <v>405</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.479719079072257</v>
       </c>
     </row>
     <row r="30">
@@ -2105,37 +2664,52 @@
         <v>1976</v>
       </c>
       <c r="E30" t="n">
+        <v>315700</v>
+      </c>
+      <c r="F30" t="n">
+        <v>192776</v>
+      </c>
+      <c r="G30" t="n">
+        <v>400</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
         <v>17.50092047553409</v>
       </c>
-      <c r="F30" t="n">
+      <c r="J30" t="n">
         <v>0.3182023562552688</v>
       </c>
-      <c r="G30" t="n">
+      <c r="K30" t="n">
         <v>2.226865704690404</v>
       </c>
-      <c r="H30" t="n">
+      <c r="L30" t="n">
         <v>378.625</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>6.951389432485324</v>
       </c>
-      <c r="K30" t="n">
+      <c r="O30" t="n">
         <v>0.05387156376101136</v>
       </c>
-      <c r="L30" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="P30" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q30" t="n">
         <v>0.7958288477847815</v>
       </c>
-      <c r="N30" t="n">
+      <c r="R30" t="n">
         <v>0.3999659603619502</v>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="n">
+        <v>248</v>
+      </c>
+      <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2157,35 +2731,54 @@
         <v>1999</v>
       </c>
       <c r="E31" t="n">
+        <v>123830</v>
+      </c>
+      <c r="F31" t="n">
+        <v>95254</v>
+      </c>
+      <c r="G31" t="n">
+        <v>295</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
         <v>17.4551072122684</v>
       </c>
-      <c r="F31" t="n">
+      <c r="J31" t="n">
         <v>0.319242654544345</v>
       </c>
-      <c r="G31" t="n">
+      <c r="K31" t="n">
         <v>1.110620770707444</v>
       </c>
-      <c r="H31" t="n">
+      <c r="L31" t="n">
         <v>218.1949152542372</v>
       </c>
-      <c r="I31" t="n">
-        <v>17.32760210845184</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>0.85</v>
-      </c>
       <c r="M31" t="n">
+        <v>15.65146175337232</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q31" t="n">
         <v>0.7951649093675337</v>
       </c>
-      <c r="N31" t="n">
+      <c r="R31" t="n">
         <v>0.4020008282147746</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="n">
+        <v>1.174656786481714</v>
+      </c>
+      <c r="X31" t="n">
+        <v>227</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.9038884424791493</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2207,46 +2800,65 @@
         <v>2000</v>
       </c>
       <c r="E32" t="n">
+        <v>204116</v>
+      </c>
+      <c r="F32" t="n">
+        <v>149685</v>
+      </c>
+      <c r="G32" t="n">
+        <v>375</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
         <v>17.06938157570028</v>
       </c>
-      <c r="F32" t="n">
+      <c r="J32" t="n">
         <v>0.3262242074174033</v>
       </c>
-      <c r="G32" t="n">
+      <c r="K32" t="n">
         <v>1.335323623930043</v>
       </c>
-      <c r="H32" t="n">
+      <c r="L32" t="n">
         <v>275.6977777777777</v>
       </c>
-      <c r="I32" t="n">
+      <c r="M32" t="n">
         <v>17.77697996226533</v>
       </c>
-      <c r="J32" t="n">
+      <c r="N32" t="n">
         <v>17.21442922374429</v>
       </c>
-      <c r="K32" t="n">
+      <c r="O32" t="n">
         <v>0.02175397244790556</v>
       </c>
-      <c r="L32" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="P32" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q32" t="n">
         <v>0.7828970974996786</v>
       </c>
-      <c r="N32" t="n">
+      <c r="R32" t="n">
         <v>0.4166884874899376</v>
       </c>
-      <c r="O32" t="n">
+      <c r="S32" t="n">
         <v>0.7679457231120903</v>
       </c>
-      <c r="P32" t="n">
+      <c r="T32" t="n">
         <v>0.04319888556673778</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="U32" t="n">
         <v>0.01282920149574874</v>
       </c>
-      <c r="R32" t="n">
+      <c r="V32" t="n">
         <v>0.03036968407098904</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.305531264304784</v>
+      </c>
+      <c r="X32" t="n">
+        <v>249</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.8668727594983766</v>
       </c>
     </row>
     <row r="33">
@@ -2269,46 +2881,65 @@
         <v>1997</v>
       </c>
       <c r="E33" t="n">
+        <v>319782</v>
+      </c>
+      <c r="F33" t="n">
+        <v>232239</v>
+      </c>
+      <c r="G33" t="n">
+        <v>550</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
         <v>16.81481451040719</v>
       </c>
-      <c r="F33" t="n">
+      <c r="J33" t="n">
         <v>0.3312773869732624</v>
       </c>
-      <c r="G33" t="n">
+      <c r="K33" t="n">
         <v>1.45127382838302</v>
       </c>
-      <c r="H33" t="n">
+      <c r="L33" t="n">
         <v>289.2454545454545</v>
       </c>
-      <c r="I33" t="n">
+      <c r="M33" t="n">
         <v>20.48071602122923</v>
       </c>
-      <c r="J33" t="n">
+      <c r="N33" t="n">
         <v>9.242461430575036</v>
       </c>
-      <c r="K33" t="n">
+      <c r="O33" t="n">
         <v>0.04067389957076707</v>
       </c>
-      <c r="L33" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="P33" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q33" t="n">
         <v>0.8055273068170973</v>
       </c>
-      <c r="N33" t="n">
+      <c r="R33" t="n">
         <v>0.4113191490067188</v>
       </c>
-      <c r="O33" t="n">
+      <c r="S33" t="n">
         <v>0.6770535964635579</v>
       </c>
-      <c r="P33" t="n">
+      <c r="T33" t="n">
         <v>0.03306951417568201</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="U33" t="n">
         <v>0.01864497952230561</v>
       </c>
-      <c r="R33" t="n">
+      <c r="V33" t="n">
         <v>0.0144245346533764</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.362634274000017</v>
+      </c>
+      <c r="X33" t="n">
+        <v>329</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.815103047538192</v>
       </c>
     </row>
     <row r="34">
@@ -2331,35 +2962,56 @@
         <v>2018</v>
       </c>
       <c r="E34" t="n">
+        <v>254011</v>
+      </c>
+      <c r="F34" t="n">
+        <v>192777</v>
+      </c>
+      <c r="G34" t="n">
+        <v>440</v>
+      </c>
+      <c r="H34" t="n">
+        <v>126356</v>
+      </c>
+      <c r="I34" t="n">
         <v>15.52666529587989</v>
       </c>
-      <c r="F34" t="n">
+      <c r="J34" t="n">
         <v>0.3586711279463648</v>
       </c>
-      <c r="G34" t="n">
+      <c r="K34" t="n">
         <v>1.005809122765289</v>
       </c>
-      <c r="H34" t="n">
+      <c r="L34" t="n">
         <v>307.9545454545454</v>
       </c>
-      <c r="I34" t="n">
+      <c r="M34" t="n">
         <v>20.5962742557415</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q34" t="n">
         <v>0.8282003104653158</v>
       </c>
-      <c r="N34" t="n">
+      <c r="R34" t="n">
         <v>0.4330727033762745</v>
       </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="n">
+        <v>0.9950608429392854</v>
+      </c>
+      <c r="X34" t="n">
+        <v>318</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.7191576092152108</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2381,43 +3033,58 @@
         <v>1959</v>
       </c>
       <c r="E35" t="n">
+        <v>117027</v>
+      </c>
+      <c r="F35" t="n">
+        <v>77111</v>
+      </c>
+      <c r="G35" t="n">
+        <v>189</v>
+      </c>
+      <c r="H35" t="n">
+        <v>58398</v>
+      </c>
+      <c r="I35" t="n">
         <v>28.1765</v>
       </c>
-      <c r="F35" t="n">
+      <c r="J35" t="n">
         <v>0.2611130598363375</v>
       </c>
-      <c r="G35" t="n">
+      <c r="K35" t="n">
         <v>3.0372</v>
       </c>
-      <c r="H35" t="n">
+      <c r="L35" t="n">
         <v>305.8201058201058</v>
       </c>
-      <c r="I35" t="n">
+      <c r="M35" t="n">
         <v>15.8095</v>
       </c>
-      <c r="J35" t="n">
+      <c r="N35" t="n">
         <v>7.03723185840708</v>
       </c>
-      <c r="K35" t="n">
+      <c r="O35" t="n">
         <v>0.05321442103579064</v>
       </c>
-      <c r="L35" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
         <v>0.4255601806534976</v>
       </c>
-      <c r="P35" t="n">
-        <v>0.02370889647858531</v>
-      </c>
-      <c r="Q35" t="n">
+      <c r="T35" t="n">
+        <v>0.02496312303563335</v>
+      </c>
+      <c r="U35" t="n">
         <v>0.009637209734179461</v>
       </c>
-      <c r="R35" t="n">
-        <v>0.01407168674440585</v>
-      </c>
+      <c r="V35" t="n">
+        <v>0.01532591330145389</v>
+      </c>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2438,34 +3105,45 @@
       <c r="D36" t="n">
         <v>1967</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>189</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
         <v>23.0569655376551</v>
       </c>
-      <c r="F36" t="n">
+      <c r="J36" t="n">
         <v>0.2416931831157501</v>
       </c>
-      <c r="G36" t="n">
+      <c r="K36" t="n">
         <v>2.128743856018835</v>
       </c>
-      <c r="H36" t="n">
+      <c r="L36" t="n">
         <v>240.7019400352734</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>7.083179084967321</v>
       </c>
-      <c r="K36" t="n">
+      <c r="O36" t="n">
         <v>0.05286922927510332</v>
       </c>
-      <c r="L36" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="n">
+        <v>0.85</v>
+      </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2487,46 +3165,67 @@
         <v>2017</v>
       </c>
       <c r="E37" t="n">
+        <v>82645</v>
+      </c>
+      <c r="F37" t="n">
+        <v>65952</v>
+      </c>
+      <c r="G37" t="n">
+        <v>210</v>
+      </c>
+      <c r="H37" t="n">
+        <v>25817</v>
+      </c>
+      <c r="I37" t="n">
         <v>15.7290159675477</v>
       </c>
-      <c r="F37" t="n">
+      <c r="J37" t="n">
         <v>0.354026976416006</v>
       </c>
-      <c r="G37" t="n">
+      <c r="K37" t="n">
         <v>0.8953661112939827</v>
       </c>
-      <c r="H37" t="n">
+      <c r="L37" t="n">
         <v>214.5952380952381</v>
       </c>
-      <c r="I37" t="n">
-        <v>21.19179108405555</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="M37" t="n">
+        <v>18.76996058963584</v>
+      </c>
+      <c r="N37" t="n">
         <v>10.15942047244095</v>
       </c>
-      <c r="K37" t="n">
+      <c r="O37" t="n">
         <v>0.03686058865814214</v>
       </c>
-      <c r="L37" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="P37" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q37" t="n">
         <v>0.8067927298853939</v>
       </c>
-      <c r="N37" t="n">
+      <c r="R37" t="n">
         <v>0.4388087606142206</v>
       </c>
-      <c r="O37" t="n">
+      <c r="S37" t="n">
         <v>0.5361752695446019</v>
       </c>
-      <c r="P37" t="n">
-        <v>0.0253013126141053</v>
-      </c>
-      <c r="Q37" t="n">
+      <c r="T37" t="n">
+        <v>0.02856586344494299</v>
+      </c>
+      <c r="U37" t="n">
         <v>0.01059682650883146</v>
       </c>
-      <c r="R37" t="n">
-        <v>0.01470448610527384</v>
+      <c r="V37" t="n">
+        <v>0.01796903693611153</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.8353390780716035</v>
+      </c>
+      <c r="X37" t="n">
+        <v>171</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.6802046778583057</v>
       </c>
     </row>
     <row r="38">
@@ -2549,44 +3248,65 @@
         <v>2018</v>
       </c>
       <c r="E38" t="n">
+        <v>88314</v>
+      </c>
+      <c r="F38" t="n">
+        <v>70987</v>
+      </c>
+      <c r="G38" t="n">
+        <v>220</v>
+      </c>
+      <c r="H38" t="n">
+        <v>25817</v>
+      </c>
+      <c r="I38" t="n">
         <v>15.75412077408917</v>
       </c>
-      <c r="F38" t="n">
+      <c r="J38" t="n">
         <v>0.3534602766522315</v>
       </c>
-      <c r="G38" t="n">
+      <c r="K38" t="n">
         <v>0.8889188737585035</v>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="n">
-        <v>21.41469630824517</v>
-      </c>
-      <c r="J38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>18.7938656279299</v>
+      </c>
+      <c r="N38" t="n">
         <v>10.15942047244095</v>
       </c>
-      <c r="K38" t="n">
+      <c r="O38" t="n">
         <v>0.03686058865814214</v>
       </c>
-      <c r="L38" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M38" t="n">
+      <c r="P38" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q38" t="n">
         <v>0.8242132772494805</v>
       </c>
-      <c r="N38" t="n">
+      <c r="R38" t="n">
         <v>0.4288458133952533</v>
       </c>
-      <c r="O38" t="n">
+      <c r="S38" t="n">
         <v>0.5729600712422284</v>
       </c>
-      <c r="P38" t="n">
-        <v>0.02675551099512881</v>
-      </c>
-      <c r="Q38" t="n">
+      <c r="T38" t="n">
+        <v>0.03048660418648039</v>
+      </c>
+      <c r="U38" t="n">
         <v>0.01210071359235303</v>
       </c>
-      <c r="R38" t="n">
-        <v>0.01465479740277577</v>
+      <c r="V38" t="n">
+        <v>0.01838589059412736</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.8795860416327073</v>
+      </c>
+      <c r="X38" t="n">
+        <v>178</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.7116650700482813</v>
       </c>
     </row>
     <row r="39">
@@ -2609,42 +3329,63 @@
         <v>1967</v>
       </c>
       <c r="E39" t="n">
+        <v>58105</v>
+      </c>
+      <c r="F39" t="n">
+        <v>44905</v>
+      </c>
+      <c r="G39" t="n">
+        <v>130</v>
+      </c>
+      <c r="H39" t="n">
+        <v>20250</v>
+      </c>
+      <c r="I39" t="n">
         <v>22.76311802988742</v>
       </c>
-      <c r="F39" t="n">
+      <c r="J39" t="n">
         <v>0.2447247173326018</v>
       </c>
-      <c r="G39" t="n">
+      <c r="K39" t="n">
         <v>2.055448959277904</v>
       </c>
-      <c r="H39" t="n">
+      <c r="L39" t="n">
         <v>211.1230769230769</v>
       </c>
-      <c r="I39" t="n">
-        <v>14.53720195028649</v>
-      </c>
-      <c r="J39" t="n">
+      <c r="M39" t="n">
+        <v>12.50840652114147</v>
+      </c>
+      <c r="N39" t="n">
         <v>5.988823594024605</v>
       </c>
-      <c r="K39" t="n">
+      <c r="O39" t="n">
         <v>0.06253018028672548</v>
       </c>
-      <c r="L39" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
         <v>0.4515673811211251</v>
       </c>
-      <c r="P39" t="n">
-        <v>0.03107544481046485</v>
-      </c>
-      <c r="Q39" t="n">
+      <c r="T39" t="n">
+        <v>0.03611571275215356</v>
+      </c>
+      <c r="U39" t="n">
         <v>0.01275072288660277</v>
       </c>
-      <c r="R39" t="n">
-        <v>0.01832472192386207</v>
+      <c r="V39" t="n">
+        <v>0.02336498986555079</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.848998853040951</v>
+      </c>
+      <c r="X39" t="n">
+        <v>109</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.550314422934336</v>
       </c>
     </row>
     <row r="40">
@@ -2667,46 +3408,67 @@
         <v>1988</v>
       </c>
       <c r="E40" t="n">
+        <v>68038</v>
+      </c>
+      <c r="F40" t="n">
+        <v>53070</v>
+      </c>
+      <c r="G40" t="n">
+        <v>188</v>
+      </c>
+      <c r="H40" t="n">
+        <v>20100</v>
+      </c>
+      <c r="I40" t="n">
         <v>18.01149478558387</v>
       </c>
-      <c r="F40" t="n">
+      <c r="J40" t="n">
         <v>0.3091615499916621</v>
       </c>
-      <c r="G40" t="n">
+      <c r="K40" t="n">
         <v>1.385801233313683</v>
       </c>
-      <c r="H40" t="n">
+      <c r="L40" t="n">
         <v>184.5505319148936</v>
       </c>
-      <c r="I40" t="n">
-        <v>14.58974402268139</v>
-      </c>
-      <c r="J40" t="n">
+      <c r="M40" t="n">
+        <v>13.12333798426103</v>
+      </c>
+      <c r="N40" t="n">
         <v>9.16140597539543</v>
       </c>
-      <c r="K40" t="n">
+      <c r="O40" t="n">
         <v>0.04087606422480258</v>
       </c>
-      <c r="L40" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M40" t="n">
+      <c r="P40" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q40" t="n">
         <v>0.7570096152512362</v>
       </c>
-      <c r="N40" t="n">
+      <c r="R40" t="n">
         <v>0.4083988035514686</v>
       </c>
-      <c r="O40" t="n">
+      <c r="S40" t="n">
         <v>0.6157737015288071</v>
       </c>
-      <c r="P40" t="n">
-        <v>0.04220605164059205</v>
-      </c>
-      <c r="Q40" t="n">
+      <c r="T40" t="n">
+        <v>0.0469221695259862</v>
+      </c>
+      <c r="U40" t="n">
         <v>0.01549927368467283</v>
       </c>
-      <c r="R40" t="n">
-        <v>0.02670677795591923</v>
+      <c r="V40" t="n">
+        <v>0.03142289584131337</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.300332435026857</v>
+      </c>
+      <c r="X40" t="n">
+        <v>143</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.9890826500470241</v>
       </c>
     </row>
     <row r="41">
@@ -2729,46 +3491,67 @@
         <v>1970</v>
       </c>
       <c r="E41" t="n">
+        <v>377842</v>
+      </c>
+      <c r="F41" t="n">
+        <v>250447</v>
+      </c>
+      <c r="G41" t="n">
+        <v>550</v>
+      </c>
+      <c r="H41" t="n">
+        <v>194851.4285714286</v>
+      </c>
+      <c r="I41" t="n">
         <v>17.49683082336579</v>
       </c>
-      <c r="F41" t="n">
+      <c r="J41" t="n">
         <v>0.3183269811393317</v>
       </c>
-      <c r="G41" t="n">
+      <c r="K41" t="n">
         <v>1.794428297949458</v>
       </c>
-      <c r="H41" t="n">
+      <c r="L41" t="n">
         <v>312.4242424242424</v>
       </c>
-      <c r="I41" t="n">
+      <c r="M41" t="n">
         <v>13.02594754919924</v>
       </c>
-      <c r="J41" t="n">
+      <c r="N41" t="n">
         <v>6.951389432485324</v>
       </c>
-      <c r="K41" t="n">
+      <c r="O41" t="n">
         <v>0.05387156376101137</v>
       </c>
-      <c r="L41" t="n">
+      <c r="P41" t="n">
         <v>0.8499999999999999</v>
       </c>
-      <c r="M41" t="n">
+      <c r="Q41" t="n">
         <v>0.7582416071737869</v>
       </c>
-      <c r="N41" t="n">
+      <c r="R41" t="n">
         <v>0.4199726818385396</v>
       </c>
-      <c r="O41" t="n">
+      <c r="S41" t="n">
         <v>0.5814446189277256</v>
       </c>
-      <c r="P41" t="n">
+      <c r="T41" t="n">
         <v>0.04464757775372925</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="U41" t="n">
         <v>0.01821278217663866</v>
       </c>
-      <c r="R41" t="n">
+      <c r="V41" t="n">
         <v>0.02643479557709058</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.96228034370375</v>
+      </c>
+      <c r="X41" t="n">
+        <v>391</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.395002935251211</v>
       </c>
     </row>
     <row r="42">
@@ -2791,46 +3574,65 @@
         <v>1989</v>
       </c>
       <c r="E42" t="n">
+        <v>396893</v>
+      </c>
+      <c r="F42" t="n">
+        <v>246754</v>
+      </c>
+      <c r="G42" t="n">
+        <v>550</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
         <v>17.36719498633941</v>
       </c>
-      <c r="F42" t="n">
+      <c r="J42" t="n">
         <v>0.3207641290482429</v>
       </c>
-      <c r="G42" t="n">
+      <c r="K42" t="n">
         <v>1.577330583980868</v>
       </c>
-      <c r="H42" t="n">
+      <c r="L42" t="n">
         <v>329.3181818181818</v>
       </c>
-      <c r="I42" t="n">
+      <c r="M42" t="n">
         <v>17.13050625161565</v>
       </c>
-      <c r="J42" t="n">
+      <c r="N42" t="n">
         <v>7.813733686105675</v>
       </c>
-      <c r="K42" t="n">
+      <c r="O42" t="n">
         <v>0.04799817840774089</v>
       </c>
-      <c r="L42" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M42" t="n">
+      <c r="P42" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q42" t="n">
         <v>0.7459442726768427</v>
       </c>
-      <c r="N42" t="n">
+      <c r="R42" t="n">
         <v>0.4299850962630789</v>
       </c>
-      <c r="O42" t="n">
+      <c r="S42" t="n">
         <v>0.6245958547978334</v>
       </c>
-      <c r="P42" t="n">
+      <c r="T42" t="n">
         <v>0.03647949037332818</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="U42" t="n">
         <v>0.01873896429596236</v>
       </c>
-      <c r="R42" t="n">
+      <c r="V42" t="n">
         <v>0.01774052607736582</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.567817459973697</v>
+      </c>
+      <c r="X42" t="n">
+        <v>386</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.10032279918154</v>
       </c>
     </row>
     <row r="43">
@@ -2853,35 +3655,54 @@
         <v>1984</v>
       </c>
       <c r="E43" t="n">
+        <v>110033.8333333333</v>
+      </c>
+      <c r="F43" t="n">
+        <v>84703</v>
+      </c>
+      <c r="G43" t="n">
+        <v>239</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
         <v>17.58253515506082</v>
       </c>
-      <c r="F43" t="n">
+      <c r="J43" t="n">
         <v>0.3169735700128617</v>
       </c>
-      <c r="G43" t="n">
+      <c r="K43" t="n">
         <v>1.257618610959593</v>
       </c>
-      <c r="H43" t="n">
+      <c r="L43" t="n">
         <v>247.8242677824268</v>
       </c>
-      <c r="I43" t="n">
-        <v>16.15661679558922</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>0.85</v>
-      </c>
       <c r="M43" t="n">
+        <v>14.75280222183371</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q43" t="n">
         <v>0.8206382848850665</v>
       </c>
-      <c r="N43" t="n">
+      <c r="R43" t="n">
         <v>0.3866826721617297</v>
       </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="n">
+        <v>1.30972191201682</v>
+      </c>
+      <c r="X43" t="n">
+        <v>186</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.01928148801309</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2903,35 +3724,54 @@
         <v>1987</v>
       </c>
       <c r="E44" t="n">
+        <v>186880</v>
+      </c>
+      <c r="F44" t="n">
+        <v>133809</v>
+      </c>
+      <c r="G44" t="n">
+        <v>351</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
         <v>17.11208018153209</v>
       </c>
-      <c r="F44" t="n">
+      <c r="J44" t="n">
         <v>0.3255372035632955</v>
       </c>
-      <c r="G44" t="n">
+      <c r="K44" t="n">
         <v>1.406321580860593</v>
       </c>
-      <c r="H44" t="n">
+      <c r="L44" t="n">
         <v>258.5660018993353</v>
       </c>
-      <c r="I44" t="n">
+      <c r="M44" t="n">
         <v>16.06457822124447</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q44" t="n">
         <v>0.792807834995948</v>
       </c>
-      <c r="N44" t="n">
+      <c r="R44" t="n">
         <v>0.4106035124482257</v>
       </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="n">
+        <v>1.322512080118051</v>
+      </c>
+      <c r="X44" t="n">
+        <v>228</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.8590676759741186</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2953,46 +3793,65 @@
         <v>1995</v>
       </c>
       <c r="E45" t="n">
+        <v>304662.3333333333</v>
+      </c>
+      <c r="F45" t="n">
+        <v>201923.5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>440</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
         <v>16.22484157407747</v>
       </c>
-      <c r="F45" t="n">
+      <c r="J45" t="n">
         <v>0.3434804570738821</v>
       </c>
-      <c r="G45" t="n">
+      <c r="K45" t="n">
         <v>1.503928611287193</v>
       </c>
-      <c r="H45" t="n">
+      <c r="L45" t="n">
         <v>322.9280303030303</v>
       </c>
-      <c r="I45" t="n">
+      <c r="M45" t="n">
         <v>19.92558815468512</v>
       </c>
-      <c r="J45" t="n">
+      <c r="N45" t="n">
         <v>8.860483870967741</v>
       </c>
-      <c r="K45" t="n">
+      <c r="O45" t="n">
         <v>0.04235489299599872</v>
       </c>
-      <c r="L45" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M45" t="n">
+      <c r="P45" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q45" t="n">
         <v>0.8012726584302597</v>
       </c>
-      <c r="N45" t="n">
+      <c r="R45" t="n">
         <v>0.4287688024298711</v>
       </c>
-      <c r="O45" t="n">
+      <c r="S45" t="n">
         <v>0.6691910385691424</v>
       </c>
-      <c r="P45" t="n">
+      <c r="T45" t="n">
         <v>0.03361146888636777</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="U45" t="n">
         <v>0.01896722612744536</v>
       </c>
-      <c r="R45" t="n">
+      <c r="V45" t="n">
         <v>0.01464424275892241</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.540685556401292</v>
+      </c>
+      <c r="X45" t="n">
+        <v>273</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.9559253565853472</v>
       </c>
     </row>
     <row r="46">
@@ -3015,33 +3874,50 @@
         <v>1992</v>
       </c>
       <c r="E46" t="n">
+        <v>21523</v>
+      </c>
+      <c r="F46" t="n">
+        <v>19142</v>
+      </c>
+      <c r="G46" t="n">
+        <v>50</v>
+      </c>
+      <c r="H46" t="n">
+        <v>8082</v>
+      </c>
+      <c r="I46" t="n">
         <v>17.28285017013491</v>
       </c>
-      <c r="F46" t="n">
+      <c r="J46" t="n">
         <v>0.32219485911302</v>
       </c>
-      <c r="G46" t="n">
+      <c r="K46" t="n">
         <v>2.214675784779499</v>
       </c>
-      <c r="H46" t="n">
+      <c r="L46" t="n">
         <v>276.7</v>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q46" t="n">
         <v>0.6093099316986447</v>
       </c>
-      <c r="N46" t="n">
+      <c r="R46" t="n">
         <v>0.5287864883718532</v>
       </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3063,37 +3939,54 @@
         <v>2001</v>
       </c>
       <c r="E47" t="n">
+        <v>36514</v>
+      </c>
+      <c r="F47" t="n">
+        <v>31751</v>
+      </c>
+      <c r="G47" t="n">
+        <v>90</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10989</v>
+      </c>
+      <c r="I47" t="n">
         <v>18.1474420852141</v>
       </c>
-      <c r="F47" t="n">
+      <c r="J47" t="n">
         <v>0.3068453419919016</v>
       </c>
-      <c r="G47" t="n">
+      <c r="K47" t="n">
         <v>1.632643866704311</v>
       </c>
-      <c r="H47" t="n">
+      <c r="L47" t="n">
         <v>238.1333333333333</v>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>8.720253164556961</v>
       </c>
-      <c r="K47" t="n">
+      <c r="O47" t="n">
         <v>0.04294396182920678</v>
       </c>
-      <c r="L47" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M47" t="n">
+      <c r="P47" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q47" t="n">
         <v>0.6553496613953217</v>
       </c>
-      <c r="N47" t="n">
+      <c r="R47" t="n">
         <v>0.4682167120337273</v>
       </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="n">
+        <v>76</v>
+      </c>
+      <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3115,37 +4008,54 @@
         <v>1999</v>
       </c>
       <c r="E48" t="n">
+        <v>32999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>28259</v>
+      </c>
+      <c r="G48" t="n">
+        <v>78</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10989</v>
+      </c>
+      <c r="I48" t="n">
         <v>17.97625309347459</v>
       </c>
-      <c r="F48" t="n">
+      <c r="J48" t="n">
         <v>0.3097669485143899</v>
       </c>
-      <c r="G48" t="n">
+      <c r="K48" t="n">
         <v>1.811345791353538</v>
       </c>
-      <c r="H48" t="n">
+      <c r="L48" t="n">
         <v>274.7692307692308</v>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>7.623796033994335</v>
       </c>
-      <c r="K48" t="n">
+      <c r="O48" t="n">
         <v>0.04912017810680478</v>
       </c>
-      <c r="L48" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M48" t="n">
+      <c r="P48" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q48" t="n">
         <v>0.7436383328885995</v>
       </c>
-      <c r="N48" t="n">
+      <c r="R48" t="n">
         <v>0.4165560046493103</v>
       </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="n">
+        <v>67</v>
+      </c>
+      <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3167,46 +4077,67 @@
         <v>2004</v>
       </c>
       <c r="E49" t="n">
+        <v>51843.125</v>
+      </c>
+      <c r="F49" t="n">
+        <v>44140.625</v>
+      </c>
+      <c r="G49" t="n">
+        <v>124</v>
+      </c>
+      <c r="H49" t="n">
+        <v>16347.75</v>
+      </c>
+      <c r="I49" t="n">
         <v>16.77016917536357</v>
       </c>
-      <c r="F49" t="n">
+      <c r="J49" t="n">
         <v>0.3340784549997739</v>
       </c>
-      <c r="G49" t="n">
+      <c r="K49" t="n">
         <v>1.712372106412916</v>
       </c>
-      <c r="H49" t="n">
+      <c r="L49" t="n">
         <v>226.7204301075269</v>
       </c>
-      <c r="I49" t="n">
-        <v>15.37273403527655</v>
-      </c>
-      <c r="J49" t="n">
+      <c r="M49" t="n">
+        <v>12.90243961716091</v>
+      </c>
+      <c r="N49" t="n">
         <v>9.754665681149657</v>
       </c>
-      <c r="K49" t="n">
+      <c r="O49" t="n">
         <v>0.03898101704058082</v>
       </c>
-      <c r="L49" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M49" t="n">
+      <c r="P49" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q49" t="n">
         <v>0.7185417761981302</v>
       </c>
-      <c r="N49" t="n">
+      <c r="R49" t="n">
         <v>0.4645285119963847</v>
       </c>
-      <c r="O49" t="n">
+      <c r="S49" t="n">
         <v>0.4120757825983491</v>
       </c>
-      <c r="P49" t="n">
-        <v>0.02686412241986147</v>
-      </c>
-      <c r="Q49" t="n">
+      <c r="T49" t="n">
+        <v>0.0320075134087326</v>
+      </c>
+      <c r="U49" t="n">
         <v>0.006707659487483158</v>
       </c>
-      <c r="R49" t="n">
-        <v>0.02015646293237832</v>
+      <c r="V49" t="n">
+        <v>0.02529985392124945</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.421547968975648</v>
+      </c>
+      <c r="X49" t="n">
+        <v>99</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.134945555875719</v>
       </c>
     </row>
     <row r="50">
@@ -3229,35 +4160,52 @@
         <v>1999</v>
       </c>
       <c r="E50" t="n">
+        <v>21096</v>
+      </c>
+      <c r="F50" t="n">
+        <v>15840</v>
+      </c>
+      <c r="G50" t="n">
+        <v>37</v>
+      </c>
+      <c r="H50" t="n">
+        <v>8216.799999999999</v>
+      </c>
+      <c r="I50" t="n">
         <v>18.16621531661354</v>
       </c>
-      <c r="F50" t="n">
+      <c r="J50" t="n">
         <v>0.3065334694794639</v>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="n">
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
         <v>339.1891891891892</v>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>7.846846424384525</v>
       </c>
-      <c r="K50" t="n">
+      <c r="O50" t="n">
         <v>0.0477239133769751</v>
       </c>
-      <c r="L50" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M50" t="n">
+      <c r="P50" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q50" t="n">
         <v>0.5528523772393286</v>
       </c>
-      <c r="N50" t="n">
+      <c r="R50" t="n">
         <v>0.5544650077217133</v>
       </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3279,37 +4227,54 @@
         <v>2005</v>
       </c>
       <c r="E51" t="n">
+        <v>37500</v>
+      </c>
+      <c r="F51" t="n">
+        <v>31700</v>
+      </c>
+      <c r="G51" t="n">
+        <v>88</v>
+      </c>
+      <c r="H51" t="n">
+        <v>11625</v>
+      </c>
+      <c r="I51" t="n">
         <v>18.19340342917936</v>
       </c>
-      <c r="F51" t="n">
+      <c r="J51" t="n">
         <v>0.30607259236972</v>
       </c>
-      <c r="G51" t="n">
+      <c r="K51" t="n">
         <v>1.431502217381948</v>
       </c>
-      <c r="H51" t="n">
+      <c r="L51" t="n">
         <v>247.8409090909091</v>
       </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>11.28743811881188</v>
       </c>
-      <c r="K51" t="n">
+      <c r="O51" t="n">
         <v>0.03317690117969585</v>
       </c>
-      <c r="L51" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M51" t="n">
+      <c r="P51" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q51" t="n">
         <v>0.7345017419284566</v>
       </c>
-      <c r="N51" t="n">
+      <c r="R51" t="n">
         <v>0.4167092078440441</v>
       </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3331,46 +4296,67 @@
         <v>1996</v>
       </c>
       <c r="E52" t="n">
+        <v>20016.66666666667</v>
+      </c>
+      <c r="F52" t="n">
+        <v>17333.33333333333</v>
+      </c>
+      <c r="G52" t="n">
+        <v>50</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5528</v>
+      </c>
+      <c r="I52" t="n">
         <v>18.22195069609804</v>
       </c>
-      <c r="F52" t="n">
+      <c r="J52" t="n">
         <v>0.3055946580068649</v>
       </c>
-      <c r="G52" t="n">
+      <c r="K52" t="n">
         <v>2.16826498481953</v>
       </c>
-      <c r="H52" t="n">
+      <c r="L52" t="n">
         <v>244.1333333333333</v>
       </c>
-      <c r="I52" t="n">
+      <c r="M52" t="n">
         <v>19.39463597265902</v>
       </c>
-      <c r="J52" t="n">
+      <c r="N52" t="n">
         <v>7.975146541617818</v>
       </c>
-      <c r="K52" t="n">
+      <c r="O52" t="n">
         <v>0.04701331404636609</v>
       </c>
-      <c r="L52" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M52" t="n">
+      <c r="P52" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q52" t="n">
         <v>0.5943685321574762</v>
       </c>
-      <c r="N52" t="n">
+      <c r="R52" t="n">
         <v>0.514154609092471</v>
       </c>
-      <c r="O52" t="n">
+      <c r="S52" t="n">
         <v>0.3316372652954849</v>
       </c>
-      <c r="P52" t="n">
+      <c r="T52" t="n">
         <v>0.01709969431037421</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="U52" t="n">
         <v>0.005170678281867987</v>
       </c>
-      <c r="R52" t="n">
+      <c r="V52" t="n">
         <v>0.01192901602850622</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.69889425077896</v>
+      </c>
+      <c r="X52" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.69889425077896</v>
       </c>
     </row>
     <row r="53">
@@ -3393,35 +4379,52 @@
         <v>1973</v>
       </c>
       <c r="E53" t="n">
+        <v>224982</v>
+      </c>
+      <c r="F53" t="n">
+        <v>153314</v>
+      </c>
+      <c r="G53" t="n">
+        <v>400</v>
+      </c>
+      <c r="H53" t="n">
+        <v>120705</v>
+      </c>
+      <c r="I53" t="n">
         <v>17.5682</v>
       </c>
-      <c r="F53" t="n">
+      <c r="J53" t="n">
         <v>0.3139168205131977</v>
       </c>
-      <c r="G53" t="n">
+      <c r="K53" t="n">
         <v>1.69015679246197</v>
       </c>
-      <c r="H53" t="n">
+      <c r="L53" t="n">
         <v>277.7625</v>
       </c>
-      <c r="I53" t="n">
+      <c r="M53" t="n">
         <v>14.3153</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M53" t="n">
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q53" t="n">
         <v>0.768913891649879</v>
       </c>
-      <c r="N53" t="n">
+      <c r="R53" t="n">
         <v>0.4082628917981687</v>
       </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="n">
+        <v>313</v>
+      </c>
+      <c r="Y53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3443,35 +4446,56 @@
         <v>1972</v>
       </c>
       <c r="E54" t="n">
+        <v>256280</v>
+      </c>
+      <c r="F54" t="n">
+        <v>177355</v>
+      </c>
+      <c r="G54" t="n">
+        <v>380</v>
+      </c>
+      <c r="H54" t="n">
+        <v>137520</v>
+      </c>
+      <c r="I54" t="n">
         <v>17.4331</v>
       </c>
-      <c r="F54" t="n">
+      <c r="J54" t="n">
         <v>0.3188393869855028</v>
       </c>
-      <c r="G54" t="n">
+      <c r="K54" t="n">
         <v>1.815799269772046</v>
       </c>
-      <c r="H54" t="n">
+      <c r="L54" t="n">
         <v>323.5526315789473</v>
       </c>
-      <c r="I54" t="n">
+      <c r="M54" t="n">
         <v>13.9129</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="n">
         <v>0.8499999999999999</v>
       </c>
-      <c r="M54" t="n">
+      <c r="Q54" t="n">
         <v>0.7564301254758762</v>
       </c>
-      <c r="N54" t="n">
+      <c r="R54" t="n">
         <v>0.4216043140525501</v>
       </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="n">
+        <v>1.528879015518656</v>
+      </c>
+      <c r="X54" t="n">
+        <v>292</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.174822822451178</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3493,31 +4517,52 @@
         <v>1966</v>
       </c>
       <c r="E55" t="n">
+        <v>47627</v>
+      </c>
+      <c r="F55" t="n">
+        <v>39463</v>
+      </c>
+      <c r="G55" t="n">
+        <v>127</v>
+      </c>
+      <c r="H55" t="n">
+        <v>13926</v>
+      </c>
+      <c r="I55" t="n">
         <v>22.4331</v>
       </c>
-      <c r="F55" t="n">
+      <c r="J55" t="n">
         <v>0.2436966131740899</v>
       </c>
-      <c r="G55" t="n">
+      <c r="K55" t="n">
         <v>2.396593879999583</v>
       </c>
-      <c r="H55" t="n">
+      <c r="L55" t="n">
         <v>203.0629921259843</v>
       </c>
-      <c r="I55" t="n">
+      <c r="M55" t="n">
         <v>13.798</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
+      <c r="P55" t="n">
+        <v>0.85</v>
+      </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="n">
+        <v>2.234576907236709</v>
+      </c>
+      <c r="X55" t="n">
+        <v>101</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.777104469534706</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3539,29 +4584,44 @@
         <v>1968</v>
       </c>
       <c r="E56" t="n">
+        <v>51710</v>
+      </c>
+      <c r="F56" t="n">
+        <v>42184</v>
+      </c>
+      <c r="G56" t="n">
+        <v>128</v>
+      </c>
+      <c r="H56" t="n">
+        <v>13926</v>
+      </c>
+      <c r="I56" t="n">
         <v>22.98764963035378</v>
       </c>
-      <c r="F56" t="n">
+      <c r="J56" t="n">
         <v>0.2423177591514929</v>
       </c>
-      <c r="G56" t="n">
+      <c r="K56" t="n">
         <v>2.0777</v>
       </c>
-      <c r="H56" t="n">
+      <c r="L56" t="n">
         <v>217.3515625</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>0.85</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
+      <c r="P56" t="n">
+        <v>0.85</v>
+      </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3583,29 +4643,44 @@
         <v>1976</v>
       </c>
       <c r="E57" t="n">
+        <v>54885</v>
+      </c>
+      <c r="F57" t="n">
+        <v>44679</v>
+      </c>
+      <c r="G57" t="n">
+        <v>139</v>
+      </c>
+      <c r="H57" t="n">
+        <v>13926</v>
+      </c>
+      <c r="I57" t="n">
         <v>23.15547775838727</v>
       </c>
-      <c r="F57" t="n">
+      <c r="J57" t="n">
         <v>0.240566813495083</v>
       </c>
-      <c r="G57" t="n">
+      <c r="K57" t="n">
         <v>2.1014</v>
       </c>
-      <c r="H57" t="n">
+      <c r="L57" t="n">
         <v>211.0503597122302</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>0.85</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+      <c r="P57" t="n">
+        <v>0.85</v>
+      </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3627,35 +4702,56 @@
         <v>1995</v>
       </c>
       <c r="E58" t="n">
+        <v>70760</v>
+      </c>
+      <c r="F58" t="n">
+        <v>58967</v>
+      </c>
+      <c r="G58" t="n">
+        <v>167</v>
+      </c>
+      <c r="H58" t="n">
+        <v>22104</v>
+      </c>
+      <c r="I58" t="n">
         <v>16.99770822716683</v>
       </c>
-      <c r="F58" t="n">
+      <c r="J58" t="n">
         <v>0.3276118019864066</v>
       </c>
-      <c r="G58" t="n">
+      <c r="K58" t="n">
         <v>1.340189934684793</v>
       </c>
-      <c r="H58" t="n">
+      <c r="L58" t="n">
         <v>242.5489021956088</v>
       </c>
-      <c r="I58" t="n">
-        <v>14.36961681761299</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>0.85</v>
-      </c>
       <c r="M58" t="n">
+        <v>12.37458876479575</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q58" t="n">
         <v>0.7522047333148674</v>
       </c>
-      <c r="N58" t="n">
+      <c r="R58" t="n">
         <v>0.4355403584797195</v>
       </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="n">
+        <v>1.431159306658041</v>
+      </c>
+      <c r="X58" t="n">
+        <v>148</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.268332798714911</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3677,42 +4773,63 @@
         <v>1980</v>
       </c>
       <c r="E59" t="n">
+        <v>66170.71428571429</v>
+      </c>
+      <c r="F59" t="n">
+        <v>54258.33333333334</v>
+      </c>
+      <c r="G59" t="n">
+        <v>172</v>
+      </c>
+      <c r="H59" t="n">
+        <v>22128.57142857143</v>
+      </c>
+      <c r="I59" t="n">
         <v>20.744</v>
       </c>
-      <c r="F59" t="n">
+      <c r="J59" t="n">
         <v>0.2677959349194378</v>
       </c>
-      <c r="G59" t="n">
+      <c r="K59" t="n">
         <v>1.656668854428058</v>
       </c>
-      <c r="H59" t="n">
+      <c r="L59" t="n">
         <v>201.4290697674419</v>
       </c>
-      <c r="I59" t="n">
+      <c r="M59" t="n">
         <v>13.9129</v>
       </c>
-      <c r="J59" t="n">
+      <c r="N59" t="n">
         <v>9.609283170080145</v>
       </c>
-      <c r="K59" t="n">
+      <c r="O59" t="n">
         <v>0.03897087976403451</v>
       </c>
-      <c r="L59" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="n">
         <v>0.465918984280532</v>
       </c>
-      <c r="P59" t="n">
-        <v>0.03314073984717539</v>
-      </c>
-      <c r="Q59" t="n">
+      <c r="T59" t="n">
+        <v>0.03854917474019982</v>
+      </c>
+      <c r="U59" t="n">
         <v>0.008459818061226131</v>
       </c>
-      <c r="R59" t="n">
-        <v>0.02468092178594926</v>
+      <c r="V59" t="n">
+        <v>0.03008935667897369</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.727304523520158</v>
+      </c>
+      <c r="X59" t="n">
+        <v>141</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.41598801056013</v>
       </c>
     </row>
     <row r="60">
@@ -3735,29 +4852,44 @@
         <v>1965</v>
       </c>
       <c r="E60" t="n">
+        <v>41141</v>
+      </c>
+      <c r="F60" t="n">
+        <v>33566</v>
+      </c>
+      <c r="G60" t="n">
+        <v>109</v>
+      </c>
+      <c r="H60" t="n">
+        <v>13979</v>
+      </c>
+      <c r="I60" t="n">
         <v>22.88492472710245</v>
       </c>
-      <c r="F60" t="n">
+      <c r="J60" t="n">
         <v>0.2434446697285764</v>
       </c>
-      <c r="G60" t="n">
+      <c r="K60" t="n">
         <v>2.9899</v>
       </c>
-      <c r="H60" t="n">
+      <c r="L60" t="n">
         <v>204.5871559633028</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>0.85</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
+      <c r="P60" t="n">
+        <v>0.85</v>
+      </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3779,35 +4911,56 @@
         <v>1990</v>
       </c>
       <c r="E61" t="n">
+        <v>276691</v>
+      </c>
+      <c r="F61" t="n">
+        <v>195045</v>
+      </c>
+      <c r="G61" t="n">
+        <v>410</v>
+      </c>
+      <c r="H61" t="n">
+        <v>144782</v>
+      </c>
+      <c r="I61" t="n">
         <v>17.17456583460847</v>
       </c>
-      <c r="F61" t="n">
+      <c r="J61" t="n">
         <v>0.3242378114826743</v>
       </c>
-      <c r="G61" t="n">
+      <c r="K61" t="n">
         <v>1.744608638314735</v>
       </c>
-      <c r="H61" t="n">
+      <c r="L61" t="n">
         <v>317.4756097560976</v>
       </c>
-      <c r="I61" t="n">
+      <c r="M61" t="n">
         <v>17.40070054630272</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M61" t="n">
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q61" t="n">
         <v>0.7973216220994317</v>
       </c>
-      <c r="N61" t="n">
+      <c r="R61" t="n">
         <v>0.4066736667846495</v>
       </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="n">
+        <v>1.674345709353589</v>
+      </c>
+      <c r="X61" t="n">
+        <v>254</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.037277585794662</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test_env/Databank.xlsx
+++ b/test_env/Databank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A350-900</t>
+          <t>A330-900</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1548,128 +1548,112 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E15" t="n">
-        <v>268000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>192000</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>440</v>
-      </c>
-      <c r="H15" t="n">
-        <v>140795</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15.06830812606609</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.3695610847439589</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>1.139953161890594</v>
+        <v>1.128747954335762</v>
       </c>
       <c r="L15" t="n">
-        <v>323.6363636363636</v>
+        <v>295.6521739130434</v>
       </c>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>9.464023702031604</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.03956902801916749</v>
-      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0.8222369055324672</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.4494617877794935</v>
-      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="W15" t="n">
+        <v>0.9752558287908442</v>
+      </c>
       <c r="X15" t="n">
-        <v>304</v>
-      </c>
-      <c r="Y15" t="inlineStr"/>
+        <v>280</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.593633982742253</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>717-200</t>
+          <t>A350-900</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="E16" t="n">
-        <v>54885</v>
+        <v>268000</v>
       </c>
       <c r="F16" t="n">
-        <v>45586</v>
+        <v>192000</v>
       </c>
       <c r="G16" t="n">
-        <v>134</v>
+        <v>440</v>
       </c>
       <c r="H16" t="n">
-        <v>13926</v>
+        <v>140795</v>
       </c>
       <c r="I16" t="n">
-        <v>17.43840732807625</v>
+        <v>15.06830812606609</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3193437109197591</v>
+        <v>0.3695610847439589</v>
       </c>
       <c r="K16" t="n">
-        <v>1.789791513631841</v>
+        <v>1.139953161890594</v>
       </c>
       <c r="L16" t="n">
-        <v>230.1791044776119</v>
-      </c>
-      <c r="M16" t="n">
-        <v>12.38360045600374</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+        <v>323.6363636363636</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>9.464023702031604</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.03956902801916749</v>
+      </c>
       <c r="P16" t="n">
         <v>0.85</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7402201220274384</v>
+        <v>0.8222369055324672</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4314273723798594</v>
+        <v>0.4494617877794935</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="n">
-        <v>1.517621832235924</v>
-      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="n">
-        <v>112</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.268460038883757</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1679,7 +1663,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>727-100</t>
+          <t>717-200</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1688,47 +1672,59 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1964</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+        <v>1999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>54885</v>
+      </c>
+      <c r="F17" t="n">
+        <v>45586</v>
+      </c>
       <c r="G17" t="n">
-        <v>131</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
+        <v>134</v>
+      </c>
+      <c r="H17" t="n">
+        <v>13926</v>
+      </c>
       <c r="I17" t="n">
-        <v>22.4869707120729</v>
+        <v>17.43840732807625</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2481022740103791</v>
+        <v>0.3193437109197591</v>
       </c>
       <c r="K17" t="n">
-        <v>2.638523689003425</v>
+        <v>1.789791513631841</v>
       </c>
       <c r="L17" t="n">
-        <v>303.8167938931298</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>7.083179084967321</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.05286922927510331</v>
-      </c>
+        <v>230.1791044776119</v>
+      </c>
+      <c r="M17" t="n">
+        <v>12.38360045600374</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>0.7402201220274384</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.4314273723798594</v>
+      </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>1.517621832235924</v>
+      </c>
       <c r="X17" t="n">
-        <v>113</v>
-      </c>
-      <c r="Y17" t="inlineStr"/>
+        <v>112</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.268460038883757</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1738,7 +1734,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>737-700/700LR/Max 7</t>
+          <t>727-100</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1747,71 +1743,47 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E18" t="n">
-        <v>73892.60377358491</v>
-      </c>
-      <c r="F18" t="n">
-        <v>56195.90566037736</v>
-      </c>
+        <v>1964</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>149</v>
-      </c>
-      <c r="H18" t="n">
-        <v>26024</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>17.49680933025547</v>
+        <v>22.4869707120729</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3183014533168171</v>
+        <v>0.2481022740103791</v>
       </c>
       <c r="K18" t="n">
-        <v>1.275189262798983</v>
+        <v>2.638523689003425</v>
       </c>
       <c r="L18" t="n">
-        <v>256.0201342281879</v>
-      </c>
-      <c r="M18" t="n">
-        <v>15.54162390883993</v>
-      </c>
+        <v>303.8167938931298</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>10.28028972712681</v>
+        <v>7.083179084967321</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03642720477532846</v>
+        <v>0.05286922927510331</v>
       </c>
       <c r="P18" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0.7731880481376434</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.4116907770647985</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.463417647839471</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.0298222002740166</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.007822957740832262</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.02199924253318434</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.206455180923881</v>
-      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="n">
-        <v>128</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.036417873545348</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1821,7 +1793,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B707-300</t>
+          <t>737-700/700LR/Max 7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1830,59 +1802,71 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1962</v>
+        <v>1997</v>
       </c>
       <c r="E19" t="n">
-        <v>148325</v>
+        <v>73892.60377358491</v>
       </c>
       <c r="F19" t="n">
-        <v>86183</v>
+        <v>56195.90566037736</v>
       </c>
       <c r="G19" t="n">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="H19" t="n">
-        <v>90301</v>
+        <v>26024</v>
       </c>
       <c r="I19" t="n">
-        <v>21.3258022372695</v>
+        <v>17.49680933025547</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2611130598363375</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+        <v>0.3183014533168171</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.275189262798983</v>
+      </c>
       <c r="L19" t="n">
-        <v>303.2191780821918</v>
+        <v>256.0201342281879</v>
       </c>
       <c r="M19" t="n">
-        <v>15.8095</v>
+        <v>15.54162390883993</v>
       </c>
       <c r="N19" t="n">
-        <v>6.972213427561837</v>
+        <v>10.28028972712681</v>
       </c>
       <c r="O19" t="n">
-        <v>0.05371066490296884</v>
+        <v>0.03642720477532846</v>
       </c>
       <c r="P19" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>0.7731880481376434</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.4116907770647985</v>
+      </c>
       <c r="S19" t="n">
-        <v>0.4120313731354763</v>
+        <v>0.463417647839471</v>
       </c>
       <c r="T19" t="n">
-        <v>0.03651292336731043</v>
+        <v>0.0298222002740166</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009118451655455951</v>
+        <v>0.007822957740832262</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02739447171185447</v>
-      </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+        <v>0.02199924253318434</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.206455180923881</v>
+      </c>
+      <c r="X19" t="n">
+        <v>128</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.036417873545348</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1892,7 +1876,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B737-300</t>
+          <t>B707-300</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1901,56 +1885,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1984</v>
+        <v>1962</v>
       </c>
       <c r="E20" t="n">
-        <v>63276</v>
+        <v>148325</v>
       </c>
       <c r="F20" t="n">
-        <v>49713</v>
+        <v>86183</v>
       </c>
       <c r="G20" t="n">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="H20" t="n">
-        <v>20100</v>
+        <v>90301</v>
       </c>
       <c r="I20" t="n">
-        <v>18.00126385619849</v>
+        <v>21.3258022372695</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3093371606238886</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.485729952148732</v>
-      </c>
+        <v>0.2611130598363375</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>220.2684563758389</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>303.2191780821918</v>
+      </c>
+      <c r="M20" t="n">
+        <v>15.8095</v>
+      </c>
       <c r="N20" t="n">
-        <v>9.16140597539543</v>
+        <v>6.972213427561837</v>
       </c>
       <c r="O20" t="n">
-        <v>0.04087606422480258</v>
+        <v>0.05371066490296884</v>
       </c>
       <c r="P20" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0.7622966041004579</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.4057966329868958</v>
-      </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>0.4120313731354763</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.03651292336731043</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.009118451655455951</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.02739447171185447</v>
+      </c>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="n">
-        <v>131</v>
-      </c>
+      <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1961,7 +1947,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B737-500/600</t>
+          <t>B720-000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1970,71 +1956,43 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E21" t="n">
-        <v>65518.22222222222</v>
-      </c>
-      <c r="F21" t="n">
-        <v>51154.66666666666</v>
-      </c>
+        <v>1961</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>145</v>
-      </c>
-      <c r="H21" t="n">
-        <v>25365.77777777778</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>17.33353107822624</v>
+        <v>27.0278</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3213218797283361</v>
+        <v>0.2060265902381271</v>
       </c>
       <c r="K21" t="n">
-        <v>1.698569474237269</v>
+        <v>3.2365</v>
       </c>
       <c r="L21" t="n">
-        <v>238.2310344827586</v>
+        <v>322.4358974358975</v>
       </c>
       <c r="M21" t="n">
-        <v>11.93220241439876</v>
-      </c>
-      <c r="N21" t="n">
-        <v>10.15596931026777</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.0369215224919367</v>
-      </c>
+        <v>12.83799443605505</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q21" t="n">
-        <v>0.7678757320555913</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.41845984475682</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.4168299250063096</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.03488642013380318</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.006555980881650801</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.02833043925215238</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.475470707385693</v>
-      </c>
-      <c r="X21" t="n">
-        <v>113</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.149849585755747</v>
-      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2044,66 +2002,66 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B767-200/ER/EM</t>
+          <t>B737-300</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E22" t="n">
-        <v>179169</v>
+        <v>63276</v>
       </c>
       <c r="F22" t="n">
-        <v>117934</v>
+        <v>49713</v>
       </c>
       <c r="G22" t="n">
-        <v>290</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+        <v>149</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20100</v>
+      </c>
       <c r="I22" t="n">
-        <v>17.09399611096489</v>
+        <v>18.00126385619849</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3258776789624909</v>
+        <v>0.3093371606238886</v>
       </c>
       <c r="K22" t="n">
-        <v>1.608396694502249</v>
+        <v>1.485729952148732</v>
       </c>
       <c r="L22" t="n">
-        <v>291.8706896551724</v>
-      </c>
-      <c r="M22" t="n">
-        <v>15.37240786190885</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+        <v>220.2684563758389</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>9.16140597539543</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.04087606422480258</v>
+      </c>
       <c r="P22" t="n">
         <v>0.85</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7966908097823399</v>
+        <v>0.7622966041004579</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4090125238774881</v>
+        <v>0.4057966329868958</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="n">
-        <v>1.48783112190594</v>
-      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="n">
-        <v>186</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0.9542640988776029</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2113,67 +2071,79 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B787-800 Dreamliner</t>
+          <t>B737-500/600</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2011</v>
+        <v>1990</v>
       </c>
       <c r="E23" t="n">
-        <v>227930</v>
+        <v>65518.22222222222</v>
       </c>
       <c r="F23" t="n">
-        <v>161100</v>
+        <v>51154.66666666666</v>
       </c>
       <c r="G23" t="n">
-        <v>381</v>
+        <v>145</v>
       </c>
       <c r="H23" t="n">
-        <v>126206</v>
+        <v>25365.77777777778</v>
       </c>
       <c r="I23" t="n">
-        <v>15.24564965479821</v>
+        <v>17.33353107822624</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3652902167156366</v>
+        <v>0.3213218797283361</v>
       </c>
       <c r="K23" t="n">
-        <v>1.256752661572447</v>
+        <v>1.698569474237269</v>
       </c>
       <c r="L23" t="n">
-        <v>308.9370078740158</v>
+        <v>238.2310344827586</v>
       </c>
       <c r="M23" t="n">
-        <v>20.37866702308878</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+        <v>11.93220241439876</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10.15596931026777</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0369215224919367</v>
+      </c>
       <c r="P23" t="n">
         <v>0.85</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.8376106428239523</v>
+        <v>0.7678757320555913</v>
       </c>
       <c r="R23" t="n">
-        <v>0.4361115019272833</v>
-      </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+        <v>0.41845984475682</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.4168299250063096</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.03488642013380318</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.006555980881650801</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.02833043925215238</v>
+      </c>
       <c r="W23" t="n">
-        <v>1.175359044474089</v>
+        <v>1.475470707385693</v>
       </c>
       <c r="X23" t="n">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.6971946038087771</v>
+        <v>1.149849585755747</v>
       </c>
     </row>
     <row r="24">
@@ -2184,7 +2154,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B787-900 Dreamliner</t>
+          <t>B767-200/ER/EM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2193,34 +2163,32 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2014</v>
+        <v>1983</v>
       </c>
       <c r="E24" t="n">
-        <v>254011</v>
+        <v>179169</v>
       </c>
       <c r="F24" t="n">
-        <v>181436</v>
+        <v>117934</v>
       </c>
       <c r="G24" t="n">
-        <v>420</v>
-      </c>
-      <c r="H24" t="n">
-        <v>126356</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>15.36201678228015</v>
+        <v>17.09399611096489</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3625179937329166</v>
+        <v>0.3258776789624909</v>
       </c>
       <c r="K24" t="n">
-        <v>1.152019941095649</v>
+        <v>1.608396694502249</v>
       </c>
       <c r="L24" t="n">
-        <v>306.7857142857143</v>
+        <v>291.8706896551724</v>
       </c>
       <c r="M24" t="n">
-        <v>20.51364189849394</v>
+        <v>15.37240786190885</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2228,171 +2196,165 @@
         <v>0.85</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.829636994027248</v>
+        <v>0.7966908097823399</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4369614149693229</v>
+        <v>0.4090125238774881</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>1.14505117943573</v>
+        <v>1.48783112190594</v>
       </c>
       <c r="X24" t="n">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.7251990803092957</v>
+        <v>0.9542640988776029</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boeing </t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>737-200C</t>
+          <t>B787-800 Dreamliner</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1968</v>
+        <v>2011</v>
       </c>
       <c r="E25" t="n">
-        <v>58105</v>
+        <v>227930</v>
       </c>
       <c r="F25" t="n">
-        <v>44905</v>
+        <v>161100</v>
       </c>
       <c r="G25" t="n">
-        <v>136</v>
+        <v>381</v>
       </c>
       <c r="H25" t="n">
-        <v>22600</v>
+        <v>126206</v>
       </c>
       <c r="I25" t="n">
-        <v>22.76311802988742</v>
+        <v>15.24564965479821</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2447247173326018</v>
+        <v>0.3652902167156366</v>
       </c>
       <c r="K25" t="n">
-        <v>2.404629454850812</v>
+        <v>1.256752661572447</v>
       </c>
       <c r="L25" t="n">
-        <v>211.9705882352941</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
-        <v>5.988823594024605</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.06253018028672548</v>
-      </c>
+        <v>308.9370078740158</v>
+      </c>
+      <c r="M25" t="n">
+        <v>20.37866702308878</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>0.8376106428239523</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.4361115019272833</v>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="W25" t="n">
+        <v>1.175359044474089</v>
+      </c>
       <c r="X25" t="n">
-        <v>108</v>
-      </c>
-      <c r="Y25" t="inlineStr"/>
+        <v>226</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.6971946038087771</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boeing </t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>737-800</t>
+          <t>B787-900 Dreamliner</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1998</v>
+        <v>2014</v>
       </c>
       <c r="E26" t="n">
-        <v>79015</v>
+        <v>254011</v>
       </c>
       <c r="F26" t="n">
-        <v>62731</v>
+        <v>181436</v>
       </c>
       <c r="G26" t="n">
-        <v>189</v>
+        <v>420</v>
       </c>
       <c r="H26" t="n">
-        <v>26024</v>
+        <v>126356</v>
       </c>
       <c r="I26" t="n">
-        <v>17.72499222979877</v>
+        <v>15.36201678228015</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3141917861307944</v>
+        <v>0.3625179937329166</v>
       </c>
       <c r="K26" t="n">
-        <v>1.119767569977147</v>
+        <v>1.152019941095649</v>
       </c>
       <c r="L26" t="n">
-        <v>217.6984126984127</v>
+        <v>306.7857142857143</v>
       </c>
       <c r="M26" t="n">
-        <v>15.56489039088282</v>
-      </c>
-      <c r="N26" t="n">
-        <v>10.28028972712681</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.03642720477532846</v>
-      </c>
+        <v>20.51364189849394</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
         <v>0.85</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7670886989745277</v>
+        <v>0.829636994027248</v>
       </c>
       <c r="R26" t="n">
-        <v>0.4096026761482811</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.5225071472727238</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.03357322630052721</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.009945126646704961</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.02362809965382226</v>
-      </c>
+        <v>0.4369614149693229</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>1.025375544030074</v>
+        <v>1.14505117943573</v>
       </c>
       <c r="X26" t="n">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.8843185908830796</v>
+        <v>0.7251990803092957</v>
       </c>
     </row>
     <row r="27">
@@ -2403,7 +2365,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>737-900</t>
+          <t>737-200C</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2412,71 +2374,53 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2001</v>
+        <v>1968</v>
       </c>
       <c r="E27" t="n">
-        <v>79015</v>
+        <v>58105</v>
       </c>
       <c r="F27" t="n">
-        <v>63639</v>
+        <v>44905</v>
       </c>
       <c r="G27" t="n">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="H27" t="n">
-        <v>26024</v>
+        <v>22600</v>
       </c>
       <c r="I27" t="n">
-        <v>17.71642473670745</v>
+        <v>22.76311802988742</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3143467514972009</v>
+        <v>0.2447247173326018</v>
       </c>
       <c r="K27" t="n">
-        <v>1.044394367241605</v>
+        <v>2.404629454850812</v>
       </c>
       <c r="L27" t="n">
-        <v>224.8306878306878</v>
-      </c>
-      <c r="M27" t="n">
-        <v>15.68050826447953</v>
-      </c>
+        <v>211.9705882352941</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>10.28028972712681</v>
+        <v>5.988823594024605</v>
       </c>
       <c r="O27" t="n">
-        <v>0.03642720477532846</v>
+        <v>0.06253018028672548</v>
       </c>
       <c r="P27" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q27" t="n">
-        <v>0.7352593744138801</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.427548706511886</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0.5225071472727238</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.03332599988175266</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.009945126646704961</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.0233808732350477</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.033776048227667</v>
-      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="n">
-        <v>175</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0.9572000446552472</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2486,7 +2430,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>737-900ER</t>
+          <t>737-800</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2495,34 +2439,34 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="E28" t="n">
-        <v>85139</v>
+        <v>79015</v>
       </c>
       <c r="F28" t="n">
-        <v>67721</v>
+        <v>62731</v>
       </c>
       <c r="G28" t="n">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="H28" t="n">
         <v>26024</v>
       </c>
       <c r="I28" t="n">
-        <v>17.73490260050415</v>
+        <v>17.72499222979877</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3140165182168066</v>
+        <v>0.3141917861307944</v>
       </c>
       <c r="K28" t="n">
-        <v>1.005997360734154</v>
+        <v>1.119767569977147</v>
       </c>
       <c r="L28" t="n">
-        <v>203.0772727272727</v>
+        <v>217.6984126984127</v>
       </c>
       <c r="M28" t="n">
-        <v>14.1963864564067</v>
+        <v>15.56489039088282</v>
       </c>
       <c r="N28" t="n">
         <v>10.28028972712681</v>
@@ -2534,31 +2478,31 @@
         <v>0.85</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.76519504718423</v>
+        <v>0.7670886989745277</v>
       </c>
       <c r="R28" t="n">
-        <v>0.4103875305272914</v>
+        <v>0.4096026761482811</v>
       </c>
       <c r="S28" t="n">
-        <v>0.5629999514528718</v>
+        <v>0.5225071472727238</v>
       </c>
       <c r="T28" t="n">
-        <v>0.03966229808067227</v>
+        <v>0.03357322630052721</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01154629267917204</v>
+        <v>0.009945126646704961</v>
       </c>
       <c r="V28" t="n">
-        <v>0.02811600540150022</v>
+        <v>0.02362809965382226</v>
       </c>
       <c r="W28" t="n">
-        <v>1.127427684674653</v>
+        <v>1.025375544030074</v>
       </c>
       <c r="X28" t="n">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.9173161616216495</v>
+        <v>0.8843185908830796</v>
       </c>
     </row>
     <row r="29">
@@ -2569,79 +2513,79 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>747-100</t>
+          <t>737-900</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1970</v>
+        <v>2001</v>
       </c>
       <c r="E29" t="n">
-        <v>333400</v>
+        <v>79015</v>
       </c>
       <c r="F29" t="n">
-        <v>238816</v>
+        <v>63639</v>
       </c>
       <c r="G29" t="n">
-        <v>440</v>
+        <v>189</v>
       </c>
       <c r="H29" t="n">
-        <v>178700</v>
+        <v>26024</v>
       </c>
       <c r="I29" t="n">
-        <v>17.41408489474545</v>
+        <v>17.71642473670745</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3197707983426839</v>
+        <v>0.3143467514972009</v>
       </c>
       <c r="K29" t="n">
-        <v>1.640815810720567</v>
+        <v>1.044394367241605</v>
       </c>
       <c r="L29" t="n">
-        <v>381.5984848484848</v>
+        <v>224.8306878306878</v>
       </c>
       <c r="M29" t="n">
-        <v>14.1742265477107</v>
+        <v>15.68050826447953</v>
       </c>
       <c r="N29" t="n">
-        <v>6.951389432485324</v>
+        <v>10.28028972712681</v>
       </c>
       <c r="O29" t="n">
-        <v>0.05387156376101137</v>
+        <v>0.03642720477532846</v>
       </c>
       <c r="P29" t="n">
         <v>0.85</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7898912020476966</v>
+        <v>0.7352593744138801</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4048302154963075</v>
+        <v>0.427548706511886</v>
       </c>
       <c r="S29" t="n">
-        <v>0.5375620061784633</v>
+        <v>0.5225071472727238</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0379257941238104</v>
+        <v>0.03332599988175266</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01556742257248467</v>
+        <v>0.009945126646704961</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02235837155132573</v>
+        <v>0.0233808732350477</v>
       </c>
       <c r="W29" t="n">
-        <v>1.607596036522946</v>
+        <v>1.033776048227667</v>
       </c>
       <c r="X29" t="n">
-        <v>405</v>
+        <v>175</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.479719079072257</v>
+        <v>0.9572000446552472</v>
       </c>
     </row>
     <row r="30">
@@ -2652,64 +2596,80 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>747SP</t>
+          <t>737-900ER</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1976</v>
+        <v>2007</v>
       </c>
       <c r="E30" t="n">
-        <v>315700</v>
+        <v>85139</v>
       </c>
       <c r="F30" t="n">
-        <v>192776</v>
+        <v>67721</v>
       </c>
       <c r="G30" t="n">
-        <v>400</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="H30" t="n">
+        <v>26024</v>
+      </c>
       <c r="I30" t="n">
-        <v>17.50092047553409</v>
+        <v>17.73490260050415</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3182023562552688</v>
+        <v>0.3140165182168066</v>
       </c>
       <c r="K30" t="n">
-        <v>2.226865704690404</v>
+        <v>1.005997360734154</v>
       </c>
       <c r="L30" t="n">
-        <v>378.625</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>203.0772727272727</v>
+      </c>
+      <c r="M30" t="n">
+        <v>14.1963864564067</v>
+      </c>
       <c r="N30" t="n">
-        <v>6.951389432485324</v>
+        <v>10.28028972712681</v>
       </c>
       <c r="O30" t="n">
-        <v>0.05387156376101136</v>
+        <v>0.03642720477532846</v>
       </c>
       <c r="P30" t="n">
         <v>0.85</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7958288477847815</v>
+        <v>0.76519504718423</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3999659603619502</v>
-      </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+        <v>0.4103875305272914</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.5629999514528718</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.03966229808067227</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.01154629267917204</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.02811600540150022</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.127427684674653</v>
+      </c>
       <c r="X30" t="n">
-        <v>248</v>
-      </c>
-      <c r="Y30" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.9173161616216495</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2719,65 +2679,79 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>757-300</t>
+          <t>747-100</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1999</v>
+        <v>1970</v>
       </c>
       <c r="E31" t="n">
-        <v>123830</v>
+        <v>333400</v>
       </c>
       <c r="F31" t="n">
-        <v>95254</v>
+        <v>238816</v>
       </c>
       <c r="G31" t="n">
-        <v>295</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
+        <v>440</v>
+      </c>
+      <c r="H31" t="n">
+        <v>178700</v>
+      </c>
       <c r="I31" t="n">
-        <v>17.4551072122684</v>
+        <v>17.41408489474545</v>
       </c>
       <c r="J31" t="n">
-        <v>0.319242654544345</v>
+        <v>0.3197707983426839</v>
       </c>
       <c r="K31" t="n">
-        <v>1.110620770707444</v>
+        <v>1.640815810720567</v>
       </c>
       <c r="L31" t="n">
-        <v>218.1949152542372</v>
+        <v>381.5984848484848</v>
       </c>
       <c r="M31" t="n">
-        <v>15.65146175337232</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+        <v>14.1742265477107</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6.951389432485324</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.05387156376101137</v>
+      </c>
       <c r="P31" t="n">
         <v>0.85</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.7951649093675337</v>
+        <v>0.7898912020476966</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4020008282147746</v>
-      </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+        <v>0.4048302154963075</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.5375620061784633</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0379257941238104</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.01556742257248467</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.02235837155132573</v>
+      </c>
       <c r="W31" t="n">
-        <v>1.174656786481714</v>
+        <v>1.607596036522946</v>
       </c>
       <c r="X31" t="n">
-        <v>227</v>
+        <v>405</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.9038884424791493</v>
+        <v>1.479719079072257</v>
       </c>
     </row>
     <row r="32">
@@ -2788,7 +2762,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>767-400/ER</t>
+          <t>747SP</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2797,69 +2771,55 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2000</v>
+        <v>1976</v>
       </c>
       <c r="E32" t="n">
-        <v>204116</v>
+        <v>315700</v>
       </c>
       <c r="F32" t="n">
-        <v>149685</v>
+        <v>192776</v>
       </c>
       <c r="G32" t="n">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>17.06938157570028</v>
+        <v>17.50092047553409</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3262242074174033</v>
+        <v>0.3182023562552688</v>
       </c>
       <c r="K32" t="n">
-        <v>1.335323623930043</v>
+        <v>2.226865704690404</v>
       </c>
       <c r="L32" t="n">
-        <v>275.6977777777777</v>
-      </c>
-      <c r="M32" t="n">
-        <v>17.77697996226533</v>
-      </c>
+        <v>378.625</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>17.21442922374429</v>
+        <v>6.951389432485324</v>
       </c>
       <c r="O32" t="n">
-        <v>0.02175397244790556</v>
+        <v>0.05387156376101136</v>
       </c>
       <c r="P32" t="n">
         <v>0.85</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.7828970974996786</v>
+        <v>0.7958288477847815</v>
       </c>
       <c r="R32" t="n">
-        <v>0.4166884874899376</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.7679457231120903</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.04319888556673778</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0.01282920149574874</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.03036968407098904</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.305531264304784</v>
-      </c>
+        <v>0.3999659603619502</v>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="n">
-        <v>249</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0.8668727594983766</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2869,77 +2829,65 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>777-300/300ER/333ER</t>
+          <t>757-300</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="E33" t="n">
-        <v>319782</v>
+        <v>123830</v>
       </c>
       <c r="F33" t="n">
-        <v>232239</v>
+        <v>95254</v>
       </c>
       <c r="G33" t="n">
-        <v>550</v>
+        <v>295</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>16.81481451040719</v>
+        <v>17.4551072122684</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3312773869732624</v>
+        <v>0.319242654544345</v>
       </c>
       <c r="K33" t="n">
-        <v>1.45127382838302</v>
+        <v>1.110620770707444</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2454545454545</v>
+        <v>218.1949152542372</v>
       </c>
       <c r="M33" t="n">
-        <v>20.48071602122923</v>
-      </c>
-      <c r="N33" t="n">
-        <v>9.242461430575036</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.04067389957076707</v>
-      </c>
+        <v>15.65146175337232</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
         <v>0.85</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.8055273068170973</v>
+        <v>0.7951649093675337</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4113191490067188</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.6770535964635579</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.03306951417568201</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0.01864497952230561</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0.0144245346533764</v>
-      </c>
+        <v>0.4020008282147746</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
-        <v>1.362634274000017</v>
+        <v>1.174656786481714</v>
       </c>
       <c r="X33" t="n">
-        <v>329</v>
+        <v>227</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.815103047538192</v>
+        <v>0.9038884424791493</v>
       </c>
     </row>
     <row r="34">
@@ -2950,7 +2898,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>787-10 Dreamliner</t>
+          <t>767-400/ER</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2959,58 +2907,68 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="E34" t="n">
-        <v>254011</v>
+        <v>204116</v>
       </c>
       <c r="F34" t="n">
-        <v>192777</v>
+        <v>149685</v>
       </c>
       <c r="G34" t="n">
-        <v>440</v>
-      </c>
-      <c r="H34" t="n">
-        <v>126356</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>15.52666529587989</v>
+        <v>17.06938157570028</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3586711279463648</v>
+        <v>0.3262242074174033</v>
       </c>
       <c r="K34" t="n">
-        <v>1.005809122765289</v>
+        <v>1.335323623930043</v>
       </c>
       <c r="L34" t="n">
-        <v>307.9545454545454</v>
+        <v>275.6977777777777</v>
       </c>
       <c r="M34" t="n">
-        <v>20.5962742557415</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+        <v>17.77697996226533</v>
+      </c>
+      <c r="N34" t="n">
+        <v>17.21442922374429</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.02175397244790556</v>
+      </c>
       <c r="P34" t="n">
         <v>0.85</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.8282003104653158</v>
+        <v>0.7828970974996786</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4330727033762745</v>
-      </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+        <v>0.4166884874899376</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.7679457231120903</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.04319888556673778</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.01282920149574874</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.03036968407098904</v>
+      </c>
       <c r="W34" t="n">
-        <v>0.9950608429392854</v>
+        <v>1.305531264304784</v>
       </c>
       <c r="X34" t="n">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.7191576092152108</v>
+        <v>0.8668727594983766</v>
       </c>
     </row>
     <row r="35">
@@ -3021,70 +2979,78 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B707-100B/300</t>
+          <t>777-300/300ER/333ER</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1959</v>
+        <v>1997</v>
       </c>
       <c r="E35" t="n">
-        <v>117027</v>
+        <v>319782</v>
       </c>
       <c r="F35" t="n">
-        <v>77111</v>
+        <v>232239</v>
       </c>
       <c r="G35" t="n">
-        <v>189</v>
-      </c>
-      <c r="H35" t="n">
-        <v>58398</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>28.1765</v>
+        <v>16.81481451040719</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2611130598363375</v>
+        <v>0.3312773869732624</v>
       </c>
       <c r="K35" t="n">
-        <v>3.0372</v>
+        <v>1.45127382838302</v>
       </c>
       <c r="L35" t="n">
-        <v>305.8201058201058</v>
+        <v>289.2454545454545</v>
       </c>
       <c r="M35" t="n">
-        <v>15.8095</v>
+        <v>20.48071602122923</v>
       </c>
       <c r="N35" t="n">
-        <v>7.03723185840708</v>
+        <v>9.242461430575036</v>
       </c>
       <c r="O35" t="n">
-        <v>0.05321442103579064</v>
+        <v>0.04067389957076707</v>
       </c>
       <c r="P35" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>0.8055273068170973</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.4113191490067188</v>
+      </c>
       <c r="S35" t="n">
-        <v>0.4255601806534976</v>
+        <v>0.6770535964635579</v>
       </c>
       <c r="T35" t="n">
-        <v>0.02496312303563335</v>
+        <v>0.03306951417568201</v>
       </c>
       <c r="U35" t="n">
-        <v>0.009637209734179461</v>
+        <v>0.01864497952230561</v>
       </c>
       <c r="V35" t="n">
-        <v>0.01532591330145389</v>
-      </c>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+        <v>0.0144245346533764</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.362634274000017</v>
+      </c>
+      <c r="X35" t="n">
+        <v>329</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.815103047538192</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3094,56 +3060,68 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B727-200/231A</t>
+          <t>787-10 Dreamliner</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1967</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+        <v>2018</v>
+      </c>
+      <c r="E36" t="n">
+        <v>254011</v>
+      </c>
+      <c r="F36" t="n">
+        <v>192777</v>
+      </c>
       <c r="G36" t="n">
-        <v>189</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
+        <v>440</v>
+      </c>
+      <c r="H36" t="n">
+        <v>126356</v>
+      </c>
       <c r="I36" t="n">
-        <v>23.0569655376551</v>
+        <v>15.52666529587989</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2416931831157501</v>
+        <v>0.3586711279463648</v>
       </c>
       <c r="K36" t="n">
-        <v>2.128743856018835</v>
+        <v>1.005809122765289</v>
       </c>
       <c r="L36" t="n">
-        <v>240.7019400352734</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
-        <v>7.083179084967321</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.05286922927510332</v>
-      </c>
+        <v>307.9545454545454</v>
+      </c>
+      <c r="M36" t="n">
+        <v>20.5962742557415</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>0.8282003104653158</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.4330727033762745</v>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="n">
+        <v>0.9950608429392854</v>
+      </c>
       <c r="X36" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y36" t="inlineStr"/>
+        <v>318</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.7191576092152108</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3153,7 +3131,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B737 Max 800</t>
+          <t>B707-100B/300</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3162,71 +3140,61 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2017</v>
+        <v>1959</v>
       </c>
       <c r="E37" t="n">
-        <v>82645</v>
+        <v>117027</v>
       </c>
       <c r="F37" t="n">
-        <v>65952</v>
+        <v>77111</v>
       </c>
       <c r="G37" t="n">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="H37" t="n">
-        <v>25817</v>
+        <v>58398</v>
       </c>
       <c r="I37" t="n">
-        <v>15.7290159675477</v>
+        <v>28.1765</v>
       </c>
       <c r="J37" t="n">
-        <v>0.354026976416006</v>
+        <v>0.1976272949315228</v>
       </c>
       <c r="K37" t="n">
-        <v>0.8953661112939827</v>
+        <v>3.0372</v>
       </c>
       <c r="L37" t="n">
-        <v>214.5952380952381</v>
+        <v>305.8201058201058</v>
       </c>
       <c r="M37" t="n">
-        <v>18.76996058963584</v>
+        <v>15.8095</v>
       </c>
       <c r="N37" t="n">
-        <v>10.15942047244095</v>
+        <v>7.03723185840708</v>
       </c>
       <c r="O37" t="n">
-        <v>0.03686058865814214</v>
+        <v>0.05321442103579064</v>
       </c>
       <c r="P37" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q37" t="n">
-        <v>0.8067927298853939</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.4388087606142206</v>
-      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="n">
-        <v>0.5361752695446019</v>
+        <v>0.4255601806534976</v>
       </c>
       <c r="T37" t="n">
-        <v>0.02856586344494299</v>
+        <v>0.02496312303563335</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01059682650883146</v>
+        <v>0.009637209734179461</v>
       </c>
       <c r="V37" t="n">
-        <v>0.01796903693611153</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0.8353390780716035</v>
-      </c>
-      <c r="X37" t="n">
-        <v>171</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0.6802046778583057</v>
-      </c>
+        <v>0.01532591330145389</v>
+      </c>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3236,7 +3204,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B737 Max 900</t>
+          <t>B727-200/231A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3245,69 +3213,47 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E38" t="n">
-        <v>88314</v>
-      </c>
-      <c r="F38" t="n">
-        <v>70987</v>
-      </c>
+        <v>1967</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
-        <v>220</v>
-      </c>
-      <c r="H38" t="n">
-        <v>25817</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>15.75412077408917</v>
+        <v>23.0569655376551</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3534602766522315</v>
+        <v>0.2416931831157501</v>
       </c>
       <c r="K38" t="n">
-        <v>0.8889188737585035</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>18.7938656279299</v>
-      </c>
+        <v>2.128743856018835</v>
+      </c>
+      <c r="L38" t="n">
+        <v>240.7019400352734</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>10.15942047244095</v>
+        <v>7.083179084967321</v>
       </c>
       <c r="O38" t="n">
-        <v>0.03686058865814214</v>
+        <v>0.05286922927510332</v>
       </c>
       <c r="P38" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q38" t="n">
-        <v>0.8242132772494805</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.4288458133952533</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.5729600712422284</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.03048660418648039</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.01210071359235303</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0.01838589059412736</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0.8795860416327073</v>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0.7116650700482813</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3317,7 +3263,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B737-100/200</t>
+          <t>B737 Max 800</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3326,66 +3272,70 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1967</v>
+        <v>2017</v>
       </c>
       <c r="E39" t="n">
-        <v>58105</v>
+        <v>82645</v>
       </c>
       <c r="F39" t="n">
-        <v>44905</v>
+        <v>65952</v>
       </c>
       <c r="G39" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="H39" t="n">
-        <v>20250</v>
+        <v>25817</v>
       </c>
       <c r="I39" t="n">
-        <v>22.76311802988742</v>
+        <v>15.7290159675477</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2447247173326018</v>
+        <v>0.354026976416006</v>
       </c>
       <c r="K39" t="n">
-        <v>2.055448959277904</v>
+        <v>0.8953661112939827</v>
       </c>
       <c r="L39" t="n">
-        <v>211.1230769230769</v>
+        <v>214.5952380952381</v>
       </c>
       <c r="M39" t="n">
-        <v>12.50840652114147</v>
+        <v>18.76996058963584</v>
       </c>
       <c r="N39" t="n">
-        <v>5.988823594024605</v>
+        <v>10.15942047244095</v>
       </c>
       <c r="O39" t="n">
-        <v>0.06253018028672548</v>
+        <v>0.03686058865814214</v>
       </c>
       <c r="P39" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>0.8067927298853939</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.4388087606142206</v>
+      </c>
       <c r="S39" t="n">
-        <v>0.4515673811211251</v>
+        <v>0.5361752695446019</v>
       </c>
       <c r="T39" t="n">
-        <v>0.03611571275215356</v>
+        <v>0.02856586344494299</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01275072288660277</v>
+        <v>0.01059682650883146</v>
       </c>
       <c r="V39" t="n">
-        <v>0.02336498986555079</v>
+        <v>0.01796903693611153</v>
       </c>
       <c r="W39" t="n">
-        <v>1.848998853040951</v>
+        <v>0.8353390780716035</v>
       </c>
       <c r="X39" t="n">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.550314422934336</v>
+        <v>0.6802046778583057</v>
       </c>
     </row>
     <row r="40">
@@ -3396,7 +3346,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B737-400</t>
+          <t>B737 Max 900</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3405,70 +3355,68 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1988</v>
+        <v>2018</v>
       </c>
       <c r="E40" t="n">
-        <v>68038</v>
+        <v>88314</v>
       </c>
       <c r="F40" t="n">
-        <v>53070</v>
+        <v>70987</v>
       </c>
       <c r="G40" t="n">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="H40" t="n">
-        <v>20100</v>
+        <v>25817</v>
       </c>
       <c r="I40" t="n">
-        <v>18.01149478558387</v>
+        <v>15.75412077408917</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3091615499916621</v>
+        <v>0.3534602766522315</v>
       </c>
       <c r="K40" t="n">
-        <v>1.385801233313683</v>
-      </c>
-      <c r="L40" t="n">
-        <v>184.5505319148936</v>
-      </c>
+        <v>0.8889188737585035</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>13.12333798426103</v>
+        <v>18.7938656279299</v>
       </c>
       <c r="N40" t="n">
-        <v>9.16140597539543</v>
+        <v>10.15942047244095</v>
       </c>
       <c r="O40" t="n">
-        <v>0.04087606422480258</v>
+        <v>0.03686058865814214</v>
       </c>
       <c r="P40" t="n">
         <v>0.85</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.7570096152512362</v>
+        <v>0.8242132772494805</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4083988035514686</v>
+        <v>0.4288458133952533</v>
       </c>
       <c r="S40" t="n">
-        <v>0.6157737015288071</v>
+        <v>0.5729600712422284</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0469221695259862</v>
+        <v>0.03048660418648039</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01549927368467283</v>
+        <v>0.01210071359235303</v>
       </c>
       <c r="V40" t="n">
-        <v>0.03142289584131337</v>
+        <v>0.01838589059412736</v>
       </c>
       <c r="W40" t="n">
-        <v>1.300332435026857</v>
+        <v>0.8795860416327073</v>
       </c>
       <c r="X40" t="n">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.9890826500470241</v>
+        <v>0.7116650700482813</v>
       </c>
     </row>
     <row r="41">
@@ -3479,79 +3427,75 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B747-200/300</t>
+          <t>B737-100/200</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="E41" t="n">
-        <v>377842</v>
+        <v>58105</v>
       </c>
       <c r="F41" t="n">
-        <v>250447</v>
+        <v>44905</v>
       </c>
       <c r="G41" t="n">
-        <v>550</v>
+        <v>130</v>
       </c>
       <c r="H41" t="n">
-        <v>194851.4285714286</v>
+        <v>20250</v>
       </c>
       <c r="I41" t="n">
-        <v>17.49683082336579</v>
+        <v>22.76311802988742</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3183269811393317</v>
+        <v>0.2447247173326018</v>
       </c>
       <c r="K41" t="n">
-        <v>1.794428297949458</v>
+        <v>2.055448959277904</v>
       </c>
       <c r="L41" t="n">
-        <v>312.4242424242424</v>
+        <v>211.1230769230769</v>
       </c>
       <c r="M41" t="n">
-        <v>13.02594754919924</v>
+        <v>12.50840652114147</v>
       </c>
       <c r="N41" t="n">
-        <v>6.951389432485324</v>
+        <v>5.988823594024605</v>
       </c>
       <c r="O41" t="n">
-        <v>0.05387156376101137</v>
+        <v>0.06253018028672548</v>
       </c>
       <c r="P41" t="n">
-        <v>0.8499999999999999</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.7582416071737869</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.4199726818385396</v>
-      </c>
+        <v>0.85</v>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="n">
-        <v>0.5814446189277256</v>
+        <v>0.4515673811211251</v>
       </c>
       <c r="T41" t="n">
-        <v>0.04464757775372925</v>
+        <v>0.03611571275215356</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01821278217663866</v>
+        <v>0.01275072288660277</v>
       </c>
       <c r="V41" t="n">
-        <v>0.02643479557709058</v>
+        <v>0.02336498986555079</v>
       </c>
       <c r="W41" t="n">
-        <v>1.96228034370375</v>
+        <v>1.848998853040951</v>
       </c>
       <c r="X41" t="n">
-        <v>391</v>
+        <v>109</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.395002935251211</v>
+        <v>1.550314422934336</v>
       </c>
     </row>
     <row r="42">
@@ -3562,77 +3506,79 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>B747-400</t>
+          <t>B737-400</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E42" t="n">
-        <v>396893</v>
+        <v>68038</v>
       </c>
       <c r="F42" t="n">
-        <v>246754</v>
+        <v>53070</v>
       </c>
       <c r="G42" t="n">
-        <v>550</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="H42" t="n">
+        <v>20100</v>
+      </c>
       <c r="I42" t="n">
-        <v>17.36719498633941</v>
+        <v>18.01149478558387</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3207641290482429</v>
+        <v>0.3091615499916621</v>
       </c>
       <c r="K42" t="n">
-        <v>1.577330583980868</v>
+        <v>1.385801233313683</v>
       </c>
       <c r="L42" t="n">
-        <v>329.3181818181818</v>
+        <v>184.5505319148936</v>
       </c>
       <c r="M42" t="n">
-        <v>17.13050625161565</v>
+        <v>13.12333798426103</v>
       </c>
       <c r="N42" t="n">
-        <v>7.813733686105675</v>
+        <v>9.16140597539543</v>
       </c>
       <c r="O42" t="n">
-        <v>0.04799817840774089</v>
+        <v>0.04087606422480258</v>
       </c>
       <c r="P42" t="n">
         <v>0.85</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7459442726768427</v>
+        <v>0.7570096152512362</v>
       </c>
       <c r="R42" t="n">
-        <v>0.4299850962630789</v>
+        <v>0.4083988035514686</v>
       </c>
       <c r="S42" t="n">
-        <v>0.6245958547978334</v>
+        <v>0.6157737015288071</v>
       </c>
       <c r="T42" t="n">
-        <v>0.03647949037332818</v>
+        <v>0.0469221695259862</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01873896429596236</v>
+        <v>0.01549927368467283</v>
       </c>
       <c r="V42" t="n">
-        <v>0.01774052607736582</v>
+        <v>0.03142289584131337</v>
       </c>
       <c r="W42" t="n">
-        <v>1.567817459973697</v>
+        <v>1.300332435026857</v>
       </c>
       <c r="X42" t="n">
-        <v>386</v>
+        <v>143</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.10032279918154</v>
+        <v>0.9890826500470241</v>
       </c>
     </row>
     <row r="43">
@@ -3643,65 +3589,79 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B757-200</t>
+          <t>B747-200/300</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1984</v>
+        <v>1970</v>
       </c>
       <c r="E43" t="n">
-        <v>110033.8333333333</v>
+        <v>377842</v>
       </c>
       <c r="F43" t="n">
-        <v>84703</v>
+        <v>250447</v>
       </c>
       <c r="G43" t="n">
-        <v>239</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
+        <v>550</v>
+      </c>
+      <c r="H43" t="n">
+        <v>194851.4285714286</v>
+      </c>
       <c r="I43" t="n">
-        <v>17.58253515506082</v>
+        <v>17.49683082336579</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3169735700128617</v>
+        <v>0.3183269811393317</v>
       </c>
       <c r="K43" t="n">
-        <v>1.257618610959593</v>
+        <v>1.794428297949458</v>
       </c>
       <c r="L43" t="n">
-        <v>247.8242677824268</v>
+        <v>312.4242424242424</v>
       </c>
       <c r="M43" t="n">
-        <v>14.75280222183371</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+        <v>13.02594754919924</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6.951389432485324</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.05387156376101137</v>
+      </c>
       <c r="P43" t="n">
-        <v>0.85</v>
+        <v>0.8499999999999999</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.8206382848850665</v>
+        <v>0.7582416071737869</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3866826721617297</v>
-      </c>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
+        <v>0.4199726818385396</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.5814446189277256</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.04464757775372925</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.01821278217663866</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.02643479557709058</v>
+      </c>
       <c r="W43" t="n">
-        <v>1.30972191201682</v>
+        <v>1.96228034370375</v>
       </c>
       <c r="X43" t="n">
-        <v>186</v>
+        <v>391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.01928148801309</v>
+        <v>1.395002935251211</v>
       </c>
     </row>
     <row r="44">
@@ -3712,7 +3672,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B767-300/300ER</t>
+          <t>B747-400</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3721,56 +3681,68 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="E44" t="n">
-        <v>186880</v>
+        <v>396893</v>
       </c>
       <c r="F44" t="n">
-        <v>133809</v>
+        <v>246754</v>
       </c>
       <c r="G44" t="n">
-        <v>351</v>
+        <v>550</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>17.11208018153209</v>
+        <v>17.36719498633941</v>
       </c>
       <c r="J44" t="n">
-        <v>0.3255372035632955</v>
+        <v>0.3207641290482429</v>
       </c>
       <c r="K44" t="n">
-        <v>1.406321580860593</v>
+        <v>1.577330583980868</v>
       </c>
       <c r="L44" t="n">
-        <v>258.5660018993353</v>
+        <v>329.3181818181818</v>
       </c>
       <c r="M44" t="n">
-        <v>16.06457822124447</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+        <v>17.13050625161565</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7.813733686105675</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.04799817840774089</v>
+      </c>
       <c r="P44" t="n">
         <v>0.85</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.792807834995948</v>
+        <v>0.7459442726768427</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4106035124482257</v>
-      </c>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+        <v>0.4299850962630789</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.6245958547978334</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.03647949037332818</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.01873896429596236</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.01774052607736582</v>
+      </c>
       <c r="W44" t="n">
-        <v>1.322512080118051</v>
+        <v>1.567817459973697</v>
       </c>
       <c r="X44" t="n">
-        <v>228</v>
+        <v>386</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.8590676759741186</v>
+        <v>1.10032279918154</v>
       </c>
     </row>
     <row r="45">
@@ -3781,222 +3753,226 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B777</t>
+          <t>B757-200</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1995</v>
+        <v>1984</v>
       </c>
       <c r="E45" t="n">
-        <v>304662.3333333333</v>
+        <v>110033.8333333333</v>
       </c>
       <c r="F45" t="n">
-        <v>201923.5</v>
+        <v>84703</v>
       </c>
       <c r="G45" t="n">
-        <v>440</v>
+        <v>239</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>16.22484157407747</v>
+        <v>17.58253515506082</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3434804570738821</v>
+        <v>0.3169735700128617</v>
       </c>
       <c r="K45" t="n">
-        <v>1.503928611287193</v>
+        <v>1.257618610959593</v>
       </c>
       <c r="L45" t="n">
-        <v>322.9280303030303</v>
+        <v>247.8242677824268</v>
       </c>
       <c r="M45" t="n">
-        <v>19.92558815468512</v>
-      </c>
-      <c r="N45" t="n">
-        <v>8.860483870967741</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.04235489299599872</v>
-      </c>
+        <v>14.75280222183371</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
         <v>0.85</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.8012726584302597</v>
+        <v>0.8206382848850665</v>
       </c>
       <c r="R45" t="n">
-        <v>0.4287688024298711</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0.6691910385691424</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0.03361146888636777</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0.01896722612744536</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0.01464424275892241</v>
-      </c>
+        <v>0.3866826721617297</v>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="n">
-        <v>1.540685556401292</v>
+        <v>1.30972191201682</v>
       </c>
       <c r="X45" t="n">
-        <v>273</v>
+        <v>186</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.9559253565853472</v>
+        <v>1.01928148801309</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Canadair</t>
+          <t xml:space="preserve">Boeing </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RJ-200ER /RJ-440</t>
+          <t>B767-300/300ER</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="E46" t="n">
-        <v>21523</v>
+        <v>186880</v>
       </c>
       <c r="F46" t="n">
-        <v>19142</v>
+        <v>133809</v>
       </c>
       <c r="G46" t="n">
-        <v>50</v>
-      </c>
-      <c r="H46" t="n">
-        <v>8082</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>17.28285017013491</v>
+        <v>17.11208018153209</v>
       </c>
       <c r="J46" t="n">
-        <v>0.32219485911302</v>
+        <v>0.3255372035632955</v>
       </c>
       <c r="K46" t="n">
-        <v>2.214675784779499</v>
+        <v>1.406321580860593</v>
       </c>
       <c r="L46" t="n">
-        <v>276.7</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>258.5660018993353</v>
+      </c>
+      <c r="M46" t="n">
+        <v>16.06457822124447</v>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
         <v>0.85</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.6093099316986447</v>
+        <v>0.792807834995948</v>
       </c>
       <c r="R46" t="n">
-        <v>0.5287864883718532</v>
+        <v>0.4106035124482257</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="n">
+        <v>1.322512080118051</v>
+      </c>
       <c r="X46" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y46" t="inlineStr"/>
+        <v>228</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.8590676759741186</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Canadair </t>
+          <t xml:space="preserve">Boeing </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CRJ 900</t>
+          <t>B777</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="E47" t="n">
-        <v>36514</v>
+        <v>304662.3333333333</v>
       </c>
       <c r="F47" t="n">
-        <v>31751</v>
+        <v>201923.5</v>
       </c>
       <c r="G47" t="n">
-        <v>90</v>
-      </c>
-      <c r="H47" t="n">
-        <v>10989</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>18.1474420852141</v>
+        <v>16.22484157407747</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3068453419919016</v>
+        <v>0.3434804570738821</v>
       </c>
       <c r="K47" t="n">
-        <v>1.632643866704311</v>
+        <v>1.503928611287193</v>
       </c>
       <c r="L47" t="n">
-        <v>238.1333333333333</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>322.9280303030303</v>
+      </c>
+      <c r="M47" t="n">
+        <v>19.92558815468512</v>
+      </c>
       <c r="N47" t="n">
-        <v>8.720253164556961</v>
+        <v>8.860483870967741</v>
       </c>
       <c r="O47" t="n">
-        <v>0.04294396182920678</v>
+        <v>0.04235489299599872</v>
       </c>
       <c r="P47" t="n">
         <v>0.85</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.6553496613953217</v>
+        <v>0.8012726584302597</v>
       </c>
       <c r="R47" t="n">
-        <v>0.4682167120337273</v>
-      </c>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+        <v>0.4287688024298711</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.6691910385691424</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.03361146888636777</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.01896722612744536</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.01464424275892241</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.540685556401292</v>
+      </c>
       <c r="X47" t="n">
-        <v>76</v>
-      </c>
-      <c r="Y47" t="inlineStr"/>
+        <v>273</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.9559253565853472</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Canadair </t>
+          <t>Canadair</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RJ-700</t>
+          <t>RJ-200ER /RJ-440</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4005,47 +3981,43 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="E48" t="n">
-        <v>32999</v>
+        <v>21523</v>
       </c>
       <c r="F48" t="n">
-        <v>28259</v>
+        <v>19142</v>
       </c>
       <c r="G48" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="H48" t="n">
-        <v>10989</v>
+        <v>8082</v>
       </c>
       <c r="I48" t="n">
-        <v>17.97625309347459</v>
+        <v>17.28285017013491</v>
       </c>
       <c r="J48" t="n">
-        <v>0.3097669485143899</v>
+        <v>0.32219485911302</v>
       </c>
       <c r="K48" t="n">
-        <v>1.811345791353538</v>
+        <v>2.214675784779499</v>
       </c>
       <c r="L48" t="n">
-        <v>274.7692307692308</v>
+        <v>276.7</v>
       </c>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
-        <v>7.623796033994335</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.04912017810680478</v>
-      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
         <v>0.85</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.7436383328885995</v>
+        <v>0.6093099316986447</v>
       </c>
       <c r="R48" t="n">
-        <v>0.4165560046493103</v>
+        <v>0.5287864883718532</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -4053,102 +4025,88 @@
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Embraer</t>
+          <t xml:space="preserve">Canadair </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Embraer 190</t>
+          <t>CRJ 900</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E49" t="n">
-        <v>51843.125</v>
+        <v>36514</v>
       </c>
       <c r="F49" t="n">
-        <v>44140.625</v>
+        <v>31751</v>
       </c>
       <c r="G49" t="n">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="H49" t="n">
-        <v>16347.75</v>
+        <v>10989</v>
       </c>
       <c r="I49" t="n">
-        <v>16.77016917536357</v>
+        <v>18.1474420852141</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3340784549997739</v>
+        <v>0.3068453419919016</v>
       </c>
       <c r="K49" t="n">
-        <v>1.712372106412916</v>
+        <v>1.632643866704311</v>
       </c>
       <c r="L49" t="n">
-        <v>226.7204301075269</v>
-      </c>
-      <c r="M49" t="n">
-        <v>12.90243961716091</v>
-      </c>
+        <v>238.1333333333333</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>9.754665681149657</v>
+        <v>8.720253164556961</v>
       </c>
       <c r="O49" t="n">
-        <v>0.03898101704058082</v>
+        <v>0.04294396182920678</v>
       </c>
       <c r="P49" t="n">
         <v>0.85</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.7185417761981302</v>
+        <v>0.6553496613953217</v>
       </c>
       <c r="R49" t="n">
-        <v>0.4645285119963847</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0.4120757825983491</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0.0320075134087326</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0.006707659487483158</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0.02529985392124945</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.421547968975648</v>
-      </c>
+        <v>0.4682167120337273</v>
+      </c>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="n">
-        <v>99</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1.134945555875719</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Y49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Embraer</t>
+          <t xml:space="preserve">Canadair </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Embraer-135</t>
+          <t>RJ-700</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4160,42 +4118,44 @@
         <v>1999</v>
       </c>
       <c r="E50" t="n">
-        <v>21096</v>
+        <v>32999</v>
       </c>
       <c r="F50" t="n">
-        <v>15840</v>
+        <v>28259</v>
       </c>
       <c r="G50" t="n">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="H50" t="n">
-        <v>8216.799999999999</v>
+        <v>10989</v>
       </c>
       <c r="I50" t="n">
-        <v>18.16621531661354</v>
+        <v>17.97625309347459</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3065334694794639</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>0.3097669485143899</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1.811345791353538</v>
+      </c>
       <c r="L50" t="n">
-        <v>339.1891891891892</v>
+        <v>274.7692307692308</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>7.846846424384525</v>
+        <v>7.623796033994335</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0477239133769751</v>
+        <v>0.04912017810680478</v>
       </c>
       <c r="P50" t="n">
         <v>0.85</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.5528523772393286</v>
+        <v>0.7436383328885995</v>
       </c>
       <c r="R50" t="n">
-        <v>0.5544650077217133</v>
+        <v>0.4165560046493103</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -4203,88 +4163,102 @@
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="Y50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Embraer </t>
+          <t>Embraer</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Embraer ERJ-175</t>
+          <t>Embraer 190</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E51" t="n">
-        <v>37500</v>
+        <v>51843.125</v>
       </c>
       <c r="F51" t="n">
-        <v>31700</v>
+        <v>44140.625</v>
       </c>
       <c r="G51" t="n">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="H51" t="n">
-        <v>11625</v>
+        <v>16347.75</v>
       </c>
       <c r="I51" t="n">
-        <v>18.19340342917936</v>
+        <v>16.77016917536357</v>
       </c>
       <c r="J51" t="n">
-        <v>0.30607259236972</v>
+        <v>0.3340784549997739</v>
       </c>
       <c r="K51" t="n">
-        <v>1.431502217381948</v>
+        <v>1.712372106412916</v>
       </c>
       <c r="L51" t="n">
-        <v>247.8409090909091</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>226.7204301075269</v>
+      </c>
+      <c r="M51" t="n">
+        <v>12.90243961716091</v>
+      </c>
       <c r="N51" t="n">
-        <v>11.28743811881188</v>
+        <v>9.754665681149657</v>
       </c>
       <c r="O51" t="n">
-        <v>0.03317690117969585</v>
+        <v>0.03898101704058082</v>
       </c>
       <c r="P51" t="n">
         <v>0.85</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.7345017419284566</v>
+        <v>0.7185417761981302</v>
       </c>
       <c r="R51" t="n">
-        <v>0.4167092078440441</v>
-      </c>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+        <v>0.4645285119963847</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.4120757825983491</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.0320075134087326</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.006707659487483158</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.02529985392124945</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.421547968975648</v>
+      </c>
       <c r="X51" t="n">
-        <v>75</v>
-      </c>
-      <c r="Y51" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.134945555875719</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Embraer </t>
+          <t>Embraer</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Embraer-145</t>
+          <t>Embraer-135</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4293,345 +4267,311 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="E52" t="n">
-        <v>20016.66666666667</v>
+        <v>21096</v>
       </c>
       <c r="F52" t="n">
-        <v>17333.33333333333</v>
+        <v>15840</v>
       </c>
       <c r="G52" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H52" t="n">
-        <v>5528</v>
+        <v>8216.799999999999</v>
       </c>
       <c r="I52" t="n">
-        <v>18.22195069609804</v>
+        <v>18.16621531661354</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3055946580068649</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2.16826498481953</v>
-      </c>
+        <v>0.3065334694794639</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>244.1333333333333</v>
-      </c>
-      <c r="M52" t="n">
-        <v>19.39463597265902</v>
-      </c>
+        <v>339.1891891891892</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>7.975146541617818</v>
+        <v>7.846846424384525</v>
       </c>
       <c r="O52" t="n">
-        <v>0.04701331404636609</v>
+        <v>0.0477239133769751</v>
       </c>
       <c r="P52" t="n">
         <v>0.85</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.5943685321574762</v>
+        <v>0.5528523772393286</v>
       </c>
       <c r="R52" t="n">
-        <v>0.514154609092471</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0.3316372652954849</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0.01709969431037421</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0.005170678281867987</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0.01192901602850622</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1.69889425077896</v>
-      </c>
+        <v>0.5544650077217133</v>
+      </c>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>1.69889425077896</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="Y52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Lockheed</t>
+          <t>Embraer</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>L1011-1/100/200</t>
+          <t>Embraer-140</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1973</v>
-      </c>
-      <c r="E53" t="n">
-        <v>224982</v>
-      </c>
-      <c r="F53" t="n">
-        <v>153314</v>
-      </c>
+        <v>2001</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>400</v>
-      </c>
-      <c r="H53" t="n">
-        <v>120705</v>
-      </c>
-      <c r="I53" t="n">
-        <v>17.5682</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.3139168205131977</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1.69015679246197</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>277.7625</v>
-      </c>
-      <c r="M53" t="n">
-        <v>14.3153</v>
-      </c>
+        <v>268.1818181818182</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q53" t="n">
-        <v>0.768913891649879</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0.4082628917981687</v>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
-      <c r="X53" t="n">
-        <v>313</v>
-      </c>
+      <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>McDonnell Douglas</t>
+          <t xml:space="preserve">Embraer </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DC10-40</t>
+          <t>EMB-120 Brasilia</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1972</v>
-      </c>
-      <c r="E54" t="n">
-        <v>256280</v>
-      </c>
-      <c r="F54" t="n">
-        <v>177355</v>
-      </c>
+        <v>1985</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>380</v>
-      </c>
-      <c r="H54" t="n">
-        <v>137520</v>
-      </c>
-      <c r="I54" t="n">
-        <v>17.4331</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.3188393869855028</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1.815799269772046</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>323.5526315789473</v>
-      </c>
-      <c r="M54" t="n">
-        <v>13.9129</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
-        <v>0.8499999999999999</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.7564301254758762</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0.4216043140525501</v>
-      </c>
+        <v>0.85</v>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
-      <c r="W54" t="n">
-        <v>1.528879015518656</v>
-      </c>
-      <c r="X54" t="n">
-        <v>292</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>1.174822822451178</v>
-      </c>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>McDonnell Douglas</t>
+          <t xml:space="preserve">Embraer </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DC9-30</t>
+          <t>Embraer ERJ-175</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1966</v>
+        <v>2005</v>
       </c>
       <c r="E55" t="n">
-        <v>47627</v>
+        <v>37500</v>
       </c>
       <c r="F55" t="n">
-        <v>39463</v>
+        <v>31700</v>
       </c>
       <c r="G55" t="n">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H55" t="n">
-        <v>13926</v>
+        <v>11625</v>
       </c>
       <c r="I55" t="n">
-        <v>22.4331</v>
+        <v>18.19340342917936</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2436966131740899</v>
+        <v>0.30607259236972</v>
       </c>
       <c r="K55" t="n">
-        <v>2.396593879999583</v>
+        <v>1.431502217381948</v>
       </c>
       <c r="L55" t="n">
-        <v>203.0629921259843</v>
-      </c>
-      <c r="M55" t="n">
-        <v>13.798</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+        <v>247.8409090909091</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>11.28743811881188</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.03317690117969585</v>
+      </c>
       <c r="P55" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>0.7345017419284566</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.4167092078440441</v>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
-      <c r="W55" t="n">
-        <v>2.234576907236709</v>
-      </c>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="n">
-        <v>101</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>1.777104469534706</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="Y55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>McDonnell Douglas</t>
+          <t xml:space="preserve">Embraer </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DC9-40</t>
+          <t>Embraer-145</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1968</v>
+        <v>1996</v>
       </c>
       <c r="E56" t="n">
-        <v>51710</v>
+        <v>20016.66666666667</v>
       </c>
       <c r="F56" t="n">
-        <v>42184</v>
+        <v>17333.33333333333</v>
       </c>
       <c r="G56" t="n">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="H56" t="n">
-        <v>13926</v>
+        <v>5528</v>
       </c>
       <c r="I56" t="n">
-        <v>22.98764963035378</v>
+        <v>18.22195069609804</v>
       </c>
       <c r="J56" t="n">
-        <v>0.2423177591514929</v>
+        <v>0.3055946580068649</v>
       </c>
       <c r="K56" t="n">
-        <v>2.0777</v>
+        <v>2.16826498481953</v>
       </c>
       <c r="L56" t="n">
-        <v>217.3515625</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+        <v>244.1333333333333</v>
+      </c>
+      <c r="M56" t="n">
+        <v>19.39463597265902</v>
+      </c>
+      <c r="N56" t="n">
+        <v>7.975146541617818</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.04701331404636609</v>
+      </c>
       <c r="P56" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>0.5943685321574762</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.514154609092471</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.3316372652954849</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.01709969431037421</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.005170678281867987</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.01192901602850622</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.69889425077896</v>
+      </c>
+      <c r="X56" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.69889425077896</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>McDonnell Douglas</t>
+          <t xml:space="preserve">Fokker </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DC9-50</t>
+          <t>Fokker 100</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4640,31 +4580,19 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1976</v>
-      </c>
-      <c r="E57" t="n">
-        <v>54885</v>
-      </c>
-      <c r="F57" t="n">
-        <v>44679</v>
-      </c>
+        <v>1988</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
-        <v>139</v>
-      </c>
-      <c r="H57" t="n">
-        <v>13926</v>
-      </c>
-      <c r="I57" t="n">
-        <v>23.15547775838727</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.240566813495083</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2.1014</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>211.0503597122302</v>
+        <v>202.3142076502733</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
@@ -4685,12 +4613,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>McDonnell Douglas</t>
+          <t xml:space="preserve">Gates Learjet </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MD-90</t>
+          <t>Lear-31/35/36</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4699,181 +4627,131 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E58" t="n">
-        <v>70760</v>
-      </c>
-      <c r="F58" t="n">
-        <v>58967</v>
-      </c>
-      <c r="G58" t="n">
-        <v>167</v>
-      </c>
-      <c r="H58" t="n">
-        <v>22104</v>
-      </c>
-      <c r="I58" t="n">
-        <v>16.99770822716683</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.3276118019864066</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1.340189934684793</v>
-      </c>
-      <c r="L58" t="n">
-        <v>242.5489021956088</v>
-      </c>
-      <c r="M58" t="n">
-        <v>12.37458876479575</v>
-      </c>
+        <v>1974</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q58" t="n">
-        <v>0.7522047333148674</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0.4355403584797195</v>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="n">
-        <v>1.431159306658041</v>
-      </c>
-      <c r="X58" t="n">
-        <v>148</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>1.268332798714911</v>
-      </c>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>McDonnell Douglas</t>
+          <t>Lockheed</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MD80/DC9-80</t>
+          <t>L1011-1/100/200</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1980</v>
+        <v>1973</v>
       </c>
       <c r="E59" t="n">
-        <v>66170.71428571429</v>
+        <v>224982</v>
       </c>
       <c r="F59" t="n">
-        <v>54258.33333333334</v>
+        <v>153314</v>
       </c>
       <c r="G59" t="n">
-        <v>172</v>
+        <v>400</v>
       </c>
       <c r="H59" t="n">
-        <v>22128.57142857143</v>
+        <v>120705</v>
       </c>
       <c r="I59" t="n">
-        <v>20.744</v>
+        <v>17.5682</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2677959349194378</v>
+        <v>0.3169616395326812</v>
       </c>
       <c r="K59" t="n">
-        <v>1.656668854428058</v>
+        <v>1.69015679246197</v>
       </c>
       <c r="L59" t="n">
-        <v>201.4290697674419</v>
+        <v>277.7625</v>
       </c>
       <c r="M59" t="n">
-        <v>13.9129</v>
-      </c>
-      <c r="N59" t="n">
-        <v>9.609283170080145</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0.03897087976403451</v>
-      </c>
+        <v>14.3153</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
-        <v>0.465918984280532</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0.03854917474019982</v>
-      </c>
-      <c r="U59" t="n">
-        <v>0.008459818061226131</v>
-      </c>
-      <c r="V59" t="n">
-        <v>0.03008935667897369</v>
-      </c>
-      <c r="W59" t="n">
-        <v>1.727304523520158</v>
-      </c>
+      <c r="Q59" t="n">
+        <v>0.7671932869260786</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.4131444382192846</v>
+      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="n">
-        <v>141</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>1.41598801056013</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="Y59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">McDonnell Douglas </t>
+          <t xml:space="preserve">Lockheed </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DC9-10</t>
+          <t>L1011-500</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1965</v>
-      </c>
-      <c r="E60" t="n">
-        <v>41141</v>
-      </c>
-      <c r="F60" t="n">
-        <v>33566</v>
-      </c>
+        <v>1979</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>109</v>
-      </c>
-      <c r="H60" t="n">
-        <v>13979</v>
-      </c>
-      <c r="I60" t="n">
-        <v>22.88492472710245</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.2434446697285764</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>2.9899</v>
+        <v>1.8209</v>
       </c>
       <c r="L60" t="n">
-        <v>204.5871559633028</v>
+        <v>330.0757575757576</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
@@ -4894,12 +4772,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">McDonnell Douglas </t>
+          <t>McDonnell Douglas</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MD-11</t>
+          <t>DC10-30</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4908,59 +4786,685 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E61" t="n">
-        <v>276691</v>
-      </c>
-      <c r="F61" t="n">
-        <v>195045</v>
-      </c>
+        <v>1972</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>410</v>
-      </c>
-      <c r="H61" t="n">
-        <v>144782</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>17.17456583460847</v>
+        <v>17.7708</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3242378114826743</v>
+        <v>0.3133480471131322</v>
       </c>
       <c r="K61" t="n">
-        <v>1.744608638314735</v>
+        <v>1.803152741832779</v>
       </c>
       <c r="L61" t="n">
-        <v>317.4756097560976</v>
+        <v>318.9342105263158</v>
       </c>
       <c r="M61" t="n">
-        <v>17.40070054630272</v>
+        <v>15.2348</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q61" t="n">
-        <v>0.7973216220994317</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0.4066736667846495</v>
-      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
-      <c r="W61" t="n">
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="n">
+        <v>271</v>
+      </c>
+      <c r="Y61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>McDonnell Douglas</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DC10-40</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Wide</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1972</v>
+      </c>
+      <c r="E62" t="n">
+        <v>256280</v>
+      </c>
+      <c r="F62" t="n">
+        <v>177355</v>
+      </c>
+      <c r="G62" t="n">
+        <v>380</v>
+      </c>
+      <c r="H62" t="n">
+        <v>137520</v>
+      </c>
+      <c r="I62" t="n">
+        <v>17.4331</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.3194179736041238</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.815799269772046</v>
+      </c>
+      <c r="L62" t="n">
+        <v>323.5526315789473</v>
+      </c>
+      <c r="M62" t="n">
+        <v>13.9129</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="n">
+        <v>0.8499999999999999</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.75610908877169</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.4225170895413957</v>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="n">
+        <v>1.528879015518656</v>
+      </c>
+      <c r="X62" t="n">
+        <v>292</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.174822822451178</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>McDonnell Douglas</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DC9-30</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Narrow</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1966</v>
+      </c>
+      <c r="E63" t="n">
+        <v>47627</v>
+      </c>
+      <c r="F63" t="n">
+        <v>39463</v>
+      </c>
+      <c r="G63" t="n">
+        <v>127</v>
+      </c>
+      <c r="H63" t="n">
+        <v>13926</v>
+      </c>
+      <c r="I63" t="n">
+        <v>22.4331</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.2482245198228533</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2.396593879999583</v>
+      </c>
+      <c r="L63" t="n">
+        <v>203.0629921259843</v>
+      </c>
+      <c r="M63" t="n">
+        <v>13.798</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="n">
+        <v>2.234576907236709</v>
+      </c>
+      <c r="X63" t="n">
+        <v>101</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.777104469534706</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>McDonnell Douglas</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DC9-40</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Narrow</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1968</v>
+      </c>
+      <c r="E64" t="n">
+        <v>51710</v>
+      </c>
+      <c r="F64" t="n">
+        <v>42184</v>
+      </c>
+      <c r="G64" t="n">
+        <v>128</v>
+      </c>
+      <c r="H64" t="n">
+        <v>13926</v>
+      </c>
+      <c r="I64" t="n">
+        <v>22.98764963035378</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.2423177591514929</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2.0777</v>
+      </c>
+      <c r="L64" t="n">
+        <v>217.3515625</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>McDonnell Douglas</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DC9-50</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Narrow</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1976</v>
+      </c>
+      <c r="E65" t="n">
+        <v>54885</v>
+      </c>
+      <c r="F65" t="n">
+        <v>44679</v>
+      </c>
+      <c r="G65" t="n">
+        <v>139</v>
+      </c>
+      <c r="H65" t="n">
+        <v>13926</v>
+      </c>
+      <c r="I65" t="n">
+        <v>23.15547775838727</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.240566813495083</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2.1014</v>
+      </c>
+      <c r="L65" t="n">
+        <v>211.0503597122302</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>McDonnell Douglas</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MD-90</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Narrow</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E66" t="n">
+        <v>70760</v>
+      </c>
+      <c r="F66" t="n">
+        <v>58967</v>
+      </c>
+      <c r="G66" t="n">
+        <v>167</v>
+      </c>
+      <c r="H66" t="n">
+        <v>22104</v>
+      </c>
+      <c r="I66" t="n">
+        <v>16.99770822716683</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3276118019864066</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1.340189934684793</v>
+      </c>
+      <c r="L66" t="n">
+        <v>242.5489021956088</v>
+      </c>
+      <c r="M66" t="n">
+        <v>12.37458876479575</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.7522047333148674</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.4355403584797195</v>
+      </c>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="n">
+        <v>1.431159306658041</v>
+      </c>
+      <c r="X66" t="n">
+        <v>148</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.268332798714911</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>McDonnell Douglas</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MD80/DC9-80</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Narrow</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1980</v>
+      </c>
+      <c r="E67" t="n">
+        <v>66170.71428571429</v>
+      </c>
+      <c r="F67" t="n">
+        <v>54258.33333333334</v>
+      </c>
+      <c r="G67" t="n">
+        <v>172</v>
+      </c>
+      <c r="H67" t="n">
+        <v>22128.57142857143</v>
+      </c>
+      <c r="I67" t="n">
+        <v>20.744</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.2684364382779623</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1.656668854428058</v>
+      </c>
+      <c r="L67" t="n">
+        <v>201.4290697674419</v>
+      </c>
+      <c r="M67" t="n">
+        <v>13.9129</v>
+      </c>
+      <c r="N67" t="n">
+        <v>9.609283170080145</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.03897087976403451</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="n">
+        <v>0.465918984280532</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.03854917474019982</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.008459818061226131</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.03008935667897369</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.727304523520158</v>
+      </c>
+      <c r="X67" t="n">
+        <v>141</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.41598801056013</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">McDonnell Douglas </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DC10-10</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Wide</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1970</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>380</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>17.0953</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.3257296143172714</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1.665838405572881</v>
+      </c>
+      <c r="L68" t="n">
+        <v>286.6842105263158</v>
+      </c>
+      <c r="M68" t="n">
+        <v>14.2003</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="n">
+        <v>284</v>
+      </c>
+      <c r="Y68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">McDonnell Douglas </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DC9-10</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Narrow</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1965</v>
+      </c>
+      <c r="E69" t="n">
+        <v>41141</v>
+      </c>
+      <c r="F69" t="n">
+        <v>33566</v>
+      </c>
+      <c r="G69" t="n">
+        <v>109</v>
+      </c>
+      <c r="H69" t="n">
+        <v>13979</v>
+      </c>
+      <c r="I69" t="n">
+        <v>22.88492472710245</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.2434446697285764</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2.9899</v>
+      </c>
+      <c r="L69" t="n">
+        <v>204.5871559633028</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">McDonnell Douglas </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MD-11</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Wide</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E70" t="n">
+        <v>276691</v>
+      </c>
+      <c r="F70" t="n">
+        <v>195045</v>
+      </c>
+      <c r="G70" t="n">
+        <v>410</v>
+      </c>
+      <c r="H70" t="n">
+        <v>144782</v>
+      </c>
+      <c r="I70" t="n">
+        <v>17.17456583460847</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.3242378114826743</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.744608638314735</v>
+      </c>
+      <c r="L70" t="n">
+        <v>317.4756097560976</v>
+      </c>
+      <c r="M70" t="n">
+        <v>17.40070054630272</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.7973216220994317</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.4066736667846495</v>
+      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="n">
         <v>1.674345709353589</v>
       </c>
-      <c r="X61" t="n">
+      <c r="X70" t="n">
         <v>254</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="Y70" t="n">
         <v>1.037277585794662</v>
       </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saab-Fairchild </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>340/B</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Regional</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>34</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>241.9117647058823</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test_env/Databank.xlsx
+++ b/test_env/Databank.xlsx
@@ -4180,7 +4180,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -4211,7 +4211,7 @@
         <v>226.7204301075269</v>
       </c>
       <c r="M51" t="n">
-        <v>12.90243961716091</v>
+        <v>29.41761709188236</v>
       </c>
       <c r="N51" t="n">
         <v>9.754665681149657</v>
@@ -4232,13 +4232,13 @@
         <v>0.4120757825983491</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0320075134087326</v>
+        <v>0.01403835693971279</v>
       </c>
       <c r="U51" t="n">
         <v>0.006707659487483158</v>
       </c>
       <c r="V51" t="n">
-        <v>0.02529985392124945</v>
+        <v>0.007330697452229632</v>
       </c>
       <c r="W51" t="n">
         <v>1.421547968975648</v>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D58" t="n">

--- a/test_env/Databank.xlsx
+++ b/test_env/Databank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +511,7 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Oswald Efficiency</t>
+          <t>Wingspan,float,metre</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -555,6 +555,11 @@
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Height,float,metre</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>EU_estimate_Limit</t>
         </is>
@@ -595,7 +600,7 @@
         <v>15.44949722869756</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3604359806894223</v>
+        <v>0.3660566742484825</v>
       </c>
       <c r="K2" t="n">
         <v>1.388050913903164</v>
@@ -604,34 +609,37 @@
         <v>316.7033997655334</v>
       </c>
       <c r="M2" t="n">
-        <v>19.08608587068615</v>
+        <v>18.79302458409364</v>
       </c>
       <c r="N2" t="n">
         <v>7.526701183431951</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04975383104939486</v>
+        <v>0.05286344548998204</v>
       </c>
       <c r="P2" t="n">
-        <v>0.85</v>
+        <v>79.75</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>0.5606702594179432</v>
+        <v>0.579872351735697</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02937643994487588</v>
+        <v>0.03085632765923649</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01564017349958413</v>
+        <v>0.01777543632879936</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01373626644529175</v>
+        <v>0.01308089133043713</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -668,7 +676,7 @@
         <v>16.98448384262995</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3279146716513309</v>
+        <v>0.3330282229658988</v>
       </c>
       <c r="K3" t="n">
         <v>1.208856634948301</v>
@@ -677,34 +685,34 @@
         <v>216.9230769230769</v>
       </c>
       <c r="M3" t="n">
-        <v>14.3332967229518</v>
+        <v>14.11321312869364</v>
       </c>
       <c r="N3" t="n">
         <v>10.47091503267974</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0357640395200414</v>
+        <v>0.03799929199004399</v>
       </c>
       <c r="P3" t="n">
-        <v>0.85</v>
+        <v>35.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7884268208877393</v>
+        <v>0.7827582529883768</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4159804541870911</v>
+        <v>0.4255304678461357</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4947695273984242</v>
+        <v>0.5117146212062872</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03452519040183829</v>
+        <v>0.03626445510537339</v>
       </c>
       <c r="U3" t="n">
-        <v>0.008754925478180076</v>
+        <v>0.009950185041419854</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02577026492365821</v>
+        <v>0.02631427006395354</v>
       </c>
       <c r="W3" t="n">
         <v>1.14307207999559</v>
@@ -713,6 +721,9 @@
         <v>156</v>
       </c>
       <c r="Y3" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="Z3" t="n">
         <v>0.914457663996472</v>
       </c>
     </row>
@@ -751,7 +762,7 @@
         <v>17.12629865786187</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3256334273699503</v>
+        <v>0.3307114046138761</v>
       </c>
       <c r="K4" t="n">
         <v>1.398059339158471</v>
@@ -764,16 +775,16 @@
         <v>9.500081699346406</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03941884195222423</v>
+        <v>0.04188251957423824</v>
       </c>
       <c r="P4" t="n">
-        <v>0.85</v>
+        <v>34.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7875363049960581</v>
+        <v>0.7818656297002208</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4133826953762283</v>
+        <v>0.422881190011312</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -783,7 +794,10 @@
       <c r="X4" t="n">
         <v>118</v>
       </c>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -820,7 +834,7 @@
         <v>17.06146751190997</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3264073623698464</v>
+        <v>0.3314974084739918</v>
       </c>
       <c r="K5" t="n">
         <v>1.445998550617744</v>
@@ -829,34 +843,34 @@
         <v>262.8937198067633</v>
       </c>
       <c r="M5" t="n">
-        <v>12.51798593977255</v>
+        <v>12.32577591358321</v>
       </c>
       <c r="N5" t="n">
         <v>7.729726538461537</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04844702036694401</v>
+        <v>0.05147495913987801</v>
       </c>
       <c r="P5" t="n">
-        <v>0.85</v>
+        <v>44.83</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7738497139667743</v>
+        <v>0.7679023275231903</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4218123005810776</v>
+        <v>0.4317085313765291</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5228820344991163</v>
+        <v>0.5407899383500721</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04177453447381422</v>
+        <v>0.04387899711315849</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01324568773756474</v>
+        <v>0.01505404521353303</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02852884673624948</v>
+        <v>0.02882495189962546</v>
       </c>
       <c r="W5" t="n">
         <v>1.531120491263444</v>
@@ -865,6 +879,9 @@
         <v>261</v>
       </c>
       <c r="Y5" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="Z5" t="n">
         <v>1.158325936868866</v>
       </c>
     </row>
@@ -901,7 +918,7 @@
         <v>17.59993171711697</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3163981105045663</v>
+        <v>0.3213320708112211</v>
       </c>
       <c r="K6" t="n">
         <v>1.622307954742745</v>
@@ -912,16 +929,16 @@
         <v>7.729726538461538</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04844702036694401</v>
+        <v>0.05147495913987801</v>
       </c>
       <c r="P6" t="n">
-        <v>0.85</v>
+        <v>44.83</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6919642352576293</v>
+        <v>0.6847468648642256</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4574302262652493</v>
+        <v>0.4694689172961224</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -931,7 +948,10 @@
       <c r="X6" t="n">
         <v>255</v>
       </c>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -968,7 +988,7 @@
         <v>17.29617641863968</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3222141009797295</v>
+        <v>0.3272387567273355</v>
       </c>
       <c r="K7" t="n">
         <v>1.758276131082078</v>
@@ -981,10 +1001,10 @@
         <v>8.800045662100455</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04255457680777189</v>
+        <v>0.04521423785825764</v>
       </c>
       <c r="P7" t="n">
-        <v>0.85</v>
+        <v>43.9</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -996,7 +1016,10 @@
       <c r="X7" t="n">
         <v>179</v>
       </c>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1033,7 +1056,7 @@
         <v>16.79256880289362</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3316374138621753</v>
+        <v>0.3368090181855647</v>
       </c>
       <c r="K8" t="n">
         <v>1.4459</v>
@@ -1046,10 +1069,10 @@
         <v>8.800045662100455</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04255457680777189</v>
+        <v>0.04521423785825764</v>
       </c>
       <c r="P8" t="n">
-        <v>0.85</v>
+        <v>43.9</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -1059,7 +1082,10 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1096,7 +1122,7 @@
         <v>16.78368909556014</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3317970744134361</v>
+        <v>0.3369711685077701</v>
       </c>
       <c r="K9" t="n">
         <v>1.368187134684253</v>
@@ -1105,34 +1131,34 @@
         <v>254.259375</v>
       </c>
       <c r="M9" t="n">
-        <v>13.87881256511006</v>
+        <v>13.66570744265254</v>
       </c>
       <c r="N9" t="n">
         <v>10.47091503267974</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0357640395200414</v>
+        <v>0.03799929199004399</v>
       </c>
       <c r="P9" t="n">
-        <v>0.85</v>
+        <v>35.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.786566975728842</v>
+        <v>0.7808617056790327</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4218695179262226</v>
+        <v>0.4315811632965838</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5082318752526555</v>
+        <v>0.5256380337272604</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03662145505107964</v>
+        <v>0.03846632262229654</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009237838498024946</v>
+        <v>0.01049902739517181</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0273836165530547</v>
+        <v>0.02796729522712472</v>
       </c>
       <c r="W9" t="n">
         <v>1.257413181978043</v>
@@ -1141,6 +1167,9 @@
         <v>130</v>
       </c>
       <c r="Y9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="Z9" t="n">
         <v>1.02164821035716</v>
       </c>
     </row>
@@ -1179,7 +1208,7 @@
         <v>14.70307341442506</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3788000933877697</v>
+        <v>0.3847071597161745</v>
       </c>
       <c r="K10" t="n">
         <v>0.8913640923736511</v>
@@ -1192,16 +1221,16 @@
         <v>10.47091503267974</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0357640395200414</v>
+        <v>0.03799929199004399</v>
       </c>
       <c r="P10" t="n">
-        <v>0.85</v>
+        <v>35.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8207520759160561</v>
+        <v>0.8157447946259122</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4615118034052478</v>
+        <v>0.471585611643779</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1211,7 +1240,10 @@
       <c r="X10" t="n">
         <v>184</v>
       </c>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1248,7 +1280,7 @@
         <v>14.96467324159407</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3721744422143206</v>
+        <v>0.3779781871295746</v>
       </c>
       <c r="K11" t="n">
         <v>0.8446380134094421</v>
@@ -1261,16 +1293,16 @@
         <v>10.47091503267974</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0357640395200414</v>
+        <v>0.03799929199004399</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8499999999999999</v>
+        <v>35.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8286990377160699</v>
+        <v>0.8238660479833952</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4490888696907527</v>
+        <v>0.4587673086292799</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1280,7 +1312,10 @@
       <c r="X11" t="n">
         <v>193</v>
       </c>
-      <c r="Y11" t="inlineStr"/>
+      <c r="Y11" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1317,7 +1352,7 @@
         <v>17.4681003679791</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3187961184808232</v>
+        <v>0.3237674736889553</v>
       </c>
       <c r="K12" t="n">
         <v>1.10484603787207</v>
@@ -1326,34 +1361,34 @@
         <v>223.6363636363636</v>
       </c>
       <c r="M12" t="n">
-        <v>16.42181172565305</v>
+        <v>16.16965959215085</v>
       </c>
       <c r="N12" t="n">
         <v>10.47091503267974</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03576403952004141</v>
+        <v>0.03799929199004399</v>
       </c>
       <c r="P12" t="n">
-        <v>0.85</v>
+        <v>35.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7744272390050924</v>
+        <v>0.7684932315555086</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4117274656951814</v>
+        <v>0.4213803942757023</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6293991126986668</v>
+        <v>0.6509550623209971</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03832920307664148</v>
+        <v>0.04026010133527302</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01416768260060511</v>
+        <v>0.01610191472622672</v>
       </c>
       <c r="V12" t="n">
-        <v>0.02416152047603637</v>
+        <v>0.02415818660904629</v>
       </c>
       <c r="W12" t="n">
         <v>0.9966162976897276</v>
@@ -1362,6 +1397,9 @@
         <v>198</v>
       </c>
       <c r="Y12" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="Z12" t="n">
         <v>0.8969546679207548</v>
       </c>
     </row>
@@ -1400,7 +1438,7 @@
         <v>17.06347192741687</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3263519800477687</v>
+        <v>0.3314411625115518</v>
       </c>
       <c r="K13" t="n">
         <v>1.40477492852807</v>
@@ -1409,34 +1447,34 @@
         <v>297.3727422003284</v>
       </c>
       <c r="M13" t="n">
-        <v>19.65155143747677</v>
+        <v>19.34980759189076</v>
       </c>
       <c r="N13" t="n">
         <v>10.05555862831858</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03724131427021195</v>
+        <v>0.03956889641210019</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8499999999999999</v>
+        <v>60.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7712140421803801</v>
+        <v>0.7652194894427563</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4231819493648868</v>
+        <v>0.4331491048656753</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5514210365893721</v>
+        <v>0.5703063572795277</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02806119557403067</v>
+        <v>0.02947482563465759</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01132378616703615</v>
+        <v>0.01286975748820448</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01673740940699451</v>
+        <v>0.01660506814645312</v>
       </c>
       <c r="W13" t="n">
         <v>1.223822284874495</v>
@@ -1445,6 +1483,9 @@
         <v>265</v>
       </c>
       <c r="Y13" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="Z13" t="n">
         <v>0.7988002598318749</v>
       </c>
     </row>
@@ -1483,7 +1524,7 @@
         <v>16.98916597013821</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3277915852504419</v>
+        <v>0.3329032171369345</v>
       </c>
       <c r="K14" t="n">
         <v>1.229479581294727</v>
@@ -1492,34 +1533,34 @@
         <v>283.4848484848485</v>
       </c>
       <c r="M14" t="n">
-        <v>19.26327220958241</v>
+        <v>18.96749027839072</v>
       </c>
       <c r="N14" t="n">
         <v>10.05555862831858</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03724131427021195</v>
+        <v>0.03956889641210019</v>
       </c>
       <c r="P14" t="n">
-        <v>0.85</v>
+        <v>60.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7859719165495915</v>
+        <v>0.7802536469189285</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4170595243137388</v>
+        <v>0.4266681792075788</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5423064496116281</v>
+        <v>0.5608796097445846</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02815468001901222</v>
+        <v>0.02957301951624453</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01095253218620056</v>
+        <v>0.01244781833910668</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01720214783281166</v>
+        <v>0.01712520117713785</v>
       </c>
       <c r="W14" t="n">
         <v>1.202775856096727</v>
@@ -1528,6 +1569,9 @@
         <v>292</v>
       </c>
       <c r="Y14" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="Z14" t="n">
         <v>0.7982057954096462</v>
       </c>
     </row>
@@ -1567,9 +1611,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
@@ -1582,7 +1624,8 @@
       <c r="X15" t="n">
         <v>280</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="n">
         <v>0.593633982742253</v>
       </c>
     </row>
@@ -1621,7 +1664,7 @@
         <v>15.06830812606609</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3695610847439589</v>
+        <v>0.3753240765649378</v>
       </c>
       <c r="K16" t="n">
         <v>1.139953161890594</v>
@@ -1634,16 +1677,16 @@
         <v>9.464023702031604</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03956902801916749</v>
+        <v>0.04204209227036546</v>
       </c>
       <c r="P16" t="n">
-        <v>0.85</v>
+        <v>64.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.8222369055324672</v>
+        <v>0.8172613556825146</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4494617877794935</v>
+        <v>0.4592499122922808</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1653,7 +1696,10 @@
       <c r="X16" t="n">
         <v>304</v>
       </c>
-      <c r="Y16" t="inlineStr"/>
+      <c r="Y16" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1690,7 +1736,7 @@
         <v>17.43840732807625</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3193437109197591</v>
+        <v>0.3243236053677547</v>
       </c>
       <c r="K17" t="n">
         <v>1.789791513631841</v>
@@ -1699,18 +1745,18 @@
         <v>230.1791044776119</v>
       </c>
       <c r="M17" t="n">
-        <v>12.38360045600374</v>
+        <v>12.19345387975585</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0.85</v>
+        <v>28.45</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7402201220274384</v>
+        <v>0.7336925079052894</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4314273723798594</v>
+        <v>0.4420536703364697</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1723,6 +1769,9 @@
         <v>112</v>
       </c>
       <c r="Y17" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="Z17" t="n">
         <v>1.268460038883757</v>
       </c>
     </row>
@@ -1755,7 +1804,7 @@
         <v>22.4869707120729</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2481022740103791</v>
+        <v>0.2519712186447382</v>
       </c>
       <c r="K18" t="n">
         <v>2.638523689003425</v>
@@ -1768,10 +1817,10 @@
         <v>7.083179084967321</v>
       </c>
       <c r="O18" t="n">
-        <v>0.05286922927510331</v>
+        <v>0.05617355610479727</v>
       </c>
       <c r="P18" t="n">
-        <v>0.85</v>
+        <v>32.92</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1783,7 +1832,10 @@
       <c r="X18" t="n">
         <v>113</v>
       </c>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Y18" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1820,7 +1872,7 @@
         <v>17.49680933025547</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3183014533168171</v>
+        <v>0.3232650946410691</v>
       </c>
       <c r="K19" t="n">
         <v>1.275189262798983</v>
@@ -1829,34 +1881,34 @@
         <v>256.0201342281879</v>
       </c>
       <c r="M19" t="n">
-        <v>15.54162390883993</v>
+        <v>15.30298680276587</v>
       </c>
       <c r="N19" t="n">
         <v>10.28028972712681</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03642720477532846</v>
+        <v>0.03870390507378649</v>
       </c>
       <c r="P19" t="n">
-        <v>0.85</v>
+        <v>35.79</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.7731880481376434</v>
+        <v>0.7672284054559056</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4116907770647985</v>
+        <v>0.4213590631018348</v>
       </c>
       <c r="S19" t="n">
-        <v>0.463417647839471</v>
+        <v>0.4792889880898488</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0298222002740166</v>
+        <v>0.03132454391686557</v>
       </c>
       <c r="U19" t="n">
-        <v>0.007822957740832262</v>
+        <v>0.008890981115314956</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02199924253318434</v>
+        <v>0.02243356280155061</v>
       </c>
       <c r="W19" t="n">
         <v>1.206455180923881</v>
@@ -1865,6 +1917,9 @@
         <v>128</v>
       </c>
       <c r="Y19" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="Z19" t="n">
         <v>1.036417873545348</v>
       </c>
     </row>
@@ -1903,7 +1958,7 @@
         <v>21.3258022372695</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2611130598363375</v>
+        <v>0.265184896645752</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
@@ -1916,28 +1971,31 @@
         <v>6.972213427561837</v>
       </c>
       <c r="O20" t="n">
-        <v>0.05371066490296884</v>
+        <v>0.0570675814594044</v>
       </c>
       <c r="P20" t="n">
-        <v>0.85</v>
+        <v>44.42</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>0.4120313731354763</v>
+        <v>0.4261428126703143</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03651292336731043</v>
+        <v>0.03835232347188636</v>
       </c>
       <c r="U20" t="n">
-        <v>0.009118451655455951</v>
+        <v>0.01036334135443588</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02739447171185447</v>
+        <v>0.02798898211745048</v>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="Y20" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1968,7 +2026,7 @@
         <v>27.0278</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2060265902381271</v>
+        <v>0.2092394002537409</v>
       </c>
       <c r="K21" t="n">
         <v>3.2365</v>
@@ -1977,13 +2035,11 @@
         <v>322.4358974358975</v>
       </c>
       <c r="M21" t="n">
-        <v>12.83799443605505</v>
+        <v>12.64087077266023</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
@@ -1993,6 +2049,7 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2029,7 +2086,7 @@
         <v>18.00126385619849</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3093371606238886</v>
+        <v>0.3141610114030782</v>
       </c>
       <c r="K22" t="n">
         <v>1.485729952148732</v>
@@ -2042,16 +2099,16 @@
         <v>9.16140597539543</v>
       </c>
       <c r="O22" t="n">
-        <v>0.04087606422480258</v>
+        <v>0.04343081823885273</v>
       </c>
       <c r="P22" t="n">
-        <v>0.85</v>
+        <v>28.88</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7622966041004579</v>
+        <v>0.7561408830443964</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4057966329868958</v>
+        <v>0.4154797923940739</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -2061,7 +2118,10 @@
       <c r="X22" t="n">
         <v>131</v>
       </c>
-      <c r="Y22" t="inlineStr"/>
+      <c r="Y22" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2098,7 +2158,7 @@
         <v>17.33353107822624</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3213218797283361</v>
+        <v>0.3263326220419078</v>
       </c>
       <c r="K23" t="n">
         <v>1.698569474237269</v>
@@ -2107,34 +2167,34 @@
         <v>238.2310344827586</v>
       </c>
       <c r="M23" t="n">
-        <v>11.93220241439876</v>
+        <v>11.74898692353604</v>
       </c>
       <c r="N23" t="n">
         <v>10.15596931026777</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0369215224919367</v>
+        <v>0.03922911764768274</v>
       </c>
       <c r="P23" t="n">
-        <v>0.85</v>
+        <v>35.02222222222222</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7678757320555913</v>
+        <v>0.7618193641857841</v>
       </c>
       <c r="R23" t="n">
-        <v>0.41845984475682</v>
+        <v>0.428364075910884</v>
       </c>
       <c r="S23" t="n">
-        <v>0.4168299250063096</v>
+        <v>0.4311057075475181</v>
       </c>
       <c r="T23" t="n">
-        <v>0.03488642013380318</v>
+        <v>0.03664388239440782</v>
       </c>
       <c r="U23" t="n">
-        <v>0.006555980881650801</v>
+        <v>0.007451031201009908</v>
       </c>
       <c r="V23" t="n">
-        <v>0.02833043925215238</v>
+        <v>0.0291928511933979</v>
       </c>
       <c r="W23" t="n">
         <v>1.475470707385693</v>
@@ -2143,6 +2203,9 @@
         <v>113</v>
       </c>
       <c r="Y23" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="Z23" t="n">
         <v>1.149849585755747</v>
       </c>
     </row>
@@ -2179,7 +2242,7 @@
         <v>17.09399611096489</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3258776789624909</v>
+        <v>0.3309594651029379</v>
       </c>
       <c r="K24" t="n">
         <v>1.608396694502249</v>
@@ -2188,18 +2251,18 @@
         <v>291.8706896551724</v>
       </c>
       <c r="M24" t="n">
-        <v>15.37240786190885</v>
+        <v>15.1363690189235</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.85</v>
+        <v>47.57</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7966908097823399</v>
+        <v>0.7911840996814868</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4090125238774881</v>
+        <v>0.4182823680622674</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2212,6 +2275,9 @@
         <v>186</v>
       </c>
       <c r="Y24" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="Z24" t="n">
         <v>0.9542640988776029</v>
       </c>
     </row>
@@ -2250,7 +2316,7 @@
         <v>15.24564965479821</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3652902167156366</v>
+        <v>0.3709866079703445</v>
       </c>
       <c r="K25" t="n">
         <v>1.256752661572447</v>
@@ -2259,18 +2325,18 @@
         <v>308.9370078740158</v>
       </c>
       <c r="M25" t="n">
-        <v>20.37866702308878</v>
+        <v>20.06575852957733</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0.85</v>
+        <v>60.12</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8376106428239523</v>
+        <v>0.8329779853683159</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4361115019272833</v>
+        <v>0.4453756348857719</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2282,7 +2348,8 @@
       <c r="X25" t="n">
         <v>226</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="n">
         <v>0.6971946038087771</v>
       </c>
     </row>
@@ -2321,7 +2388,7 @@
         <v>15.36201678228015</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3625179937329166</v>
+        <v>0.3681711545203625</v>
       </c>
       <c r="K26" t="n">
         <v>1.152019941095649</v>
@@ -2330,18 +2397,18 @@
         <v>306.7857142857143</v>
       </c>
       <c r="M26" t="n">
-        <v>20.51364189849394</v>
+        <v>20.1986609051042</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>0.85</v>
+        <v>60.12</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.829636994027248</v>
+        <v>0.8248244438340584</v>
       </c>
       <c r="R26" t="n">
-        <v>0.4369614149693229</v>
+        <v>0.4463647886726108</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2353,7 +2420,8 @@
       <c r="X26" t="n">
         <v>266</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
         <v>0.7251990803092957</v>
       </c>
     </row>
@@ -2392,7 +2460,7 @@
         <v>22.76311802988742</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2447247173326018</v>
+        <v>0.2485409918338964</v>
       </c>
       <c r="K27" t="n">
         <v>2.404629454850812</v>
@@ -2405,10 +2473,10 @@
         <v>5.988823594024605</v>
       </c>
       <c r="O27" t="n">
-        <v>0.06253018028672548</v>
+        <v>0.06643831655464581</v>
       </c>
       <c r="P27" t="n">
-        <v>0.85</v>
+        <v>23.35</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -2420,7 +2488,10 @@
       <c r="X27" t="n">
         <v>108</v>
       </c>
-      <c r="Y27" t="inlineStr"/>
+      <c r="Y27" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2457,7 +2528,7 @@
         <v>17.72499222979877</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3141917861307944</v>
+        <v>0.3190913406792529</v>
       </c>
       <c r="K28" t="n">
         <v>1.119767569977147</v>
@@ -2466,34 +2537,34 @@
         <v>217.6984126984127</v>
       </c>
       <c r="M28" t="n">
-        <v>15.56489039088282</v>
+        <v>15.32589603475716</v>
       </c>
       <c r="N28" t="n">
         <v>10.28028972712681</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03642720477532846</v>
+        <v>0.03870390507378649</v>
       </c>
       <c r="P28" t="n">
-        <v>0.85</v>
+        <v>35.79</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7670886989745277</v>
+        <v>0.761018288428509</v>
       </c>
       <c r="R28" t="n">
-        <v>0.4096026761482811</v>
+        <v>0.4193087152203254</v>
       </c>
       <c r="S28" t="n">
-        <v>0.5225071472727238</v>
+        <v>0.5404022118139264</v>
       </c>
       <c r="T28" t="n">
-        <v>0.03357322630052721</v>
+        <v>0.03526453420668706</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009945126646704961</v>
+        <v>0.01130287752210999</v>
       </c>
       <c r="V28" t="n">
-        <v>0.02362809965382226</v>
+        <v>0.02396165668457707</v>
       </c>
       <c r="W28" t="n">
         <v>1.025375544030074</v>
@@ -2502,6 +2573,9 @@
         <v>163</v>
       </c>
       <c r="Y28" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="Z28" t="n">
         <v>0.8843185908830796</v>
       </c>
     </row>
@@ -2540,7 +2614,7 @@
         <v>17.71642473670745</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3143467514972009</v>
+        <v>0.3192487225991766</v>
       </c>
       <c r="K29" t="n">
         <v>1.044394367241605</v>
@@ -2549,34 +2623,34 @@
         <v>224.8306878306878</v>
       </c>
       <c r="M29" t="n">
-        <v>15.68050826447953</v>
+        <v>15.43973862959746</v>
       </c>
       <c r="N29" t="n">
         <v>10.28028972712681</v>
       </c>
       <c r="O29" t="n">
-        <v>0.03642720477532846</v>
+        <v>0.03870390507378649</v>
       </c>
       <c r="P29" t="n">
-        <v>0.85</v>
+        <v>35.79</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7352593744138801</v>
+        <v>0.7286528646143199</v>
       </c>
       <c r="R29" t="n">
-        <v>0.427548706511886</v>
+        <v>0.4381534170466246</v>
       </c>
       <c r="S29" t="n">
-        <v>0.5225071472727238</v>
+        <v>0.5404022118139264</v>
       </c>
       <c r="T29" t="n">
-        <v>0.03332599988175266</v>
+        <v>0.03500485334004556</v>
       </c>
       <c r="U29" t="n">
-        <v>0.009945126646704961</v>
+        <v>0.01130287752210999</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0233808732350477</v>
+        <v>0.02370197581793557</v>
       </c>
       <c r="W29" t="n">
         <v>1.033776048227667</v>
@@ -2585,6 +2659,9 @@
         <v>175</v>
       </c>
       <c r="Y29" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="Z29" t="n">
         <v>0.9572000446552472</v>
       </c>
     </row>
@@ -2623,7 +2700,7 @@
         <v>17.73490260050415</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3140165182168066</v>
+        <v>0.3189133396107299</v>
       </c>
       <c r="K30" t="n">
         <v>1.005997360734154</v>
@@ -2632,34 +2709,34 @@
         <v>203.0772727272727</v>
       </c>
       <c r="M30" t="n">
-        <v>14.1963864564067</v>
+        <v>13.97840507939378</v>
       </c>
       <c r="N30" t="n">
         <v>10.28028972712681</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03642720477532846</v>
+        <v>0.03870390507378649</v>
       </c>
       <c r="P30" t="n">
-        <v>0.85</v>
+        <v>35.79</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.76519504718423</v>
+        <v>0.7590907840056417</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4103875305272914</v>
+        <v>0.4201392042248431</v>
       </c>
       <c r="S30" t="n">
-        <v>0.5629999514528718</v>
+        <v>0.582281832132457</v>
       </c>
       <c r="T30" t="n">
-        <v>0.03966229808067227</v>
+        <v>0.0416603532487946</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01154629267917204</v>
+        <v>0.01312264153321329</v>
       </c>
       <c r="V30" t="n">
-        <v>0.02811600540150022</v>
+        <v>0.02853771171558131</v>
       </c>
       <c r="W30" t="n">
         <v>1.127427684674653</v>
@@ -2668,6 +2745,9 @@
         <v>179</v>
       </c>
       <c r="Y30" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="Z30" t="n">
         <v>0.9173161616216495</v>
       </c>
     </row>
@@ -2706,7 +2786,7 @@
         <v>17.41408489474545</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3197707983426839</v>
+        <v>0.3247573528569764</v>
       </c>
       <c r="K31" t="n">
         <v>1.640815810720567</v>
@@ -2715,34 +2795,34 @@
         <v>381.5984848484848</v>
       </c>
       <c r="M31" t="n">
-        <v>14.1742265477107</v>
+        <v>13.95658542963811</v>
       </c>
       <c r="N31" t="n">
         <v>6.951389432485324</v>
       </c>
       <c r="O31" t="n">
-        <v>0.05387156376101137</v>
+        <v>0.05723853649607458</v>
       </c>
       <c r="P31" t="n">
-        <v>0.85</v>
+        <v>59.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.7898912020476966</v>
+        <v>0.7842478431643133</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4048302154963075</v>
+        <v>0.4141017816278187</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5375620061784633</v>
+        <v>0.5559726764356511</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0379257941238104</v>
+        <v>0.03983636997597342</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01556742257248467</v>
+        <v>0.01769275313653476</v>
       </c>
       <c r="V31" t="n">
-        <v>0.02235837155132573</v>
+        <v>0.02214361683943865</v>
       </c>
       <c r="W31" t="n">
         <v>1.607596036522946</v>
@@ -2751,6 +2831,9 @@
         <v>405</v>
       </c>
       <c r="Y31" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="Z31" t="n">
         <v>1.479719079072257</v>
       </c>
     </row>
@@ -2787,7 +2870,7 @@
         <v>17.50092047553409</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3182023562552688</v>
+        <v>0.3231644522448556</v>
       </c>
       <c r="K32" t="n">
         <v>2.226865704690404</v>
@@ -2800,16 +2883,16 @@
         <v>6.951389432485324</v>
       </c>
       <c r="O32" t="n">
-        <v>0.05387156376101136</v>
+        <v>0.05723853649607458</v>
       </c>
       <c r="P32" t="n">
-        <v>0.85</v>
+        <v>59.6</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.7958288477847815</v>
+        <v>0.7903112100875538</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3999659603619502</v>
+        <v>0.4090470358271433</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -2819,7 +2902,10 @@
       <c r="X32" t="n">
         <v>248</v>
       </c>
-      <c r="Y32" t="inlineStr"/>
+      <c r="Y32" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2854,7 +2940,7 @@
         <v>17.4551072122684</v>
       </c>
       <c r="J33" t="n">
-        <v>0.319242654544345</v>
+        <v>0.3242209731038365</v>
       </c>
       <c r="K33" t="n">
         <v>1.110620770707444</v>
@@ -2863,18 +2949,18 @@
         <v>218.1949152542372</v>
       </c>
       <c r="M33" t="n">
-        <v>15.65146175337232</v>
+        <v>15.41113811920375</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>0.85</v>
+        <v>38.02</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7951649093675337</v>
+        <v>0.789639072594802</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4020008282147746</v>
+        <v>0.4111482293692846</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2887,6 +2973,9 @@
         <v>227</v>
       </c>
       <c r="Y33" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="Z33" t="n">
         <v>0.9038884424791493</v>
       </c>
     </row>
@@ -2923,7 +3012,7 @@
         <v>17.06938157570028</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3262242074174033</v>
+        <v>0.331311397375335</v>
       </c>
       <c r="K34" t="n">
         <v>1.335323623930043</v>
@@ -2932,34 +3021,34 @@
         <v>275.6977777777777</v>
       </c>
       <c r="M34" t="n">
-        <v>17.77697996226533</v>
+        <v>17.50401961540488</v>
       </c>
       <c r="N34" t="n">
         <v>17.21442922374429</v>
       </c>
       <c r="O34" t="n">
-        <v>0.02175397244790556</v>
+        <v>0.02311359572589966</v>
       </c>
       <c r="P34" t="n">
-        <v>0.85</v>
+        <v>61.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.7828970974996786</v>
+        <v>0.7771188768530045</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4166884874899376</v>
+        <v>0.4263329681515433</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7679457231120903</v>
+        <v>0.7942466806223587</v>
       </c>
       <c r="T34" t="n">
-        <v>0.04319888556673778</v>
+        <v>0.04537510229498148</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01282920149574874</v>
+        <v>0.01458069850331794</v>
       </c>
       <c r="V34" t="n">
-        <v>0.03036968407098904</v>
+        <v>0.03079440379166353</v>
       </c>
       <c r="W34" t="n">
         <v>1.305531264304784</v>
@@ -2968,6 +3057,9 @@
         <v>249</v>
       </c>
       <c r="Y34" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="Z34" t="n">
         <v>0.8668727594983766</v>
       </c>
     </row>
@@ -3004,7 +3096,7 @@
         <v>16.81481451040719</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3312773869732624</v>
+        <v>0.3364433769825322</v>
       </c>
       <c r="K35" t="n">
         <v>1.45127382838302</v>
@@ -3013,34 +3105,34 @@
         <v>289.2454545454545</v>
       </c>
       <c r="M35" t="n">
-        <v>20.48071602122923</v>
+        <v>20.16624059508982</v>
       </c>
       <c r="N35" t="n">
         <v>9.242461430575036</v>
       </c>
       <c r="O35" t="n">
-        <v>0.04067389957076707</v>
+        <v>0.04321601829393999</v>
       </c>
       <c r="P35" t="n">
-        <v>0.85</v>
+        <v>62.85</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.8055273068170973</v>
+        <v>0.8002115638803728</v>
       </c>
       <c r="R35" t="n">
-        <v>0.4113191490067188</v>
+        <v>0.4205173777927553</v>
       </c>
       <c r="S35" t="n">
-        <v>0.6770535964635579</v>
+        <v>0.7002416387129491</v>
       </c>
       <c r="T35" t="n">
-        <v>0.03306951417568201</v>
+        <v>0.03473544673389188</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01864497952230561</v>
+        <v>0.02119047121563732</v>
       </c>
       <c r="V35" t="n">
-        <v>0.0144245346533764</v>
+        <v>0.01354497551825456</v>
       </c>
       <c r="W35" t="n">
         <v>1.362634274000017</v>
@@ -3049,6 +3141,9 @@
         <v>329</v>
       </c>
       <c r="Y35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z35" t="n">
         <v>0.815103047538192</v>
       </c>
     </row>
@@ -3087,7 +3182,7 @@
         <v>15.52666529587989</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3586711279463648</v>
+        <v>0.3642643001230519</v>
       </c>
       <c r="K36" t="n">
         <v>1.005809122765289</v>
@@ -3096,18 +3191,18 @@
         <v>307.9545454545454</v>
       </c>
       <c r="M36" t="n">
-        <v>20.5962742557415</v>
+        <v>20.28002446658645</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>0.85</v>
+        <v>60.12</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.8282003104653158</v>
+        <v>0.8233557883205939</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4330727033762745</v>
+        <v>0.4424139804157159</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -3119,7 +3214,8 @@
       <c r="X36" t="n">
         <v>318</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
         <v>0.7191576092152108</v>
       </c>
     </row>
@@ -3158,7 +3254,7 @@
         <v>28.1765</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1976272949315228</v>
+        <v>0.2007091250573371</v>
       </c>
       <c r="K37" t="n">
         <v>3.0372</v>
@@ -3173,28 +3269,31 @@
         <v>7.03723185840708</v>
       </c>
       <c r="O37" t="n">
-        <v>0.05321442103579064</v>
+        <v>0.05654032235052754</v>
       </c>
       <c r="P37" t="n">
-        <v>0.85</v>
+        <v>39.88</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="n">
-        <v>0.4255601806534976</v>
+        <v>0.4401349609961392</v>
       </c>
       <c r="T37" t="n">
-        <v>0.02496312303563335</v>
+        <v>0.02622068246631412</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009637209734179461</v>
+        <v>0.01095292248655345</v>
       </c>
       <c r="V37" t="n">
-        <v>0.01532591330145389</v>
+        <v>0.01526775997976068</v>
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="Y37" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3225,7 +3324,7 @@
         <v>23.0569655376551</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2416931831157501</v>
+        <v>0.2454621834109177</v>
       </c>
       <c r="K38" t="n">
         <v>2.128743856018835</v>
@@ -3238,10 +3337,10 @@
         <v>7.083179084967321</v>
       </c>
       <c r="O38" t="n">
-        <v>0.05286922927510332</v>
+        <v>0.05617355610479727</v>
       </c>
       <c r="P38" t="n">
-        <v>0.85</v>
+        <v>32.92</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
@@ -3253,7 +3352,10 @@
       <c r="X38" t="n">
         <v>150</v>
       </c>
-      <c r="Y38" t="inlineStr"/>
+      <c r="Y38" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3290,7 +3392,7 @@
         <v>15.7290159675477</v>
       </c>
       <c r="J39" t="n">
-        <v>0.354026976416006</v>
+        <v>0.359547726986659</v>
       </c>
       <c r="K39" t="n">
         <v>0.8953661112939827</v>
@@ -3299,34 +3401,34 @@
         <v>214.5952380952381</v>
       </c>
       <c r="M39" t="n">
-        <v>18.76996058963584</v>
+        <v>18.48175331461054</v>
       </c>
       <c r="N39" t="n">
         <v>10.15942047244095</v>
       </c>
       <c r="O39" t="n">
-        <v>0.03686058865814214</v>
+        <v>0.03916437544927601</v>
       </c>
       <c r="P39" t="n">
-        <v>0.85</v>
+        <v>35.92</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.8067927298853939</v>
+        <v>0.8014892422095463</v>
       </c>
       <c r="R39" t="n">
-        <v>0.4388087606142206</v>
+        <v>0.4486005365736526</v>
       </c>
       <c r="S39" t="n">
-        <v>0.5361752695446019</v>
+        <v>0.5545384462092253</v>
       </c>
       <c r="T39" t="n">
-        <v>0.02856586344494299</v>
+        <v>0.03000491700084017</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01059682650883146</v>
+        <v>0.01204355021381798</v>
       </c>
       <c r="V39" t="n">
-        <v>0.01796903693611153</v>
+        <v>0.0179613667870222</v>
       </c>
       <c r="W39" t="n">
         <v>0.8353390780716035</v>
@@ -3335,6 +3437,9 @@
         <v>171</v>
       </c>
       <c r="Y39" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="Z39" t="n">
         <v>0.6802046778583057</v>
       </c>
     </row>
@@ -3373,41 +3478,41 @@
         <v>15.75412077408917</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3534602766522315</v>
+        <v>0.3589721900204884</v>
       </c>
       <c r="K40" t="n">
         <v>0.8889188737585035</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>18.7938656279299</v>
+        <v>18.50529129800786</v>
       </c>
       <c r="N40" t="n">
         <v>10.15942047244095</v>
       </c>
       <c r="O40" t="n">
-        <v>0.03686058865814214</v>
+        <v>0.03916437544927601</v>
       </c>
       <c r="P40" t="n">
-        <v>0.85</v>
+        <v>35.92</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.8242132772494805</v>
+        <v>0.8192808601885971</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4288458133952533</v>
+        <v>0.4381554003371571</v>
       </c>
       <c r="S40" t="n">
-        <v>0.5729600712422284</v>
+        <v>0.5925830706747321</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03048660418648039</v>
+        <v>0.03202241829713531</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01210071359235303</v>
+        <v>0.01375275434122439</v>
       </c>
       <c r="V40" t="n">
-        <v>0.01838589059412736</v>
+        <v>0.01826966395591093</v>
       </c>
       <c r="W40" t="n">
         <v>0.8795860416327073</v>
@@ -3416,6 +3521,9 @@
         <v>178</v>
       </c>
       <c r="Y40" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="Z40" t="n">
         <v>0.7116650700482813</v>
       </c>
     </row>
@@ -3454,7 +3562,7 @@
         <v>22.76311802988742</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2447247173326018</v>
+        <v>0.2485409918338964</v>
       </c>
       <c r="K41" t="n">
         <v>2.055448959277904</v>
@@ -3463,30 +3571,30 @@
         <v>211.1230769230769</v>
       </c>
       <c r="M41" t="n">
-        <v>12.50840652114147</v>
+        <v>12.31634358413363</v>
       </c>
       <c r="N41" t="n">
         <v>5.988823594024605</v>
       </c>
       <c r="O41" t="n">
-        <v>0.06253018028672548</v>
+        <v>0.06643831655464581</v>
       </c>
       <c r="P41" t="n">
-        <v>0.85</v>
+        <v>23.35</v>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="n">
-        <v>0.4515673811211251</v>
+        <v>0.4670328679992338</v>
       </c>
       <c r="T41" t="n">
-        <v>0.03611571275215356</v>
+        <v>0.03793510270197666</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01275072288660277</v>
+        <v>0.01449150566155796</v>
       </c>
       <c r="V41" t="n">
-        <v>0.02336498986555079</v>
+        <v>0.02344359704041869</v>
       </c>
       <c r="W41" t="n">
         <v>1.848998853040951</v>
@@ -3495,6 +3603,9 @@
         <v>109</v>
       </c>
       <c r="Y41" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="Z41" t="n">
         <v>1.550314422934336</v>
       </c>
     </row>
@@ -3533,7 +3644,7 @@
         <v>18.01149478558387</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3091615499916621</v>
+        <v>0.3139826622719162</v>
       </c>
       <c r="K42" t="n">
         <v>1.385801233313683</v>
@@ -3542,34 +3653,34 @@
         <v>184.5505319148936</v>
       </c>
       <c r="M42" t="n">
-        <v>13.12333798426103</v>
+        <v>12.92183295383661</v>
       </c>
       <c r="N42" t="n">
         <v>9.16140597539543</v>
       </c>
       <c r="O42" t="n">
-        <v>0.04087606422480258</v>
+        <v>0.04343081823885274</v>
       </c>
       <c r="P42" t="n">
-        <v>0.85</v>
+        <v>28.88</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7570096152512362</v>
+        <v>0.7507617447514432</v>
       </c>
       <c r="R42" t="n">
-        <v>0.4083988035514686</v>
+        <v>0.4182191598730574</v>
       </c>
       <c r="S42" t="n">
-        <v>0.6157737015288071</v>
+        <v>0.6368630018171373</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0469221695259862</v>
+        <v>0.04928595296410715</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01549927368467283</v>
+        <v>0.01761530027348244</v>
       </c>
       <c r="V42" t="n">
-        <v>0.03142289584131337</v>
+        <v>0.03167065269062471</v>
       </c>
       <c r="W42" t="n">
         <v>1.300332435026857</v>
@@ -3578,6 +3689,9 @@
         <v>143</v>
       </c>
       <c r="Y42" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="Z42" t="n">
         <v>0.9890826500470241</v>
       </c>
     </row>
@@ -3616,7 +3730,7 @@
         <v>17.49683082336579</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3183269811393317</v>
+        <v>0.3232910205483346</v>
       </c>
       <c r="K43" t="n">
         <v>1.794428297949458</v>
@@ -3625,34 +3739,34 @@
         <v>312.4242424242424</v>
       </c>
       <c r="M43" t="n">
-        <v>13.02594754919924</v>
+        <v>12.82593792052425</v>
       </c>
       <c r="N43" t="n">
         <v>6.951389432485324</v>
       </c>
       <c r="O43" t="n">
-        <v>0.05387156376101137</v>
+        <v>0.05723853649607458</v>
       </c>
       <c r="P43" t="n">
-        <v>0.8499999999999999</v>
+        <v>59.60000000000001</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7582416071737869</v>
+        <v>0.7520237112820524</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4199726818385396</v>
+        <v>0.4300572948760897</v>
       </c>
       <c r="S43" t="n">
-        <v>0.5814446189277256</v>
+        <v>0.601358201042643</v>
       </c>
       <c r="T43" t="n">
-        <v>0.04464757775372925</v>
+        <v>0.04689677479454457</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01821278217663866</v>
+        <v>0.02069926845502964</v>
       </c>
       <c r="V43" t="n">
-        <v>0.02643479557709058</v>
+        <v>0.02619750633951493</v>
       </c>
       <c r="W43" t="n">
         <v>1.96228034370375</v>
@@ -3661,6 +3775,9 @@
         <v>391</v>
       </c>
       <c r="Y43" t="n">
+        <v>18.14285714285714</v>
+      </c>
+      <c r="Z43" t="n">
         <v>1.395002935251211</v>
       </c>
     </row>
@@ -3697,7 +3814,7 @@
         <v>17.36719498633941</v>
       </c>
       <c r="J44" t="n">
-        <v>0.3207641290482429</v>
+        <v>0.3257661737127919</v>
       </c>
       <c r="K44" t="n">
         <v>1.577330583980868</v>
@@ -3706,34 +3823,34 @@
         <v>329.3181818181818</v>
       </c>
       <c r="M44" t="n">
-        <v>17.13050625161565</v>
+        <v>16.86747232019076</v>
       </c>
       <c r="N44" t="n">
         <v>7.813733686105675</v>
       </c>
       <c r="O44" t="n">
-        <v>0.04799817840774089</v>
+        <v>0.05099806455822468</v>
       </c>
       <c r="P44" t="n">
-        <v>0.85</v>
+        <v>63.956</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.7459442726768427</v>
+        <v>0.7395138423860185</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4299850962630789</v>
+        <v>0.4404893313848488</v>
       </c>
       <c r="S44" t="n">
-        <v>0.6245958547978334</v>
+        <v>0.6459873002395184</v>
       </c>
       <c r="T44" t="n">
-        <v>0.03647949037332818</v>
+        <v>0.03831720623443752</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01873896429596236</v>
+        <v>0.02129728718926171</v>
       </c>
       <c r="V44" t="n">
-        <v>0.01774052607736582</v>
+        <v>0.01701991904517582</v>
       </c>
       <c r="W44" t="n">
         <v>1.567817459973697</v>
@@ -3742,6 +3859,9 @@
         <v>386</v>
       </c>
       <c r="Y44" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="Z44" t="n">
         <v>1.10032279918154</v>
       </c>
     </row>
@@ -3778,7 +3898,7 @@
         <v>17.58253515506082</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3169735700128617</v>
+        <v>0.3219165041227023</v>
       </c>
       <c r="K45" t="n">
         <v>1.257618610959593</v>
@@ -3787,18 +3907,18 @@
         <v>247.8242677824268</v>
       </c>
       <c r="M45" t="n">
-        <v>14.75280222183371</v>
+        <v>14.52627724288998</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
-        <v>0.85</v>
+        <v>38.02</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.8206382848850665</v>
+        <v>0.8156390731276918</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3866826721617297</v>
+        <v>0.3951373198775349</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -3811,6 +3931,9 @@
         <v>186</v>
       </c>
       <c r="Y45" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="Z45" t="n">
         <v>1.01928148801309</v>
       </c>
     </row>
@@ -3847,7 +3970,7 @@
         <v>17.11208018153209</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3255372035632955</v>
+        <v>0.3306136802785303</v>
       </c>
       <c r="K46" t="n">
         <v>1.406321580860593</v>
@@ -3856,18 +3979,18 @@
         <v>258.5660018993353</v>
       </c>
       <c r="M46" t="n">
-        <v>16.06457822124447</v>
+        <v>15.81791130409963</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>0.85</v>
+        <v>47.57</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.792807834995948</v>
+        <v>0.7872243253859215</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4106035124482257</v>
+        <v>0.4199653479632688</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -3880,6 +4003,9 @@
         <v>228</v>
       </c>
       <c r="Y46" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="Z46" t="n">
         <v>0.8590676759741186</v>
       </c>
     </row>
@@ -3916,7 +4042,7 @@
         <v>16.22484157407747</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3434804570738821</v>
+        <v>0.3488367436162119</v>
       </c>
       <c r="K47" t="n">
         <v>1.503928611287193</v>
@@ -3925,34 +4051,34 @@
         <v>322.9280303030303</v>
       </c>
       <c r="M47" t="n">
-        <v>19.92558815468512</v>
+        <v>19.61963655516449</v>
       </c>
       <c r="N47" t="n">
         <v>8.860483870967741</v>
       </c>
       <c r="O47" t="n">
-        <v>0.04235489299599872</v>
+        <v>0.04500207380824862</v>
       </c>
       <c r="P47" t="n">
-        <v>0.85</v>
+        <v>61.54999999999999</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.8012726584302597</v>
+        <v>0.7958647119384074</v>
       </c>
       <c r="R47" t="n">
-        <v>0.4287688024298711</v>
+        <v>0.4384216332337696</v>
       </c>
       <c r="S47" t="n">
-        <v>0.6691910385691424</v>
+        <v>0.6921098003278955</v>
       </c>
       <c r="T47" t="n">
-        <v>0.03361146888636777</v>
+        <v>0.03530470332729688</v>
       </c>
       <c r="U47" t="n">
-        <v>0.01896722612744536</v>
+        <v>0.02155671229422802</v>
       </c>
       <c r="V47" t="n">
-        <v>0.01464424275892241</v>
+        <v>0.01374799103306886</v>
       </c>
       <c r="W47" t="n">
         <v>1.540685556401292</v>
@@ -3961,6 +4087,9 @@
         <v>273</v>
       </c>
       <c r="Y47" t="n">
+        <v>18.41666666666667</v>
+      </c>
+      <c r="Z47" t="n">
         <v>0.9559253565853472</v>
       </c>
     </row>
@@ -3999,7 +4128,7 @@
         <v>17.28285017013491</v>
       </c>
       <c r="J48" t="n">
-        <v>0.32219485911302</v>
+        <v>0.327219214800027</v>
       </c>
       <c r="K48" t="n">
         <v>2.214675784779499</v>
@@ -4010,14 +4139,12 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="n">
-        <v>0.6093099316986447</v>
+        <v>0.6012646898344836</v>
       </c>
       <c r="R48" t="n">
-        <v>0.5287864883718532</v>
+        <v>0.544218245861243</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -4028,6 +4155,7 @@
         <v>50</v>
       </c>
       <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4064,7 +4192,7 @@
         <v>18.1474420852141</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3068453419919016</v>
+        <v>0.311630334971966</v>
       </c>
       <c r="K49" t="n">
         <v>1.632643866704311</v>
@@ -4077,16 +4205,16 @@
         <v>8.720253164556961</v>
       </c>
       <c r="O49" t="n">
-        <v>0.04294396182920678</v>
+        <v>0.0456279594435322</v>
       </c>
       <c r="P49" t="n">
-        <v>0.85</v>
+        <v>24.9</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.6553496613953217</v>
+        <v>0.647704329972959</v>
       </c>
       <c r="R49" t="n">
-        <v>0.4682167120337273</v>
+        <v>0.4811310599806483</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
@@ -4096,7 +4224,10 @@
       <c r="X49" t="n">
         <v>76</v>
       </c>
-      <c r="Y49" t="inlineStr"/>
+      <c r="Y49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4133,7 +4264,7 @@
         <v>17.97625309347459</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3097669485143899</v>
+        <v>0.3145975014713791</v>
       </c>
       <c r="K50" t="n">
         <v>1.811345791353538</v>
@@ -4146,16 +4277,16 @@
         <v>7.623796033994335</v>
       </c>
       <c r="O50" t="n">
-        <v>0.04912017810680478</v>
+        <v>0.05219018923848009</v>
       </c>
       <c r="P50" t="n">
-        <v>0.85</v>
+        <v>23.2</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.7436383328885995</v>
+        <v>0.7371660219209724</v>
       </c>
       <c r="R50" t="n">
-        <v>0.4165560046493103</v>
+        <v>0.4267662364407256</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -4165,7 +4296,10 @@
       <c r="X50" t="n">
         <v>67</v>
       </c>
-      <c r="Y50" t="inlineStr"/>
+      <c r="Y50" t="n">
+        <v>7.599999999999999</v>
+      </c>
+      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4202,7 +4336,7 @@
         <v>16.77016917536357</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3340784549997739</v>
+        <v>0.3392881252903102</v>
       </c>
       <c r="K51" t="n">
         <v>1.712372106412916</v>
@@ -4211,34 +4345,34 @@
         <v>226.7204301075269</v>
       </c>
       <c r="M51" t="n">
-        <v>29.41761709188236</v>
+        <v>28.96591815414082</v>
       </c>
       <c r="N51" t="n">
         <v>9.754665681149657</v>
       </c>
       <c r="O51" t="n">
-        <v>0.03898101704058082</v>
+        <v>0.04141733060561711</v>
       </c>
       <c r="P51" t="n">
-        <v>0.85</v>
+        <v>30.545</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.7185417761981302</v>
+        <v>0.7117598908588553</v>
       </c>
       <c r="R51" t="n">
-        <v>0.4645285119963847</v>
+        <v>0.4763098239510975</v>
       </c>
       <c r="S51" t="n">
-        <v>0.4120757825983491</v>
+        <v>0.4261887430888496</v>
       </c>
       <c r="T51" t="n">
-        <v>0.01403835693971279</v>
+        <v>0.01474556285043152</v>
       </c>
       <c r="U51" t="n">
-        <v>0.006707659487483158</v>
+        <v>0.007623417613506277</v>
       </c>
       <c r="V51" t="n">
-        <v>0.007330697452229632</v>
+        <v>0.007122145236925239</v>
       </c>
       <c r="W51" t="n">
         <v>1.421547968975648</v>
@@ -4247,6 +4381,9 @@
         <v>99</v>
       </c>
       <c r="Y51" t="n">
+        <v>10.605</v>
+      </c>
+      <c r="Z51" t="n">
         <v>1.134945555875719</v>
       </c>
     </row>
@@ -4285,7 +4422,7 @@
         <v>18.16621531661354</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3065334694794639</v>
+        <v>0.3113135990720869</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
@@ -4296,16 +4433,16 @@
         <v>7.846846424384525</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0477239133769751</v>
+        <v>0.05070665796303604</v>
       </c>
       <c r="P52" t="n">
-        <v>0.85</v>
+        <v>20.04</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.5528523772393286</v>
+        <v>0.5445136717279478</v>
       </c>
       <c r="R52" t="n">
-        <v>0.5544650077217133</v>
+        <v>0.5717351067638586</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -4315,7 +4452,10 @@
       <c r="X52" t="n">
         <v>37</v>
       </c>
-      <c r="Y52" t="inlineStr"/>
+      <c r="Y52" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4351,9 +4491,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
@@ -4363,6 +4501,7 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4398,9 +4537,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
@@ -4410,6 +4547,7 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4446,7 +4584,7 @@
         <v>18.19340342917936</v>
       </c>
       <c r="J55" t="n">
-        <v>0.30607259236972</v>
+        <v>0.3108455349745253</v>
       </c>
       <c r="K55" t="n">
         <v>1.431502217381948</v>
@@ -4459,16 +4597,16 @@
         <v>11.28743811881188</v>
       </c>
       <c r="O55" t="n">
-        <v>0.03317690117969585</v>
+        <v>0.03525045750342684</v>
       </c>
       <c r="P55" t="n">
-        <v>0.85</v>
+        <v>28.65</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.7345017419284566</v>
+        <v>0.7278831819159528</v>
       </c>
       <c r="R55" t="n">
-        <v>0.4167092078440441</v>
+        <v>0.4270556565750555</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
@@ -4478,7 +4616,10 @@
       <c r="X55" t="n">
         <v>75</v>
       </c>
-      <c r="Y55" t="inlineStr"/>
+      <c r="Y55" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4515,7 +4656,7 @@
         <v>18.22195069609804</v>
       </c>
       <c r="J56" t="n">
-        <v>0.3055946580068649</v>
+        <v>0.3103601476304506</v>
       </c>
       <c r="K56" t="n">
         <v>2.16826498481953</v>
@@ -4524,34 +4665,34 @@
         <v>244.1333333333333</v>
       </c>
       <c r="M56" t="n">
-        <v>19.39463597265902</v>
+        <v>19.09683698916653</v>
       </c>
       <c r="N56" t="n">
         <v>7.975146541617818</v>
       </c>
       <c r="O56" t="n">
-        <v>0.04701331404636609</v>
+        <v>0.04995164617426398</v>
       </c>
       <c r="P56" t="n">
-        <v>0.85</v>
+        <v>20.2</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.5943685321574762</v>
+        <v>0.5862245828175499</v>
       </c>
       <c r="R56" t="n">
-        <v>0.514154609092471</v>
+        <v>0.5294266580506256</v>
       </c>
       <c r="S56" t="n">
-        <v>0.3316372652954849</v>
+        <v>0.3429953305347974</v>
       </c>
       <c r="T56" t="n">
-        <v>0.01709969431037421</v>
+        <v>0.01796112025499956</v>
       </c>
       <c r="U56" t="n">
-        <v>0.005170678281867987</v>
+        <v>0.005876601214078216</v>
       </c>
       <c r="V56" t="n">
-        <v>0.01192901602850622</v>
+        <v>0.01208451904092135</v>
       </c>
       <c r="W56" t="n">
         <v>1.69889425077896</v>
@@ -4560,6 +4701,9 @@
         <v>50</v>
       </c>
       <c r="Y56" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Z56" t="n">
         <v>1.69889425077896</v>
       </c>
     </row>
@@ -4597,9 +4741,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
@@ -4609,6 +4751,7 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4640,9 +4783,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
-      <c r="P58" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
@@ -4652,6 +4793,7 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4688,7 +4830,7 @@
         <v>17.5682</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3169616395326812</v>
+        <v>0.3219043875967976</v>
       </c>
       <c r="K59" t="n">
         <v>1.69015679246197</v>
@@ -4701,14 +4843,12 @@
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
-      <c r="P59" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="P59" t="inlineStr"/>
       <c r="Q59" t="n">
-        <v>0.7671932869260786</v>
+        <v>0.7611246338515383</v>
       </c>
       <c r="R59" t="n">
-        <v>0.4131444382192846</v>
+        <v>0.4229325570082481</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -4719,6 +4859,7 @@
         <v>313</v>
       </c>
       <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4756,9 +4897,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
-      <c r="P60" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
@@ -4768,6 +4907,7 @@
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4798,7 +4938,7 @@
         <v>17.7708</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3133480471131322</v>
+        <v>0.3182344442668905</v>
       </c>
       <c r="K61" t="n">
         <v>1.803152741832779</v>
@@ -4811,9 +4951,7 @@
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
-      <c r="P61" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
@@ -4825,6 +4963,7 @@
         <v>271</v>
       </c>
       <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4861,7 +5000,7 @@
         <v>17.4331</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3194179736041238</v>
+        <v>0.3243990261157257</v>
       </c>
       <c r="K62" t="n">
         <v>1.815799269772046</v>
@@ -4874,14 +5013,12 @@
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
-      <c r="P62" t="n">
-        <v>0.8499999999999999</v>
-      </c>
+      <c r="P62" t="inlineStr"/>
       <c r="Q62" t="n">
-        <v>0.75610908877169</v>
+        <v>0.7498489997700178</v>
       </c>
       <c r="R62" t="n">
-        <v>0.4225170895413957</v>
+        <v>0.4326919339257812</v>
       </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
@@ -4893,7 +5030,8 @@
       <c r="X62" t="n">
         <v>292</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="n">
         <v>1.174822822451178</v>
       </c>
     </row>
@@ -4932,7 +5070,7 @@
         <v>22.4331</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2482245198228533</v>
+        <v>0.2520953707770241</v>
       </c>
       <c r="K63" t="n">
         <v>2.396593879999583</v>
@@ -4946,7 +5084,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
-        <v>0.85</v>
+        <v>28.44</v>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -4961,6 +5099,9 @@
         <v>101</v>
       </c>
       <c r="Y63" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z63" t="n">
         <v>1.777104469534706</v>
       </c>
     </row>
@@ -4999,7 +5140,7 @@
         <v>22.98764963035378</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2423177591514929</v>
+        <v>0.2460964991804533</v>
       </c>
       <c r="K64" t="n">
         <v>2.0777</v>
@@ -5011,7 +5152,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>0.85</v>
+        <v>28.44</v>
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -5021,7 +5162,10 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
+      <c r="Y64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5058,7 +5202,7 @@
         <v>23.15547775838727</v>
       </c>
       <c r="J65" t="n">
-        <v>0.240566813495083</v>
+        <v>0.2443182490108967</v>
       </c>
       <c r="K65" t="n">
         <v>2.1014</v>
@@ -5070,7 +5214,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>0.85</v>
+        <v>28.45</v>
       </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -5080,7 +5224,10 @@
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
+      <c r="Y65" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5117,7 +5264,7 @@
         <v>16.99770822716683</v>
       </c>
       <c r="J66" t="n">
-        <v>0.3276118019864066</v>
+        <v>0.3327206303053079</v>
       </c>
       <c r="K66" t="n">
         <v>1.340189934684793</v>
@@ -5126,18 +5273,18 @@
         <v>242.5489021956088</v>
       </c>
       <c r="M66" t="n">
-        <v>12.37458876479575</v>
+        <v>12.18458056044023</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
-        <v>0.85</v>
+        <v>32.87</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.7522047333148674</v>
+        <v>0.7458748318947507</v>
       </c>
       <c r="R66" t="n">
-        <v>0.4355403584797195</v>
+        <v>0.4460862698857084</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
@@ -5150,6 +5297,9 @@
         <v>148</v>
       </c>
       <c r="Y66" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Z66" t="n">
         <v>1.268332798714911</v>
       </c>
     </row>
@@ -5188,7 +5338,7 @@
         <v>20.744</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2684364382779623</v>
+        <v>0.2726224769657761</v>
       </c>
       <c r="K67" t="n">
         <v>1.656668854428058</v>
@@ -5203,24 +5353,24 @@
         <v>9.609283170080145</v>
       </c>
       <c r="O67" t="n">
-        <v>0.03897087976403451</v>
+        <v>0.04140655974928667</v>
       </c>
       <c r="P67" t="n">
-        <v>0.85</v>
+        <v>32.85</v>
       </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="n">
-        <v>0.465918984280532</v>
+        <v>0.4818759914491247</v>
       </c>
       <c r="T67" t="n">
-        <v>0.03854917474019982</v>
+        <v>0.04049115444243101</v>
       </c>
       <c r="U67" t="n">
-        <v>0.008459818061226131</v>
+        <v>0.009614788308106073</v>
       </c>
       <c r="V67" t="n">
-        <v>0.03008935667897369</v>
+        <v>0.03087636613432493</v>
       </c>
       <c r="W67" t="n">
         <v>1.727304523520158</v>
@@ -5229,6 +5379,9 @@
         <v>141</v>
       </c>
       <c r="Y67" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z67" t="n">
         <v>1.41598801056013</v>
       </c>
     </row>
@@ -5261,7 +5414,7 @@
         <v>17.0953</v>
       </c>
       <c r="J68" t="n">
-        <v>0.3257296143172714</v>
+        <v>0.3308090915150982</v>
       </c>
       <c r="K68" t="n">
         <v>1.665838405572881</v>
@@ -5274,9 +5427,7 @@
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
-      <c r="P68" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
@@ -5288,6 +5439,7 @@
         <v>284</v>
       </c>
       <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5324,7 +5476,7 @@
         <v>22.88492472710245</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2434446697285764</v>
+        <v>0.2472409829726473</v>
       </c>
       <c r="K69" t="n">
         <v>2.9899</v>
@@ -5336,7 +5488,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>0.85</v>
+        <v>27.25</v>
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -5346,7 +5498,10 @@
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
+      <c r="Y69" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5383,7 +5538,7 @@
         <v>17.17456583460847</v>
       </c>
       <c r="J70" t="n">
-        <v>0.3242378114826743</v>
+        <v>0.329294025279972</v>
       </c>
       <c r="K70" t="n">
         <v>1.744608638314735</v>
@@ -5392,18 +5547,16 @@
         <v>317.4756097560976</v>
       </c>
       <c r="M70" t="n">
-        <v>17.40070054630272</v>
+        <v>17.1335178602213</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
-      <c r="P70" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="P70" t="inlineStr"/>
       <c r="Q70" t="n">
-        <v>0.7973216220994317</v>
+        <v>0.7918255422774546</v>
       </c>
       <c r="R70" t="n">
-        <v>0.4066736667846495</v>
+        <v>0.4158827258454688</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -5415,7 +5568,8 @@
       <c r="X70" t="n">
         <v>254</v>
       </c>
-      <c r="Y70" t="n">
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="n">
         <v>1.037277585794662</v>
       </c>
     </row>
@@ -5453,9 +5607,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
-      <c r="P71" t="n">
-        <v>0.85</v>
-      </c>
+      <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
@@ -5465,6 +5617,7 @@
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test_env/Databank.xlsx
+++ b/test_env/Databank.xlsx
@@ -1672,7 +1672,9 @@
       <c r="L16" t="n">
         <v>323.6363636363636</v>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>20.47220387131402</v>
+      </c>
       <c r="N16" t="n">
         <v>9.464023702031604</v>
       </c>
@@ -1688,18 +1690,30 @@
       <c r="R16" t="n">
         <v>0.4592499122922808</v>
       </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>0.5384931625607633</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.02630463920986906</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.01219115091854304</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.01411348829132602</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.053476790935672</v>
+      </c>
       <c r="X16" t="n">
         <v>304</v>
       </c>
       <c r="Y16" t="n">
         <v>17.05</v>
       </c>
-      <c r="Z16" t="inlineStr"/>
+      <c r="Z16" t="n">
+        <v>0.7278566919191916</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">

--- a/test_env/Databank.xlsx
+++ b/test_env/Databank.xlsx
@@ -2096,7 +2096,7 @@
         <v>0.0570675814594044</v>
       </c>
       <c r="P20" t="n">
-        <v>44.42</v>
+        <v>44.41999999999999</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -2142,12 +2142,18 @@
       <c r="D21" t="n">
         <v>1961</v>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>100698</v>
+      </c>
+      <c r="F21" t="n">
+        <v>66678</v>
+      </c>
       <c r="G21" t="n">
         <v>156</v>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>51557</v>
+      </c>
       <c r="I21" t="n">
         <v>27.0278</v>
       </c>
@@ -2163,19 +2169,37 @@
       <c r="M21" t="n">
         <v>12.64087077266023</v>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>6.790838599487619</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.05859178537386527</v>
+      </c>
+      <c r="P21" t="n">
+        <v>39.88</v>
+      </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>0.3785122391852268</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.02994352572639822</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.008394533869549407</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.02154899185684881</v>
+      </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
+      <c r="Y21" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.4</v>
+      </c>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
     </row>

--- a/test_env/Databank.xlsx
+++ b/test_env/Databank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB71"/>
+  <dimension ref="A1:AB72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +583,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A380</t>
+          <t>A340-500</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -592,65 +592,59 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E2" t="n">
-        <v>560000</v>
+        <v>368000</v>
       </c>
       <c r="F2" t="n">
-        <v>361000</v>
-      </c>
-      <c r="G2" t="n">
-        <v>853</v>
-      </c>
+        <v>225000</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>324339</v>
+        <v>213698</v>
       </c>
       <c r="I2" t="n">
-        <v>15.44949722869756</v>
+        <v>15.96232163700628</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3660566742484825</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.388050913903164</v>
-      </c>
-      <c r="L2" t="n">
-        <v>316.7033997655334</v>
-      </c>
+        <v>0.3542893565724881</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>18.79302458409364</v>
+        <v>18.09896130948131</v>
       </c>
       <c r="N2" t="n">
-        <v>7.526701183431951</v>
+        <v>9.162272416932181</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05286344548998204</v>
+        <v>0.04342671115021961</v>
       </c>
       <c r="P2" t="n">
-        <v>79.75</v>
+        <v>63.45</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>0.579872351735697</v>
+        <v>0.7135323276326963</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03085632765923649</v>
+        <v>0.03942393795045606</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01777543632879936</v>
+        <v>0.02210977120854699</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01308089133043713</v>
+        <v>0.01731416674190907</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>24.09</v>
+        <v>17.11</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.348000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
@@ -658,104 +652,92 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Airbus Industrie</t>
+          <t>Airbus</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A320-100/200</t>
+          <t>A380</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1988</v>
+        <v>2007</v>
       </c>
       <c r="E3" t="n">
-        <v>73500</v>
+        <v>560000</v>
       </c>
       <c r="F3" t="n">
-        <v>60500</v>
+        <v>361000</v>
       </c>
       <c r="G3" t="n">
-        <v>195</v>
+        <v>853</v>
       </c>
       <c r="H3" t="n">
-        <v>23859</v>
+        <v>324339</v>
       </c>
       <c r="I3" t="n">
-        <v>16.98448384262995</v>
+        <v>15.44949722869756</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3330282229658988</v>
+        <v>0.3660566742484825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.208856634948301</v>
+        <v>1.388050913903164</v>
       </c>
       <c r="L3" t="n">
-        <v>216.9230769230769</v>
+        <v>316.7033997655334</v>
       </c>
       <c r="M3" t="n">
-        <v>14.11321312869364</v>
+        <v>18.79302458409364</v>
       </c>
       <c r="N3" t="n">
-        <v>10.47091503267974</v>
+        <v>7.526701183431951</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03799929199004399</v>
+        <v>0.05286344548998204</v>
       </c>
       <c r="P3" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.7827582529883768</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.4255304678461357</v>
-      </c>
+        <v>79.75</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>0.5117146212062872</v>
+        <v>0.579872351735697</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03626445510537339</v>
+        <v>0.03085632765923649</v>
       </c>
       <c r="U3" t="n">
-        <v>0.009950185041419854</v>
+        <v>0.01777543632879936</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02631427006395354</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.14307207999559</v>
-      </c>
-      <c r="X3" t="n">
-        <v>156</v>
-      </c>
+        <v>0.01308089133043713</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>11.76</v>
+        <v>24.09</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.694166666666667</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>58401.1920317827</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.914457663996472</v>
-      </c>
+        <v>8.348000000000001</v>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Airbus Industrie </t>
+          <t>Airbus Industrie</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A-318</t>
+          <t>A320-100/200</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -764,66 +746,80 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2003</v>
+        <v>1988</v>
       </c>
       <c r="E4" t="n">
-        <v>59000</v>
+        <v>73500</v>
       </c>
       <c r="F4" t="n">
-        <v>53000</v>
+        <v>60500</v>
       </c>
       <c r="G4" t="n">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="H4" t="n">
         <v>23859</v>
       </c>
       <c r="I4" t="n">
-        <v>17.12629865786187</v>
+        <v>16.98448384262995</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3307114046138761</v>
+        <v>0.3330282229658988</v>
       </c>
       <c r="K4" t="n">
-        <v>1.398059339158471</v>
+        <v>1.208856634948301</v>
       </c>
       <c r="L4" t="n">
-        <v>287.0220588235294</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>216.9230769230769</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14.11321312869364</v>
+      </c>
       <c r="N4" t="n">
-        <v>9.500081699346406</v>
+        <v>10.47091503267974</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04188251957423824</v>
+        <v>0.03799929199004399</v>
       </c>
       <c r="P4" t="n">
-        <v>34.1</v>
+        <v>35.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7818656297002208</v>
+        <v>0.7827582529883768</v>
       </c>
       <c r="R4" t="n">
-        <v>0.422881190011312</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+        <v>0.4255304678461357</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.5117146212062872</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.03626445510537339</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.009950185041419854</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.02631427006395354</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.14307207999559</v>
+      </c>
       <c r="X4" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.79</v>
+        <v>11.76</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.566666666666666</v>
+        <v>5.694166666666667</v>
       </c>
       <c r="AA4" t="n">
-        <v>53222.18275336444</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
+        <v>58401.1920317827</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.914457663996472</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -833,89 +829,75 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A300-600</t>
+          <t>A-318</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1984</v>
+        <v>2003</v>
       </c>
       <c r="E5" t="n">
-        <v>168384.6153846154</v>
+        <v>59000</v>
       </c>
       <c r="F5" t="n">
-        <v>130000</v>
+        <v>53000</v>
       </c>
       <c r="G5" t="n">
-        <v>345</v>
+        <v>136</v>
       </c>
       <c r="H5" t="n">
-        <v>65784.61538461539</v>
+        <v>23859</v>
       </c>
       <c r="I5" t="n">
-        <v>17.06146751190997</v>
+        <v>17.12629865786187</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3314974084739918</v>
+        <v>0.3307114046138761</v>
       </c>
       <c r="K5" t="n">
-        <v>1.445998550617744</v>
+        <v>1.398059339158471</v>
       </c>
       <c r="L5" t="n">
-        <v>262.8937198067633</v>
-      </c>
-      <c r="M5" t="n">
-        <v>12.32577591358321</v>
-      </c>
+        <v>287.0220588235294</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>7.729726538461537</v>
+        <v>9.500081699346406</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05147495913987801</v>
+        <v>0.04188251957423824</v>
       </c>
       <c r="P5" t="n">
-        <v>44.83</v>
+        <v>34.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7679023275231903</v>
+        <v>0.7818656297002208</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4317085313765291</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.5407899383500721</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.04387899711315849</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.01505404521353303</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.02882495189962546</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.531120491263444</v>
-      </c>
+        <v>0.422881190011312</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>261</v>
+        <v>118</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.66</v>
+        <v>12.79</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.938461538461539</v>
+        <v>5.566666666666666</v>
       </c>
       <c r="AA5" t="n">
-        <v>122660.0008671653</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.158325936868866</v>
-      </c>
+        <v>53222.18275336444</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -925,7 +907,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A300B/C/F-100/200</t>
+          <t>A300-600</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -934,31 +916,37 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1974</v>
+        <v>1984</v>
       </c>
       <c r="E6" t="n">
-        <v>147944.4444444444</v>
+        <v>168384.6153846154</v>
       </c>
       <c r="F6" t="n">
-        <v>120694.4444444444</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>130000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>345</v>
+      </c>
       <c r="H6" t="n">
-        <v>51050</v>
+        <v>65784.61538461539</v>
       </c>
       <c r="I6" t="n">
-        <v>17.59993171711697</v>
+        <v>17.06146751190997</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3213320708112211</v>
+        <v>0.3314974084739918</v>
       </c>
       <c r="K6" t="n">
-        <v>1.622307954742745</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>1.445998550617744</v>
+      </c>
+      <c r="L6" t="n">
+        <v>262.8937198067633</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12.32577591358321</v>
+      </c>
       <c r="N6" t="n">
-        <v>7.729726538461538</v>
+        <v>7.729726538461537</v>
       </c>
       <c r="O6" t="n">
         <v>0.05147495913987801</v>
@@ -967,29 +955,41 @@
         <v>44.83</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6847468648642256</v>
+        <v>0.7679023275231903</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4694689172961224</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+        <v>0.4317085313765291</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5407899383500721</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.04387899711315849</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.01505404521353303</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.02882495189962546</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.531120491263444</v>
+      </c>
       <c r="X6" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.72</v>
+        <v>16.66</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.366666666666666</v>
+        <v>4.938461538461539</v>
       </c>
       <c r="AA6" t="n">
-        <v>163347.4258846782</v>
-      </c>
-      <c r="AB6" t="inlineStr"/>
+        <v>122660.0008671653</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.158325936868866</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A310-200C/F</t>
+          <t>A300B/C/F-100/200</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1008,59 +1008,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1983</v>
+        <v>1974</v>
       </c>
       <c r="E7" t="n">
-        <v>134200</v>
+        <v>147944.4444444444</v>
       </c>
       <c r="F7" t="n">
-        <v>109500</v>
-      </c>
-      <c r="G7" t="n">
-        <v>275</v>
-      </c>
+        <v>120694.4444444444</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>55100</v>
+        <v>51050</v>
       </c>
       <c r="I7" t="n">
-        <v>17.29617641863968</v>
+        <v>17.59993171711697</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3272387567273355</v>
+        <v>0.3213320708112211</v>
       </c>
       <c r="K7" t="n">
-        <v>1.758276131082078</v>
-      </c>
-      <c r="L7" t="n">
-        <v>291.3909090909091</v>
-      </c>
+        <v>1.622307954742745</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>8.800045662100455</v>
+        <v>7.729726538461538</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04521423785825764</v>
+        <v>0.05147495913987801</v>
       </c>
       <c r="P7" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+        <v>44.83</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.6847468648642256</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.4694689172961224</v>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.95</v>
+        <v>16.72</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.033333333333333</v>
-      </c>
-      <c r="AA7" t="inlineStr"/>
+        <v>4.366666666666666</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>163347.4258846782</v>
+      </c>
       <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1071,7 +1073,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A310-300</t>
+          <t>A310-200C/F</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1080,31 +1082,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="E8" t="n">
-        <v>150000</v>
+        <v>134200</v>
       </c>
       <c r="F8" t="n">
-        <v>113000</v>
+        <v>109500</v>
       </c>
       <c r="G8" t="n">
         <v>275</v>
       </c>
       <c r="H8" t="n">
-        <v>61090</v>
+        <v>55100</v>
       </c>
       <c r="I8" t="n">
-        <v>16.79256880289362</v>
+        <v>17.29617641863968</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3368090181855647</v>
+        <v>0.3272387567273355</v>
       </c>
       <c r="K8" t="n">
-        <v>1.4459</v>
+        <v>1.758276131082078</v>
       </c>
       <c r="L8" t="n">
-        <v>295.9318181818182</v>
+        <v>291.3909090909091</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
@@ -1123,7 +1125,9 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>179</v>
+      </c>
       <c r="Y8" t="n">
         <v>15.95</v>
       </c>
@@ -1141,89 +1145,67 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A319</t>
+          <t>A310-300</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="E9" t="n">
-        <v>64000</v>
+        <v>150000</v>
       </c>
       <c r="F9" t="n">
-        <v>57000</v>
+        <v>113000</v>
       </c>
       <c r="G9" t="n">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="H9" t="n">
-        <v>23859</v>
+        <v>61090</v>
       </c>
       <c r="I9" t="n">
-        <v>16.78368909556014</v>
+        <v>16.79256880289362</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3369711685077701</v>
+        <v>0.3368090181855647</v>
       </c>
       <c r="K9" t="n">
-        <v>1.368187134684253</v>
+        <v>1.4459</v>
       </c>
       <c r="L9" t="n">
-        <v>254.259375</v>
-      </c>
-      <c r="M9" t="n">
-        <v>13.66570744265254</v>
-      </c>
+        <v>295.9318181818182</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>10.47091503267974</v>
+        <v>8.800045662100455</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03799929199004399</v>
+        <v>0.04521423785825764</v>
       </c>
       <c r="P9" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.7808617056790327</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.4315811632965838</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.5256380337272604</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.03846632262229654</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.01049902739517181</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.02796729522712472</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.257413181978043</v>
-      </c>
-      <c r="X9" t="n">
-        <v>130</v>
-      </c>
+        <v>43.9</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>11.76</v>
+        <v>15.95</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.719074074074074</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>59286.35242371303</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1.02164821035716</v>
-      </c>
+        <v>5.033333333333333</v>
+      </c>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1233,7 +1215,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A320-200n</t>
+          <t>A319</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1242,33 +1224,35 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2016</v>
+        <v>1996</v>
       </c>
       <c r="E10" t="n">
-        <v>73500</v>
+        <v>64000</v>
       </c>
       <c r="F10" t="n">
-        <v>62800</v>
+        <v>57000</v>
       </c>
       <c r="G10" t="n">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="H10" t="n">
-        <v>23725</v>
+        <v>23859</v>
       </c>
       <c r="I10" t="n">
-        <v>14.70307341442506</v>
+        <v>16.78368909556014</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3847071597161745</v>
+        <v>0.3369711685077701</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8913640923736511</v>
+        <v>1.368187134684253</v>
       </c>
       <c r="L10" t="n">
-        <v>227.1794871794872</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>254.259375</v>
+      </c>
+      <c r="M10" t="n">
+        <v>13.66570744265254</v>
+      </c>
       <c r="N10" t="n">
         <v>10.47091503267974</v>
       </c>
@@ -1279,29 +1263,41 @@
         <v>35.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8157447946259122</v>
+        <v>0.7808617056790327</v>
       </c>
       <c r="R10" t="n">
-        <v>0.471585611643779</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+        <v>0.4315811632965838</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.5256380337272604</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.03846632262229654</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.01049902739517181</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.02796729522712472</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.257413181978043</v>
+      </c>
       <c r="X10" t="n">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="Y10" t="n">
         <v>11.76</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.62518188580831</v>
+        <v>5.719074074074074</v>
       </c>
       <c r="AA10" t="n">
-        <v>66644.42727505849</v>
-      </c>
-      <c r="AB10" t="inlineStr"/>
+        <v>59286.35242371303</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.02164821035716</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1311,7 +1307,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A321-200n</t>
+          <t>A320-200n</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1320,31 +1316,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="E11" t="n">
-        <v>89000</v>
+        <v>73500</v>
       </c>
       <c r="F11" t="n">
-        <v>73300</v>
+        <v>62800</v>
       </c>
       <c r="G11" t="n">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="H11" t="n">
-        <v>23580</v>
+        <v>23725</v>
       </c>
       <c r="I11" t="n">
-        <v>14.96467324159407</v>
+        <v>14.70307341442506</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3779781871295746</v>
+        <v>0.3847071597161745</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8446380134094421</v>
+        <v>0.8913640923736511</v>
       </c>
       <c r="L11" t="n">
-        <v>208.75</v>
+        <v>227.1794871794872</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
@@ -1357,10 +1353,10 @@
         <v>35.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8238660479833952</v>
+        <v>0.8157447946259122</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4587673086292799</v>
+        <v>0.471585611643779</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1368,16 +1364,16 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="Y11" t="n">
         <v>11.76</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.96088452380952</v>
+        <v>11.62518188580831</v>
       </c>
       <c r="AA11" t="n">
-        <v>62723.71050748076</v>
+        <v>66644.42727505849</v>
       </c>
       <c r="AB11" t="inlineStr"/>
     </row>
@@ -1389,7 +1385,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A321/Lr</t>
+          <t>A321-200n</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1398,34 +1394,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1994</v>
+        <v>2017</v>
       </c>
       <c r="E12" t="n">
-        <v>86310.3448275862</v>
+        <v>89000</v>
       </c>
       <c r="F12" t="n">
-        <v>70603.44827586207</v>
+        <v>73300</v>
       </c>
       <c r="G12" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="H12" t="n">
-        <v>23700</v>
+        <v>23580</v>
       </c>
       <c r="I12" t="n">
-        <v>17.4681003679791</v>
+        <v>14.96467324159407</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3237674736889553</v>
+        <v>0.3779781871295746</v>
       </c>
       <c r="K12" t="n">
-        <v>1.10484603787207</v>
+        <v>0.8446380134094421</v>
       </c>
       <c r="L12" t="n">
-        <v>223.6363636363636</v>
+        <v>208.75</v>
       </c>
       <c r="M12" t="n">
-        <v>16.16965959215085</v>
+        <v>17.04775257552424</v>
       </c>
       <c r="N12" t="n">
         <v>10.47091503267974</v>
@@ -1437,40 +1433,40 @@
         <v>35.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7684932315555086</v>
+        <v>0.8238660479833952</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4213803942757023</v>
+        <v>0.4587673086292799</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6509550623209971</v>
+        <v>0.6751747691526191</v>
       </c>
       <c r="T12" t="n">
-        <v>0.04026010133527302</v>
+        <v>0.03961219278128153</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01610191472622672</v>
+        <v>0.01732239406410658</v>
       </c>
       <c r="V12" t="n">
-        <v>0.02415818660904629</v>
+        <v>0.02228979871717495</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9966162976897276</v>
+        <v>0.847484724302772</v>
       </c>
       <c r="X12" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Y12" t="n">
         <v>11.76</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.427586206896552</v>
+        <v>10.96088452380952</v>
       </c>
       <c r="AA12" t="n">
-        <v>63904.1570481465</v>
+        <v>62723.71050748076</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.8969546679207548</v>
+        <v>0.6815189657934791</v>
       </c>
     </row>
     <row r="13">
@@ -1481,88 +1477,88 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A330-200</t>
+          <t>A321/Lr</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="E13" t="n">
-        <v>230000</v>
+        <v>86310.3448275862</v>
       </c>
       <c r="F13" t="n">
-        <v>168000</v>
+        <v>70603.44827586207</v>
       </c>
       <c r="G13" t="n">
-        <v>406</v>
+        <v>220</v>
       </c>
       <c r="H13" t="n">
-        <v>97530</v>
+        <v>23700</v>
       </c>
       <c r="I13" t="n">
-        <v>17.06347192741687</v>
+        <v>17.4681003679791</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3314411625115518</v>
+        <v>0.3237674736889553</v>
       </c>
       <c r="K13" t="n">
-        <v>1.40477492852807</v>
+        <v>1.10484603787207</v>
       </c>
       <c r="L13" t="n">
-        <v>297.3727422003284</v>
+        <v>223.6363636363636</v>
       </c>
       <c r="M13" t="n">
-        <v>19.34980759189076</v>
+        <v>16.16965959215085</v>
       </c>
       <c r="N13" t="n">
-        <v>10.05555862831858</v>
+        <v>10.47091503267974</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03956889641210019</v>
+        <v>0.03799929199004399</v>
       </c>
       <c r="P13" t="n">
-        <v>60.3</v>
+        <v>35.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7652194894427563</v>
+        <v>0.7684932315555086</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4331491048656753</v>
+        <v>0.4213803942757023</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5703063572795277</v>
+        <v>0.6509550623209971</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02947482563465759</v>
+        <v>0.04026010133527302</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01286975748820448</v>
+        <v>0.01610191472622672</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01660506814645312</v>
+        <v>0.02415818660904629</v>
       </c>
       <c r="W13" t="n">
-        <v>1.223822284874495</v>
+        <v>0.9966162976897276</v>
       </c>
       <c r="X13" t="n">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.38</v>
+        <v>11.76</v>
       </c>
       <c r="Z13" t="n">
-        <v>5.039999999999999</v>
+        <v>5.427586206896552</v>
       </c>
       <c r="AA13" t="n">
-        <v>136739.3352384174</v>
+        <v>63904.1570481465</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.7988002598318749</v>
+        <v>0.8969546679207548</v>
       </c>
     </row>
     <row r="14">
@@ -1573,7 +1569,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A330-300/333</t>
+          <t>A330-200</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1582,34 +1578,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E14" t="n">
-        <v>212000</v>
+        <v>230000</v>
       </c>
       <c r="F14" t="n">
-        <v>164000</v>
+        <v>168000</v>
       </c>
       <c r="G14" t="n">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="H14" t="n">
-        <v>97885</v>
+        <v>97530</v>
       </c>
       <c r="I14" t="n">
-        <v>16.98916597013821</v>
+        <v>17.06347192741687</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3329032171369345</v>
+        <v>0.3314411625115518</v>
       </c>
       <c r="K14" t="n">
-        <v>1.229479581294727</v>
+        <v>1.40477492852807</v>
       </c>
       <c r="L14" t="n">
-        <v>283.4848484848485</v>
+        <v>297.3727422003284</v>
       </c>
       <c r="M14" t="n">
-        <v>18.96749027839072</v>
+        <v>19.34980759189076</v>
       </c>
       <c r="N14" t="n">
         <v>10.05555862831858</v>
@@ -1621,40 +1617,40 @@
         <v>60.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7802536469189285</v>
+        <v>0.7652194894427563</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4266681792075788</v>
+        <v>0.4331491048656753</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5608796097445846</v>
+        <v>0.5703063572795277</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02957301951624453</v>
+        <v>0.02947482563465759</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01244781833910668</v>
+        <v>0.01286975748820448</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01712520117713785</v>
+        <v>0.01660506814645312</v>
       </c>
       <c r="W14" t="n">
-        <v>1.202775856096727</v>
+        <v>1.223822284874495</v>
       </c>
       <c r="X14" t="n">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.83</v>
+        <v>17.38</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.050909090909091</v>
+        <v>5.039999999999999</v>
       </c>
       <c r="AA14" t="n">
-        <v>127636.338025989</v>
+        <v>136739.3352384174</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.7982057954096462</v>
+        <v>0.7988002598318749</v>
       </c>
     </row>
     <row r="15">
@@ -1665,7 +1661,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A330-900</t>
+          <t>A330-300/333</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1674,43 +1670,79 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+        <v>1994</v>
+      </c>
+      <c r="E15" t="n">
+        <v>212000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>164000</v>
+      </c>
       <c r="G15" t="n">
-        <v>460</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>440</v>
+      </c>
+      <c r="H15" t="n">
+        <v>97885</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16.98916597013821</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3329032171369345</v>
+      </c>
       <c r="K15" t="n">
-        <v>1.128747954335762</v>
+        <v>1.229479581294727</v>
       </c>
       <c r="L15" t="n">
-        <v>295.6521739130434</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+        <v>283.4848484848485</v>
+      </c>
+      <c r="M15" t="n">
+        <v>18.96749027839072</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10.05555862831858</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.03956889641210019</v>
+      </c>
+      <c r="P15" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.7802536469189285</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.4266681792075788</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.5608796097445846</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.02957301951624453</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.01244781833910668</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.01712520117713785</v>
+      </c>
       <c r="W15" t="n">
-        <v>0.9752558287908442</v>
+        <v>1.202775856096727</v>
       </c>
       <c r="X15" t="n">
-        <v>280</v>
-      </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+        <v>292</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>5.050909090909091</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>127636.338025989</v>
+      </c>
       <c r="AB15" t="n">
-        <v>0.593633982742253</v>
+        <v>0.7982057954096462</v>
       </c>
     </row>
     <row r="16">
@@ -1721,7 +1753,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A350-900</t>
+          <t>A330-900</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1730,159 +1762,135 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E16" t="n">
-        <v>268000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>192000</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>440</v>
-      </c>
-      <c r="H16" t="n">
-        <v>140795</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15.06830812606609</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.3753240765649378</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>1.139953161890594</v>
+        <v>1.128747954335762</v>
       </c>
       <c r="L16" t="n">
-        <v>323.6363636363636</v>
-      </c>
-      <c r="M16" t="n">
-        <v>20.47220387131402</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9.464023702031604</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.04204209227036546</v>
-      </c>
-      <c r="P16" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.8172613556825146</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.4592499122922808</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.5384931625607633</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.02630463920986906</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.01219115091854304</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.01411348829132602</v>
-      </c>
+        <v>295.6521739130434</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>1.053476790935672</v>
+        <v>0.9752558287908442</v>
       </c>
       <c r="X16" t="n">
-        <v>304</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>9.151666666666667</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>145592.1614376467</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="n">
-        <v>0.7278566919191916</v>
+        <v>0.593633982742253</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>717-200</t>
+          <t>A350-900</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="E17" t="n">
-        <v>54885</v>
+        <v>268000</v>
       </c>
       <c r="F17" t="n">
-        <v>45586</v>
+        <v>192000</v>
       </c>
       <c r="G17" t="n">
-        <v>134</v>
+        <v>440</v>
       </c>
       <c r="H17" t="n">
-        <v>13926</v>
+        <v>140795</v>
       </c>
       <c r="I17" t="n">
-        <v>17.43840732807625</v>
+        <v>15.06830812606609</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3243236053677547</v>
+        <v>0.3753240765649378</v>
       </c>
       <c r="K17" t="n">
-        <v>1.789791513631841</v>
+        <v>1.139953161890594</v>
       </c>
       <c r="L17" t="n">
-        <v>230.1791044776119</v>
+        <v>323.6363636363636</v>
       </c>
       <c r="M17" t="n">
-        <v>12.19345387975585</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+        <v>20.47220387131402</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9.464023702031604</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.04204209227036546</v>
+      </c>
       <c r="P17" t="n">
-        <v>28.45</v>
+        <v>64.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7336925079052894</v>
+        <v>0.8172613556825146</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4420536703364697</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+        <v>0.4592499122922808</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.5384931625607633</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.02630463920986906</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.01219115091854304</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.01411348829132602</v>
+      </c>
       <c r="W17" t="n">
-        <v>1.517621832235924</v>
+        <v>1.053476790935672</v>
       </c>
       <c r="X17" t="n">
-        <v>112</v>
+        <v>304</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.039999999999999</v>
+        <v>17.05</v>
       </c>
       <c r="Z17" t="n">
-        <v>4.605</v>
+        <v>9.151666666666667</v>
       </c>
       <c r="AA17" t="n">
-        <v>56746.0021118581</v>
+        <v>145592.1614376467</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.268460038883757</v>
+        <v>0.7278566919191916</v>
       </c>
     </row>
     <row r="18">
@@ -1893,7 +1901,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>727-100</t>
+          <t>717-200</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1902,56 +1910,68 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1964</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+        <v>1999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>54885</v>
+      </c>
+      <c r="F18" t="n">
+        <v>45586</v>
+      </c>
       <c r="G18" t="n">
-        <v>131</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
+        <v>134</v>
+      </c>
+      <c r="H18" t="n">
+        <v>13926</v>
+      </c>
       <c r="I18" t="n">
-        <v>22.4869707120729</v>
+        <v>17.43840732807625</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2519712186447382</v>
+        <v>0.3243236053677547</v>
       </c>
       <c r="K18" t="n">
-        <v>2.638523689003425</v>
+        <v>1.789791513631841</v>
       </c>
       <c r="L18" t="n">
-        <v>303.8167938931298</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>7.083179084967321</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.05617355610479727</v>
-      </c>
+        <v>230.1791044776119</v>
+      </c>
+      <c r="M18" t="n">
+        <v>12.19345387975585</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>32.92</v>
-      </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+        <v>28.45</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.7336925079052894</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.4420536703364697</v>
+      </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>1.517621832235924</v>
+      </c>
       <c r="X18" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.44</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.153636363636364</v>
+        <v>4.605</v>
       </c>
       <c r="AA18" t="n">
-        <v>64129.64176091191</v>
-      </c>
-      <c r="AB18" t="inlineStr"/>
+        <v>56746.0021118581</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.268460038883757</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1961,7 +1981,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>737-700/700LR/Max 7</t>
+          <t>727-100</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1970,80 +1990,56 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E19" t="n">
-        <v>73892.60377358491</v>
-      </c>
-      <c r="F19" t="n">
-        <v>56195.90566037736</v>
-      </c>
+        <v>1964</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>149</v>
-      </c>
-      <c r="H19" t="n">
-        <v>26024</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>17.49680933025547</v>
+        <v>22.4869707120729</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3232650946410691</v>
+        <v>0.2519712186447382</v>
       </c>
       <c r="K19" t="n">
-        <v>1.275189262798983</v>
+        <v>2.638523689003425</v>
       </c>
       <c r="L19" t="n">
-        <v>256.0201342281879</v>
-      </c>
-      <c r="M19" t="n">
-        <v>15.30298680276587</v>
-      </c>
+        <v>303.8167938931298</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>10.28028972712681</v>
+        <v>7.083179084967321</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03870390507378649</v>
+        <v>0.05617355610479727</v>
       </c>
       <c r="P19" t="n">
-        <v>35.79</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.7672284054559056</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.4213590631018348</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.4792889880898488</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.03132454391686557</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.008890981115314956</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.02243356280155061</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.206455180923881</v>
-      </c>
+        <v>32.92</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.57</v>
+        <v>10.44</v>
       </c>
       <c r="Z19" t="n">
-        <v>5.227987421383648</v>
+        <v>1.153636363636364</v>
       </c>
       <c r="AA19" t="n">
-        <v>52735.91179498754</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.036417873545348</v>
-      </c>
+        <v>64129.64176091191</v>
+      </c>
+      <c r="AB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2053,7 +2049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B707-300</t>
+          <t>737-700/700LR/Max 7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2062,66 +2058,80 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1962</v>
+        <v>1997</v>
       </c>
       <c r="E20" t="n">
-        <v>148325</v>
+        <v>73892.60377358491</v>
       </c>
       <c r="F20" t="n">
-        <v>86183</v>
+        <v>56195.90566037736</v>
       </c>
       <c r="G20" t="n">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="H20" t="n">
-        <v>90301</v>
+        <v>26024</v>
       </c>
       <c r="I20" t="n">
-        <v>21.3258022372695</v>
+        <v>17.49680933025547</v>
       </c>
       <c r="J20" t="n">
-        <v>0.265184896645752</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+        <v>0.3232650946410691</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.275189262798983</v>
+      </c>
       <c r="L20" t="n">
-        <v>303.2191780821918</v>
+        <v>256.0201342281879</v>
       </c>
       <c r="M20" t="n">
-        <v>15.8095</v>
+        <v>15.30298680276587</v>
       </c>
       <c r="N20" t="n">
-        <v>6.972213427561837</v>
+        <v>10.28028972712681</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0570675814594044</v>
+        <v>0.03870390507378649</v>
       </c>
       <c r="P20" t="n">
-        <v>44.41999999999999</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+        <v>35.79</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.7672284054559056</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.4213590631018348</v>
+      </c>
       <c r="S20" t="n">
-        <v>0.4261428126703143</v>
+        <v>0.4792889880898488</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03835232347188636</v>
+        <v>0.03132454391686557</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01036334135443588</v>
+        <v>0.008890981115314956</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02798898211745048</v>
-      </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
+        <v>0.02243356280155061</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.206455180923881</v>
+      </c>
+      <c r="X20" t="n">
+        <v>128</v>
+      </c>
       <c r="Y20" t="n">
-        <v>12.83</v>
+        <v>12.57</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
+        <v>5.227987421383648</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>52735.91179498754</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.036417873545348</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2131,7 +2141,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B720-000</t>
+          <t>B707-300</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2140,62 +2150,60 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E21" t="n">
-        <v>100698</v>
+        <v>148325</v>
       </c>
       <c r="F21" t="n">
-        <v>66678</v>
+        <v>86183</v>
       </c>
       <c r="G21" t="n">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="H21" t="n">
-        <v>51557</v>
+        <v>90301</v>
       </c>
       <c r="I21" t="n">
-        <v>27.0278</v>
+        <v>21.3258022372695</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2092394002537409</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.2365</v>
-      </c>
+        <v>0.265184896645752</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>322.4358974358975</v>
+        <v>303.2191780821918</v>
       </c>
       <c r="M21" t="n">
-        <v>12.64087077266023</v>
+        <v>15.8095</v>
       </c>
       <c r="N21" t="n">
-        <v>6.790838599487619</v>
+        <v>6.972213427561837</v>
       </c>
       <c r="O21" t="n">
-        <v>0.05859178537386527</v>
+        <v>0.0570675814594044</v>
       </c>
       <c r="P21" t="n">
-        <v>39.88</v>
+        <v>44.41999999999999</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>0.3785122391852268</v>
+        <v>0.4261428126703143</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02994352572639822</v>
+        <v>0.03835232347188636</v>
       </c>
       <c r="U21" t="n">
-        <v>0.008394533869549407</v>
+        <v>0.01036334135443588</v>
       </c>
       <c r="V21" t="n">
-        <v>0.02154899185684881</v>
+        <v>0.02798898211745048</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="n">
-        <v>12.55</v>
+        <v>12.83</v>
       </c>
       <c r="Z21" t="n">
         <v>1.4</v>
@@ -2211,7 +2219,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B737-300</t>
+          <t>B720-000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2220,65 +2228,67 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1984</v>
+        <v>1961</v>
       </c>
       <c r="E22" t="n">
-        <v>63276</v>
+        <v>100698</v>
       </c>
       <c r="F22" t="n">
-        <v>49713</v>
+        <v>66678</v>
       </c>
       <c r="G22" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H22" t="n">
-        <v>20100</v>
+        <v>51557</v>
       </c>
       <c r="I22" t="n">
-        <v>18.00126385619849</v>
+        <v>27.0278</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3141610114030782</v>
+        <v>0.2092394002537409</v>
       </c>
       <c r="K22" t="n">
-        <v>1.485729952148732</v>
+        <v>3.2365</v>
       </c>
       <c r="L22" t="n">
-        <v>220.2684563758389</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>322.4358974358975</v>
+      </c>
+      <c r="M22" t="n">
+        <v>12.64087077266023</v>
+      </c>
       <c r="N22" t="n">
-        <v>9.16140597539543</v>
+        <v>6.790838599487619</v>
       </c>
       <c r="O22" t="n">
-        <v>0.04343081823885273</v>
+        <v>0.05859178537386527</v>
       </c>
       <c r="P22" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.7561408830443964</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.4154797923940739</v>
-      </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+        <v>39.88</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>0.3785122391852268</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.02994352572639822</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.008394533869549407</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.02154899185684881</v>
+      </c>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="n">
-        <v>131</v>
-      </c>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>11.13</v>
+        <v>12.55</v>
       </c>
       <c r="Z22" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>53907.19238070866</v>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -2289,7 +2299,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B737-500/600</t>
+          <t>B737-300</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2298,80 +2308,66 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="E23" t="n">
-        <v>65518.22222222222</v>
+        <v>63276</v>
       </c>
       <c r="F23" t="n">
-        <v>51154.66666666666</v>
+        <v>49713</v>
       </c>
       <c r="G23" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H23" t="n">
-        <v>25365.77777777778</v>
+        <v>20100</v>
       </c>
       <c r="I23" t="n">
-        <v>17.33353107822624</v>
+        <v>18.00126385619849</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3263326220419078</v>
+        <v>0.3141610114030782</v>
       </c>
       <c r="K23" t="n">
-        <v>1.698569474237269</v>
+        <v>1.485729952148732</v>
       </c>
       <c r="L23" t="n">
-        <v>238.2310344827586</v>
-      </c>
-      <c r="M23" t="n">
-        <v>11.74898692353604</v>
-      </c>
+        <v>220.2684563758389</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>10.15596931026777</v>
+        <v>9.16140597539543</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03922911764768274</v>
+        <v>0.04343081823885273</v>
       </c>
       <c r="P23" t="n">
-        <v>35.02222222222222</v>
+        <v>28.88</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7618193641857841</v>
+        <v>0.7561408830443964</v>
       </c>
       <c r="R23" t="n">
-        <v>0.428364075910884</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.4311057075475181</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.03664388239440782</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.007451031201009908</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.0291928511933979</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.475470707385693</v>
-      </c>
+        <v>0.4154797923940739</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="n">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.41</v>
+        <v>11.13</v>
       </c>
       <c r="Z23" t="n">
-        <v>5.351851851851851</v>
+        <v>5.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>54112.65556012069</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1.149849585755747</v>
-      </c>
+        <v>53907.19238070866</v>
+      </c>
+      <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2381,74 +2377,88 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B767-200/ER/EM</t>
+          <t>B737-500/600</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1983</v>
+        <v>1990</v>
       </c>
       <c r="E24" t="n">
-        <v>179169</v>
+        <v>65518.22222222222</v>
       </c>
       <c r="F24" t="n">
-        <v>117934</v>
+        <v>51154.66666666666</v>
       </c>
       <c r="G24" t="n">
-        <v>290</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
+        <v>145</v>
+      </c>
+      <c r="H24" t="n">
+        <v>25365.77777777778</v>
+      </c>
       <c r="I24" t="n">
-        <v>17.09399611096489</v>
+        <v>17.33353107822624</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3309594651029379</v>
+        <v>0.3263326220419078</v>
       </c>
       <c r="K24" t="n">
-        <v>1.608396694502249</v>
+        <v>1.698569474237269</v>
       </c>
       <c r="L24" t="n">
-        <v>291.8706896551724</v>
+        <v>238.2310344827586</v>
       </c>
       <c r="M24" t="n">
-        <v>15.1363690189235</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+        <v>11.74898692353604</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10.15596931026777</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.03922911764768274</v>
+      </c>
       <c r="P24" t="n">
-        <v>47.57</v>
+        <v>35.02222222222222</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7911840996814868</v>
+        <v>0.7618193641857841</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4182823680622674</v>
-      </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+        <v>0.428364075910884</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.4311057075475181</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.03664388239440782</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.007451031201009908</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.0291928511933979</v>
+      </c>
       <c r="W24" t="n">
-        <v>1.48783112190594</v>
+        <v>1.475470707385693</v>
       </c>
       <c r="X24" t="n">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.85</v>
+        <v>12.41</v>
       </c>
       <c r="Z24" t="n">
-        <v>5.024999999999999</v>
+        <v>5.351851851851851</v>
       </c>
       <c r="AA24" t="n">
-        <v>102716.4593636025</v>
+        <v>54112.65556012069</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.9542640988776029</v>
+        <v>1.149849585755747</v>
       </c>
     </row>
     <row r="25">
@@ -2459,7 +2469,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>B787-800 Dreamliner</t>
+          <t>B767-200/ER/EM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2468,65 +2478,65 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2011</v>
+        <v>1983</v>
       </c>
       <c r="E25" t="n">
-        <v>227930</v>
+        <v>179169</v>
       </c>
       <c r="F25" t="n">
-        <v>161100</v>
+        <v>117934</v>
       </c>
       <c r="G25" t="n">
-        <v>381</v>
-      </c>
-      <c r="H25" t="n">
-        <v>126206</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>15.24564965479821</v>
+        <v>17.09399611096489</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3709866079703445</v>
+        <v>0.3309594651029379</v>
       </c>
       <c r="K25" t="n">
-        <v>1.256752661572447</v>
+        <v>1.608396694502249</v>
       </c>
       <c r="L25" t="n">
-        <v>308.9370078740158</v>
+        <v>291.8706896551724</v>
       </c>
       <c r="M25" t="n">
-        <v>20.06575852957733</v>
+        <v>15.1363690189235</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>60.12</v>
+        <v>47.57</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8329779853683159</v>
+        <v>0.7911840996814868</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4453756348857719</v>
+        <v>0.4182823680622674</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>1.175359044474089</v>
+        <v>1.48783112190594</v>
       </c>
       <c r="X25" t="n">
-        <v>226</v>
-      </c>
-      <c r="Y25" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15.85</v>
+      </c>
       <c r="Z25" t="n">
-        <v>9.109334158730158</v>
+        <v>5.024999999999999</v>
       </c>
       <c r="AA25" t="n">
-        <v>116758.9964281686</v>
+        <v>102716.4593636025</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.6971946038087771</v>
+        <v>0.9542640988776029</v>
       </c>
     </row>
     <row r="26">
@@ -2537,7 +2547,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B787-900 Dreamliner</t>
+          <t>B787-800 Dreamliner</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2546,34 +2556,34 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="E26" t="n">
-        <v>254011</v>
+        <v>227930</v>
       </c>
       <c r="F26" t="n">
-        <v>181436</v>
+        <v>161100</v>
       </c>
       <c r="G26" t="n">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="H26" t="n">
-        <v>126356</v>
+        <v>126206</v>
       </c>
       <c r="I26" t="n">
-        <v>15.36201678228015</v>
+        <v>15.24564965479821</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3681711545203625</v>
+        <v>0.3709866079703445</v>
       </c>
       <c r="K26" t="n">
-        <v>1.152019941095649</v>
+        <v>1.256752661572447</v>
       </c>
       <c r="L26" t="n">
-        <v>306.7857142857143</v>
+        <v>308.9370078740158</v>
       </c>
       <c r="M26" t="n">
-        <v>20.1986609051042</v>
+        <v>20.06575852957733</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2581,105 +2591,109 @@
         <v>60.12</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8248244438340584</v>
+        <v>0.8329779853683159</v>
       </c>
       <c r="R26" t="n">
-        <v>0.4463647886726108</v>
+        <v>0.4453756348857719</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>1.14505117943573</v>
+        <v>1.175359044474089</v>
       </c>
       <c r="X26" t="n">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
-        <v>8.926964901960785</v>
+        <v>9.109334158730158</v>
       </c>
       <c r="AA26" t="n">
-        <v>123416.9352806504</v>
+        <v>116758.9964281686</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.7251990803092957</v>
+        <v>0.6971946038087771</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boeing </t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>737-200C</t>
+          <t>B787-900 Dreamliner</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1968</v>
+        <v>2014</v>
       </c>
       <c r="E27" t="n">
-        <v>58105</v>
+        <v>254011</v>
       </c>
       <c r="F27" t="n">
-        <v>44905</v>
+        <v>181436</v>
       </c>
       <c r="G27" t="n">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="H27" t="n">
-        <v>22600</v>
+        <v>126356</v>
       </c>
       <c r="I27" t="n">
-        <v>22.76311802988742</v>
+        <v>15.36201678228015</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2485409918338964</v>
+        <v>0.3681711545203625</v>
       </c>
       <c r="K27" t="n">
-        <v>2.404629454850812</v>
+        <v>1.152019941095649</v>
       </c>
       <c r="L27" t="n">
-        <v>211.9705882352941</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
-        <v>5.988823594024605</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.06643831655464581</v>
-      </c>
+        <v>306.7857142857143</v>
+      </c>
+      <c r="M27" t="n">
+        <v>20.1986609051042</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>23.35</v>
-      </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+        <v>60.12</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.8248244438340584</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.4463647886726108</v>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="W27" t="n">
+        <v>1.14505117943573</v>
+      </c>
       <c r="X27" t="n">
-        <v>108</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>11.28</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
-        <v>1.045</v>
+        <v>8.926964901960785</v>
       </c>
       <c r="AA27" t="n">
-        <v>59227.28086090866</v>
-      </c>
-      <c r="AB27" t="inlineStr"/>
+        <v>123416.9352806504</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.7251990803092957</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2689,7 +2703,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>737-800</t>
+          <t>737-200C</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2698,80 +2712,62 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1998</v>
+        <v>1968</v>
       </c>
       <c r="E28" t="n">
-        <v>79015</v>
+        <v>58105</v>
       </c>
       <c r="F28" t="n">
-        <v>62731</v>
+        <v>44905</v>
       </c>
       <c r="G28" t="n">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="H28" t="n">
-        <v>26024</v>
+        <v>22600</v>
       </c>
       <c r="I28" t="n">
-        <v>17.72499222979877</v>
+        <v>22.76311802988742</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3190913406792529</v>
+        <v>0.2485409918338964</v>
       </c>
       <c r="K28" t="n">
-        <v>1.119767569977147</v>
+        <v>2.404629454850812</v>
       </c>
       <c r="L28" t="n">
-        <v>217.6984126984127</v>
-      </c>
-      <c r="M28" t="n">
-        <v>15.32589603475716</v>
-      </c>
+        <v>211.9705882352941</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>10.28028972712681</v>
+        <v>5.988823594024605</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03870390507378649</v>
+        <v>0.06643831655464581</v>
       </c>
       <c r="P28" t="n">
-        <v>35.79</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.761018288428509</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.4193087152203254</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.5404022118139264</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.03526453420668706</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.01130287752210999</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0.02396165668457707</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.025375544030074</v>
-      </c>
+        <v>23.35</v>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="n">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.57</v>
+        <v>11.28</v>
       </c>
       <c r="Z28" t="n">
-        <v>5.132291666666666</v>
+        <v>1.045</v>
       </c>
       <c r="AA28" t="n">
-        <v>54584.23347610084</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0.8843185908830796</v>
-      </c>
+        <v>59227.28086090866</v>
+      </c>
+      <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2781,7 +2777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>737-900</t>
+          <t>737-800</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2790,13 +2786,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="E29" t="n">
         <v>79015</v>
       </c>
       <c r="F29" t="n">
-        <v>63639</v>
+        <v>62731</v>
       </c>
       <c r="G29" t="n">
         <v>189</v>
@@ -2805,19 +2801,19 @@
         <v>26024</v>
       </c>
       <c r="I29" t="n">
-        <v>17.71642473670745</v>
+        <v>17.72499222979877</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3192487225991766</v>
+        <v>0.3190913406792529</v>
       </c>
       <c r="K29" t="n">
-        <v>1.044394367241605</v>
+        <v>1.119767569977147</v>
       </c>
       <c r="L29" t="n">
-        <v>224.8306878306878</v>
+        <v>217.6984126984127</v>
       </c>
       <c r="M29" t="n">
-        <v>15.43973862959746</v>
+        <v>15.32589603475716</v>
       </c>
       <c r="N29" t="n">
         <v>10.28028972712681</v>
@@ -2829,40 +2825,40 @@
         <v>35.79</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7286528646143199</v>
+        <v>0.761018288428509</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4381534170466246</v>
+        <v>0.4193087152203254</v>
       </c>
       <c r="S29" t="n">
         <v>0.5404022118139264</v>
       </c>
       <c r="T29" t="n">
-        <v>0.03500485334004556</v>
+        <v>0.03526453420668706</v>
       </c>
       <c r="U29" t="n">
         <v>0.01130287752210999</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02370197581793557</v>
+        <v>0.02396165668457707</v>
       </c>
       <c r="W29" t="n">
-        <v>1.033776048227667</v>
+        <v>1.025375544030074</v>
       </c>
       <c r="X29" t="n">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="Y29" t="n">
         <v>12.57</v>
       </c>
       <c r="Z29" t="n">
-        <v>5.144374999999999</v>
+        <v>5.132291666666666</v>
       </c>
       <c r="AA29" t="n">
-        <v>64729.8892720201</v>
+        <v>54584.23347610084</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.9572000446552472</v>
+        <v>0.8843185908830796</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2869,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>737-900ER</t>
+          <t>737-900</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2882,34 +2878,34 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E30" t="n">
-        <v>85139</v>
+        <v>79015</v>
       </c>
       <c r="F30" t="n">
-        <v>67721</v>
+        <v>63639</v>
       </c>
       <c r="G30" t="n">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="H30" t="n">
         <v>26024</v>
       </c>
       <c r="I30" t="n">
-        <v>17.73490260050415</v>
+        <v>17.71642473670745</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3189133396107299</v>
+        <v>0.3192487225991766</v>
       </c>
       <c r="K30" t="n">
-        <v>1.005997360734154</v>
+        <v>1.044394367241605</v>
       </c>
       <c r="L30" t="n">
-        <v>203.0772727272727</v>
+        <v>224.8306878306878</v>
       </c>
       <c r="M30" t="n">
-        <v>13.97840507939378</v>
+        <v>15.43973862959746</v>
       </c>
       <c r="N30" t="n">
         <v>10.28028972712681</v>
@@ -2921,40 +2917,40 @@
         <v>35.79</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7590907840056417</v>
+        <v>0.7286528646143199</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4201392042248431</v>
+        <v>0.4381534170466246</v>
       </c>
       <c r="S30" t="n">
-        <v>0.582281832132457</v>
+        <v>0.5404022118139264</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0416603532487946</v>
+        <v>0.03500485334004556</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01312264153321329</v>
+        <v>0.01130287752210999</v>
       </c>
       <c r="V30" t="n">
-        <v>0.02853771171558131</v>
+        <v>0.02370197581793557</v>
       </c>
       <c r="W30" t="n">
-        <v>1.127427684674653</v>
+        <v>1.033776048227667</v>
       </c>
       <c r="X30" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Y30" t="n">
         <v>12.57</v>
       </c>
       <c r="Z30" t="n">
-        <v>5.1359375</v>
+        <v>5.144374999999999</v>
       </c>
       <c r="AA30" t="n">
-        <v>55164.22753360885</v>
+        <v>64729.8892720201</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.9173161616216495</v>
+        <v>0.9572000446552472</v>
       </c>
     </row>
     <row r="31">
@@ -2965,88 +2961,88 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>747-100</t>
+          <t>737-900ER</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1970</v>
+        <v>2007</v>
       </c>
       <c r="E31" t="n">
-        <v>333400</v>
+        <v>85139</v>
       </c>
       <c r="F31" t="n">
-        <v>238816</v>
+        <v>67721</v>
       </c>
       <c r="G31" t="n">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="H31" t="n">
-        <v>178700</v>
+        <v>26024</v>
       </c>
       <c r="I31" t="n">
-        <v>17.41408489474545</v>
+        <v>17.73490260050415</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3247573528569764</v>
+        <v>0.3189133396107299</v>
       </c>
       <c r="K31" t="n">
-        <v>1.640815810720567</v>
+        <v>1.005997360734154</v>
       </c>
       <c r="L31" t="n">
-        <v>381.5984848484848</v>
+        <v>203.0772727272727</v>
       </c>
       <c r="M31" t="n">
-        <v>13.95658542963811</v>
+        <v>13.97840507939378</v>
       </c>
       <c r="N31" t="n">
-        <v>6.951389432485324</v>
+        <v>10.28028972712681</v>
       </c>
       <c r="O31" t="n">
-        <v>0.05723853649607458</v>
+        <v>0.03870390507378649</v>
       </c>
       <c r="P31" t="n">
-        <v>59.6</v>
+        <v>35.79</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.7842478431643133</v>
+        <v>0.7590907840056417</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4141017816278187</v>
+        <v>0.4201392042248431</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5559726764356511</v>
+        <v>0.582281832132457</v>
       </c>
       <c r="T31" t="n">
-        <v>0.03983636997597342</v>
+        <v>0.0416603532487946</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01769275313653476</v>
+        <v>0.01312264153321329</v>
       </c>
       <c r="V31" t="n">
-        <v>0.02214361683943865</v>
+        <v>0.02853771171558131</v>
       </c>
       <c r="W31" t="n">
-        <v>1.607596036522946</v>
+        <v>1.127427684674653</v>
       </c>
       <c r="X31" t="n">
-        <v>405</v>
+        <v>179</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.3</v>
+        <v>12.57</v>
       </c>
       <c r="Z31" t="n">
-        <v>5.01875</v>
+        <v>5.1359375</v>
       </c>
       <c r="AA31" t="n">
-        <v>235054.4768945164</v>
+        <v>55164.22753360885</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.479719079072257</v>
+        <v>0.9173161616216495</v>
       </c>
     </row>
     <row r="32">
@@ -3057,7 +3053,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>747SP</t>
+          <t>747-100</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3066,31 +3062,35 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="E32" t="n">
-        <v>315700</v>
+        <v>333400</v>
       </c>
       <c r="F32" t="n">
-        <v>192776</v>
+        <v>238816</v>
       </c>
       <c r="G32" t="n">
-        <v>400</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
+        <v>440</v>
+      </c>
+      <c r="H32" t="n">
+        <v>178700</v>
+      </c>
       <c r="I32" t="n">
-        <v>17.50092047553409</v>
+        <v>17.41408489474545</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3231644522448556</v>
+        <v>0.3247573528569764</v>
       </c>
       <c r="K32" t="n">
-        <v>2.226865704690404</v>
+        <v>1.640815810720567</v>
       </c>
       <c r="L32" t="n">
-        <v>378.625</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>381.5984848484848</v>
+      </c>
+      <c r="M32" t="n">
+        <v>13.95658542963811</v>
+      </c>
       <c r="N32" t="n">
         <v>6.951389432485324</v>
       </c>
@@ -3101,29 +3101,41 @@
         <v>59.6</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.7903112100875538</v>
+        <v>0.7842478431643133</v>
       </c>
       <c r="R32" t="n">
-        <v>0.4090470358271433</v>
-      </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+        <v>0.4141017816278187</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5559726764356511</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.03983636997597342</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.01769275313653476</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.02214361683943865</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.607596036522946</v>
+      </c>
       <c r="X32" t="n">
-        <v>248</v>
+        <v>405</v>
       </c>
       <c r="Y32" t="n">
-        <v>20.2</v>
+        <v>19.3</v>
       </c>
       <c r="Z32" t="n">
-        <v>4.6275</v>
+        <v>5.01875</v>
       </c>
       <c r="AA32" t="n">
-        <v>199548.9932938909</v>
-      </c>
-      <c r="AB32" t="inlineStr"/>
+        <v>235054.4768945164</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.479719079072257</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3133,75 +3145,73 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>757-300</t>
+          <t>747SP</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1999</v>
+        <v>1976</v>
       </c>
       <c r="E33" t="n">
-        <v>123830</v>
+        <v>315700</v>
       </c>
       <c r="F33" t="n">
-        <v>95254</v>
+        <v>192776</v>
       </c>
       <c r="G33" t="n">
-        <v>295</v>
+        <v>400</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>17.4551072122684</v>
+        <v>17.50092047553409</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3242209731038365</v>
+        <v>0.3231644522448556</v>
       </c>
       <c r="K33" t="n">
-        <v>1.110620770707444</v>
+        <v>2.226865704690404</v>
       </c>
       <c r="L33" t="n">
-        <v>218.1949152542372</v>
-      </c>
-      <c r="M33" t="n">
-        <v>15.41113811920375</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+        <v>378.625</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
+        <v>6.951389432485324</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.05723853649607458</v>
+      </c>
       <c r="P33" t="n">
-        <v>38.02</v>
+        <v>59.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.789639072594802</v>
+        <v>0.7903112100875538</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4111482293692846</v>
+        <v>0.4090470358271433</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="n">
-        <v>1.174656786481714</v>
-      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="n">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.6</v>
+        <v>20.2</v>
       </c>
       <c r="Z33" t="n">
-        <v>4.743</v>
+        <v>4.6275</v>
       </c>
       <c r="AA33" t="n">
-        <v>85293.06457440818</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0.9038884424791493</v>
-      </c>
+        <v>199548.9932938909</v>
+      </c>
+      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3211,86 +3221,74 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>767-400/ER</t>
+          <t>757-300</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E34" t="n">
-        <v>204116</v>
+        <v>123830</v>
       </c>
       <c r="F34" t="n">
-        <v>149685</v>
+        <v>95254</v>
       </c>
       <c r="G34" t="n">
-        <v>375</v>
+        <v>295</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>17.06938157570028</v>
+        <v>17.4551072122684</v>
       </c>
       <c r="J34" t="n">
-        <v>0.331311397375335</v>
+        <v>0.3242209731038365</v>
       </c>
       <c r="K34" t="n">
-        <v>1.335323623930043</v>
+        <v>1.110620770707444</v>
       </c>
       <c r="L34" t="n">
-        <v>275.6977777777777</v>
+        <v>218.1949152542372</v>
       </c>
       <c r="M34" t="n">
-        <v>17.50401961540488</v>
-      </c>
-      <c r="N34" t="n">
-        <v>17.21442922374429</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.02311359572589966</v>
-      </c>
+        <v>15.41113811920375</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>61.4</v>
+        <v>38.02</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.7771188768530045</v>
+        <v>0.789639072594802</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4263329681515433</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.7942466806223587</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.04537510229498148</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0.01458069850331794</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.03079440379166353</v>
-      </c>
+        <v>0.4111482293692846</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="n">
-        <v>1.305531264304784</v>
+        <v>1.174656786481714</v>
       </c>
       <c r="X34" t="n">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.8</v>
+        <v>13.6</v>
       </c>
       <c r="Z34" t="n">
-        <v>5.1</v>
+        <v>4.743</v>
       </c>
       <c r="AA34" t="n">
-        <v>115566.7293916298</v>
+        <v>85293.06457440818</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.8668727594983766</v>
+        <v>0.9038884424791493</v>
       </c>
     </row>
     <row r="35">
@@ -3301,7 +3299,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>777-300/300ER/333ER</t>
+          <t>767-400/ER</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3310,77 +3308,77 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="E35" t="n">
-        <v>319782</v>
+        <v>204116</v>
       </c>
       <c r="F35" t="n">
-        <v>232239</v>
+        <v>149685</v>
       </c>
       <c r="G35" t="n">
-        <v>550</v>
+        <v>375</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>16.81481451040719</v>
+        <v>17.06938157570028</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3364433769825322</v>
+        <v>0.331311397375335</v>
       </c>
       <c r="K35" t="n">
-        <v>1.45127382838302</v>
+        <v>1.335323623930043</v>
       </c>
       <c r="L35" t="n">
-        <v>289.2454545454545</v>
+        <v>275.6977777777777</v>
       </c>
       <c r="M35" t="n">
-        <v>20.16624059508982</v>
+        <v>17.50401961540488</v>
       </c>
       <c r="N35" t="n">
-        <v>9.242461430575036</v>
+        <v>17.21442922374429</v>
       </c>
       <c r="O35" t="n">
-        <v>0.04321601829393999</v>
+        <v>0.02311359572589966</v>
       </c>
       <c r="P35" t="n">
-        <v>62.85</v>
+        <v>61.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.8002115638803728</v>
+        <v>0.7771188768530045</v>
       </c>
       <c r="R35" t="n">
-        <v>0.4205173777927553</v>
+        <v>0.4263329681515433</v>
       </c>
       <c r="S35" t="n">
-        <v>0.7002416387129491</v>
+        <v>0.7942466806223587</v>
       </c>
       <c r="T35" t="n">
-        <v>0.03473544673389188</v>
+        <v>0.04537510229498148</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02119047121563732</v>
+        <v>0.01458069850331794</v>
       </c>
       <c r="V35" t="n">
-        <v>0.01354497551825456</v>
+        <v>0.03079440379166353</v>
       </c>
       <c r="W35" t="n">
-        <v>1.362634274000017</v>
+        <v>1.305531264304784</v>
       </c>
       <c r="X35" t="n">
-        <v>329</v>
+        <v>249</v>
       </c>
       <c r="Y35" t="n">
-        <v>18.5</v>
+        <v>16.8</v>
       </c>
       <c r="Z35" t="n">
-        <v>6.571666666666667</v>
+        <v>5.1</v>
       </c>
       <c r="AA35" t="n">
-        <v>169077.3922160371</v>
+        <v>115566.7293916298</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.815103047538192</v>
+        <v>0.8668727594983766</v>
       </c>
     </row>
     <row r="36">
@@ -3391,7 +3389,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>787-10 Dreamliner</t>
+          <t>777-300/300ER/333ER</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3400,65 +3398,77 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="E36" t="n">
-        <v>254011</v>
+        <v>319782</v>
       </c>
       <c r="F36" t="n">
-        <v>192777</v>
+        <v>232239</v>
       </c>
       <c r="G36" t="n">
-        <v>440</v>
-      </c>
-      <c r="H36" t="n">
-        <v>126356</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>15.52666529587989</v>
+        <v>16.81481451040719</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3642643001230519</v>
+        <v>0.3364433769825322</v>
       </c>
       <c r="K36" t="n">
-        <v>1.005809122765289</v>
+        <v>1.45127382838302</v>
       </c>
       <c r="L36" t="n">
-        <v>307.9545454545454</v>
+        <v>289.2454545454545</v>
       </c>
       <c r="M36" t="n">
-        <v>20.28002446658645</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+        <v>20.16624059508982</v>
+      </c>
+      <c r="N36" t="n">
+        <v>9.242461430575036</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.04321601829393999</v>
+      </c>
       <c r="P36" t="n">
-        <v>60.12</v>
+        <v>62.85</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.8233557883205939</v>
+        <v>0.8002115638803728</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4424139804157159</v>
-      </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+        <v>0.4205173777927553</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7002416387129491</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.03473544673389188</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.02119047121563732</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.01354497551825456</v>
+      </c>
       <c r="W36" t="n">
-        <v>0.9950608429392854</v>
+        <v>1.362634274000017</v>
       </c>
       <c r="X36" t="n">
-        <v>318</v>
-      </c>
-      <c r="Y36" t="inlineStr"/>
+        <v>329</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>18.5</v>
+      </c>
       <c r="Z36" t="n">
-        <v>8.697134444444444</v>
+        <v>6.571666666666667</v>
       </c>
       <c r="AA36" t="n">
-        <v>124313.2037511073</v>
+        <v>169077.3922160371</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.7191576092152108</v>
+        <v>0.815103047538192</v>
       </c>
     </row>
     <row r="37">
@@ -3469,77 +3479,75 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B707-100B/300</t>
+          <t>787-10 Dreamliner</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1959</v>
+        <v>2018</v>
       </c>
       <c r="E37" t="n">
-        <v>117027</v>
+        <v>254011</v>
       </c>
       <c r="F37" t="n">
-        <v>77111</v>
+        <v>192777</v>
       </c>
       <c r="G37" t="n">
-        <v>189</v>
+        <v>440</v>
       </c>
       <c r="H37" t="n">
-        <v>58398</v>
+        <v>126356</v>
       </c>
       <c r="I37" t="n">
-        <v>28.1765</v>
+        <v>15.52666529587989</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2007091250573371</v>
+        <v>0.3642643001230519</v>
       </c>
       <c r="K37" t="n">
-        <v>3.0372</v>
+        <v>1.005809122765289</v>
       </c>
       <c r="L37" t="n">
-        <v>305.8201058201058</v>
+        <v>307.9545454545454</v>
       </c>
       <c r="M37" t="n">
-        <v>15.8095</v>
-      </c>
-      <c r="N37" t="n">
-        <v>7.03723185840708</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.05654032235052754</v>
-      </c>
+        <v>20.28002446658645</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>39.88</v>
-      </c>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
-        <v>0.4401349609961392</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.02622068246631412</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0.01095292248655345</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0.01526775997976068</v>
-      </c>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="n">
-        <v>11.79</v>
-      </c>
+        <v>60.12</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.8233557883205939</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.4424139804157159</v>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="n">
+        <v>0.9950608429392854</v>
+      </c>
+      <c r="X37" t="n">
+        <v>318</v>
+      </c>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
+        <v>8.697134444444444</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>124313.2037511073</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7191576092152108</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3549,7 +3557,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B727-200/231A</t>
+          <t>B707-100B/300</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3558,55 +3566,67 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1967</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+        <v>1959</v>
+      </c>
+      <c r="E38" t="n">
+        <v>117027</v>
+      </c>
+      <c r="F38" t="n">
+        <v>77111</v>
+      </c>
       <c r="G38" t="n">
         <v>189</v>
       </c>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>58398</v>
+      </c>
       <c r="I38" t="n">
-        <v>23.0569655376551</v>
+        <v>28.1765</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2454621834109177</v>
+        <v>0.2007091250573371</v>
       </c>
       <c r="K38" t="n">
-        <v>2.128743856018835</v>
+        <v>3.0372</v>
       </c>
       <c r="L38" t="n">
-        <v>240.7019400352734</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>305.8201058201058</v>
+      </c>
+      <c r="M38" t="n">
+        <v>15.8095</v>
+      </c>
       <c r="N38" t="n">
-        <v>7.083179084967321</v>
+        <v>7.03723185840708</v>
       </c>
       <c r="O38" t="n">
-        <v>0.05617355610479727</v>
+        <v>0.05654032235052754</v>
       </c>
       <c r="P38" t="n">
-        <v>32.92</v>
+        <v>39.88</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="S38" t="n">
+        <v>0.4401349609961392</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.02622068246631412</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.01095292248655345</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.01526775997976068</v>
+      </c>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="n">
-        <v>150</v>
-      </c>
+      <c r="X38" t="inlineStr"/>
       <c r="Y38" t="n">
-        <v>10.65</v>
+        <v>11.79</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.026923076923077</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>73527.22856566517</v>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -3617,7 +3637,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B737 Max 800</t>
+          <t>B727-200/231A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3626,80 +3646,56 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E39" t="n">
-        <v>82645</v>
-      </c>
-      <c r="F39" t="n">
-        <v>65952</v>
-      </c>
+        <v>1967</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>210</v>
-      </c>
-      <c r="H39" t="n">
-        <v>25817</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>15.7290159675477</v>
+        <v>23.0569655376551</v>
       </c>
       <c r="J39" t="n">
-        <v>0.359547726986659</v>
+        <v>0.2454621834109177</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8953661112939827</v>
+        <v>2.128743856018835</v>
       </c>
       <c r="L39" t="n">
-        <v>214.5952380952381</v>
-      </c>
-      <c r="M39" t="n">
-        <v>18.48175331461054</v>
-      </c>
+        <v>240.7019400352734</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>10.15942047244095</v>
+        <v>7.083179084967321</v>
       </c>
       <c r="O39" t="n">
-        <v>0.03916437544927601</v>
+        <v>0.05617355610479727</v>
       </c>
       <c r="P39" t="n">
-        <v>35.92</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.8014892422095463</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.4486005365736526</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.5545384462092253</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0.03000491700084017</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0.01204355021381798</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0.0179613667870222</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0.8353390780716035</v>
-      </c>
+        <v>32.92</v>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="n">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="Y39" t="n">
-        <v>12.29</v>
+        <v>10.65</v>
       </c>
       <c r="Z39" t="n">
-        <v>8.435416666666667</v>
+        <v>1.026923076923077</v>
       </c>
       <c r="AA39" t="n">
-        <v>55505.42800502713</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0.6802046778583057</v>
-      </c>
+        <v>73527.22856566517</v>
+      </c>
+      <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3709,7 +3705,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B737 Max 900</t>
+          <t>B737 Max 800</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3718,32 +3714,34 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E40" t="n">
-        <v>88314</v>
+        <v>82645</v>
       </c>
       <c r="F40" t="n">
-        <v>70987</v>
+        <v>65952</v>
       </c>
       <c r="G40" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H40" t="n">
         <v>25817</v>
       </c>
       <c r="I40" t="n">
-        <v>15.75412077408917</v>
+        <v>15.7290159675477</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3589721900204884</v>
+        <v>0.359547726986659</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8889188737585035</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
+        <v>0.8953661112939827</v>
+      </c>
+      <c r="L40" t="n">
+        <v>214.5952380952381</v>
+      </c>
       <c r="M40" t="n">
-        <v>18.50529129800786</v>
+        <v>18.48175331461054</v>
       </c>
       <c r="N40" t="n">
         <v>10.15942047244095</v>
@@ -3755,40 +3753,40 @@
         <v>35.92</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.8192808601885971</v>
+        <v>0.8014892422095463</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4381554003371571</v>
+        <v>0.4486005365736526</v>
       </c>
       <c r="S40" t="n">
-        <v>0.5925830706747321</v>
+        <v>0.5545384462092253</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03202241829713531</v>
+        <v>0.03000491700084017</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01375275434122439</v>
+        <v>0.01204355021381798</v>
       </c>
       <c r="V40" t="n">
-        <v>0.01826966395591093</v>
+        <v>0.0179613667870222</v>
       </c>
       <c r="W40" t="n">
-        <v>0.8795860416327073</v>
+        <v>0.8353390780716035</v>
       </c>
       <c r="X40" t="n">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Y40" t="n">
         <v>12.29</v>
       </c>
       <c r="Z40" t="n">
-        <v>8.447222222222223</v>
+        <v>8.435416666666667</v>
       </c>
       <c r="AA40" t="n">
-        <v>49433.32369637736</v>
+        <v>55505.42800502713</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.7116650700482813</v>
+        <v>0.6802046778583057</v>
       </c>
     </row>
     <row r="41">
@@ -3799,7 +3797,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B737-100/200</t>
+          <t>B737 Max 900</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3808,75 +3806,77 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1967</v>
+        <v>2018</v>
       </c>
       <c r="E41" t="n">
-        <v>58105</v>
+        <v>88314</v>
       </c>
       <c r="F41" t="n">
-        <v>44905</v>
+        <v>70987</v>
       </c>
       <c r="G41" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H41" t="n">
-        <v>20250</v>
+        <v>25817</v>
       </c>
       <c r="I41" t="n">
-        <v>22.76311802988742</v>
+        <v>15.75412077408917</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2485409918338964</v>
+        <v>0.3589721900204884</v>
       </c>
       <c r="K41" t="n">
-        <v>2.055448959277904</v>
-      </c>
-      <c r="L41" t="n">
-        <v>211.1230769230769</v>
-      </c>
+        <v>0.8889188737585035</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>12.31634358413363</v>
+        <v>18.50529129800786</v>
       </c>
       <c r="N41" t="n">
-        <v>5.988823594024605</v>
+        <v>10.15942047244095</v>
       </c>
       <c r="O41" t="n">
-        <v>0.06643831655464581</v>
+        <v>0.03916437544927601</v>
       </c>
       <c r="P41" t="n">
-        <v>23.35</v>
-      </c>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+        <v>35.92</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.8192808601885971</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.4381554003371571</v>
+      </c>
       <c r="S41" t="n">
-        <v>0.4670328679992338</v>
+        <v>0.5925830706747321</v>
       </c>
       <c r="T41" t="n">
-        <v>0.03793510270197666</v>
+        <v>0.03202241829713531</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01449150566155796</v>
+        <v>0.01375275434122439</v>
       </c>
       <c r="V41" t="n">
-        <v>0.02344359704041869</v>
+        <v>0.01826966395591093</v>
       </c>
       <c r="W41" t="n">
-        <v>1.848998853040951</v>
+        <v>0.8795860416327073</v>
       </c>
       <c r="X41" t="n">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="Y41" t="n">
-        <v>11.28</v>
+        <v>12.29</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.045</v>
+        <v>8.447222222222223</v>
       </c>
       <c r="AA41" t="n">
-        <v>52000.1441749647</v>
+        <v>49433.32369637736</v>
       </c>
       <c r="AB41" t="n">
-        <v>1.550314422934336</v>
+        <v>0.7116650700482813</v>
       </c>
     </row>
     <row r="42">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>B737-400</t>
+          <t>B737-100/200</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3896,79 +3896,75 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1988</v>
+        <v>1967</v>
       </c>
       <c r="E42" t="n">
-        <v>68038</v>
+        <v>58105</v>
       </c>
       <c r="F42" t="n">
-        <v>53070</v>
+        <v>44905</v>
       </c>
       <c r="G42" t="n">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="H42" t="n">
-        <v>20100</v>
+        <v>20250</v>
       </c>
       <c r="I42" t="n">
-        <v>18.01149478558387</v>
+        <v>22.76311802988742</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3139826622719162</v>
+        <v>0.2485409918338964</v>
       </c>
       <c r="K42" t="n">
-        <v>1.385801233313683</v>
+        <v>2.055448959277904</v>
       </c>
       <c r="L42" t="n">
-        <v>184.5505319148936</v>
+        <v>211.1230769230769</v>
       </c>
       <c r="M42" t="n">
-        <v>12.92183295383661</v>
+        <v>12.31634358413363</v>
       </c>
       <c r="N42" t="n">
-        <v>9.16140597539543</v>
+        <v>5.988823594024605</v>
       </c>
       <c r="O42" t="n">
-        <v>0.04343081823885274</v>
+        <v>0.06643831655464581</v>
       </c>
       <c r="P42" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.7507617447514432</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.4182191598730574</v>
-      </c>
+        <v>23.35</v>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="n">
-        <v>0.6368630018171373</v>
+        <v>0.4670328679992338</v>
       </c>
       <c r="T42" t="n">
-        <v>0.04928595296410715</v>
+        <v>0.03793510270197666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01761530027348244</v>
+        <v>0.01449150566155796</v>
       </c>
       <c r="V42" t="n">
-        <v>0.03167065269062471</v>
+        <v>0.02344359704041869</v>
       </c>
       <c r="W42" t="n">
-        <v>1.300332435026857</v>
+        <v>1.848998853040951</v>
       </c>
       <c r="X42" t="n">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="Y42" t="n">
-        <v>11.13</v>
+        <v>11.28</v>
       </c>
       <c r="Z42" t="n">
-        <v>5.1</v>
+        <v>1.045</v>
       </c>
       <c r="AA42" t="n">
-        <v>55491.06311528273</v>
+        <v>52000.1441749647</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.9890826500470241</v>
+        <v>1.550314422934336</v>
       </c>
     </row>
     <row r="43">
@@ -3979,88 +3975,88 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B747-200/300</t>
+          <t>B737-400</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1970</v>
+        <v>1988</v>
       </c>
       <c r="E43" t="n">
-        <v>377842</v>
+        <v>68038</v>
       </c>
       <c r="F43" t="n">
-        <v>250447</v>
+        <v>53070</v>
       </c>
       <c r="G43" t="n">
-        <v>550</v>
+        <v>188</v>
       </c>
       <c r="H43" t="n">
-        <v>194851.4285714286</v>
+        <v>20100</v>
       </c>
       <c r="I43" t="n">
-        <v>17.49683082336579</v>
+        <v>18.01149478558387</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3232910205483346</v>
+        <v>0.3139826622719162</v>
       </c>
       <c r="K43" t="n">
-        <v>1.794428297949458</v>
+        <v>1.385801233313683</v>
       </c>
       <c r="L43" t="n">
-        <v>312.4242424242424</v>
+        <v>184.5505319148936</v>
       </c>
       <c r="M43" t="n">
-        <v>12.82593792052425</v>
+        <v>12.92183295383661</v>
       </c>
       <c r="N43" t="n">
-        <v>6.951389432485324</v>
+        <v>9.16140597539543</v>
       </c>
       <c r="O43" t="n">
-        <v>0.05723853649607458</v>
+        <v>0.04343081823885274</v>
       </c>
       <c r="P43" t="n">
-        <v>59.60000000000001</v>
+        <v>28.88</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7520237112820524</v>
+        <v>0.7507617447514432</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4300572948760897</v>
+        <v>0.4182191598730574</v>
       </c>
       <c r="S43" t="n">
-        <v>0.601358201042643</v>
+        <v>0.6368630018171373</v>
       </c>
       <c r="T43" t="n">
-        <v>0.04689677479454457</v>
+        <v>0.04928595296410715</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02069926845502964</v>
+        <v>0.01761530027348244</v>
       </c>
       <c r="V43" t="n">
-        <v>0.02619750633951493</v>
+        <v>0.03167065269062471</v>
       </c>
       <c r="W43" t="n">
-        <v>1.96228034370375</v>
+        <v>1.300332435026857</v>
       </c>
       <c r="X43" t="n">
-        <v>391</v>
+        <v>143</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.14285714285714</v>
+        <v>11.13</v>
       </c>
       <c r="Z43" t="n">
-        <v>4.620535714285714</v>
+        <v>5.1</v>
       </c>
       <c r="AA43" t="n">
-        <v>248451.1329570788</v>
+        <v>55491.06311528273</v>
       </c>
       <c r="AB43" t="n">
-        <v>1.395002935251211</v>
+        <v>0.9890826500470241</v>
       </c>
     </row>
     <row r="44">
@@ -4071,7 +4067,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B747-400</t>
+          <t>B747-200/300</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4080,77 +4076,79 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1989</v>
+        <v>1970</v>
       </c>
       <c r="E44" t="n">
-        <v>396893</v>
+        <v>377842</v>
       </c>
       <c r="F44" t="n">
-        <v>246754</v>
+        <v>250447</v>
       </c>
       <c r="G44" t="n">
         <v>550</v>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>194851.4285714286</v>
+      </c>
       <c r="I44" t="n">
-        <v>17.36719498633941</v>
+        <v>17.49683082336579</v>
       </c>
       <c r="J44" t="n">
-        <v>0.3257661737127919</v>
+        <v>0.3232910205483346</v>
       </c>
       <c r="K44" t="n">
-        <v>1.577330583980868</v>
+        <v>1.794428297949458</v>
       </c>
       <c r="L44" t="n">
-        <v>329.3181818181818</v>
+        <v>312.4242424242424</v>
       </c>
       <c r="M44" t="n">
-        <v>16.86747232019076</v>
+        <v>12.82593792052425</v>
       </c>
       <c r="N44" t="n">
-        <v>7.813733686105675</v>
+        <v>6.951389432485324</v>
       </c>
       <c r="O44" t="n">
-        <v>0.05099806455822468</v>
+        <v>0.05723853649607458</v>
       </c>
       <c r="P44" t="n">
-        <v>63.956</v>
+        <v>59.60000000000001</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.7395138423860185</v>
+        <v>0.7520237112820524</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4404893313848488</v>
+        <v>0.4300572948760897</v>
       </c>
       <c r="S44" t="n">
-        <v>0.6459873002395184</v>
+        <v>0.601358201042643</v>
       </c>
       <c r="T44" t="n">
-        <v>0.03831720623443752</v>
+        <v>0.04689677479454457</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02129728718926171</v>
+        <v>0.02069926845502964</v>
       </c>
       <c r="V44" t="n">
-        <v>0.01701991904517582</v>
+        <v>0.02619750633951493</v>
       </c>
       <c r="W44" t="n">
-        <v>1.567817459973697</v>
+        <v>1.96228034370375</v>
       </c>
       <c r="X44" t="n">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.4</v>
+        <v>18.14285714285714</v>
       </c>
       <c r="Z44" t="n">
-        <v>4.54</v>
+        <v>4.620535714285714</v>
       </c>
       <c r="AA44" t="n">
-        <v>260013.3369929212</v>
+        <v>248451.1329570788</v>
       </c>
       <c r="AB44" t="n">
-        <v>1.10032279918154</v>
+        <v>1.395002935251211</v>
       </c>
     </row>
     <row r="45">
@@ -4161,74 +4159,86 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B757-200</t>
+          <t>B747-400</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1984</v>
+        <v>1989</v>
       </c>
       <c r="E45" t="n">
-        <v>110033.8333333333</v>
+        <v>396893</v>
       </c>
       <c r="F45" t="n">
-        <v>84703</v>
+        <v>246754</v>
       </c>
       <c r="G45" t="n">
-        <v>239</v>
+        <v>550</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>17.58253515506082</v>
+        <v>17.36719498633941</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3219165041227023</v>
+        <v>0.3257661737127919</v>
       </c>
       <c r="K45" t="n">
-        <v>1.257618610959593</v>
+        <v>1.577330583980868</v>
       </c>
       <c r="L45" t="n">
-        <v>247.8242677824268</v>
+        <v>329.3181818181818</v>
       </c>
       <c r="M45" t="n">
-        <v>14.52627724288998</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+        <v>16.86747232019076</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.813733686105675</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.05099806455822468</v>
+      </c>
       <c r="P45" t="n">
-        <v>38.02</v>
+        <v>63.956</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.8156390731276918</v>
+        <v>0.7395138423860185</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3951373198775349</v>
-      </c>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+        <v>0.4404893313848488</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.6459873002395184</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.03831720623443752</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.02129728718926171</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.01701991904517582</v>
+      </c>
       <c r="W45" t="n">
-        <v>1.30972191201682</v>
+        <v>1.567817459973697</v>
       </c>
       <c r="X45" t="n">
-        <v>186</v>
+        <v>386</v>
       </c>
       <c r="Y45" t="n">
-        <v>13.74</v>
+        <v>19.4</v>
       </c>
       <c r="Z45" t="n">
-        <v>4.7025</v>
+        <v>4.54</v>
       </c>
       <c r="AA45" t="n">
-        <v>73284.27730044253</v>
+        <v>260013.3369929212</v>
       </c>
       <c r="AB45" t="n">
-        <v>1.01928148801309</v>
+        <v>1.10032279918154</v>
       </c>
     </row>
     <row r="46">
@@ -4239,74 +4249,74 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>B767-300/300ER</t>
+          <t>B757-200</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="E46" t="n">
-        <v>186880</v>
+        <v>110033.8333333333</v>
       </c>
       <c r="F46" t="n">
-        <v>133809</v>
+        <v>84703</v>
       </c>
       <c r="G46" t="n">
-        <v>351</v>
+        <v>239</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>17.11208018153209</v>
+        <v>17.58253515506082</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3306136802785303</v>
+        <v>0.3219165041227023</v>
       </c>
       <c r="K46" t="n">
-        <v>1.406321580860593</v>
+        <v>1.257618610959593</v>
       </c>
       <c r="L46" t="n">
-        <v>258.5660018993353</v>
+        <v>247.8242677824268</v>
       </c>
       <c r="M46" t="n">
-        <v>15.81791130409963</v>
+        <v>14.52627724288998</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>47.57</v>
+        <v>38.02</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.7872243253859215</v>
+        <v>0.8156390731276918</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4199653479632688</v>
+        <v>0.3951373198775349</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="n">
-        <v>1.322512080118051</v>
+        <v>1.30972191201682</v>
       </c>
       <c r="X46" t="n">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.85</v>
+        <v>13.74</v>
       </c>
       <c r="Z46" t="n">
-        <v>4.846153846153846</v>
+        <v>4.7025</v>
       </c>
       <c r="AA46" t="n">
-        <v>105769.5470134647</v>
+        <v>73284.27730044253</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.8590676759741186</v>
+        <v>1.01928148801309</v>
       </c>
     </row>
     <row r="47">
@@ -4317,7 +4327,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B777</t>
+          <t>B767-300/300ER</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4326,158 +4336,166 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1995</v>
+        <v>1987</v>
       </c>
       <c r="E47" t="n">
-        <v>304662.3333333333</v>
+        <v>186880</v>
       </c>
       <c r="F47" t="n">
-        <v>201923.5</v>
+        <v>133809</v>
       </c>
       <c r="G47" t="n">
-        <v>440</v>
+        <v>351</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>16.22484157407747</v>
+        <v>17.11208018153209</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3488367436162119</v>
+        <v>0.3306136802785303</v>
       </c>
       <c r="K47" t="n">
-        <v>1.503928611287193</v>
+        <v>1.406321580860593</v>
       </c>
       <c r="L47" t="n">
-        <v>322.9280303030303</v>
+        <v>258.5660018993353</v>
       </c>
       <c r="M47" t="n">
-        <v>19.61963655516449</v>
-      </c>
-      <c r="N47" t="n">
-        <v>8.860483870967741</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0.04500207380824862</v>
-      </c>
+        <v>15.81791130409963</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
-        <v>61.54999999999999</v>
+        <v>47.57</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.7958647119384074</v>
+        <v>0.7872243253859215</v>
       </c>
       <c r="R47" t="n">
-        <v>0.4384216332337696</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0.6921098003278955</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0.03530470332729688</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0.02155671229422802</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0.01374799103306886</v>
-      </c>
+        <v>0.4199653479632688</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>1.540685556401292</v>
+        <v>1.322512080118051</v>
       </c>
       <c r="X47" t="n">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="Y47" t="n">
-        <v>18.41666666666667</v>
+        <v>15.85</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.264416666666667</v>
+        <v>4.846153846153846</v>
       </c>
       <c r="AA47" t="n">
-        <v>166950.6603020956</v>
+        <v>105769.5470134647</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.9559253565853472</v>
+        <v>0.8590676759741186</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Canadair</t>
+          <t xml:space="preserve">Boeing </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RJ-200ER /RJ-440</t>
+          <t>B777</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="E48" t="n">
-        <v>21523</v>
+        <v>304662.3333333333</v>
       </c>
       <c r="F48" t="n">
-        <v>19142</v>
+        <v>201923.5</v>
       </c>
       <c r="G48" t="n">
-        <v>50</v>
-      </c>
-      <c r="H48" t="n">
-        <v>8082</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>17.28285017013491</v>
+        <v>16.22484157407747</v>
       </c>
       <c r="J48" t="n">
-        <v>0.327219214800027</v>
+        <v>0.3488367436162119</v>
       </c>
       <c r="K48" t="n">
-        <v>2.214675784779499</v>
+        <v>1.503928611287193</v>
       </c>
       <c r="L48" t="n">
-        <v>276.7</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
+        <v>322.9280303030303</v>
+      </c>
+      <c r="M48" t="n">
+        <v>19.61963655516449</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8.860483870967741</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.04500207380824862</v>
+      </c>
+      <c r="P48" t="n">
+        <v>61.54999999999999</v>
+      </c>
       <c r="Q48" t="n">
-        <v>0.6012646898344836</v>
+        <v>0.7958647119384074</v>
       </c>
       <c r="R48" t="n">
-        <v>0.544218245861243</v>
-      </c>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+        <v>0.4384216332337696</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.6921098003278955</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.03530470332729688</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.02155671229422802</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.01374799103306886</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.540685556401292</v>
+      </c>
       <c r="X48" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y48" t="inlineStr"/>
+        <v>273</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>18.41666666666667</v>
+      </c>
       <c r="Z48" t="n">
-        <v>6.25</v>
+        <v>7.264416666666667</v>
       </c>
       <c r="AA48" t="n">
-        <v>60183.58157575225</v>
-      </c>
-      <c r="AB48" t="inlineStr"/>
+        <v>166950.6603020956</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0.9559253565853472</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Canadair </t>
+          <t>Canadair</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CRJ 900</t>
+          <t>RJ-200ER /RJ-440</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4486,47 +4504,41 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="E49" t="n">
-        <v>36514</v>
+        <v>21523</v>
       </c>
       <c r="F49" t="n">
-        <v>31751</v>
+        <v>19142</v>
       </c>
       <c r="G49" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H49" t="n">
-        <v>10989</v>
+        <v>8082</v>
       </c>
       <c r="I49" t="n">
-        <v>18.1474420852141</v>
+        <v>17.28285017013491</v>
       </c>
       <c r="J49" t="n">
-        <v>0.311630334971966</v>
+        <v>0.327219214800027</v>
       </c>
       <c r="K49" t="n">
-        <v>1.632643866704311</v>
+        <v>2.214675784779499</v>
       </c>
       <c r="L49" t="n">
-        <v>238.1333333333333</v>
+        <v>276.7</v>
       </c>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
-        <v>8.720253164556961</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0.0456279594435322</v>
-      </c>
-      <c r="P49" t="n">
-        <v>24.9</v>
-      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="n">
-        <v>0.647704329972959</v>
+        <v>0.6012646898344836</v>
       </c>
       <c r="R49" t="n">
-        <v>0.4811310599806483</v>
+        <v>0.544218245861243</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
@@ -4534,16 +4546,14 @@
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="n">
-        <v>76</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>7.5</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="n">
-        <v>5.13</v>
+        <v>6.25</v>
       </c>
       <c r="AA49" t="n">
-        <v>53867.34395398862</v>
+        <v>60183.58157575225</v>
       </c>
       <c r="AB49" t="inlineStr"/>
     </row>
@@ -4555,7 +4565,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>RJ-700</t>
+          <t>CRJ 900</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4564,47 +4574,47 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="E50" t="n">
-        <v>32999</v>
+        <v>36514</v>
       </c>
       <c r="F50" t="n">
-        <v>28259</v>
+        <v>31751</v>
       </c>
       <c r="G50" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H50" t="n">
         <v>10989</v>
       </c>
       <c r="I50" t="n">
-        <v>17.97625309347459</v>
+        <v>18.1474420852141</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3145975014713791</v>
+        <v>0.311630334971966</v>
       </c>
       <c r="K50" t="n">
-        <v>1.811345791353538</v>
+        <v>1.632643866704311</v>
       </c>
       <c r="L50" t="n">
-        <v>274.7692307692308</v>
+        <v>238.1333333333333</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>7.623796033994335</v>
+        <v>8.720253164556961</v>
       </c>
       <c r="O50" t="n">
-        <v>0.05219018923848009</v>
+        <v>0.0456279594435322</v>
       </c>
       <c r="P50" t="n">
-        <v>23.2</v>
+        <v>24.9</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.7371660219209724</v>
+        <v>0.647704329972959</v>
       </c>
       <c r="R50" t="n">
-        <v>0.4267662364407256</v>
+        <v>0.4811310599806483</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -4612,28 +4622,28 @@
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="n">
-        <v>7.599999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="Z50" t="n">
         <v>5.13</v>
       </c>
       <c r="AA50" t="n">
-        <v>35311.07862111123</v>
+        <v>53867.34395398862</v>
       </c>
       <c r="AB50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Embraer</t>
+          <t xml:space="preserve">Canadair </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Embraer 190</t>
+          <t>RJ-700</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -4642,80 +4652,66 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="E51" t="n">
-        <v>51843.125</v>
+        <v>32999</v>
       </c>
       <c r="F51" t="n">
-        <v>44140.625</v>
+        <v>28259</v>
       </c>
       <c r="G51" t="n">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="H51" t="n">
-        <v>16347.75</v>
+        <v>10989</v>
       </c>
       <c r="I51" t="n">
-        <v>16.77016917536357</v>
+        <v>17.97625309347459</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3392881252903102</v>
+        <v>0.3145975014713791</v>
       </c>
       <c r="K51" t="n">
-        <v>1.712372106412916</v>
+        <v>1.811345791353538</v>
       </c>
       <c r="L51" t="n">
-        <v>226.7204301075269</v>
-      </c>
-      <c r="M51" t="n">
-        <v>28.96591815414082</v>
-      </c>
+        <v>274.7692307692308</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>9.754665681149657</v>
+        <v>7.623796033994335</v>
       </c>
       <c r="O51" t="n">
-        <v>0.04141733060561711</v>
+        <v>0.05219018923848009</v>
       </c>
       <c r="P51" t="n">
-        <v>30.545</v>
+        <v>23.2</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.7117598908588553</v>
+        <v>0.7371660219209724</v>
       </c>
       <c r="R51" t="n">
-        <v>0.4763098239510975</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0.4261887430888496</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0.01474556285043152</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0.007623417613506277</v>
-      </c>
-      <c r="V51" t="n">
-        <v>0.007122145236925239</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1.421547968975648</v>
-      </c>
+        <v>0.4267662364407256</v>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="n">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="Y51" t="n">
-        <v>10.605</v>
+        <v>7.599999999999999</v>
       </c>
       <c r="Z51" t="n">
-        <v>7.026875</v>
+        <v>5.13</v>
       </c>
       <c r="AA51" t="n">
-        <v>61088.37579710694</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>1.134945555875719</v>
-      </c>
+        <v>35311.07862111123</v>
+      </c>
+      <c r="AB51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4725,7 +4721,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Embraer-135</t>
+          <t>Embraer 190</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4734,45 +4730,47 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="E52" t="n">
-        <v>21096</v>
+        <v>51843.125</v>
       </c>
       <c r="F52" t="n">
-        <v>15840</v>
+        <v>44140.625</v>
       </c>
       <c r="G52" t="n">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="H52" t="n">
-        <v>8216.799999999999</v>
+        <v>16347.75</v>
       </c>
       <c r="I52" t="n">
-        <v>18.16621531661354</v>
+        <v>16.77016917536357</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3113135990720869</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+        <v>0.3392881252903102</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.712372106412916</v>
+      </c>
       <c r="L52" t="n">
-        <v>339.1891891891892</v>
+        <v>226.7204301075269</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>7.846846424384525</v>
+        <v>9.754665681149657</v>
       </c>
       <c r="O52" t="n">
-        <v>0.05070665796303604</v>
+        <v>0.04141733060561711</v>
       </c>
       <c r="P52" t="n">
-        <v>20.04</v>
+        <v>30.545</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.5445136717279478</v>
+        <v>0.7117598908588553</v>
       </c>
       <c r="R52" t="n">
-        <v>0.5717351067638586</v>
+        <v>0.4763098239510975</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -4780,16 +4778,16 @@
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="n">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="Y52" t="n">
-        <v>6.76</v>
+        <v>10.605</v>
       </c>
       <c r="Z52" t="n">
-        <v>4.762</v>
+        <v>7.026875</v>
       </c>
       <c r="AA52" t="n">
-        <v>58122.6644342903</v>
+        <v>61088.37579710694</v>
       </c>
       <c r="AB52" t="inlineStr"/>
     </row>
@@ -4801,7 +4799,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Embraer-140</t>
+          <t>Embraer-135</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4810,46 +4808,74 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+        <v>1999</v>
+      </c>
+      <c r="E53" t="n">
+        <v>21096</v>
+      </c>
+      <c r="F53" t="n">
+        <v>15840</v>
+      </c>
       <c r="G53" t="n">
-        <v>44</v>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="H53" t="n">
+        <v>8216.799999999999</v>
+      </c>
+      <c r="I53" t="n">
+        <v>18.16621531661354</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.3113135990720869</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>268.1818181818182</v>
+        <v>339.1891891891892</v>
       </c>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="N53" t="n">
+        <v>7.846846424384525</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.05070665796303604</v>
+      </c>
+      <c r="P53" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.5445136717279478</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.5717351067638586</v>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
+      <c r="X53" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>4.762</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>58122.6644342903</v>
+      </c>
       <c r="AB53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Embraer </t>
+          <t>Embraer</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>EMB-120 Brasilia</t>
+          <t>Embraer-140</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4858,19 +4884,19 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1985</v>
+        <v>2001</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>252</v>
+        <v>268.1818181818182</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -4897,7 +4923,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Embraer ERJ-175</t>
+          <t>EMB-120 Brasilia</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4906,65 +4932,35 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E55" t="n">
-        <v>37500</v>
-      </c>
-      <c r="F55" t="n">
-        <v>31700</v>
-      </c>
+        <v>1985</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
-        <v>88</v>
-      </c>
-      <c r="H55" t="n">
-        <v>11625</v>
-      </c>
-      <c r="I55" t="n">
-        <v>18.19340342917936</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.3108455349745253</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1.431502217381948</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>247.8409090909091</v>
+        <v>252</v>
       </c>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
-        <v>11.28743811881188</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0.03525045750342684</v>
-      </c>
-      <c r="P55" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0.7278831819159528</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0.4270556565750555</v>
-      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
-      <c r="X55" t="n">
-        <v>75</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>37024.53501579123</v>
-      </c>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -4975,7 +4971,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Embraer-145</t>
+          <t>Embraer ERJ-175</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4984,90 +4980,76 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="E56" t="n">
-        <v>20016.66666666667</v>
+        <v>37500</v>
       </c>
       <c r="F56" t="n">
-        <v>17333.33333333333</v>
+        <v>31700</v>
       </c>
       <c r="G56" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="H56" t="n">
-        <v>5528</v>
+        <v>11625</v>
       </c>
       <c r="I56" t="n">
-        <v>18.22195069609804</v>
+        <v>18.19340342917936</v>
       </c>
       <c r="J56" t="n">
-        <v>0.3103601476304506</v>
+        <v>0.3108455349745253</v>
       </c>
       <c r="K56" t="n">
-        <v>2.16826498481953</v>
+        <v>1.431502217381948</v>
       </c>
       <c r="L56" t="n">
-        <v>244.1333333333333</v>
-      </c>
-      <c r="M56" t="n">
-        <v>19.09683698916653</v>
-      </c>
+        <v>247.8409090909091</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>7.975146541617818</v>
+        <v>11.28743811881188</v>
       </c>
       <c r="O56" t="n">
-        <v>0.04995164617426398</v>
+        <v>0.03525045750342684</v>
       </c>
       <c r="P56" t="n">
-        <v>20.2</v>
+        <v>28.65</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.5862245828175499</v>
+        <v>0.7278831819159528</v>
       </c>
       <c r="R56" t="n">
-        <v>0.5294266580506256</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0.3429953305347974</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0.01796112025499956</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0.005876601214078216</v>
-      </c>
-      <c r="V56" t="n">
-        <v>0.01208451904092135</v>
-      </c>
-      <c r="W56" t="n">
-        <v>1.69889425077896</v>
-      </c>
+        <v>0.4270556565750555</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Y56" t="n">
-        <v>6.75</v>
+        <v>9.82</v>
       </c>
       <c r="Z56" t="n">
-        <v>4.837777777777777</v>
+        <v>5.13</v>
       </c>
       <c r="AA56" t="n">
-        <v>49043.17138807395</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>1.69889425077896</v>
-      </c>
+        <v>37024.53501579123</v>
+      </c>
+      <c r="AB56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fokker </t>
+          <t xml:space="preserve">Embraer </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Fokker 100</t>
+          <t>Embraer-145</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5076,46 +5058,76 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+        <v>1996</v>
+      </c>
+      <c r="E57" t="n">
+        <v>20016.66666666667</v>
+      </c>
+      <c r="F57" t="n">
+        <v>17333.33333333333</v>
+      </c>
       <c r="G57" t="n">
-        <v>122</v>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5528</v>
+      </c>
+      <c r="I57" t="n">
+        <v>18.22195069609804</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.3103601476304506</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.16826498481953</v>
+      </c>
       <c r="L57" t="n">
-        <v>202.3142076502733</v>
+        <v>244.1333333333333</v>
       </c>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>7.975146541617818</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.04995164617426398</v>
+      </c>
+      <c r="P57" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.5862245828175499</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.5294266580506256</v>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
+      <c r="X57" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>4.837777777777777</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>49043.17138807395</v>
+      </c>
       <c r="AB57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gates Learjet </t>
+          <t xml:space="preserve">Fokker </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Lear-31/35/36</t>
+          <t>Fokker 100</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5124,16 +5136,20 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1974</v>
+        <v>1988</v>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>122</v>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>202.3142076502733</v>
+      </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -5154,84 +5170,56 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Lockheed</t>
+          <t xml:space="preserve">Gates Learjet </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>L1011-1/100/200</t>
+          <t>Lear-31/35/36</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1973</v>
-      </c>
-      <c r="E59" t="n">
-        <v>224982</v>
-      </c>
-      <c r="F59" t="n">
-        <v>153314</v>
-      </c>
-      <c r="G59" t="n">
-        <v>400</v>
-      </c>
-      <c r="H59" t="n">
-        <v>120705</v>
-      </c>
-      <c r="I59" t="n">
-        <v>17.5682</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.3219043875967976</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1.69015679246197</v>
-      </c>
-      <c r="L59" t="n">
-        <v>277.7625</v>
-      </c>
-      <c r="M59" t="n">
-        <v>14.3153</v>
-      </c>
+        <v>1974</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="n">
-        <v>0.7611246338515383</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0.4229325570082481</v>
-      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
-      <c r="X59" t="n">
-        <v>313</v>
-      </c>
+      <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>163349.5957069433</v>
-      </c>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lockheed </t>
+          <t>Lockheed</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>L1011-500</t>
+          <t>L1011-1/100/200</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5240,48 +5228,70 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1979</v>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+        <v>1973</v>
+      </c>
+      <c r="E60" t="n">
+        <v>224982</v>
+      </c>
+      <c r="F60" t="n">
+        <v>153314</v>
+      </c>
       <c r="G60" t="n">
-        <v>330</v>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>400</v>
+      </c>
+      <c r="H60" t="n">
+        <v>120705</v>
+      </c>
+      <c r="I60" t="n">
+        <v>17.5682</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.3219043875967976</v>
+      </c>
       <c r="K60" t="n">
-        <v>1.8209</v>
+        <v>1.69015679246197</v>
       </c>
       <c r="L60" t="n">
-        <v>330.0757575757576</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>277.7625</v>
+      </c>
+      <c r="M60" t="n">
+        <v>14.3153</v>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>0.7611246338515383</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.4229325570082481</v>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
+      <c r="X60" t="n">
+        <v>313</v>
+      </c>
       <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
+      <c r="Z60" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>163349.5957069433</v>
+      </c>
       <c r="AB60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>McDonnell Douglas</t>
+          <t xml:space="preserve">Lockheed </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DC10-30</t>
+          <t>L1011-500</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -5290,29 +5300,23 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1972</v>
+        <v>1979</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="n">
-        <v>17.7708</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.3182344442668905</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>1.803152741832779</v>
+        <v>1.8209</v>
       </c>
       <c r="L61" t="n">
-        <v>318.9342105263158</v>
-      </c>
-      <c r="M61" t="n">
-        <v>15.2348</v>
-      </c>
+        <v>330.0757575757576</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
@@ -5323,14 +5327,10 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
-      <c r="X61" t="n">
-        <v>271</v>
-      </c>
+      <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="n">
-        <v>176259.1642868837</v>
-      </c>
+      <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DC10-40</t>
+          <t>DC10-30</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -5352,62 +5352,46 @@
       <c r="D62" t="n">
         <v>1972</v>
       </c>
-      <c r="E62" t="n">
-        <v>256280</v>
-      </c>
-      <c r="F62" t="n">
-        <v>177355</v>
-      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
         <v>380</v>
       </c>
-      <c r="H62" t="n">
-        <v>137520</v>
-      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>17.4331</v>
+        <v>17.7708</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3243990261157257</v>
+        <v>0.3182344442668905</v>
       </c>
       <c r="K62" t="n">
-        <v>1.815799269772046</v>
+        <v>1.803152741832779</v>
       </c>
       <c r="L62" t="n">
-        <v>323.5526315789473</v>
+        <v>318.9342105263158</v>
       </c>
       <c r="M62" t="n">
-        <v>13.9129</v>
+        <v>15.2348</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="n">
-        <v>0.7498489997700178</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0.4326919339257812</v>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
-      <c r="W62" t="n">
-        <v>1.528879015518656</v>
-      </c>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="n">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="n">
-        <v>4.961538461538462</v>
-      </c>
+      <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="n">
-        <v>176295.7276686124</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>1.174822822451178</v>
-      </c>
+        <v>176259.1642868837</v>
+      </c>
+      <c r="AB62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5417,72 +5401,72 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DC9-30</t>
+          <t>DC10-40</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1966</v>
+        <v>1972</v>
       </c>
       <c r="E63" t="n">
-        <v>47627</v>
+        <v>256280</v>
       </c>
       <c r="F63" t="n">
-        <v>39463</v>
+        <v>177355</v>
       </c>
       <c r="G63" t="n">
-        <v>127</v>
+        <v>380</v>
       </c>
       <c r="H63" t="n">
-        <v>13926</v>
+        <v>137520</v>
       </c>
       <c r="I63" t="n">
-        <v>22.4331</v>
+        <v>17.4331</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2520953707770241</v>
+        <v>0.3243990261157257</v>
       </c>
       <c r="K63" t="n">
-        <v>2.396593879999583</v>
+        <v>1.815799269772046</v>
       </c>
       <c r="L63" t="n">
-        <v>203.0629921259843</v>
+        <v>323.5526315789473</v>
       </c>
       <c r="M63" t="n">
-        <v>13.798</v>
+        <v>13.9129</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
-      <c r="P63" t="n">
-        <v>28.44</v>
-      </c>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>0.7498489997700178</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.4326919339257812</v>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="n">
-        <v>2.234576907236709</v>
+        <v>1.528879015518656</v>
       </c>
       <c r="X63" t="n">
-        <v>101</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>8.4</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="n">
-        <v>1.038181818181818</v>
+        <v>4.961538461538462</v>
       </c>
       <c r="AA63" t="n">
-        <v>50239.33056833609</v>
+        <v>176295.7276686124</v>
       </c>
       <c r="AB63" t="n">
-        <v>1.777104469534706</v>
+        <v>1.174822822451178</v>
       </c>
     </row>
     <row r="64">
@@ -5493,7 +5477,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DC9-40</t>
+          <t>DC9-30</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -5502,33 +5486,35 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="E64" t="n">
-        <v>51710</v>
+        <v>47627</v>
       </c>
       <c r="F64" t="n">
-        <v>42184</v>
+        <v>39463</v>
       </c>
       <c r="G64" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H64" t="n">
         <v>13926</v>
       </c>
       <c r="I64" t="n">
-        <v>22.98764963035378</v>
+        <v>22.4331</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2460964991804533</v>
+        <v>0.2520953707770241</v>
       </c>
       <c r="K64" t="n">
-        <v>2.0777</v>
+        <v>2.396593879999583</v>
       </c>
       <c r="L64" t="n">
-        <v>217.3515625</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>203.0629921259843</v>
+      </c>
+      <c r="M64" t="n">
+        <v>13.798</v>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
@@ -5540,16 +5526,24 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
+      <c r="W64" t="n">
+        <v>2.234576907236709</v>
+      </c>
+      <c r="X64" t="n">
+        <v>101</v>
+      </c>
       <c r="Y64" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z64" t="n">
-        <v>1.036428571428571</v>
-      </c>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
+        <v>1.038181818181818</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>50239.33056833609</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.777104469534706</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5559,7 +5553,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DC9-50</t>
+          <t>DC9-40</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -5568,37 +5562,37 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="E65" t="n">
-        <v>54885</v>
+        <v>51710</v>
       </c>
       <c r="F65" t="n">
-        <v>44679</v>
+        <v>42184</v>
       </c>
       <c r="G65" t="n">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H65" t="n">
         <v>13926</v>
       </c>
       <c r="I65" t="n">
-        <v>23.15547775838727</v>
+        <v>22.98764963035378</v>
       </c>
       <c r="J65" t="n">
-        <v>0.2443182490108967</v>
+        <v>0.2460964991804533</v>
       </c>
       <c r="K65" t="n">
-        <v>2.1014</v>
+        <v>2.0777</v>
       </c>
       <c r="L65" t="n">
-        <v>211.0503597122302</v>
+        <v>217.3515625</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>28.45</v>
+        <v>28.44</v>
       </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -5609,10 +5603,10 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.04375</v>
+        <v>1.036428571428571</v>
       </c>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
@@ -5625,7 +5619,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MD-90</t>
+          <t>DC9-50</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -5634,68 +5628,54 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1995</v>
+        <v>1976</v>
       </c>
       <c r="E66" t="n">
-        <v>70760</v>
+        <v>54885</v>
       </c>
       <c r="F66" t="n">
-        <v>58967</v>
+        <v>44679</v>
       </c>
       <c r="G66" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="H66" t="n">
-        <v>22104</v>
+        <v>13926</v>
       </c>
       <c r="I66" t="n">
-        <v>16.99770822716683</v>
+        <v>23.15547775838727</v>
       </c>
       <c r="J66" t="n">
-        <v>0.3327206303053079</v>
+        <v>0.2443182490108967</v>
       </c>
       <c r="K66" t="n">
-        <v>1.340189934684793</v>
+        <v>2.1014</v>
       </c>
       <c r="L66" t="n">
-        <v>242.5489021956088</v>
-      </c>
-      <c r="M66" t="n">
-        <v>12.18458056044023</v>
-      </c>
+        <v>211.0503597122302</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0.7458748318947507</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0.4460862698857084</v>
-      </c>
+        <v>28.45</v>
+      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
-      <c r="W66" t="n">
-        <v>1.431159306658041</v>
-      </c>
-      <c r="X66" t="n">
-        <v>148</v>
-      </c>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
       <c r="Y66" t="n">
-        <v>9.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z66" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>63894.06446530207</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>1.268332798714911</v>
-      </c>
+        <v>1.04375</v>
+      </c>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5705,7 +5685,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MD80/DC9-80</t>
+          <t>MD-90</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -5714,136 +5694,156 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1980</v>
+        <v>1995</v>
       </c>
       <c r="E67" t="n">
-        <v>66170.71428571429</v>
+        <v>70760</v>
       </c>
       <c r="F67" t="n">
-        <v>54258.33333333334</v>
+        <v>58967</v>
       </c>
       <c r="G67" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H67" t="n">
-        <v>22128.57142857143</v>
+        <v>22104</v>
       </c>
       <c r="I67" t="n">
-        <v>20.744</v>
+        <v>16.99770822716683</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2726224769657761</v>
+        <v>0.3327206303053079</v>
       </c>
       <c r="K67" t="n">
-        <v>1.656668854428058</v>
+        <v>1.340189934684793</v>
       </c>
       <c r="L67" t="n">
-        <v>201.4290697674419</v>
+        <v>242.5489021956088</v>
       </c>
       <c r="M67" t="n">
-        <v>13.9129</v>
-      </c>
-      <c r="N67" t="n">
-        <v>9.609283170080145</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0.04140655974928667</v>
-      </c>
+        <v>12.18458056044023</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
-        <v>32.85</v>
-      </c>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
-        <v>0.4818759914491247</v>
-      </c>
-      <c r="T67" t="n">
-        <v>0.04049115444243101</v>
-      </c>
-      <c r="U67" t="n">
-        <v>0.009614788308106073</v>
-      </c>
-      <c r="V67" t="n">
-        <v>0.03087636613432493</v>
-      </c>
+        <v>32.87</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.7458748318947507</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.4460862698857084</v>
+      </c>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
       <c r="W67" t="n">
-        <v>1.727304523520158</v>
+        <v>1.431159306658041</v>
       </c>
       <c r="X67" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Y67" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.725714285714286</v>
+        <v>4.74</v>
       </c>
       <c r="AA67" t="n">
-        <v>58224.1917224561</v>
+        <v>63894.06446530207</v>
       </c>
       <c r="AB67" t="n">
-        <v>1.41598801056013</v>
+        <v>1.268332798714911</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">McDonnell Douglas </t>
+          <t>McDonnell Douglas</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DC10-10</t>
+          <t>MD80/DC9-80</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1970</v>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+        <v>1980</v>
+      </c>
+      <c r="E68" t="n">
+        <v>66170.71428571429</v>
+      </c>
+      <c r="F68" t="n">
+        <v>54258.33333333334</v>
+      </c>
       <c r="G68" t="n">
-        <v>380</v>
-      </c>
-      <c r="H68" t="inlineStr"/>
+        <v>172</v>
+      </c>
+      <c r="H68" t="n">
+        <v>22128.57142857143</v>
+      </c>
       <c r="I68" t="n">
-        <v>17.0953</v>
+        <v>20.744</v>
       </c>
       <c r="J68" t="n">
-        <v>0.3308090915150982</v>
+        <v>0.2726224769657761</v>
       </c>
       <c r="K68" t="n">
-        <v>1.665838405572881</v>
+        <v>1.656668854428058</v>
       </c>
       <c r="L68" t="n">
-        <v>286.6842105263158</v>
+        <v>201.4290697674419</v>
       </c>
       <c r="M68" t="n">
-        <v>14.2003</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
+        <v>13.9129</v>
+      </c>
+      <c r="N68" t="n">
+        <v>9.609283170080145</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.04140655974928667</v>
+      </c>
+      <c r="P68" t="n">
+        <v>32.85</v>
+      </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>0.4818759914491247</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.04049115444243101</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.009614788308106073</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.03087636613432493</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.727304523520158</v>
+      </c>
       <c r="X68" t="n">
-        <v>284</v>
-      </c>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.725714285714286</v>
+      </c>
       <c r="AA68" t="n">
-        <v>169567.8746222493</v>
-      </c>
-      <c r="AB68" t="inlineStr"/>
+        <v>58224.1917224561</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.41598801056013</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5853,47 +5853,41 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DC9-10</t>
+          <t>DC10-10</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1965</v>
-      </c>
-      <c r="E69" t="n">
-        <v>41141</v>
-      </c>
-      <c r="F69" t="n">
-        <v>33566</v>
-      </c>
+        <v>1970</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>109</v>
-      </c>
-      <c r="H69" t="n">
-        <v>13979</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>22.88492472710245</v>
+        <v>17.0953</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2472409829726473</v>
+        <v>0.3308090915150982</v>
       </c>
       <c r="K69" t="n">
-        <v>2.9899</v>
+        <v>1.665838405572881</v>
       </c>
       <c r="L69" t="n">
-        <v>204.5871559633028</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>286.6842105263158</v>
+      </c>
+      <c r="M69" t="n">
+        <v>14.2003</v>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
-      <c r="P69" t="n">
-        <v>27.25</v>
-      </c>
+      <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
@@ -5901,14 +5895,14 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>1.032222222222222</v>
-      </c>
-      <c r="AA69" t="inlineStr"/>
+      <c r="X69" t="n">
+        <v>284</v>
+      </c>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="n">
+        <v>169567.8746222493</v>
+      </c>
       <c r="AB69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -5919,121 +5913,187 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MD-11</t>
+          <t>DC9-10</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1990</v>
+        <v>1965</v>
       </c>
       <c r="E70" t="n">
-        <v>276691</v>
+        <v>41141</v>
       </c>
       <c r="F70" t="n">
-        <v>195045</v>
+        <v>33566</v>
       </c>
       <c r="G70" t="n">
-        <v>410</v>
+        <v>109</v>
       </c>
       <c r="H70" t="n">
-        <v>144782</v>
+        <v>13979</v>
       </c>
       <c r="I70" t="n">
-        <v>17.17456583460847</v>
+        <v>22.88492472710245</v>
       </c>
       <c r="J70" t="n">
-        <v>0.329294025279972</v>
+        <v>0.2472409829726473</v>
       </c>
       <c r="K70" t="n">
-        <v>1.744608638314735</v>
+        <v>2.9899</v>
       </c>
       <c r="L70" t="n">
-        <v>317.4756097560976</v>
-      </c>
-      <c r="M70" t="n">
-        <v>17.1335178602213</v>
-      </c>
+        <v>204.5871559633028</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="n">
-        <v>0.7918255422774546</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0.4158827258454688</v>
-      </c>
+      <c r="P70" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
-      <c r="W70" t="n">
-        <v>1.674345709353589</v>
-      </c>
-      <c r="X70" t="n">
-        <v>254</v>
-      </c>
-      <c r="Y70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="n">
+        <v>8.4</v>
+      </c>
       <c r="Z70" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>160911.0912490309</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>1.037277585794662</v>
-      </c>
+        <v>1.032222222222222</v>
+      </c>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saab-Fairchild </t>
+          <t xml:space="preserve">McDonnell Douglas </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>340/B</t>
+          <t>MD-11</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1984</v>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+        <v>1990</v>
+      </c>
+      <c r="E71" t="n">
+        <v>276691</v>
+      </c>
+      <c r="F71" t="n">
+        <v>195045</v>
+      </c>
       <c r="G71" t="n">
-        <v>34</v>
-      </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>410</v>
+      </c>
+      <c r="H71" t="n">
+        <v>144782</v>
+      </c>
+      <c r="I71" t="n">
+        <v>17.17456583460847</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.329294025279972</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.744608638314735</v>
+      </c>
       <c r="L71" t="n">
-        <v>241.9117647058823</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>317.4756097560976</v>
+      </c>
+      <c r="M71" t="n">
+        <v>17.1335178602213</v>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
+      <c r="Q71" t="n">
+        <v>0.7918255422774546</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.4158827258454688</v>
+      </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
+      <c r="W71" t="n">
+        <v>1.674345709353589</v>
+      </c>
+      <c r="X71" t="n">
+        <v>254</v>
+      </c>
       <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr"/>
+      <c r="Z71" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>160911.0912490309</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.037277585794662</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saab-Fairchild </t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>340/B</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Regional</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>34</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>241.9117647058823</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test_env/Databank.xlsx
+++ b/test_env/Databank.xlsx
@@ -613,7 +613,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>18.09896130948131</v>
+        <v>18.79647682669315</v>
       </c>
       <c r="N2" t="n">
         <v>9.162272416932181</v>
@@ -630,13 +630,13 @@
         <v>0.7135323276326963</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03942393795045606</v>
+        <v>0.03796096120627238</v>
       </c>
       <c r="U2" t="n">
         <v>0.02210977120854699</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01731416674190907</v>
+        <v>0.01585118999772539</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>316.7033997655334</v>
       </c>
       <c r="M3" t="n">
-        <v>18.79302458409364</v>
+        <v>18.86992414157695</v>
       </c>
       <c r="N3" t="n">
         <v>7.526701183431951</v>
@@ -710,13 +710,13 @@
         <v>0.579872351735697</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03085632765923649</v>
+        <v>0.03073058057489463</v>
       </c>
       <c r="U3" t="n">
         <v>0.01777543632879936</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01308089133043713</v>
+        <v>0.01295514424609528</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>216.9230769230769</v>
       </c>
       <c r="M4" t="n">
-        <v>14.11321312869364</v>
+        <v>13.86975728148907</v>
       </c>
       <c r="N4" t="n">
         <v>10.47091503267974</v>
@@ -794,13 +794,13 @@
         <v>0.5117146212062872</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03626445510537339</v>
+        <v>0.03690100507967421</v>
       </c>
       <c r="U4" t="n">
         <v>0.009950185041419854</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02631427006395354</v>
+        <v>0.02695082003825436</v>
       </c>
       <c r="W4" t="n">
         <v>1.14307207999559</v>
@@ -943,7 +943,7 @@
         <v>262.8937198067633</v>
       </c>
       <c r="M6" t="n">
-        <v>12.32577591358321</v>
+        <v>12.21831749797054</v>
       </c>
       <c r="N6" t="n">
         <v>7.729726538461537</v>
@@ -964,13 +964,13 @@
         <v>0.5407899383500721</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04387899711315849</v>
+        <v>0.04426490683511781</v>
       </c>
       <c r="U6" t="n">
         <v>0.01505404521353303</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02882495189962546</v>
+        <v>0.02921086162158479</v>
       </c>
       <c r="W6" t="n">
         <v>1.531120491263444</v>
@@ -1251,7 +1251,7 @@
         <v>254.259375</v>
       </c>
       <c r="M10" t="n">
-        <v>13.66570744265254</v>
+        <v>13.29779390534793</v>
       </c>
       <c r="N10" t="n">
         <v>10.47091503267974</v>
@@ -1272,13 +1272,13 @@
         <v>0.5256380337272604</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03846632262229654</v>
+        <v>0.03953058041752208</v>
       </c>
       <c r="U10" t="n">
         <v>0.01049902739517181</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02796729522712472</v>
+        <v>0.02903155302235026</v>
       </c>
       <c r="W10" t="n">
         <v>1.257413181978043</v>
@@ -1421,7 +1421,7 @@
         <v>208.75</v>
       </c>
       <c r="M12" t="n">
-        <v>17.04775257552424</v>
+        <v>18.32137548370073</v>
       </c>
       <c r="N12" t="n">
         <v>10.47091503267974</v>
@@ -1442,13 +1442,13 @@
         <v>0.6751747691526191</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03961219278128153</v>
+        <v>0.03685852419268531</v>
       </c>
       <c r="U12" t="n">
         <v>0.01732239406410658</v>
       </c>
       <c r="V12" t="n">
-        <v>0.02228979871717495</v>
+        <v>0.01953613012857874</v>
       </c>
       <c r="W12" t="n">
         <v>0.847484724302772</v>
@@ -1513,7 +1513,7 @@
         <v>223.6363636363636</v>
       </c>
       <c r="M13" t="n">
-        <v>16.16965959215085</v>
+        <v>15.98074355023815</v>
       </c>
       <c r="N13" t="n">
         <v>10.47091503267974</v>
@@ -1534,13 +1534,13 @@
         <v>0.6509550623209971</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04026010133527302</v>
+        <v>0.04073603532215879</v>
       </c>
       <c r="U13" t="n">
         <v>0.01610191472622672</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02415818660904629</v>
+        <v>0.02463412059593207</v>
       </c>
       <c r="W13" t="n">
         <v>0.9966162976897276</v>
@@ -1605,7 +1605,7 @@
         <v>297.3727422003284</v>
       </c>
       <c r="M14" t="n">
-        <v>19.34980759189076</v>
+        <v>19.11910259045317</v>
       </c>
       <c r="N14" t="n">
         <v>10.05555862831858</v>
@@ -1626,13 +1626,13 @@
         <v>0.5703063572795277</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02947482563465759</v>
+        <v>0.02983049032437017</v>
       </c>
       <c r="U14" t="n">
         <v>0.01286975748820448</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01660506814645312</v>
+        <v>0.01696073283616569</v>
       </c>
       <c r="W14" t="n">
         <v>1.223822284874495</v>
@@ -1697,7 +1697,7 @@
         <v>283.4848484848485</v>
       </c>
       <c r="M15" t="n">
-        <v>18.96749027839072</v>
+        <v>18.55467266299319</v>
       </c>
       <c r="N15" t="n">
         <v>10.05555862831858</v>
@@ -1718,13 +1718,13 @@
         <v>0.5608796097445846</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02957301951624453</v>
+        <v>0.03023098118544442</v>
       </c>
       <c r="U15" t="n">
         <v>0.01244781833910668</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01712520117713785</v>
+        <v>0.01778316284633774</v>
       </c>
       <c r="W15" t="n">
         <v>1.202775856096727</v>
@@ -1845,7 +1845,7 @@
         <v>323.6363636363636</v>
       </c>
       <c r="M17" t="n">
-        <v>20.47220387131402</v>
+        <v>20.63667800776629</v>
       </c>
       <c r="N17" t="n">
         <v>9.464023702031604</v>
@@ -1866,13 +1866,13 @@
         <v>0.5384931625607633</v>
       </c>
       <c r="T17" t="n">
-        <v>0.02630463920986906</v>
+        <v>0.02609499147407053</v>
       </c>
       <c r="U17" t="n">
         <v>0.01219115091854304</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01411348829132602</v>
+        <v>0.01390384055552749</v>
       </c>
       <c r="W17" t="n">
         <v>1.053476790935672</v>
@@ -1937,7 +1937,7 @@
         <v>230.1791044776119</v>
       </c>
       <c r="M18" t="n">
-        <v>12.19345387975585</v>
+        <v>12.20975947074733</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -2085,7 +2085,7 @@
         <v>256.0201342281879</v>
       </c>
       <c r="M20" t="n">
-        <v>15.30298680276587</v>
+        <v>15.53775550141747</v>
       </c>
       <c r="N20" t="n">
         <v>10.28028972712681</v>
@@ -2106,13 +2106,13 @@
         <v>0.4792889880898488</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03132454391686557</v>
+        <v>0.03085124374101027</v>
       </c>
       <c r="U20" t="n">
         <v>0.008890981115314956</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02243356280155061</v>
+        <v>0.02196026262569532</v>
       </c>
       <c r="W20" t="n">
         <v>1.206455180923881</v>
@@ -2192,13 +2192,13 @@
         <v>0.4261428126703143</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03835232347188636</v>
+        <v>0.03863450676709624</v>
       </c>
       <c r="U21" t="n">
         <v>0.01036334135443588</v>
       </c>
       <c r="V21" t="n">
-        <v>0.02798898211745048</v>
+        <v>0.02827116541266036</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
@@ -2255,7 +2255,7 @@
         <v>322.4358974358975</v>
       </c>
       <c r="M22" t="n">
-        <v>12.64087077266023</v>
+        <v>12.39454812261251</v>
       </c>
       <c r="N22" t="n">
         <v>6.790838599487619</v>
@@ -2272,13 +2272,13 @@
         <v>0.3785122391852268</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02994352572639822</v>
+        <v>0.03053860741358308</v>
       </c>
       <c r="U22" t="n">
         <v>0.008394533869549407</v>
       </c>
       <c r="V22" t="n">
-        <v>0.02154899185684881</v>
+        <v>0.02214407354403367</v>
       </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
@@ -2413,7 +2413,7 @@
         <v>238.2310344827586</v>
       </c>
       <c r="M24" t="n">
-        <v>11.74898692353604</v>
+        <v>11.69632435012107</v>
       </c>
       <c r="N24" t="n">
         <v>10.15596931026777</v>
@@ -2434,13 +2434,13 @@
         <v>0.4311057075475181</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03664388239440782</v>
+        <v>0.03680887107709471</v>
       </c>
       <c r="U24" t="n">
         <v>0.007451031201009908</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0291928511933979</v>
+        <v>0.02935783987608479</v>
       </c>
       <c r="W24" t="n">
         <v>1.475470707385693</v>
@@ -2503,7 +2503,7 @@
         <v>291.8706896551724</v>
       </c>
       <c r="M25" t="n">
-        <v>15.1363690189235</v>
+        <v>15.00797764834238</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2583,7 +2583,7 @@
         <v>308.9370078740158</v>
       </c>
       <c r="M26" t="n">
-        <v>20.06575852957733</v>
+        <v>20.38148947420772</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2661,7 +2661,7 @@
         <v>306.7857142857143</v>
       </c>
       <c r="M27" t="n">
-        <v>20.1986609051042</v>
+        <v>20.33329942796322</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2813,7 +2813,7 @@
         <v>217.6984126984127</v>
       </c>
       <c r="M29" t="n">
-        <v>15.32589603475716</v>
+        <v>15.64430077370058</v>
       </c>
       <c r="N29" t="n">
         <v>10.28028972712681</v>
@@ -2834,13 +2834,13 @@
         <v>0.5404022118139264</v>
       </c>
       <c r="T29" t="n">
-        <v>0.03526453420668706</v>
+        <v>0.03454680351546196</v>
       </c>
       <c r="U29" t="n">
         <v>0.01130287752210999</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02396165668457707</v>
+        <v>0.02324392599335197</v>
       </c>
       <c r="W29" t="n">
         <v>1.025375544030074</v>
@@ -2905,7 +2905,7 @@
         <v>224.8306878306878</v>
       </c>
       <c r="M30" t="n">
-        <v>15.43973862959746</v>
+        <v>15.63673899668767</v>
       </c>
       <c r="N30" t="n">
         <v>10.28028972712681</v>
@@ -2926,13 +2926,13 @@
         <v>0.5404022118139264</v>
       </c>
       <c r="T30" t="n">
-        <v>0.03500485334004556</v>
+        <v>0.03456384265620741</v>
       </c>
       <c r="U30" t="n">
         <v>0.01130287752210999</v>
       </c>
       <c r="V30" t="n">
-        <v>0.02370197581793557</v>
+        <v>0.02326096513409742</v>
       </c>
       <c r="W30" t="n">
         <v>1.033776048227667</v>
@@ -2997,7 +2997,7 @@
         <v>203.0772727272727</v>
       </c>
       <c r="M31" t="n">
-        <v>13.97840507939378</v>
+        <v>13.16126706340616</v>
       </c>
       <c r="N31" t="n">
         <v>10.28028972712681</v>
@@ -3018,13 +3018,13 @@
         <v>0.582281832132457</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0416603532487946</v>
+        <v>0.04424690196291614</v>
       </c>
       <c r="U31" t="n">
         <v>0.01312264153321329</v>
       </c>
       <c r="V31" t="n">
-        <v>0.02853771171558131</v>
+        <v>0.03112426042970285</v>
       </c>
       <c r="W31" t="n">
         <v>1.127427684674653</v>
@@ -3089,7 +3089,7 @@
         <v>381.5984848484848</v>
       </c>
       <c r="M32" t="n">
-        <v>13.95658542963811</v>
+        <v>15.23464679713052</v>
       </c>
       <c r="N32" t="n">
         <v>6.951389432485324</v>
@@ -3110,13 +3110,13 @@
         <v>0.5559726764356511</v>
       </c>
       <c r="T32" t="n">
-        <v>0.03983636997597342</v>
+        <v>0.03649442669593517</v>
       </c>
       <c r="U32" t="n">
         <v>0.01769275313653476</v>
       </c>
       <c r="V32" t="n">
-        <v>0.02214361683943865</v>
+        <v>0.01880167355940041</v>
       </c>
       <c r="W32" t="n">
         <v>1.607596036522946</v>
@@ -3255,7 +3255,7 @@
         <v>218.1949152542372</v>
       </c>
       <c r="M34" t="n">
-        <v>15.41113811920375</v>
+        <v>15.51225482349139</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -3333,7 +3333,7 @@
         <v>275.6977777777777</v>
       </c>
       <c r="M35" t="n">
-        <v>17.50401961540488</v>
+        <v>17.44975671545913</v>
       </c>
       <c r="N35" t="n">
         <v>17.21442922374429</v>
@@ -3354,13 +3354,13 @@
         <v>0.7942466806223587</v>
       </c>
       <c r="T35" t="n">
-        <v>0.04537510229498148</v>
+        <v>0.04551620366825616</v>
       </c>
       <c r="U35" t="n">
         <v>0.01458069850331794</v>
       </c>
       <c r="V35" t="n">
-        <v>0.03079440379166353</v>
+        <v>0.03093550516493822</v>
       </c>
       <c r="W35" t="n">
         <v>1.305531264304784</v>
@@ -3423,7 +3423,7 @@
         <v>289.2454545454545</v>
       </c>
       <c r="M36" t="n">
-        <v>20.16624059508982</v>
+        <v>20.29266290898792</v>
       </c>
       <c r="N36" t="n">
         <v>9.242461430575036</v>
@@ -3444,13 +3444,13 @@
         <v>0.7002416387129491</v>
       </c>
       <c r="T36" t="n">
-        <v>0.03473544673389188</v>
+        <v>0.03451904657142538</v>
       </c>
       <c r="U36" t="n">
         <v>0.02119047121563732</v>
       </c>
       <c r="V36" t="n">
-        <v>0.01354497551825456</v>
+        <v>0.01332857535578807</v>
       </c>
       <c r="W36" t="n">
         <v>1.362634274000017</v>
@@ -3515,7 +3515,7 @@
         <v>307.9545454545454</v>
       </c>
       <c r="M37" t="n">
-        <v>20.28002446658645</v>
+        <v>20.64144546032226</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -3610,13 +3610,13 @@
         <v>0.4401349609961392</v>
       </c>
       <c r="T38" t="n">
-        <v>0.02622068246631412</v>
+        <v>0.02662007470970774</v>
       </c>
       <c r="U38" t="n">
         <v>0.01095292248655345</v>
       </c>
       <c r="V38" t="n">
-        <v>0.01526775997976068</v>
+        <v>0.0156671522231543</v>
       </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
@@ -3741,7 +3741,7 @@
         <v>214.5952380952381</v>
       </c>
       <c r="M40" t="n">
-        <v>18.48175331461054</v>
+        <v>18.86798492370013</v>
       </c>
       <c r="N40" t="n">
         <v>10.15942047244095</v>
@@ -3762,13 +3762,13 @@
         <v>0.5545384462092253</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03000491700084017</v>
+        <v>0.02939071005607644</v>
       </c>
       <c r="U40" t="n">
         <v>0.01204355021381798</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0179613667870222</v>
+        <v>0.01734715984225846</v>
       </c>
       <c r="W40" t="n">
         <v>0.8353390780716035</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>18.50529129800786</v>
+        <v>18.75509705334182</v>
       </c>
       <c r="N41" t="n">
         <v>10.15942047244095</v>
@@ -3852,13 +3852,13 @@
         <v>0.5925830706747321</v>
       </c>
       <c r="T41" t="n">
-        <v>0.03202241829713531</v>
+        <v>0.0315959004088202</v>
       </c>
       <c r="U41" t="n">
         <v>0.01375275434122439</v>
       </c>
       <c r="V41" t="n">
-        <v>0.01826966395591093</v>
+        <v>0.01784314606759582</v>
       </c>
       <c r="W41" t="n">
         <v>0.8795860416327073</v>
@@ -3923,7 +3923,7 @@
         <v>211.1230769230769</v>
       </c>
       <c r="M42" t="n">
-        <v>12.31634358413363</v>
+        <v>12.22462575870084</v>
       </c>
       <c r="N42" t="n">
         <v>5.988823594024605</v>
@@ -3940,13 +3940,13 @@
         <v>0.4670328679992338</v>
       </c>
       <c r="T42" t="n">
-        <v>0.03793510270197666</v>
+        <v>0.03821971878725176</v>
       </c>
       <c r="U42" t="n">
         <v>0.01449150566155796</v>
       </c>
       <c r="V42" t="n">
-        <v>0.02344359704041869</v>
+        <v>0.0237282131256938</v>
       </c>
       <c r="W42" t="n">
         <v>1.848998853040951</v>
@@ -4011,7 +4011,7 @@
         <v>184.5505319148936</v>
       </c>
       <c r="M43" t="n">
-        <v>12.92183295383661</v>
+        <v>12.41007311177945</v>
       </c>
       <c r="N43" t="n">
         <v>9.16140597539543</v>
@@ -4032,13 +4032,13 @@
         <v>0.6368630018171373</v>
       </c>
       <c r="T43" t="n">
-        <v>0.04928595296410715</v>
+        <v>0.05131838027354877</v>
       </c>
       <c r="U43" t="n">
         <v>0.01761530027348244</v>
       </c>
       <c r="V43" t="n">
-        <v>0.03167065269062471</v>
+        <v>0.03370308000006633</v>
       </c>
       <c r="W43" t="n">
         <v>1.300332435026857</v>
@@ -4103,7 +4103,7 @@
         <v>312.4242424242424</v>
       </c>
       <c r="M44" t="n">
-        <v>12.82593792052425</v>
+        <v>12.31987666854902</v>
       </c>
       <c r="N44" t="n">
         <v>6.951389432485324</v>
@@ -4124,13 +4124,13 @@
         <v>0.601358201042643</v>
       </c>
       <c r="T44" t="n">
-        <v>0.04689677479454457</v>
+        <v>0.04882314477410078</v>
       </c>
       <c r="U44" t="n">
         <v>0.02069926845502964</v>
       </c>
       <c r="V44" t="n">
-        <v>0.02619750633951493</v>
+        <v>0.02812387631907114</v>
       </c>
       <c r="W44" t="n">
         <v>1.96228034370375</v>
@@ -4193,7 +4193,7 @@
         <v>329.3181818181818</v>
       </c>
       <c r="M45" t="n">
-        <v>16.86747232019076</v>
+        <v>16.94624969050644</v>
       </c>
       <c r="N45" t="n">
         <v>7.813733686105675</v>
@@ -4214,13 +4214,13 @@
         <v>0.6459873002395184</v>
       </c>
       <c r="T45" t="n">
-        <v>0.03831720623443752</v>
+        <v>0.03813908253154627</v>
       </c>
       <c r="U45" t="n">
         <v>0.02129728718926171</v>
       </c>
       <c r="V45" t="n">
-        <v>0.01701991904517582</v>
+        <v>0.01684179534228456</v>
       </c>
       <c r="W45" t="n">
         <v>1.567817459973697</v>
@@ -4283,7 +4283,7 @@
         <v>247.8242677824268</v>
       </c>
       <c r="M46" t="n">
-        <v>14.52627724288998</v>
+        <v>14.86183663259694</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -4361,7 +4361,7 @@
         <v>258.5660018993353</v>
       </c>
       <c r="M47" t="n">
-        <v>15.81791130409963</v>
+        <v>15.35194683664891</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -4439,7 +4439,7 @@
         <v>322.9280303030303</v>
       </c>
       <c r="M48" t="n">
-        <v>19.61963655516449</v>
+        <v>19.67525354469729</v>
       </c>
       <c r="N48" t="n">
         <v>8.860483870967741</v>
@@ -4460,13 +4460,13 @@
         <v>0.6921098003278955</v>
       </c>
       <c r="T48" t="n">
-        <v>0.03530470332729688</v>
+        <v>0.0352049058171427</v>
       </c>
       <c r="U48" t="n">
         <v>0.02155671229422802</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01374799103306886</v>
+        <v>0.01364819352291468</v>
       </c>
       <c r="W48" t="n">
         <v>1.540685556401292</v>
@@ -5721,7 +5721,7 @@
         <v>242.5489021956088</v>
       </c>
       <c r="M67" t="n">
-        <v>12.18458056044023</v>
+        <v>12.54450404243209</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -5818,13 +5818,13 @@
         <v>0.4818759914491247</v>
       </c>
       <c r="T68" t="n">
-        <v>0.04049115444243101</v>
+        <v>0.04330909613574976</v>
       </c>
       <c r="U68" t="n">
         <v>0.009614788308106073</v>
       </c>
       <c r="V68" t="n">
-        <v>0.03087636613432493</v>
+        <v>0.03369430782764369</v>
       </c>
       <c r="W68" t="n">
         <v>1.727304523520158</v>
@@ -6015,7 +6015,7 @@
         <v>317.4756097560976</v>
       </c>
       <c r="M71" t="n">
-        <v>17.1335178602213</v>
+        <v>17.18295849059495</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>

--- a/test_env/Databank.xlsx
+++ b/test_env/Databank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB72"/>
+  <dimension ref="A1:AB73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4716,79 +4716,57 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Embraer</t>
+          <t>De Havilland</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Embraer 190</t>
+          <t>Comet 4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E52" t="n">
-        <v>51843.125</v>
-      </c>
-      <c r="F52" t="n">
-        <v>44140.625</v>
-      </c>
+        <v>1949</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
-        <v>124</v>
-      </c>
-      <c r="H52" t="n">
-        <v>16347.75</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>16.77016917536357</v>
+        <v>30.62663043478261</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3392881252903102</v>
+        <v>0.1846523950527501</v>
       </c>
       <c r="K52" t="n">
-        <v>1.712372106412916</v>
+        <v>3.451363636363636</v>
       </c>
       <c r="L52" t="n">
-        <v>226.7204301075269</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
-        <v>9.754665681149657</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0.04141733060561711</v>
-      </c>
-      <c r="P52" t="n">
-        <v>30.545</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.7117598908588553</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0.4763098239510975</v>
-      </c>
+        <v>313.8715596330275</v>
+      </c>
+      <c r="M52" t="n">
+        <v>15.01504580607603</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
-      <c r="X52" t="n">
-        <v>99</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>10.605</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>7.026875</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>61088.37579710694</v>
-      </c>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -4799,7 +4777,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Embraer-135</t>
+          <t>Embraer 190</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4808,45 +4786,47 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="E53" t="n">
-        <v>21096</v>
+        <v>51843.125</v>
       </c>
       <c r="F53" t="n">
-        <v>15840</v>
+        <v>44140.625</v>
       </c>
       <c r="G53" t="n">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="H53" t="n">
-        <v>8216.799999999999</v>
+        <v>16347.75</v>
       </c>
       <c r="I53" t="n">
-        <v>18.16621531661354</v>
+        <v>16.77016917536357</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3113135990720869</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+        <v>0.3392881252903102</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.712372106412916</v>
+      </c>
       <c r="L53" t="n">
-        <v>339.1891891891892</v>
+        <v>226.7204301075269</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>7.846846424384525</v>
+        <v>9.754665681149657</v>
       </c>
       <c r="O53" t="n">
-        <v>0.05070665796303604</v>
+        <v>0.04141733060561711</v>
       </c>
       <c r="P53" t="n">
-        <v>20.04</v>
+        <v>30.545</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.5445136717279478</v>
+        <v>0.7117598908588553</v>
       </c>
       <c r="R53" t="n">
-        <v>0.5717351067638586</v>
+        <v>0.4763098239510975</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -4854,16 +4834,16 @@
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="n">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="Y53" t="n">
-        <v>6.76</v>
+        <v>10.605</v>
       </c>
       <c r="Z53" t="n">
-        <v>4.762</v>
+        <v>7.026875</v>
       </c>
       <c r="AA53" t="n">
-        <v>58122.6644342903</v>
+        <v>61088.37579710694</v>
       </c>
       <c r="AB53" t="inlineStr"/>
     </row>
@@ -4875,7 +4855,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Embraer-140</t>
+          <t>Embraer-135</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4884,46 +4864,74 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+        <v>1999</v>
+      </c>
+      <c r="E54" t="n">
+        <v>21096</v>
+      </c>
+      <c r="F54" t="n">
+        <v>15840</v>
+      </c>
       <c r="G54" t="n">
-        <v>44</v>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="H54" t="n">
+        <v>8216.799999999999</v>
+      </c>
+      <c r="I54" t="n">
+        <v>18.16621531661354</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.3113135990720869</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>268.1818181818182</v>
+        <v>339.1891891891892</v>
       </c>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>7.846846424384525</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.05070665796303604</v>
+      </c>
+      <c r="P54" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.5445136717279478</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.5717351067638586</v>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
+      <c r="X54" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>4.762</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>58122.6644342903</v>
+      </c>
       <c r="AB54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Embraer </t>
+          <t>Embraer</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EMB-120 Brasilia</t>
+          <t>Embraer-140</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4932,19 +4940,19 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1985</v>
+        <v>2001</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>252</v>
+        <v>268.1818181818182</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
@@ -4971,7 +4979,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Embraer ERJ-175</t>
+          <t>EMB-120 Brasilia</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4980,65 +4988,35 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E56" t="n">
-        <v>37500</v>
-      </c>
-      <c r="F56" t="n">
-        <v>31700</v>
-      </c>
+        <v>1985</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>88</v>
-      </c>
-      <c r="H56" t="n">
-        <v>11625</v>
-      </c>
-      <c r="I56" t="n">
-        <v>18.19340342917936</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.3108455349745253</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1.431502217381948</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>247.8409090909091</v>
+        <v>252</v>
       </c>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
-        <v>11.28743811881188</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0.03525045750342684</v>
-      </c>
-      <c r="P56" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0.7278831819159528</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0.4270556565750555</v>
-      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
-      <c r="X56" t="n">
-        <v>75</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>37024.53501579123</v>
-      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -5049,7 +5027,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Embraer-145</t>
+          <t>Embraer ERJ-175</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5058,47 +5036,47 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="E57" t="n">
-        <v>20016.66666666667</v>
+        <v>37500</v>
       </c>
       <c r="F57" t="n">
-        <v>17333.33333333333</v>
+        <v>31700</v>
       </c>
       <c r="G57" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="H57" t="n">
-        <v>5528</v>
+        <v>11625</v>
       </c>
       <c r="I57" t="n">
-        <v>18.22195069609804</v>
+        <v>18.19340342917936</v>
       </c>
       <c r="J57" t="n">
-        <v>0.3103601476304506</v>
+        <v>0.3108455349745253</v>
       </c>
       <c r="K57" t="n">
-        <v>2.16826498481953</v>
+        <v>1.431502217381948</v>
       </c>
       <c r="L57" t="n">
-        <v>244.1333333333333</v>
+        <v>247.8409090909091</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>7.975146541617818</v>
+        <v>11.28743811881188</v>
       </c>
       <c r="O57" t="n">
-        <v>0.04995164617426398</v>
+        <v>0.03525045750342684</v>
       </c>
       <c r="P57" t="n">
-        <v>20.2</v>
+        <v>28.65</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.5862245828175499</v>
+        <v>0.7278831819159528</v>
       </c>
       <c r="R57" t="n">
-        <v>0.5294266580506256</v>
+        <v>0.4270556565750555</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -5106,28 +5084,28 @@
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Y57" t="n">
-        <v>6.75</v>
+        <v>9.82</v>
       </c>
       <c r="Z57" t="n">
-        <v>4.837777777777777</v>
+        <v>5.13</v>
       </c>
       <c r="AA57" t="n">
-        <v>49043.17138807395</v>
+        <v>37024.53501579123</v>
       </c>
       <c r="AB57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fokker </t>
+          <t xml:space="preserve">Embraer </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fokker 100</t>
+          <t>Embraer-145</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5136,46 +5114,76 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+        <v>1996</v>
+      </c>
+      <c r="E58" t="n">
+        <v>20016.66666666667</v>
+      </c>
+      <c r="F58" t="n">
+        <v>17333.33333333333</v>
+      </c>
       <c r="G58" t="n">
-        <v>122</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5528</v>
+      </c>
+      <c r="I58" t="n">
+        <v>18.22195069609804</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.3103601476304506</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2.16826498481953</v>
+      </c>
       <c r="L58" t="n">
-        <v>202.3142076502733</v>
+        <v>244.1333333333333</v>
       </c>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>7.975146541617818</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.04995164617426398</v>
+      </c>
+      <c r="P58" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.5862245828175499</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.5294266580506256</v>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
+      <c r="X58" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>4.837777777777777</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>49043.17138807395</v>
+      </c>
       <c r="AB58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gates Learjet </t>
+          <t xml:space="preserve">Fokker </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Lear-31/35/36</t>
+          <t>Fokker 100</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5184,16 +5192,20 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1974</v>
+        <v>1988</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>122</v>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>202.3142076502733</v>
+      </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -5214,84 +5226,56 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Lockheed</t>
+          <t xml:space="preserve">Gates Learjet </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>L1011-1/100/200</t>
+          <t>Lear-31/35/36</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1973</v>
-      </c>
-      <c r="E60" t="n">
-        <v>224982</v>
-      </c>
-      <c r="F60" t="n">
-        <v>153314</v>
-      </c>
-      <c r="G60" t="n">
-        <v>400</v>
-      </c>
-      <c r="H60" t="n">
-        <v>120705</v>
-      </c>
-      <c r="I60" t="n">
-        <v>17.5682</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.3219043875967976</v>
-      </c>
-      <c r="K60" t="n">
-        <v>1.69015679246197</v>
-      </c>
-      <c r="L60" t="n">
-        <v>277.7625</v>
-      </c>
-      <c r="M60" t="n">
-        <v>14.3153</v>
-      </c>
+        <v>1974</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="n">
-        <v>0.7611246338515383</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0.4229325570082481</v>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
-      <c r="X60" t="n">
-        <v>313</v>
-      </c>
+      <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>163349.5957069433</v>
-      </c>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lockheed </t>
+          <t>Lockheed</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>L1011-500</t>
+          <t>L1011-1/100/200</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -5300,48 +5284,70 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1979</v>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+        <v>1973</v>
+      </c>
+      <c r="E61" t="n">
+        <v>224982</v>
+      </c>
+      <c r="F61" t="n">
+        <v>153314</v>
+      </c>
       <c r="G61" t="n">
-        <v>330</v>
-      </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>400</v>
+      </c>
+      <c r="H61" t="n">
+        <v>120705</v>
+      </c>
+      <c r="I61" t="n">
+        <v>17.5682</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3219043875967976</v>
+      </c>
       <c r="K61" t="n">
-        <v>1.8209</v>
+        <v>1.69015679246197</v>
       </c>
       <c r="L61" t="n">
-        <v>330.0757575757576</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>277.7625</v>
+      </c>
+      <c r="M61" t="n">
+        <v>14.3153</v>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="Q61" t="n">
+        <v>0.7611246338515383</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.4229325570082481</v>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
+      <c r="X61" t="n">
+        <v>313</v>
+      </c>
       <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
+      <c r="Z61" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>163349.5957069433</v>
+      </c>
       <c r="AB61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>McDonnell Douglas</t>
+          <t xml:space="preserve">Lockheed </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DC10-30</t>
+          <t>L1011-500</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -5350,29 +5356,23 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1972</v>
+        <v>1979</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="n">
-        <v>17.7708</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.3182344442668905</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>1.803152741832779</v>
+        <v>1.8209</v>
       </c>
       <c r="L62" t="n">
-        <v>318.9342105263158</v>
-      </c>
-      <c r="M62" t="n">
-        <v>15.2348</v>
-      </c>
+        <v>330.0757575757576</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
@@ -5383,14 +5383,10 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
-      <c r="X62" t="n">
-        <v>271</v>
-      </c>
+      <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="n">
-        <v>176259.1642868837</v>
-      </c>
+      <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -5401,7 +5397,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DC10-40</t>
+          <t>DC10-30</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -5412,62 +5408,46 @@
       <c r="D63" t="n">
         <v>1972</v>
       </c>
-      <c r="E63" t="n">
-        <v>256280</v>
-      </c>
-      <c r="F63" t="n">
-        <v>177355</v>
-      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
         <v>380</v>
       </c>
-      <c r="H63" t="n">
-        <v>137520</v>
-      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>17.4331</v>
+        <v>17.7708</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3243990261157257</v>
+        <v>0.3182344442668905</v>
       </c>
       <c r="K63" t="n">
-        <v>1.815799269772046</v>
+        <v>1.803152741832779</v>
       </c>
       <c r="L63" t="n">
-        <v>323.5526315789473</v>
+        <v>318.9342105263158</v>
       </c>
       <c r="M63" t="n">
-        <v>13.9129</v>
+        <v>15.2348</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="n">
-        <v>0.7498489997700178</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0.4326919339257812</v>
-      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="n">
-        <v>1.528879015518656</v>
-      </c>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="n">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="n">
-        <v>4.961538461538462</v>
-      </c>
+      <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="n">
-        <v>176295.7276686124</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>1.174822822451178</v>
-      </c>
+        <v>176259.1642868837</v>
+      </c>
+      <c r="AB63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5477,72 +5457,72 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DC9-30</t>
+          <t>DC10-40</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1966</v>
+        <v>1972</v>
       </c>
       <c r="E64" t="n">
-        <v>47627</v>
+        <v>256280</v>
       </c>
       <c r="F64" t="n">
-        <v>39463</v>
+        <v>177355</v>
       </c>
       <c r="G64" t="n">
-        <v>127</v>
+        <v>380</v>
       </c>
       <c r="H64" t="n">
-        <v>13926</v>
+        <v>137520</v>
       </c>
       <c r="I64" t="n">
-        <v>22.4331</v>
+        <v>17.4331</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2520953707770241</v>
+        <v>0.3243990261157257</v>
       </c>
       <c r="K64" t="n">
-        <v>2.396593879999583</v>
+        <v>1.815799269772046</v>
       </c>
       <c r="L64" t="n">
-        <v>203.0629921259843</v>
+        <v>323.5526315789473</v>
       </c>
       <c r="M64" t="n">
-        <v>13.798</v>
+        <v>13.9129</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
-      <c r="P64" t="n">
-        <v>28.44</v>
-      </c>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="n">
+        <v>0.7498489997700178</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.4326919339257812</v>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="n">
-        <v>2.234576907236709</v>
+        <v>1.528879015518656</v>
       </c>
       <c r="X64" t="n">
-        <v>101</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>8.4</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="n">
-        <v>1.038181818181818</v>
+        <v>4.961538461538462</v>
       </c>
       <c r="AA64" t="n">
-        <v>50239.33056833609</v>
+        <v>176295.7276686124</v>
       </c>
       <c r="AB64" t="n">
-        <v>1.777104469534706</v>
+        <v>1.174822822451178</v>
       </c>
     </row>
     <row r="65">
@@ -5553,7 +5533,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DC9-40</t>
+          <t>DC9-30</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -5562,33 +5542,35 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="E65" t="n">
-        <v>51710</v>
+        <v>47627</v>
       </c>
       <c r="F65" t="n">
-        <v>42184</v>
+        <v>39463</v>
       </c>
       <c r="G65" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H65" t="n">
         <v>13926</v>
       </c>
       <c r="I65" t="n">
-        <v>22.98764963035378</v>
+        <v>22.4331</v>
       </c>
       <c r="J65" t="n">
-        <v>0.2460964991804533</v>
+        <v>0.2520953707770241</v>
       </c>
       <c r="K65" t="n">
-        <v>2.0777</v>
+        <v>2.396593879999583</v>
       </c>
       <c r="L65" t="n">
-        <v>217.3515625</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>203.0629921259843</v>
+      </c>
+      <c r="M65" t="n">
+        <v>13.798</v>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
@@ -5600,16 +5582,24 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
+      <c r="W65" t="n">
+        <v>2.234576907236709</v>
+      </c>
+      <c r="X65" t="n">
+        <v>101</v>
+      </c>
       <c r="Y65" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.036428571428571</v>
-      </c>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
+        <v>1.038181818181818</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>50239.33056833609</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.777104469534706</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5619,7 +5609,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DC9-50</t>
+          <t>DC9-40</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -5628,37 +5618,37 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="E66" t="n">
-        <v>54885</v>
+        <v>51710</v>
       </c>
       <c r="F66" t="n">
-        <v>44679</v>
+        <v>42184</v>
       </c>
       <c r="G66" t="n">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H66" t="n">
         <v>13926</v>
       </c>
       <c r="I66" t="n">
-        <v>23.15547775838727</v>
+        <v>22.98764963035378</v>
       </c>
       <c r="J66" t="n">
-        <v>0.2443182490108967</v>
+        <v>0.2460964991804533</v>
       </c>
       <c r="K66" t="n">
-        <v>2.1014</v>
+        <v>2.0777</v>
       </c>
       <c r="L66" t="n">
-        <v>211.0503597122302</v>
+        <v>217.3515625</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
-        <v>28.45</v>
+        <v>28.44</v>
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -5669,10 +5659,10 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>1.04375</v>
+        <v>1.036428571428571</v>
       </c>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
@@ -5685,7 +5675,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MD-90</t>
+          <t>DC9-50</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -5694,68 +5684,54 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1995</v>
+        <v>1976</v>
       </c>
       <c r="E67" t="n">
-        <v>70760</v>
+        <v>54885</v>
       </c>
       <c r="F67" t="n">
-        <v>58967</v>
+        <v>44679</v>
       </c>
       <c r="G67" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="H67" t="n">
-        <v>22104</v>
+        <v>13926</v>
       </c>
       <c r="I67" t="n">
-        <v>16.99770822716683</v>
+        <v>23.15547775838727</v>
       </c>
       <c r="J67" t="n">
-        <v>0.3327206303053079</v>
+        <v>0.2443182490108967</v>
       </c>
       <c r="K67" t="n">
-        <v>1.340189934684793</v>
+        <v>2.1014</v>
       </c>
       <c r="L67" t="n">
-        <v>242.5489021956088</v>
-      </c>
-      <c r="M67" t="n">
-        <v>12.54450404243209</v>
-      </c>
+        <v>211.0503597122302</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0.7458748318947507</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0.4460862698857084</v>
-      </c>
+        <v>28.45</v>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
-      <c r="W67" t="n">
-        <v>1.431159306658041</v>
-      </c>
-      <c r="X67" t="n">
-        <v>148</v>
-      </c>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
       <c r="Y67" t="n">
-        <v>9.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z67" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>63894.06446530207</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>1.268332798714911</v>
-      </c>
+        <v>1.04375</v>
+      </c>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5765,7 +5741,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MD80/DC9-80</t>
+          <t>MD-90</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -5774,136 +5750,156 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1980</v>
+        <v>1995</v>
       </c>
       <c r="E68" t="n">
-        <v>66170.71428571429</v>
+        <v>70760</v>
       </c>
       <c r="F68" t="n">
-        <v>54258.33333333334</v>
+        <v>58967</v>
       </c>
       <c r="G68" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H68" t="n">
-        <v>22128.57142857143</v>
+        <v>22104</v>
       </c>
       <c r="I68" t="n">
-        <v>20.744</v>
+        <v>16.99770822716683</v>
       </c>
       <c r="J68" t="n">
-        <v>0.2726224769657761</v>
+        <v>0.3327206303053079</v>
       </c>
       <c r="K68" t="n">
-        <v>1.656668854428058</v>
+        <v>1.340189934684793</v>
       </c>
       <c r="L68" t="n">
-        <v>201.4290697674419</v>
+        <v>242.5489021956088</v>
       </c>
       <c r="M68" t="n">
-        <v>13.9129</v>
-      </c>
-      <c r="N68" t="n">
-        <v>9.609283170080145</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.04140655974928667</v>
-      </c>
+        <v>12.54450404243209</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>32.85</v>
-      </c>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
-        <v>0.4818759914491247</v>
-      </c>
-      <c r="T68" t="n">
-        <v>0.04330909613574976</v>
-      </c>
-      <c r="U68" t="n">
-        <v>0.009614788308106073</v>
-      </c>
-      <c r="V68" t="n">
-        <v>0.03369430782764369</v>
-      </c>
+        <v>32.87</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.7458748318947507</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.4460862698857084</v>
+      </c>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
       <c r="W68" t="n">
-        <v>1.727304523520158</v>
+        <v>1.431159306658041</v>
       </c>
       <c r="X68" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Y68" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.725714285714286</v>
+        <v>4.74</v>
       </c>
       <c r="AA68" t="n">
-        <v>58224.1917224561</v>
+        <v>63894.06446530207</v>
       </c>
       <c r="AB68" t="n">
-        <v>1.41598801056013</v>
+        <v>1.268332798714911</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">McDonnell Douglas </t>
+          <t>McDonnell Douglas</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DC10-10</t>
+          <t>MD80/DC9-80</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1970</v>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+        <v>1980</v>
+      </c>
+      <c r="E69" t="n">
+        <v>66170.71428571429</v>
+      </c>
+      <c r="F69" t="n">
+        <v>54258.33333333334</v>
+      </c>
       <c r="G69" t="n">
-        <v>380</v>
-      </c>
-      <c r="H69" t="inlineStr"/>
+        <v>172</v>
+      </c>
+      <c r="H69" t="n">
+        <v>22128.57142857143</v>
+      </c>
       <c r="I69" t="n">
-        <v>17.0953</v>
+        <v>20.744</v>
       </c>
       <c r="J69" t="n">
-        <v>0.3308090915150982</v>
+        <v>0.2726224769657761</v>
       </c>
       <c r="K69" t="n">
-        <v>1.665838405572881</v>
+        <v>1.656668854428058</v>
       </c>
       <c r="L69" t="n">
-        <v>286.6842105263158</v>
+        <v>201.4290697674419</v>
       </c>
       <c r="M69" t="n">
-        <v>14.2003</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
+        <v>13.9129</v>
+      </c>
+      <c r="N69" t="n">
+        <v>9.609283170080145</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.04140655974928667</v>
+      </c>
+      <c r="P69" t="n">
+        <v>32.85</v>
+      </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
+      <c r="S69" t="n">
+        <v>0.4818759914491247</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.04330909613574976</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.009614788308106073</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.03369430782764369</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.727304523520158</v>
+      </c>
       <c r="X69" t="n">
-        <v>284</v>
-      </c>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.725714285714286</v>
+      </c>
       <c r="AA69" t="n">
-        <v>169567.8746222493</v>
-      </c>
-      <c r="AB69" t="inlineStr"/>
+        <v>58224.1917224561</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.41598801056013</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5913,47 +5909,41 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DC9-10</t>
+          <t>DC10-10</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1965</v>
-      </c>
-      <c r="E70" t="n">
-        <v>41141</v>
-      </c>
-      <c r="F70" t="n">
-        <v>33566</v>
-      </c>
+        <v>1970</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>109</v>
-      </c>
-      <c r="H70" t="n">
-        <v>13979</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>22.88492472710245</v>
+        <v>17.0953</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2472409829726473</v>
+        <v>0.3308090915150982</v>
       </c>
       <c r="K70" t="n">
-        <v>2.9899</v>
+        <v>1.665838405572881</v>
       </c>
       <c r="L70" t="n">
-        <v>204.5871559633028</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>286.6842105263158</v>
+      </c>
+      <c r="M70" t="n">
+        <v>14.2003</v>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
-      <c r="P70" t="n">
-        <v>27.25</v>
-      </c>
+      <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
@@ -5961,14 +5951,14 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>1.032222222222222</v>
-      </c>
-      <c r="AA70" t="inlineStr"/>
+      <c r="X70" t="n">
+        <v>284</v>
+      </c>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="n">
+        <v>169567.8746222493</v>
+      </c>
       <c r="AB70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -5979,121 +5969,187 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MD-11</t>
+          <t>DC9-10</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1990</v>
+        <v>1965</v>
       </c>
       <c r="E71" t="n">
-        <v>276691</v>
+        <v>41141</v>
       </c>
       <c r="F71" t="n">
-        <v>195045</v>
+        <v>33566</v>
       </c>
       <c r="G71" t="n">
-        <v>410</v>
+        <v>109</v>
       </c>
       <c r="H71" t="n">
-        <v>144782</v>
+        <v>13979</v>
       </c>
       <c r="I71" t="n">
-        <v>17.17456583460847</v>
+        <v>22.88492472710245</v>
       </c>
       <c r="J71" t="n">
-        <v>0.329294025279972</v>
+        <v>0.2472409829726473</v>
       </c>
       <c r="K71" t="n">
-        <v>1.744608638314735</v>
+        <v>2.9899</v>
       </c>
       <c r="L71" t="n">
-        <v>317.4756097560976</v>
-      </c>
-      <c r="M71" t="n">
-        <v>17.18295849059495</v>
-      </c>
+        <v>204.5871559633028</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="n">
-        <v>0.7918255422774546</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0.4158827258454688</v>
-      </c>
+      <c r="P71" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="n">
-        <v>1.674345709353589</v>
-      </c>
-      <c r="X71" t="n">
-        <v>254</v>
-      </c>
-      <c r="Y71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="n">
+        <v>8.4</v>
+      </c>
       <c r="Z71" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>160911.0912490309</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>1.037277585794662</v>
-      </c>
+        <v>1.032222222222222</v>
+      </c>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saab-Fairchild </t>
+          <t xml:space="preserve">McDonnell Douglas </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>340/B</t>
+          <t>MD-11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1984</v>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+        <v>1990</v>
+      </c>
+      <c r="E72" t="n">
+        <v>276691</v>
+      </c>
+      <c r="F72" t="n">
+        <v>195045</v>
+      </c>
       <c r="G72" t="n">
-        <v>34</v>
-      </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>410</v>
+      </c>
+      <c r="H72" t="n">
+        <v>144782</v>
+      </c>
+      <c r="I72" t="n">
+        <v>17.17456583460847</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.329294025279972</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1.744608638314735</v>
+      </c>
       <c r="L72" t="n">
-        <v>241.9117647058823</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>317.4756097560976</v>
+      </c>
+      <c r="M72" t="n">
+        <v>17.18295849059495</v>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="Q72" t="n">
+        <v>0.7918255422774546</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.4158827258454688</v>
+      </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
+      <c r="W72" t="n">
+        <v>1.674345709353589</v>
+      </c>
+      <c r="X72" t="n">
+        <v>254</v>
+      </c>
       <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
+      <c r="Z72" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>160911.0912490309</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.037277585794662</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saab-Fairchild </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>340/B</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Regional</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>34</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>241.9117647058823</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test_env/Databank.xlsx
+++ b/test_env/Databank.xlsx
@@ -4730,7 +4730,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1949</v>
+        <v>1958</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>

--- a/test_env/Databank.xlsx
+++ b/test_env/Databank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB73"/>
+  <dimension ref="A1:Z73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,32 +546,22 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>EU_estimate</t>
+          <t>Pax</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Pax</t>
+          <t>Height,float,metre</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Height,float,metre</t>
+          <t>B/P Ratio</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>B/P Ratio</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
           <t>Overcome Thrust</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>EU_estimate_Limit</t>
         </is>
       </c>
     </row>
@@ -639,15 +629,13 @@
         <v>0.01585118999772539</v>
       </c>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>17.11</v>
+      </c>
       <c r="Y2" t="n">
-        <v>17.11</v>
-      </c>
-      <c r="Z2" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -719,15 +707,13 @@
         <v>0.01295514424609528</v>
       </c>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>24.09</v>
+      </c>
       <c r="Y3" t="n">
-        <v>24.09</v>
-      </c>
-      <c r="Z3" t="n">
         <v>8.348000000000001</v>
       </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -803,22 +789,16 @@
         <v>0.02695082003825436</v>
       </c>
       <c r="W4" t="n">
-        <v>1.14307207999559</v>
+        <v>156</v>
       </c>
       <c r="X4" t="n">
-        <v>156</v>
+        <v>11.76</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.76</v>
+        <v>5.694166666666667</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.694166666666667</v>
-      </c>
-      <c r="AA4" t="n">
         <v>58401.1920317827</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.914457663996472</v>
       </c>
     </row>
     <row r="5">
@@ -884,20 +864,18 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>118</v>
+      </c>
       <c r="X5" t="n">
-        <v>118</v>
+        <v>12.79</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.79</v>
+        <v>5.566666666666666</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.566666666666666</v>
-      </c>
-      <c r="AA5" t="n">
         <v>53222.18275336444</v>
       </c>
-      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -973,22 +951,16 @@
         <v>0.02921086162158479</v>
       </c>
       <c r="W6" t="n">
-        <v>1.531120491263444</v>
+        <v>261</v>
       </c>
       <c r="X6" t="n">
-        <v>261</v>
+        <v>16.66</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.66</v>
+        <v>4.938461538461539</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.938461538461539</v>
-      </c>
-      <c r="AA6" t="n">
         <v>122660.0008671653</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.158325936868866</v>
       </c>
     </row>
     <row r="7">
@@ -1050,20 +1022,18 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>255</v>
+      </c>
       <c r="X7" t="n">
-        <v>255</v>
+        <v>16.72</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.72</v>
+        <v>4.366666666666666</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.366666666666666</v>
-      </c>
-      <c r="AA7" t="n">
         <v>163347.4258846782</v>
       </c>
-      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1124,18 +1094,16 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="n">
+        <v>179</v>
+      </c>
       <c r="X8" t="n">
-        <v>179</v>
+        <v>15.95</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="Z8" t="n">
         <v>5.033333333333333</v>
       </c>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1197,15 +1165,13 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>15.95</v>
+      </c>
       <c r="Y9" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="Z9" t="n">
         <v>5.033333333333333</v>
       </c>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1281,22 +1247,16 @@
         <v>0.02903155302235026</v>
       </c>
       <c r="W10" t="n">
-        <v>1.257413181978043</v>
+        <v>130</v>
       </c>
       <c r="X10" t="n">
-        <v>130</v>
+        <v>11.76</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.76</v>
+        <v>5.719074074074074</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.719074074074074</v>
-      </c>
-      <c r="AA10" t="n">
         <v>59286.35242371303</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.02164821035716</v>
       </c>
     </row>
     <row r="11">
@@ -1362,20 +1322,18 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="W11" t="n">
+        <v>184</v>
+      </c>
       <c r="X11" t="n">
-        <v>184</v>
+        <v>11.76</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.76</v>
+        <v>11.62518188580831</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.62518188580831</v>
-      </c>
-      <c r="AA11" t="n">
         <v>66644.42727505849</v>
       </c>
-      <c r="AB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1451,22 +1409,16 @@
         <v>0.01953613012857874</v>
       </c>
       <c r="W12" t="n">
-        <v>0.847484724302772</v>
+        <v>193</v>
       </c>
       <c r="X12" t="n">
-        <v>193</v>
+        <v>11.76</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.76</v>
+        <v>10.96088452380952</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.96088452380952</v>
-      </c>
-      <c r="AA12" t="n">
         <v>62723.71050748076</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0.6815189657934791</v>
       </c>
     </row>
     <row r="13">
@@ -1543,22 +1495,16 @@
         <v>0.02463412059593207</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9966162976897276</v>
+        <v>198</v>
       </c>
       <c r="X13" t="n">
-        <v>198</v>
+        <v>11.76</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.76</v>
+        <v>5.427586206896552</v>
       </c>
       <c r="Z13" t="n">
-        <v>5.427586206896552</v>
-      </c>
-      <c r="AA13" t="n">
         <v>63904.1570481465</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0.8969546679207548</v>
       </c>
     </row>
     <row r="14">
@@ -1635,22 +1581,16 @@
         <v>0.01696073283616569</v>
       </c>
       <c r="W14" t="n">
-        <v>1.223822284874495</v>
+        <v>265</v>
       </c>
       <c r="X14" t="n">
-        <v>265</v>
+        <v>17.38</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.38</v>
+        <v>5.039999999999999</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.039999999999999</v>
-      </c>
-      <c r="AA14" t="n">
         <v>136739.3352384174</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.7988002598318749</v>
       </c>
     </row>
     <row r="15">
@@ -1727,22 +1667,16 @@
         <v>0.01778316284633774</v>
       </c>
       <c r="W15" t="n">
-        <v>1.202775856096727</v>
+        <v>292</v>
       </c>
       <c r="X15" t="n">
-        <v>292</v>
+        <v>16.83</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.83</v>
+        <v>5.050909090909091</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.050909090909091</v>
-      </c>
-      <c r="AA15" t="n">
         <v>127636.338025989</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.7982057954096462</v>
       </c>
     </row>
     <row r="16">
@@ -1789,17 +1723,11 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>0.9752558287908442</v>
-      </c>
-      <c r="X16" t="n">
         <v>280</v>
       </c>
+      <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="n">
-        <v>0.593633982742253</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1875,22 +1803,16 @@
         <v>0.01390384055552749</v>
       </c>
       <c r="W17" t="n">
-        <v>1.053476790935672</v>
+        <v>304</v>
       </c>
       <c r="X17" t="n">
-        <v>304</v>
+        <v>17.05</v>
       </c>
       <c r="Y17" t="n">
-        <v>17.05</v>
+        <v>9.151666666666667</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.151666666666667</v>
-      </c>
-      <c r="AA17" t="n">
         <v>145592.1614376467</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.7278566919191916</v>
       </c>
     </row>
     <row r="18">
@@ -1955,22 +1877,16 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>1.517621832235924</v>
+        <v>112</v>
       </c>
       <c r="X18" t="n">
-        <v>112</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.039999999999999</v>
+        <v>4.605</v>
       </c>
       <c r="Z18" t="n">
-        <v>4.605</v>
-      </c>
-      <c r="AA18" t="n">
         <v>56746.0021118581</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.268460038883757</v>
       </c>
     </row>
     <row r="19">
@@ -2026,20 +1942,18 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="W19" t="n">
+        <v>113</v>
+      </c>
       <c r="X19" t="n">
-        <v>113</v>
+        <v>10.44</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.44</v>
+        <v>1.153636363636364</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.153636363636364</v>
-      </c>
-      <c r="AA19" t="n">
         <v>64129.64176091191</v>
       </c>
-      <c r="AB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2115,22 +2029,16 @@
         <v>0.02196026262569532</v>
       </c>
       <c r="W20" t="n">
-        <v>1.206455180923881</v>
+        <v>128</v>
       </c>
       <c r="X20" t="n">
-        <v>128</v>
+        <v>12.57</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.57</v>
+        <v>5.227987421383648</v>
       </c>
       <c r="Z20" t="n">
-        <v>5.227987421383648</v>
-      </c>
-      <c r="AA20" t="n">
         <v>52735.91179498754</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1.036417873545348</v>
       </c>
     </row>
     <row r="21">
@@ -2201,15 +2109,13 @@
         <v>0.02827116541266036</v>
       </c>
       <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>12.83</v>
+      </c>
       <c r="Y21" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="Z21" t="n">
         <v>1.4</v>
       </c>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2281,15 +2187,13 @@
         <v>0.02214407354403367</v>
       </c>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>12.55</v>
+      </c>
       <c r="Y22" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="Z22" t="n">
         <v>1.4</v>
       </c>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2354,20 +2258,18 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="n">
+        <v>131</v>
+      </c>
       <c r="X23" t="n">
-        <v>131</v>
+        <v>11.13</v>
       </c>
       <c r="Y23" t="n">
-        <v>11.13</v>
+        <v>5.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AA23" t="n">
         <v>53907.19238070866</v>
       </c>
-      <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2443,22 +2345,16 @@
         <v>0.02935783987608479</v>
       </c>
       <c r="W24" t="n">
-        <v>1.475470707385693</v>
+        <v>113</v>
       </c>
       <c r="X24" t="n">
-        <v>113</v>
+        <v>12.41</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.41</v>
+        <v>5.351851851851851</v>
       </c>
       <c r="Z24" t="n">
-        <v>5.351851851851851</v>
-      </c>
-      <c r="AA24" t="n">
         <v>54112.65556012069</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.149849585755747</v>
       </c>
     </row>
     <row r="25">
@@ -2521,22 +2417,16 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>1.48783112190594</v>
+        <v>186</v>
       </c>
       <c r="X25" t="n">
-        <v>186</v>
+        <v>15.85</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.85</v>
+        <v>5.024999999999999</v>
       </c>
       <c r="Z25" t="n">
-        <v>5.024999999999999</v>
-      </c>
-      <c r="AA25" t="n">
         <v>102716.4593636025</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0.9542640988776029</v>
       </c>
     </row>
     <row r="26">
@@ -2601,20 +2491,14 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>1.175359044474089</v>
-      </c>
-      <c r="X26" t="n">
         <v>226</v>
       </c>
-      <c r="Y26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="n">
+        <v>9.109334158730158</v>
+      </c>
       <c r="Z26" t="n">
-        <v>9.109334158730158</v>
-      </c>
-      <c r="AA26" t="n">
         <v>116758.9964281686</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0.6971946038087771</v>
       </c>
     </row>
     <row r="27">
@@ -2679,20 +2563,14 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>1.14505117943573</v>
-      </c>
-      <c r="X27" t="n">
         <v>266</v>
       </c>
-      <c r="Y27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="n">
+        <v>8.926964901960785</v>
+      </c>
       <c r="Z27" t="n">
-        <v>8.926964901960785</v>
-      </c>
-      <c r="AA27" t="n">
         <v>123416.9352806504</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0.7251990803092957</v>
       </c>
     </row>
     <row r="28">
@@ -2754,20 +2632,18 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="n">
+        <v>108</v>
+      </c>
       <c r="X28" t="n">
-        <v>108</v>
+        <v>11.28</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.28</v>
+        <v>1.045</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.045</v>
-      </c>
-      <c r="AA28" t="n">
         <v>59227.28086090866</v>
       </c>
-      <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2843,22 +2719,16 @@
         <v>0.02324392599335197</v>
       </c>
       <c r="W29" t="n">
-        <v>1.025375544030074</v>
+        <v>163</v>
       </c>
       <c r="X29" t="n">
-        <v>163</v>
+        <v>12.57</v>
       </c>
       <c r="Y29" t="n">
-        <v>12.57</v>
+        <v>5.132291666666666</v>
       </c>
       <c r="Z29" t="n">
-        <v>5.132291666666666</v>
-      </c>
-      <c r="AA29" t="n">
         <v>54584.23347610084</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0.8843185908830796</v>
       </c>
     </row>
     <row r="30">
@@ -2935,22 +2805,16 @@
         <v>0.02326096513409742</v>
       </c>
       <c r="W30" t="n">
-        <v>1.033776048227667</v>
+        <v>175</v>
       </c>
       <c r="X30" t="n">
-        <v>175</v>
+        <v>12.57</v>
       </c>
       <c r="Y30" t="n">
-        <v>12.57</v>
+        <v>5.144374999999999</v>
       </c>
       <c r="Z30" t="n">
-        <v>5.144374999999999</v>
-      </c>
-      <c r="AA30" t="n">
         <v>64729.8892720201</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0.9572000446552472</v>
       </c>
     </row>
     <row r="31">
@@ -3027,22 +2891,16 @@
         <v>0.03112426042970285</v>
       </c>
       <c r="W31" t="n">
-        <v>1.127427684674653</v>
+        <v>179</v>
       </c>
       <c r="X31" t="n">
-        <v>179</v>
+        <v>12.57</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.57</v>
+        <v>5.1359375</v>
       </c>
       <c r="Z31" t="n">
-        <v>5.1359375</v>
-      </c>
-      <c r="AA31" t="n">
         <v>55164.22753360885</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0.9173161616216495</v>
       </c>
     </row>
     <row r="32">
@@ -3119,22 +2977,16 @@
         <v>0.01880167355940041</v>
       </c>
       <c r="W32" t="n">
-        <v>1.607596036522946</v>
+        <v>405</v>
       </c>
       <c r="X32" t="n">
-        <v>405</v>
+        <v>19.3</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.3</v>
+        <v>5.01875</v>
       </c>
       <c r="Z32" t="n">
-        <v>5.01875</v>
-      </c>
-      <c r="AA32" t="n">
         <v>235054.4768945164</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1.479719079072257</v>
       </c>
     </row>
     <row r="33">
@@ -3198,20 +3050,18 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="n">
+        <v>248</v>
+      </c>
       <c r="X33" t="n">
-        <v>248</v>
+        <v>20.2</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.2</v>
+        <v>4.6275</v>
       </c>
       <c r="Z33" t="n">
-        <v>4.6275</v>
-      </c>
-      <c r="AA33" t="n">
         <v>199548.9932938909</v>
       </c>
-      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3273,22 +3123,16 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="n">
-        <v>1.174656786481714</v>
+        <v>227</v>
       </c>
       <c r="X34" t="n">
-        <v>227</v>
+        <v>13.6</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.6</v>
+        <v>4.743</v>
       </c>
       <c r="Z34" t="n">
-        <v>4.743</v>
-      </c>
-      <c r="AA34" t="n">
         <v>85293.06457440818</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0.9038884424791493</v>
       </c>
     </row>
     <row r="35">
@@ -3363,22 +3207,16 @@
         <v>0.03093550516493822</v>
       </c>
       <c r="W35" t="n">
-        <v>1.305531264304784</v>
+        <v>249</v>
       </c>
       <c r="X35" t="n">
-        <v>249</v>
+        <v>16.8</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.8</v>
+        <v>5.1</v>
       </c>
       <c r="Z35" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AA35" t="n">
         <v>115566.7293916298</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0.8668727594983766</v>
       </c>
     </row>
     <row r="36">
@@ -3453,22 +3291,16 @@
         <v>0.01332857535578807</v>
       </c>
       <c r="W36" t="n">
-        <v>1.362634274000017</v>
+        <v>329</v>
       </c>
       <c r="X36" t="n">
-        <v>329</v>
+        <v>18.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>18.5</v>
+        <v>6.571666666666667</v>
       </c>
       <c r="Z36" t="n">
-        <v>6.571666666666667</v>
-      </c>
-      <c r="AA36" t="n">
         <v>169077.3922160371</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0.815103047538192</v>
       </c>
     </row>
     <row r="37">
@@ -3533,20 +3365,14 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="n">
-        <v>0.9950608429392854</v>
-      </c>
-      <c r="X37" t="n">
         <v>318</v>
       </c>
-      <c r="Y37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="n">
+        <v>8.697134444444444</v>
+      </c>
       <c r="Z37" t="n">
-        <v>8.697134444444444</v>
-      </c>
-      <c r="AA37" t="n">
         <v>124313.2037511073</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0.7191576092152108</v>
       </c>
     </row>
     <row r="38">
@@ -3619,15 +3445,13 @@
         <v>0.0156671522231543</v>
       </c>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
+      <c r="X38" t="n">
+        <v>11.79</v>
+      </c>
       <c r="Y38" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="Z38" t="n">
         <v>1.4</v>
       </c>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3682,20 +3506,18 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="n">
+        <v>150</v>
+      </c>
       <c r="X39" t="n">
-        <v>150</v>
+        <v>10.65</v>
       </c>
       <c r="Y39" t="n">
-        <v>10.65</v>
+        <v>1.026923076923077</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.026923076923077</v>
-      </c>
-      <c r="AA39" t="n">
         <v>73527.22856566517</v>
       </c>
-      <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3771,22 +3593,16 @@
         <v>0.01734715984225846</v>
       </c>
       <c r="W40" t="n">
-        <v>0.8353390780716035</v>
+        <v>171</v>
       </c>
       <c r="X40" t="n">
-        <v>171</v>
+        <v>12.29</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.29</v>
+        <v>8.435416666666667</v>
       </c>
       <c r="Z40" t="n">
-        <v>8.435416666666667</v>
-      </c>
-      <c r="AA40" t="n">
         <v>55505.42800502713</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0.6802046778583057</v>
       </c>
     </row>
     <row r="41">
@@ -3861,22 +3677,16 @@
         <v>0.01784314606759582</v>
       </c>
       <c r="W41" t="n">
-        <v>0.8795860416327073</v>
+        <v>178</v>
       </c>
       <c r="X41" t="n">
-        <v>178</v>
+        <v>12.29</v>
       </c>
       <c r="Y41" t="n">
-        <v>12.29</v>
+        <v>8.447222222222223</v>
       </c>
       <c r="Z41" t="n">
-        <v>8.447222222222223</v>
-      </c>
-      <c r="AA41" t="n">
         <v>49433.32369637736</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0.7116650700482813</v>
       </c>
     </row>
     <row r="42">
@@ -3949,22 +3759,16 @@
         <v>0.0237282131256938</v>
       </c>
       <c r="W42" t="n">
-        <v>1.848998853040951</v>
+        <v>109</v>
       </c>
       <c r="X42" t="n">
-        <v>109</v>
+        <v>11.28</v>
       </c>
       <c r="Y42" t="n">
-        <v>11.28</v>
+        <v>1.045</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.045</v>
-      </c>
-      <c r="AA42" t="n">
         <v>52000.1441749647</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>1.550314422934336</v>
       </c>
     </row>
     <row r="43">
@@ -4041,22 +3845,16 @@
         <v>0.03370308000006633</v>
       </c>
       <c r="W43" t="n">
-        <v>1.300332435026857</v>
+        <v>143</v>
       </c>
       <c r="X43" t="n">
-        <v>143</v>
+        <v>11.13</v>
       </c>
       <c r="Y43" t="n">
-        <v>11.13</v>
+        <v>5.1</v>
       </c>
       <c r="Z43" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AA43" t="n">
         <v>55491.06311528273</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0.9890826500470241</v>
       </c>
     </row>
     <row r="44">
@@ -4133,22 +3931,16 @@
         <v>0.02812387631907114</v>
       </c>
       <c r="W44" t="n">
-        <v>1.96228034370375</v>
+        <v>391</v>
       </c>
       <c r="X44" t="n">
-        <v>391</v>
+        <v>18.14285714285714</v>
       </c>
       <c r="Y44" t="n">
-        <v>18.14285714285714</v>
+        <v>4.620535714285714</v>
       </c>
       <c r="Z44" t="n">
-        <v>4.620535714285714</v>
-      </c>
-      <c r="AA44" t="n">
         <v>248451.1329570788</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>1.395002935251211</v>
       </c>
     </row>
     <row r="45">
@@ -4223,22 +4015,16 @@
         <v>0.01684179534228456</v>
       </c>
       <c r="W45" t="n">
-        <v>1.567817459973697</v>
+        <v>386</v>
       </c>
       <c r="X45" t="n">
-        <v>386</v>
+        <v>19.4</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.4</v>
+        <v>4.54</v>
       </c>
       <c r="Z45" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="AA45" t="n">
         <v>260013.3369929212</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>1.10032279918154</v>
       </c>
     </row>
     <row r="46">
@@ -4301,22 +4087,16 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="n">
-        <v>1.30972191201682</v>
+        <v>186</v>
       </c>
       <c r="X46" t="n">
-        <v>186</v>
+        <v>13.74</v>
       </c>
       <c r="Y46" t="n">
-        <v>13.74</v>
+        <v>4.7025</v>
       </c>
       <c r="Z46" t="n">
-        <v>4.7025</v>
-      </c>
-      <c r="AA46" t="n">
         <v>73284.27730044253</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>1.01928148801309</v>
       </c>
     </row>
     <row r="47">
@@ -4379,22 +4159,16 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>1.322512080118051</v>
+        <v>228</v>
       </c>
       <c r="X47" t="n">
-        <v>228</v>
+        <v>15.85</v>
       </c>
       <c r="Y47" t="n">
-        <v>15.85</v>
+        <v>4.846153846153846</v>
       </c>
       <c r="Z47" t="n">
-        <v>4.846153846153846</v>
-      </c>
-      <c r="AA47" t="n">
         <v>105769.5470134647</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0.8590676759741186</v>
       </c>
     </row>
     <row r="48">
@@ -4469,22 +4243,16 @@
         <v>0.01364819352291468</v>
       </c>
       <c r="W48" t="n">
-        <v>1.540685556401292</v>
+        <v>273</v>
       </c>
       <c r="X48" t="n">
-        <v>273</v>
+        <v>18.41666666666667</v>
       </c>
       <c r="Y48" t="n">
-        <v>18.41666666666667</v>
+        <v>7.264416666666667</v>
       </c>
       <c r="Z48" t="n">
-        <v>7.264416666666667</v>
-      </c>
-      <c r="AA48" t="n">
         <v>166950.6603020956</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0.9559253565853472</v>
       </c>
     </row>
     <row r="49">
@@ -4544,18 +4312,16 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="n">
+      <c r="W49" t="n">
         <v>50</v>
       </c>
-      <c r="Y49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="n">
+        <v>6.25</v>
+      </c>
       <c r="Z49" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AA49" t="n">
         <v>60183.58157575225</v>
       </c>
-      <c r="AB49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4620,20 +4386,18 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="W50" t="n">
+        <v>76</v>
+      </c>
       <c r="X50" t="n">
-        <v>76</v>
+        <v>7.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>7.5</v>
+        <v>5.13</v>
       </c>
       <c r="Z50" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="AA50" t="n">
         <v>53867.34395398862</v>
       </c>
-      <c r="AB50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4698,20 +4462,18 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="W51" t="n">
+        <v>67</v>
+      </c>
       <c r="X51" t="n">
-        <v>67</v>
+        <v>7.599999999999999</v>
       </c>
       <c r="Y51" t="n">
-        <v>7.599999999999999</v>
+        <v>5.13</v>
       </c>
       <c r="Z51" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="AA51" t="n">
         <v>35311.07862111123</v>
       </c>
-      <c r="AB51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4766,8 +4528,6 @@
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4832,20 +4592,18 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
+      <c r="W53" t="n">
+        <v>99</v>
+      </c>
       <c r="X53" t="n">
-        <v>99</v>
+        <v>10.605</v>
       </c>
       <c r="Y53" t="n">
-        <v>10.605</v>
+        <v>7.026875</v>
       </c>
       <c r="Z53" t="n">
-        <v>7.026875</v>
-      </c>
-      <c r="AA53" t="n">
         <v>61088.37579710694</v>
       </c>
-      <c r="AB53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4908,20 +4666,18 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
+      <c r="W54" t="n">
+        <v>37</v>
+      </c>
       <c r="X54" t="n">
-        <v>37</v>
+        <v>6.76</v>
       </c>
       <c r="Y54" t="n">
-        <v>6.76</v>
+        <v>4.762</v>
       </c>
       <c r="Z54" t="n">
-        <v>4.762</v>
-      </c>
-      <c r="AA54" t="n">
         <v>58122.6644342903</v>
       </c>
-      <c r="AB54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4968,8 +4724,6 @@
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5016,8 +4770,6 @@
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5082,20 +4834,18 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="W57" t="n">
+        <v>75</v>
+      </c>
       <c r="X57" t="n">
-        <v>75</v>
+        <v>9.82</v>
       </c>
       <c r="Y57" t="n">
-        <v>9.82</v>
+        <v>5.13</v>
       </c>
       <c r="Z57" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="AA57" t="n">
         <v>37024.53501579123</v>
       </c>
-      <c r="AB57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5160,20 +4910,18 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="W58" t="n">
+        <v>50</v>
+      </c>
       <c r="X58" t="n">
-        <v>50</v>
+        <v>6.75</v>
       </c>
       <c r="Y58" t="n">
-        <v>6.75</v>
+        <v>4.837777777777777</v>
       </c>
       <c r="Z58" t="n">
-        <v>4.837777777777777</v>
-      </c>
-      <c r="AA58" t="n">
         <v>49043.17138807395</v>
       </c>
-      <c r="AB58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5220,8 +4968,6 @@
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5264,8 +5010,6 @@
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5326,18 +5070,16 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="n">
+      <c r="W61" t="n">
         <v>313</v>
       </c>
-      <c r="Y61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="n">
+        <v>4.54</v>
+      </c>
       <c r="Z61" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="AA61" t="n">
         <v>163349.5957069433</v>
       </c>
-      <c r="AB61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5386,8 +5128,6 @@
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5438,16 +5178,14 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="n">
+      <c r="W63" t="n">
         <v>271</v>
       </c>
+      <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="n">
+      <c r="Z63" t="n">
         <v>176259.1642868837</v>
       </c>
-      <c r="AB63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5509,20 +5247,14 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="n">
-        <v>1.528879015518656</v>
-      </c>
-      <c r="X64" t="n">
         <v>292</v>
       </c>
-      <c r="Y64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="n">
+        <v>4.961538461538462</v>
+      </c>
       <c r="Z64" t="n">
-        <v>4.961538461538462</v>
-      </c>
-      <c r="AA64" t="n">
         <v>176295.7276686124</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>1.174822822451178</v>
       </c>
     </row>
     <row r="65">
@@ -5583,22 +5315,16 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="n">
-        <v>2.234576907236709</v>
+        <v>101</v>
       </c>
       <c r="X65" t="n">
-        <v>101</v>
+        <v>8.4</v>
       </c>
       <c r="Y65" t="n">
-        <v>8.4</v>
+        <v>1.038181818181818</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.038181818181818</v>
-      </c>
-      <c r="AA65" t="n">
         <v>50239.33056833609</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>1.777104469534706</v>
       </c>
     </row>
     <row r="66">
@@ -5657,15 +5383,13 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
+      <c r="X66" t="n">
+        <v>8.5</v>
+      </c>
       <c r="Y66" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z66" t="n">
         <v>1.036428571428571</v>
       </c>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5723,15 +5447,13 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
+      <c r="X67" t="n">
+        <v>8.6</v>
+      </c>
       <c r="Y67" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z67" t="n">
         <v>1.04375</v>
       </c>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5795,22 +5517,16 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="n">
-        <v>1.431159306658041</v>
+        <v>148</v>
       </c>
       <c r="X68" t="n">
-        <v>148</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y68" t="n">
-        <v>9.300000000000001</v>
+        <v>4.74</v>
       </c>
       <c r="Z68" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="AA68" t="n">
         <v>63894.06446530207</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>1.268332798714911</v>
       </c>
     </row>
     <row r="69">
@@ -5883,22 +5599,16 @@
         <v>0.03369430782764369</v>
       </c>
       <c r="W69" t="n">
-        <v>1.727304523520158</v>
+        <v>141</v>
       </c>
       <c r="X69" t="n">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="Y69" t="n">
-        <v>9</v>
+        <v>1.725714285714286</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.725714285714286</v>
-      </c>
-      <c r="AA69" t="n">
         <v>58224.1917224561</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>1.41598801056013</v>
       </c>
     </row>
     <row r="70">
@@ -5950,16 +5660,14 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="n">
+      <c r="W70" t="n">
         <v>284</v>
       </c>
+      <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="n">
+      <c r="Z70" t="n">
         <v>169567.8746222493</v>
       </c>
-      <c r="AB70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6017,15 +5725,13 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
+      <c r="X71" t="n">
+        <v>8.4</v>
+      </c>
       <c r="Y71" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z71" t="n">
         <v>1.032222222222222</v>
       </c>
-      <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6087,20 +5793,14 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="n">
-        <v>1.674345709353589</v>
-      </c>
-      <c r="X72" t="n">
         <v>254</v>
       </c>
-      <c r="Y72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="n">
+        <v>4.8</v>
+      </c>
       <c r="Z72" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AA72" t="n">
         <v>160911.0912490309</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>1.037277585794662</v>
       </c>
     </row>
     <row r="73">
@@ -6148,8 +5848,6 @@
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
